--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09395856\OneDrive - Pepsico\War Room\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="84" documentId="11_F25DC773A252ABDACC104869B9DF585A5BDE5907" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0FBE47FC-CFE6-408B-BCA7-F37D20B87E59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>Línea</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>13-jun</t>
+  </si>
+  <si>
+    <t>14-jun</t>
   </si>
 </sst>
 </file>
@@ -461,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
     <col min="10" max="10" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -506,8 +509,11 @@
       <c r="I1" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -535,8 +541,11 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -564,8 +573,11 @@
       <c r="I3" s="2">
         <v>14.361814325380564</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="1">
+        <v>13.132209895812792</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -593,8 +605,11 @@
       <c r="I4" s="2">
         <v>18.150127356443175</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="1">
+        <v>17.626869978956577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -622,8 +637,11 @@
       <c r="I5" s="2">
         <v>20.646948556773733</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="1">
+        <v>19.421960383193653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -651,8 +669,11 @@
       <c r="I6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -680,8 +701,11 @@
       <c r="I7" s="2">
         <v>9.2639399572432151</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="1">
+        <v>7.1148367049590693</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -709,8 +733,11 @@
       <c r="I8" s="2">
         <v>6.756209620267426</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="1">
+        <v>5.4360915226953104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -738,8 +765,11 @@
       <c r="I9" s="2">
         <v>11.587510382623499</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="1">
+        <v>10.979997668130585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -767,8 +797,11 @@
       <c r="I10" s="2">
         <v>10.610895087739758</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>14.115669720462879</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -796,8 +829,11 @@
       <c r="I11" s="2">
         <v>16.646253200059935</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>15.279211001908271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -825,8 +861,11 @@
       <c r="I12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -854,8 +893,11 @@
       <c r="I13" s="2">
         <v>13.841285039503013</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>14.594242540544988</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -883,8 +925,11 @@
       <c r="I14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -912,8 +957,11 @@
       <c r="I15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -941,8 +989,11 @@
       <c r="I16" s="2">
         <v>13.460599207385476</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>12.510503873694049</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -970,8 +1021,11 @@
       <c r="I17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -997,6 +1051,9 @@
         <v>0</v>
       </c>
       <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09395856\OneDrive - Pepsico\War Room\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{145E2650-2965-4029-B13A-801320E73989}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Línea</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>14-jun</t>
+  </si>
+  <si>
+    <t>15-jun</t>
   </si>
 </sst>
 </file>
@@ -464,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J18"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,10 +481,10 @@
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,8 +515,11 @@
       <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -544,8 +550,11 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -576,8 +585,11 @@
       <c r="J3" s="1">
         <v>13.132209895812792</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>13.695562417517014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -608,8 +620,11 @@
       <c r="J4" s="1">
         <v>17.626869978956577</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>18.840491590611677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -640,8 +655,11 @@
       <c r="J5" s="1">
         <v>19.421960383193653</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>18.759559370813314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -672,8 +690,11 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -704,8 +725,11 @@
       <c r="J7" s="1">
         <v>7.1148367049590693</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>6.188497351569211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -736,8 +760,11 @@
       <c r="J8" s="1">
         <v>5.4360915226953104</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>4.5189692517910807</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -768,8 +795,11 @@
       <c r="J9" s="1">
         <v>10.979997668130585</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>10.262801375855235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -800,8 +830,11 @@
       <c r="J10" s="1">
         <v>14.115669720462879</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>17.172310630797565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -832,8 +865,11 @@
       <c r="J11" s="1">
         <v>15.279211001908271</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>14.761439822931656</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -864,8 +900,11 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -896,8 +935,11 @@
       <c r="J13" s="1">
         <v>14.594242540544988</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>16.337426708654956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -928,8 +970,11 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -960,8 +1005,11 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -992,8 +1040,11 @@
       <c r="J16" s="1">
         <v>12.510503873694049</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>16.481133505248394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1024,8 +1075,11 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1054,6 +1108,9 @@
         <v>0</v>
       </c>
       <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{145E2650-2965-4029-B13A-801320E73989}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D81B0E0C-B66E-4CDC-82A9-46B3264CEC3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>Línea</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>15-jun</t>
+  </si>
+  <si>
+    <t>16-jun</t>
   </si>
 </sst>
 </file>
@@ -467,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -484,7 +487,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -518,8 +521,11 @@
       <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -553,8 +559,11 @@
       <c r="K2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -588,8 +597,11 @@
       <c r="K3">
         <v>13.695562417517014</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>14.945487314099447</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -623,8 +635,11 @@
       <c r="K4">
         <v>18.840491590611677</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>19.085022473555476</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -658,8 +673,11 @@
       <c r="K5">
         <v>18.759559370813314</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>17.572681940411279</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -693,8 +711,11 @@
       <c r="K6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -728,8 +749,11 @@
       <c r="K7">
         <v>6.188497351569211</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>5.3498893018430147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -763,8 +787,11 @@
       <c r="K8">
         <v>4.5189692517910807</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>2.8379637672919702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -798,8 +825,11 @@
       <c r="K9">
         <v>10.262801375855235</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>10.753019815331831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -833,8 +863,11 @@
       <c r="K10">
         <v>17.172310630797565</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>15.154081275730999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -868,8 +901,11 @@
       <c r="K11">
         <v>14.761439822931656</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>13.284348698237924</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -903,8 +939,11 @@
       <c r="K12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -938,8 +977,11 @@
       <c r="K13">
         <v>16.337426708654956</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>15.116935131384595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -973,8 +1015,11 @@
       <c r="K14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1008,8 +1053,11 @@
       <c r="K15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1043,8 +1091,11 @@
       <c r="K16">
         <v>16.481133505248394</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>18.139681428802216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1078,8 +1129,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1111,6 +1165,9 @@
         <v>0</v>
       </c>
       <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D81B0E0C-B66E-4CDC-82A9-46B3264CEC3C}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A61EAB23-CF2B-451A-9008-1DEF8DDCB555}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Línea</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>16-jun</t>
+  </si>
+  <si>
+    <t>21-jun</t>
   </si>
 </sst>
 </file>
@@ -470,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -487,7 +490,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -524,8 +527,11 @@
       <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -562,8 +568,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -600,8 +609,11 @@
       <c r="L3">
         <v>14.945487314099447</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3">
+        <v>13.17106684475379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -638,8 +650,11 @@
       <c r="L4">
         <v>19.085022473555476</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>16.880024755672888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -676,8 +691,11 @@
       <c r="L5">
         <v>17.572681940411279</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>16.111859843455196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -714,8 +732,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -752,8 +773,11 @@
       <c r="L7">
         <v>5.3498893018430147</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>9.3061338130800877</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -790,8 +814,11 @@
       <c r="L8">
         <v>2.8379637672919702</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>7.3290334555807117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -828,8 +855,11 @@
       <c r="L9">
         <v>10.753019815331831</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>16.140204137518531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -866,8 +896,11 @@
       <c r="L10">
         <v>15.154081275730999</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>12.748526836025437</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -904,8 +937,11 @@
       <c r="L11">
         <v>13.284348698237924</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>12.781254427131508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -942,8 +978,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -980,8 +1019,11 @@
       <c r="L13">
         <v>15.116935131384595</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>12.717347754040736</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1018,8 +1060,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1056,8 +1101,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1094,8 +1142,11 @@
       <c r="L16">
         <v>18.139681428802216</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <v>16.034844474149928</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1132,8 +1183,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1168,6 +1222,9 @@
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A61EAB23-CF2B-451A-9008-1DEF8DDCB555}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{115DA3EE-68CE-459A-A7C1-329C285F61A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>Línea</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>21-jun</t>
+  </si>
+  <si>
+    <t>22-jun</t>
   </si>
 </sst>
 </file>
@@ -473,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +493,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -530,8 +533,11 @@
       <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -571,8 +577,11 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -612,8 +621,11 @@
       <c r="M3">
         <v>13.17106684475379</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N3">
+        <v>12.696568499229443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -653,8 +665,11 @@
       <c r="M4">
         <v>16.880024755672888</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N4">
+        <v>16.021400258648665</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -694,8 +709,11 @@
       <c r="M5">
         <v>16.111859843455196</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N5">
+        <v>15.505918927536154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -735,8 +753,11 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -776,8 +797,11 @@
       <c r="M7">
         <v>9.3061338130800877</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>8.6621980147994719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -817,8 +841,11 @@
       <c r="M8">
         <v>7.3290334555807117</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N8">
+        <v>7.6880963776035349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -858,8 +885,11 @@
       <c r="M9">
         <v>16.140204137518531</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <v>15.641182915824235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -899,8 +929,11 @@
       <c r="M10">
         <v>12.748526836025437</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10">
+        <v>11.262975680222553</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -940,8 +973,11 @@
       <c r="M11">
         <v>12.781254427131508</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N11">
+        <v>11.072010352859856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -981,8 +1017,11 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1022,8 +1061,11 @@
       <c r="M13">
         <v>12.717347754040736</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13">
+        <v>13.502219378486847</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1063,8 +1105,11 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1104,8 +1149,11 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1145,8 +1193,11 @@
       <c r="M16">
         <v>16.034844474149928</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>15.33349861184303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1186,8 +1237,11 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1225,6 +1279,9 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{115DA3EE-68CE-459A-A7C1-329C285F61A8}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7CC01E86-B928-4D87-9213-D5E9EA155EAA}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
   <si>
     <t>Línea</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>22-jun</t>
+  </si>
+  <si>
+    <t>23-jun</t>
   </si>
 </sst>
 </file>
@@ -476,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
@@ -493,7 +496,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -536,8 +539,11 @@
       <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -580,8 +586,11 @@
       <c r="N2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -624,8 +633,11 @@
       <c r="N3">
         <v>12.696568499229443</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>13.390610855369534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -668,8 +680,11 @@
       <c r="N4">
         <v>16.021400258648665</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>16.080135502803358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -712,8 +727,11 @@
       <c r="N5">
         <v>15.505918927536154</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>15.184806525986239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -756,8 +774,11 @@
       <c r="N6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -800,8 +821,11 @@
       <c r="N7">
         <v>8.6621980147994719</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>9.1556316764176984</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -844,8 +868,11 @@
       <c r="N8">
         <v>7.6880963776035349</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>7.7088456091791997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -888,8 +915,11 @@
       <c r="N9">
         <v>15.641182915824235</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>16.768409207945815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -932,8 +962,11 @@
       <c r="N10">
         <v>11.262975680222553</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>9.0950660987877221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -976,8 +1009,11 @@
       <c r="N11">
         <v>11.072010352859856</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>9.3988615693660282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1020,8 +1056,11 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1064,8 +1103,11 @@
       <c r="N13">
         <v>13.502219378486847</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>13.356573097661794</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1108,8 +1150,11 @@
       <c r="N14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1152,8 +1197,11 @@
       <c r="N15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1196,8 +1244,11 @@
       <c r="N16">
         <v>15.33349861184303</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>14.239918582097831</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1240,8 +1291,11 @@
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1282,6 +1336,9 @@
         <v>0</v>
       </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7CC01E86-B928-4D87-9213-D5E9EA155EAA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F070A94D-5C6E-41BA-B43A-3BBE6F789187}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>Línea</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>23-jun</t>
+  </si>
+  <si>
+    <t>26-jun</t>
   </si>
 </sst>
 </file>
@@ -479,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="P2" sqref="P2:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +499,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -542,8 +545,11 @@
       <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -589,8 +595,11 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -636,8 +645,11 @@
       <c r="O3">
         <v>13.390610855369534</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>15.118505714037614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -683,8 +695,11 @@
       <c r="O4">
         <v>16.080135502803358</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>16.042993976342153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -730,8 +745,11 @@
       <c r="O5">
         <v>15.184806525986239</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>16.95922399864774</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -777,8 +795,11 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -824,8 +845,11 @@
       <c r="O7">
         <v>9.1556316764176984</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>9.7031684073560651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -871,8 +895,11 @@
       <c r="O8">
         <v>7.7088456091791997</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>7.1668761855984791</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -918,8 +945,11 @@
       <c r="O9">
         <v>16.768409207945815</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>16.340161153858404</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -965,8 +995,11 @@
       <c r="O10">
         <v>9.0950660987877221</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>12.627995443348777</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1012,8 +1045,11 @@
       <c r="O11">
         <v>9.3988615693660282</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>11.147753991943693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1059,8 +1095,11 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1106,8 +1145,11 @@
       <c r="O13">
         <v>13.356573097661794</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>12.879422759603091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1153,8 +1195,11 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1200,8 +1245,11 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1247,8 +1295,11 @@
       <c r="O16">
         <v>14.239918582097831</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>14.089944000775855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1294,8 +1345,11 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1339,6 +1393,9 @@
         <v>0</v>
       </c>
       <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F070A94D-5C6E-41BA-B43A-3BBE6F789187}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{032C53DE-7418-4454-90C7-D41EFD1F2778}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Línea</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>26-jun</t>
+  </si>
+  <si>
+    <t>27-jun</t>
   </si>
 </sst>
 </file>
@@ -482,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P18"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +502,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -548,8 +551,11 @@
       <c r="P1" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q1" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -598,8 +604,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -648,8 +657,11 @@
       <c r="P3">
         <v>15.118505714037614</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3">
+        <v>14.815379981990016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -698,8 +710,11 @@
       <c r="P4">
         <v>16.042993976342153</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4">
+        <v>14.630213722631952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -748,8 +763,11 @@
       <c r="P5">
         <v>16.95922399864774</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5">
+        <v>16.255628058144431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -798,8 +816,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -848,8 +869,11 @@
       <c r="P7">
         <v>9.7031684073560651</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7">
+        <v>6.8780659362289978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -898,8 +922,11 @@
       <c r="P8">
         <v>7.1668761855984791</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8">
+        <v>5.7936075396684261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -948,8 +975,11 @@
       <c r="P9">
         <v>16.340161153858404</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9">
+        <v>14.858127856878696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -998,8 +1028,11 @@
       <c r="P10">
         <v>12.627995443348777</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10">
+        <v>16.740544025206376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1048,8 +1081,11 @@
       <c r="P11">
         <v>11.147753991943693</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11">
+        <v>12.427535297661905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1098,8 +1134,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1148,8 +1187,11 @@
       <c r="P13">
         <v>12.879422759603091</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13">
+        <v>11.696535955512893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1198,8 +1240,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1248,8 +1293,11 @@
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1298,8 +1346,11 @@
       <c r="P16">
         <v>14.089944000775855</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q16">
+        <v>13.452883396260123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1348,8 +1399,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1396,6 +1450,9 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{032C53DE-7418-4454-90C7-D41EFD1F2778}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{422AAC0E-491C-438B-8A85-8FD399466AE9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
   <si>
     <t>Línea</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>27-jun</t>
+  </si>
+  <si>
+    <t>28-jun</t>
   </si>
 </sst>
 </file>
@@ -485,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +505,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -554,8 +557,11 @@
       <c r="Q1" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -607,8 +613,11 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -660,8 +669,11 @@
       <c r="Q3">
         <v>14.815379981990016</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>14.815379981990016</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -713,8 +725,11 @@
       <c r="Q4">
         <v>14.630213722631952</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>14.630213722631952</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -766,8 +781,11 @@
       <c r="Q5">
         <v>16.255628058144431</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>16.255628058144431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -819,8 +837,11 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -872,8 +893,11 @@
       <c r="Q7">
         <v>6.8780659362289978</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>6.8780659362289978</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -925,8 +949,11 @@
       <c r="Q8">
         <v>5.7936075396684261</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>5.7936075396684261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -978,8 +1005,11 @@
       <c r="Q9">
         <v>14.858127856878696</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>14.858127856878696</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1061,11 @@
       <c r="Q10">
         <v>16.740544025206376</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>16.740544025206376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1084,8 +1117,11 @@
       <c r="Q11">
         <v>12.427535297661905</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11">
+        <v>12.427535297661905</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1137,8 +1173,11 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1190,8 +1229,11 @@
       <c r="Q13">
         <v>11.696535955512893</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13">
+        <v>11.696535955512893</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1243,8 +1285,11 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1296,8 +1341,11 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1349,8 +1397,11 @@
       <c r="Q16">
         <v>13.452883396260123</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16">
+        <v>13.452883396260123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1402,8 +1453,11 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1453,6 +1507,9 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{422AAC0E-491C-438B-8A85-8FD399466AE9}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7B2D20D-765F-4FF9-B09B-D722DADB46F0}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>Línea</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>28-jun</t>
+  </si>
+  <si>
+    <t>29-jun</t>
   </si>
 </sst>
 </file>
@@ -488,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +508,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -560,8 +563,11 @@
       <c r="R1" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -616,8 +622,11 @@
       <c r="R2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -672,8 +681,11 @@
       <c r="R3">
         <v>14.815379981990016</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>16.214590788615514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -728,8 +740,11 @@
       <c r="R4">
         <v>14.630213722631952</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4">
+        <v>11.871641373282211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -784,8 +799,11 @@
       <c r="R5">
         <v>16.255628058144431</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5">
+        <v>17.723916505413239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -840,8 +858,11 @@
       <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -896,8 +917,11 @@
       <c r="R7">
         <v>6.8780659362289978</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7">
+        <v>5.3872246234134087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -952,8 +976,11 @@
       <c r="R8">
         <v>5.7936075396684261</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8">
+        <v>5.4518904379050817</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1008,8 +1035,11 @@
       <c r="R9">
         <v>14.858127856878696</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S9">
+        <v>15.157706403255874</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1064,8 +1094,11 @@
       <c r="R10">
         <v>16.740544025206376</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S10">
+        <v>20.587123418261537</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1120,8 +1153,11 @@
       <c r="R11">
         <v>12.427535297661905</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S11">
+        <v>11.691203479300381</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1176,8 +1212,11 @@
       <c r="R12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1232,8 +1271,11 @@
       <c r="R13">
         <v>11.696535955512893</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S13">
+        <v>10.738703718410937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1288,8 +1330,11 @@
       <c r="R14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1344,8 +1389,11 @@
       <c r="R15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1400,8 +1448,11 @@
       <c r="R16">
         <v>13.452883396260123</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S16">
+        <v>11.601964072329285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1456,8 +1507,11 @@
       <c r="R17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1510,6 +1564,9 @@
         <v>0</v>
       </c>
       <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B7B2D20D-765F-4FF9-B09B-D722DADB46F0}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E0BC39-FE22-4F98-A3F9-5B42170F3D50}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Línea</t>
   </si>
@@ -160,6 +160,9 @@
   </si>
   <si>
     <t>29-jun</t>
+  </si>
+  <si>
+    <t>30-jun</t>
   </si>
 </sst>
 </file>
@@ -491,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+      <selection activeCell="T2" sqref="T2:T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,7 +511,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -566,8 +569,11 @@
       <c r="S1" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T1" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -625,8 +631,11 @@
       <c r="S2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -684,8 +693,11 @@
       <c r="S3">
         <v>16.214590788615514</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>15.527066483319157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -743,8 +755,11 @@
       <c r="S4">
         <v>11.871641373282211</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>13.135707916075548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -802,8 +817,11 @@
       <c r="S5">
         <v>17.723916505413239</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>17.126746841624716</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -861,8 +879,11 @@
       <c r="S6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -920,8 +941,11 @@
       <c r="S7">
         <v>5.3872246234134087</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>7.1497709652943229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -979,8 +1003,11 @@
       <c r="S8">
         <v>5.4518904379050817</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>7.3671837859201563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1038,8 +1065,11 @@
       <c r="S9">
         <v>15.157706403255874</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>13.628403751588257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1097,8 +1127,11 @@
       <c r="S10">
         <v>20.587123418261537</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>19.915551216535398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1156,8 +1189,11 @@
       <c r="S11">
         <v>11.691203479300381</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>10.798594735818151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1215,8 +1251,11 @@
       <c r="S12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1274,8 +1313,11 @@
       <c r="S13">
         <v>10.738703718410937</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>12.63906448205965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1333,8 +1375,11 @@
       <c r="S14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1392,8 +1437,11 @@
       <c r="S15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1451,8 +1499,11 @@
       <c r="S16">
         <v>11.601964072329285</v>
       </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>11.091167731771625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1510,8 +1561,11 @@
       <c r="S17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1567,6 +1621,9 @@
         <v>0</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94E0BC39-FE22-4F98-A3F9-5B42170F3D50}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9167836-AB9F-4108-82B9-1B86D3C24A8A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Línea</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>30-jun</t>
+  </si>
+  <si>
+    <t>3-jul</t>
+  </si>
+  <si>
+    <t>4-jul</t>
   </si>
 </sst>
 </file>
@@ -204,7 +210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -213,6 +219,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:V18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +520,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -572,8 +581,14 @@
       <c r="T1" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="U1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -634,8 +649,14 @@
       <c r="T2">
         <v>0</v>
       </c>
+      <c r="U2" s="5">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -696,8 +717,14 @@
       <c r="T3">
         <v>15.527066483319157</v>
       </c>
+      <c r="U3" s="5">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>15.013077939530611</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -758,8 +785,14 @@
       <c r="T4">
         <v>13.135707916075548</v>
       </c>
+      <c r="U4" s="5">
+        <v>14</v>
+      </c>
+      <c r="V4">
+        <v>14.196482638689593</v>
+      </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -820,8 +853,14 @@
       <c r="T5">
         <v>17.126746841624716</v>
       </c>
+      <c r="U5" s="5">
+        <v>30</v>
+      </c>
+      <c r="V5">
+        <v>29.818282710578451</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -882,8 +921,14 @@
       <c r="T6">
         <v>0</v>
       </c>
+      <c r="U6" s="5">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -944,8 +989,14 @@
       <c r="T7">
         <v>7.1497709652943229</v>
       </c>
+      <c r="U7" s="5">
+        <v>29</v>
+      </c>
+      <c r="V7">
+        <v>24.394734874761802</v>
+      </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1006,8 +1057,14 @@
       <c r="T8">
         <v>7.3671837859201563</v>
       </c>
+      <c r="U8" s="5">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>14.931930065813283</v>
+      </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1068,8 +1125,14 @@
       <c r="T9">
         <v>13.628403751588257</v>
       </c>
+      <c r="U9" s="5">
+        <v>22</v>
+      </c>
+      <c r="V9">
+        <v>21.771032694534203</v>
+      </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1130,8 +1193,14 @@
       <c r="T10">
         <v>19.915551216535398</v>
       </c>
+      <c r="U10" s="5">
+        <v>28</v>
+      </c>
+      <c r="V10">
+        <v>27.669167259839902</v>
+      </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1192,8 +1261,14 @@
       <c r="T11">
         <v>10.798594735818151</v>
       </c>
+      <c r="U11" s="5">
+        <v>14</v>
+      </c>
+      <c r="V11">
+        <v>13.812642495354032</v>
+      </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1254,8 +1329,14 @@
       <c r="T12">
         <v>0</v>
       </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1316,8 +1397,14 @@
       <c r="T13">
         <v>12.63906448205965</v>
       </c>
+      <c r="U13" s="5">
+        <v>13</v>
+      </c>
+      <c r="V13">
+        <v>14.455591408120702</v>
+      </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1378,8 +1465,14 @@
       <c r="T14">
         <v>0</v>
       </c>
+      <c r="U14" s="5">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1440,8 +1533,14 @@
       <c r="T15">
         <v>0</v>
       </c>
+      <c r="U15" s="5">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1502,8 +1601,14 @@
       <c r="T16">
         <v>11.091167731771625</v>
       </c>
+      <c r="U16" s="5">
+        <v>17</v>
+      </c>
+      <c r="V16">
+        <v>15.920611459455261</v>
+      </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1564,8 +1669,14 @@
       <c r="T17">
         <v>0</v>
       </c>
+      <c r="U17" s="5">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1624,6 +1735,12 @@
         <v>0</v>
       </c>
       <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="5">
+        <v>0</v>
+      </c>
+      <c r="V18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9167836-AB9F-4108-82B9-1B86D3C24A8A}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790DADE1-526B-4B44-8D0E-CFC2E640CDD6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Línea</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>4-jul</t>
+  </si>
+  <si>
+    <t>5-jul</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11:P12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,7 +523,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -587,8 +590,11 @@
       <c r="V1" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="W1" s="3" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -655,8 +661,11 @@
       <c r="V2">
         <v>0</v>
       </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -723,8 +732,11 @@
       <c r="V3">
         <v>15.013077939530611</v>
       </c>
+      <c r="W3">
+        <v>14.479368061886348</v>
+      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -791,8 +803,11 @@
       <c r="V4">
         <v>14.196482638689593</v>
       </c>
+      <c r="W4">
+        <v>12.815287227932272</v>
+      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -859,8 +874,11 @@
       <c r="V5">
         <v>29.818282710578451</v>
       </c>
+      <c r="W5">
+        <v>27.873531228416816</v>
+      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -927,8 +945,11 @@
       <c r="V6">
         <v>0</v>
       </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -995,8 +1016,11 @@
       <c r="V7">
         <v>24.394734874761802</v>
       </c>
+      <c r="W7">
+        <v>33.880299523869624</v>
+      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1063,8 +1087,11 @@
       <c r="V8">
         <v>14.931930065813283</v>
       </c>
+      <c r="W8">
+        <v>16.545371833125643</v>
+      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1158,11 @@
       <c r="V9">
         <v>21.771032694534203</v>
       </c>
+      <c r="W9">
+        <v>21.356382587299496</v>
+      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1199,8 +1229,11 @@
       <c r="V10">
         <v>27.669167259839902</v>
       </c>
+      <c r="W10">
+        <v>26.604011613386586</v>
+      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1267,8 +1300,11 @@
       <c r="V11">
         <v>13.812642495354032</v>
       </c>
+      <c r="W11">
+        <v>13.460144203373545</v>
+      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1335,8 +1371,11 @@
       <c r="V12">
         <v>0</v>
       </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1403,8 +1442,11 @@
       <c r="V13">
         <v>14.455591408120702</v>
       </c>
+      <c r="W13">
+        <v>13.936386260932005</v>
+      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1471,8 +1513,11 @@
       <c r="V14">
         <v>0</v>
       </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1539,8 +1584,11 @@
       <c r="V15">
         <v>0</v>
       </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1607,8 +1655,11 @@
       <c r="V16">
         <v>15.920611459455261</v>
       </c>
+      <c r="W16">
+        <v>14.838542045497856</v>
+      </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1675,8 +1726,11 @@
       <c r="V17">
         <v>0</v>
       </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1741,6 +1795,9 @@
         <v>0</v>
       </c>
       <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{790DADE1-526B-4B44-8D0E-CFC2E640CDD6}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69DE3A07-1363-4241-8834-24E77F5D288D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Línea</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>5-jul</t>
+  </si>
+  <si>
+    <t>6-jul</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -224,6 +227,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+      <selection activeCell="X2" sqref="X2:X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +529,7 @@
     <col min="10" max="10" width="7.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,8 +599,11 @@
       <c r="W1" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="X1" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -661,11 +670,14 @@
       <c r="V2">
         <v>0</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="6">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -732,11 +744,14 @@
       <c r="V3">
         <v>15.013077939530611</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="6">
         <v>14.479368061886348</v>
       </c>
+      <c r="X3">
+        <v>13.696895105679078</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -803,11 +818,14 @@
       <c r="V4">
         <v>14.196482638689593</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="6">
         <v>12.815287227932272</v>
       </c>
+      <c r="X4">
+        <v>11.878435897576063</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -874,11 +892,14 @@
       <c r="V5">
         <v>29.818282710578451</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="6">
         <v>27.873531228416816</v>
       </c>
+      <c r="X5">
+        <v>25.839536848412195</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -945,11 +966,14 @@
       <c r="V6">
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="6">
+        <v>0</v>
+      </c>
+      <c r="X6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1016,11 +1040,14 @@
       <c r="V7">
         <v>24.394734874761802</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="6">
         <v>33.880299523869624</v>
       </c>
+      <c r="X7">
+        <v>26.660891473203652</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1087,11 +1114,14 @@
       <c r="V8">
         <v>14.931930065813283</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="6">
         <v>16.545371833125643</v>
       </c>
+      <c r="X8">
+        <v>13.049338848802693</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1158,11 +1188,14 @@
       <c r="V9">
         <v>21.771032694534203</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="6">
         <v>21.356382587299496</v>
       </c>
+      <c r="X9">
+        <v>21.831898765320943</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1229,11 +1262,14 @@
       <c r="V10">
         <v>27.669167259839902</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="6">
         <v>26.604011613386586</v>
       </c>
+      <c r="X10">
+        <v>25.005500657833284</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1300,11 +1336,14 @@
       <c r="V11">
         <v>13.812642495354032</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="6">
         <v>13.460144203373545</v>
       </c>
+      <c r="X11">
+        <v>12.024928644576905</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1371,11 +1410,14 @@
       <c r="V12">
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1442,11 +1484,14 @@
       <c r="V13">
         <v>14.455591408120702</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="6">
         <v>13.936386260932005</v>
       </c>
+      <c r="X13">
+        <v>14.464628206568607</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1513,11 +1558,14 @@
       <c r="V14">
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="6">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1584,11 +1632,14 @@
       <c r="V15">
         <v>0</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="6">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1655,11 +1706,14 @@
       <c r="V16">
         <v>15.920611459455261</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="6">
         <v>14.838542045497856</v>
       </c>
+      <c r="X16">
+        <v>13.885079242215715</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1726,11 +1780,14 @@
       <c r="V17">
         <v>0</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="6">
+        <v>0</v>
+      </c>
+      <c r="X17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1797,7 +1854,10 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="6">
+        <v>0</v>
+      </c>
+      <c r="X18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69DE3A07-1363-4241-8834-24E77F5D288D}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5666604E-6501-49E4-8D11-BA4E26436B71}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
   <si>
     <t>Línea</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>6-jul</t>
+  </si>
+  <si>
+    <t>7-jul</t>
+  </si>
+  <si>
+    <t>10-jul</t>
   </si>
 </sst>
 </file>
@@ -512,24 +518,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X18"/>
+  <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:X18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -602,8 +610,14 @@
       <c r="X1" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="Y1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -676,8 +690,11 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -750,8 +767,11 @@
       <c r="X3">
         <v>13.696895105679078</v>
       </c>
+      <c r="Z3">
+        <v>12.114747032477784</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -824,8 +844,11 @@
       <c r="X4">
         <v>11.878435897576063</v>
       </c>
+      <c r="Z4">
+        <v>19.896132867731442</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -898,8 +921,11 @@
       <c r="X5">
         <v>25.839536848412195</v>
       </c>
+      <c r="Z5">
+        <v>25.39509033762949</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -972,8 +998,11 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1075,11 @@
       <c r="X7">
         <v>26.660891473203652</v>
       </c>
+      <c r="Z7">
+        <v>17.249084502201711</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1152,11 @@
       <c r="X8">
         <v>13.049338848802693</v>
       </c>
+      <c r="Z8">
+        <v>9.6951537000179258</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1194,8 +1229,11 @@
       <c r="X9">
         <v>21.831898765320943</v>
       </c>
+      <c r="Z9">
+        <v>21.319303056650977</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1268,8 +1306,11 @@
       <c r="X10">
         <v>25.005500657833284</v>
       </c>
+      <c r="Z10">
+        <v>22.581117190588198</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1342,8 +1383,11 @@
       <c r="X11">
         <v>12.024928644576905</v>
       </c>
+      <c r="Z11">
+        <v>14.46941243756444</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1416,8 +1460,11 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1490,8 +1537,11 @@
       <c r="X13">
         <v>14.464628206568607</v>
       </c>
+      <c r="Z13">
+        <v>13.057731994777569</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1564,8 +1614,11 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1638,8 +1691,11 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1712,8 +1768,11 @@
       <c r="X16">
         <v>13.885079242215715</v>
       </c>
+      <c r="Z16">
+        <v>23.050760072076518</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1786,8 +1845,11 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1858,6 +1920,9 @@
         <v>0</v>
       </c>
       <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5666604E-6501-49E4-8D11-BA4E26436B71}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC783C4-CA54-431E-8DA1-C7E068410E99}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>Línea</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>10-jul</t>
+  </si>
+  <si>
+    <t>11-jul</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5"/>
+      <selection activeCell="AC5" sqref="AC5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,7 +540,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -616,8 +619,11 @@
       <c r="Z1" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="AA1" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -690,11 +696,17 @@
       <c r="X2">
         <v>0</v>
       </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
       <c r="Z2">
         <v>0</v>
       </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -767,11 +779,17 @@
       <c r="X3">
         <v>13.696895105679078</v>
       </c>
+      <c r="Y3">
+        <v>12.282111633415292</v>
+      </c>
       <c r="Z3">
         <v>12.114747032477784</v>
       </c>
+      <c r="AA3">
+        <v>11.899744633765254</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -844,11 +862,17 @@
       <c r="X4">
         <v>11.878435897576063</v>
       </c>
+      <c r="Y4">
+        <v>15.416875209161896</v>
+      </c>
       <c r="Z4">
         <v>19.896132867731442</v>
       </c>
+      <c r="AA4">
+        <v>19.596710872362944</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -921,11 +945,17 @@
       <c r="X5">
         <v>25.839536848412195</v>
       </c>
+      <c r="Y5">
+        <v>24.750029803912465</v>
+      </c>
       <c r="Z5">
         <v>25.39509033762949</v>
       </c>
+      <c r="AA5">
+        <v>24.968764356028654</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -998,11 +1028,17 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
       <c r="Z6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1075,11 +1111,17 @@
       <c r="X7">
         <v>26.660891473203652</v>
       </c>
+      <c r="Y7">
+        <v>18.603854330999585</v>
+      </c>
       <c r="Z7">
         <v>17.249084502201711</v>
       </c>
+      <c r="AA7">
+        <v>14.813672327534999</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1152,11 +1194,17 @@
       <c r="X8">
         <v>13.049338848802693</v>
       </c>
+      <c r="Y8">
+        <v>12.176750436582211</v>
+      </c>
       <c r="Z8">
         <v>9.6951537000179258</v>
       </c>
+      <c r="AA8">
+        <v>9.1319086042206283</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1229,11 +1277,17 @@
       <c r="X9">
         <v>21.831898765320943</v>
       </c>
+      <c r="Y9">
+        <v>21.0550955369051</v>
+      </c>
       <c r="Z9">
         <v>21.319303056650977</v>
       </c>
+      <c r="AA9">
+        <v>22.675626347262316</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1306,11 +1360,17 @@
       <c r="X10">
         <v>25.005500657833284</v>
       </c>
+      <c r="Y10">
+        <v>23.66822495571671</v>
+      </c>
       <c r="Z10">
         <v>22.581117190588198</v>
       </c>
+      <c r="AA10">
+        <v>22.678933420429548</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1383,11 +1443,17 @@
       <c r="X11">
         <v>12.024928644576905</v>
       </c>
+      <c r="Y11">
+        <v>11.666278549944053</v>
+      </c>
       <c r="Z11">
         <v>14.46941243756444</v>
       </c>
+      <c r="AA11">
+        <v>13.779379398022883</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1460,11 +1526,17 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
       <c r="Z12">
         <v>0</v>
       </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1537,11 +1609,17 @@
       <c r="X13">
         <v>14.464628206568607</v>
       </c>
+      <c r="Y13">
+        <v>13.213442385099647</v>
+      </c>
       <c r="Z13">
         <v>13.057731994777569</v>
       </c>
+      <c r="AA13">
+        <v>12.932019573330978</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1614,11 +1692,17 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
       <c r="Z14">
         <v>0</v>
       </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1691,11 +1775,17 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
       <c r="Z15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1768,11 +1858,17 @@
       <c r="X16">
         <v>13.885079242215715</v>
       </c>
+      <c r="Y16">
+        <v>12.887269331804175</v>
+      </c>
       <c r="Z16">
         <v>23.050760072076518</v>
       </c>
+      <c r="AA16">
+        <v>22.311574590031984</v>
+      </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1845,11 +1941,17 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
       <c r="Z17">
         <v>0</v>
       </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -1922,7 +2024,13 @@
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
       <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AC783C4-CA54-431E-8DA1-C7E068410E99}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85993B14-4513-4FD7-93FD-A2FA0407FA08}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Línea</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>11-jul</t>
+  </si>
+  <si>
+    <t>12-jul</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA18"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC5" sqref="AC5"/>
+      <selection activeCell="AB2" sqref="AB2:AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +543,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -622,8 +625,11 @@
       <c r="AA1" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="AB1" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -705,8 +711,11 @@
       <c r="AA2">
         <v>0</v>
       </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -788,8 +797,11 @@
       <c r="AA3">
         <v>11.899744633765254</v>
       </c>
+      <c r="AB3">
+        <v>11.798624784142465</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -871,8 +883,11 @@
       <c r="AA4">
         <v>19.596710872362944</v>
       </c>
+      <c r="AB4">
+        <v>20.164695214552214</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -954,8 +969,11 @@
       <c r="AA5">
         <v>24.968764356028654</v>
       </c>
+      <c r="AB5">
+        <v>24.755601365228237</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1037,8 +1055,11 @@
       <c r="AA6">
         <v>0</v>
       </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1120,8 +1141,11 @@
       <c r="AA7">
         <v>14.813672327534999</v>
       </c>
+      <c r="AB7">
+        <v>11.534424368550971</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1203,8 +1227,11 @@
       <c r="AA8">
         <v>9.1319086042206283</v>
       </c>
+      <c r="AB8">
+        <v>10.125520551384172</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1286,8 +1313,11 @@
       <c r="AA9">
         <v>22.675626347262316</v>
       </c>
+      <c r="AB9">
+        <v>24.08038975539549</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1369,8 +1399,11 @@
       <c r="AA10">
         <v>22.678933420429548</v>
       </c>
+      <c r="AB10">
+        <v>21.676717950743591</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1452,8 +1485,11 @@
       <c r="AA11">
         <v>13.779379398022883</v>
       </c>
+      <c r="AB11">
+        <v>13.108048188524972</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1535,8 +1571,11 @@
       <c r="AA12">
         <v>0</v>
       </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1618,8 +1657,11 @@
       <c r="AA13">
         <v>12.932019573330978</v>
       </c>
+      <c r="AB13">
+        <v>12.929436441383448</v>
+      </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1701,8 +1743,11 @@
       <c r="AA14">
         <v>0</v>
       </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1784,8 +1829,11 @@
       <c r="AA15">
         <v>0</v>
       </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1867,8 +1915,11 @@
       <c r="AA16">
         <v>22.311574590031984</v>
       </c>
+      <c r="AB16">
+        <v>20.531615949268769</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -1950,8 +2001,11 @@
       <c r="AA17">
         <v>0</v>
       </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2031,6 +2085,9 @@
         <v>0</v>
       </c>
       <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85993B14-4513-4FD7-93FD-A2FA0407FA08}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D293B3D-8128-4123-B21A-8890F7D3B19A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>Línea</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>12-jul</t>
+  </si>
+  <si>
+    <t>13-jul</t>
   </si>
 </sst>
 </file>
@@ -524,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB18"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AB18"/>
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,7 +546,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -628,8 +631,11 @@
       <c r="AB1" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="AC1" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -714,8 +720,11 @@
       <c r="AB2">
         <v>0</v>
       </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -800,8 +809,11 @@
       <c r="AB3">
         <v>11.798624784142465</v>
       </c>
+      <c r="AC3">
+        <v>11.863420027590076</v>
+      </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -886,8 +898,11 @@
       <c r="AB4">
         <v>20.164695214552214</v>
       </c>
+      <c r="AC4">
+        <v>18.941985896417894</v>
+      </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -972,8 +987,11 @@
       <c r="AB5">
         <v>24.755601365228237</v>
       </c>
+      <c r="AC5">
+        <v>24.747402788658988</v>
+      </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1058,8 +1076,11 @@
       <c r="AB6">
         <v>0</v>
       </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1144,8 +1165,11 @@
       <c r="AB7">
         <v>11.534424368550971</v>
       </c>
+      <c r="AC7">
+        <v>10.957853298839492</v>
+      </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1230,8 +1254,11 @@
       <c r="AB8">
         <v>10.125520551384172</v>
       </c>
+      <c r="AC8">
+        <v>10.542004601093442</v>
+      </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1316,8 +1343,11 @@
       <c r="AB9">
         <v>24.08038975539549</v>
       </c>
+      <c r="AC9">
+        <v>23.277091139825085</v>
+      </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1402,8 +1432,11 @@
       <c r="AB10">
         <v>21.676717950743591</v>
       </c>
+      <c r="AC10">
+        <v>21.26781403911172</v>
+      </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1488,8 +1521,11 @@
       <c r="AB11">
         <v>13.108048188524972</v>
       </c>
+      <c r="AC11">
+        <v>12.67597142544755</v>
+      </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1574,8 +1610,11 @@
       <c r="AB12">
         <v>0</v>
       </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1660,8 +1699,11 @@
       <c r="AB13">
         <v>12.929436441383448</v>
       </c>
+      <c r="AC13">
+        <v>11.082497098897598</v>
+      </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1746,8 +1788,11 @@
       <c r="AB14">
         <v>0</v>
       </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1832,8 +1877,11 @@
       <c r="AB15">
         <v>0</v>
       </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1918,8 +1966,11 @@
       <c r="AB16">
         <v>20.531615949268769</v>
       </c>
+      <c r="AC16">
+        <v>18.497377502682234</v>
+      </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2004,8 +2055,11 @@
       <c r="AB17">
         <v>0</v>
       </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2088,6 +2142,9 @@
         <v>0</v>
       </c>
       <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D293B3D-8128-4123-B21A-8890F7D3B19A}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E15BE34A-2172-4254-97F4-9CA5FCDE7C5B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>Línea</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>13-jul</t>
+  </si>
+  <si>
+    <t>14-jul</t>
   </si>
 </sst>
 </file>
@@ -527,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC18"/>
+  <dimension ref="A1:AD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +549,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,8 +637,11 @@
       <c r="AC1" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="AD1" s="3" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -723,8 +729,11 @@
       <c r="AC2">
         <v>0</v>
       </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -812,8 +821,11 @@
       <c r="AC3">
         <v>11.863420027590076</v>
       </c>
+      <c r="AD3">
+        <v>11.826604548358478</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -901,8 +913,11 @@
       <c r="AC4">
         <v>18.941985896417894</v>
       </c>
+      <c r="AD4">
+        <v>15.3530921747726</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -990,8 +1005,11 @@
       <c r="AC5">
         <v>24.747402788658988</v>
       </c>
+      <c r="AD5">
+        <v>28.248194983727391</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1079,8 +1097,11 @@
       <c r="AC6">
         <v>0</v>
       </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1168,8 +1189,11 @@
       <c r="AC7">
         <v>10.957853298839492</v>
       </c>
+      <c r="AD7">
+        <v>3.0600308335208122</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1257,8 +1281,11 @@
       <c r="AC8">
         <v>10.542004601093442</v>
       </c>
+      <c r="AD8">
+        <v>12.92637578567901</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1346,8 +1373,11 @@
       <c r="AC9">
         <v>23.277091139825085</v>
       </c>
+      <c r="AD9">
+        <v>22.263885348326731</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1435,8 +1465,11 @@
       <c r="AC10">
         <v>21.26781403911172</v>
       </c>
+      <c r="AD10">
+        <v>20.379450246782088</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1524,8 +1557,11 @@
       <c r="AC11">
         <v>12.67597142544755</v>
       </c>
+      <c r="AD11">
+        <v>10.958627514887576</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1613,8 +1649,11 @@
       <c r="AC12">
         <v>0</v>
       </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1702,8 +1741,11 @@
       <c r="AC13">
         <v>11.082497098897598</v>
       </c>
+      <c r="AD13">
+        <v>9.9777776693361329</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1791,8 +1833,11 @@
       <c r="AC14">
         <v>0</v>
       </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1880,8 +1925,11 @@
       <c r="AC15">
         <v>0</v>
       </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -1969,8 +2017,11 @@
       <c r="AC16">
         <v>18.497377502682234</v>
       </c>
+      <c r="AD16">
+        <v>15.45784680051514</v>
+      </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2058,8 +2109,11 @@
       <c r="AC17">
         <v>0</v>
       </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2145,6 +2199,9 @@
         <v>0</v>
       </c>
       <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E15BE34A-2172-4254-97F4-9CA5FCDE7C5B}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A938D9DF-3690-463F-83B1-146131B6D718}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Línea</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>14-jul</t>
+  </si>
+  <si>
+    <t>17-jul</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD18"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +552,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -640,8 +643,11 @@
       <c r="AD1" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="AE1" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -732,8 +738,11 @@
       <c r="AD2">
         <v>0</v>
       </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -824,8 +833,11 @@
       <c r="AD3">
         <v>11.826604548358478</v>
       </c>
+      <c r="AE3">
+        <v>11.916344324914331</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -916,8 +928,11 @@
       <c r="AD4">
         <v>15.3530921747726</v>
       </c>
+      <c r="AE4">
+        <v>15.595549801872435</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1008,8 +1023,11 @@
       <c r="AD5">
         <v>28.248194983727391</v>
       </c>
+      <c r="AE5">
+        <v>26.508480011935593</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1100,8 +1118,11 @@
       <c r="AD6">
         <v>0</v>
       </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1192,8 +1213,11 @@
       <c r="AD7">
         <v>3.0600308335208122</v>
       </c>
+      <c r="AE7">
+        <v>1.2043022267373138</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1284,8 +1308,11 @@
       <c r="AD8">
         <v>12.92637578567901</v>
       </c>
+      <c r="AE8">
+        <v>11.549025325762834</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1376,8 +1403,11 @@
       <c r="AD9">
         <v>22.263885348326731</v>
       </c>
+      <c r="AE9">
+        <v>24.067907073703363</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1468,8 +1498,11 @@
       <c r="AD10">
         <v>20.379450246782088</v>
       </c>
+      <c r="AE10">
+        <v>24.161856483336027</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1560,8 +1593,11 @@
       <c r="AD11">
         <v>10.958627514887576</v>
       </c>
+      <c r="AE11">
+        <v>11.990364530593782</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1652,8 +1688,11 @@
       <c r="AD12">
         <v>0</v>
       </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1744,8 +1783,11 @@
       <c r="AD13">
         <v>9.9777776693361329</v>
       </c>
+      <c r="AE13">
+        <v>8.9142744139749173</v>
+      </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1836,8 +1878,11 @@
       <c r="AD14">
         <v>0</v>
       </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1928,8 +1973,11 @@
       <c r="AD15">
         <v>0</v>
       </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2020,8 +2068,11 @@
       <c r="AD16">
         <v>15.45784680051514</v>
       </c>
+      <c r="AE16">
+        <v>14.483721004046092</v>
+      </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2112,8 +2163,11 @@
       <c r="AD17">
         <v>0</v>
       </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2202,6 +2256,9 @@
         <v>0</v>
       </c>
       <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A938D9DF-3690-463F-83B1-146131B6D718}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7271E19A-C68C-47AA-AE26-9FBE7F319BCD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Línea</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>17-jul</t>
+  </si>
+  <si>
+    <t>18-jul</t>
   </si>
 </sst>
 </file>
@@ -533,10 +536,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE18"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +556,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -646,8 +650,11 @@
       <c r="AE1" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="AF1" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -741,8 +748,11 @@
       <c r="AE2">
         <v>0</v>
       </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="AE3">
         <v>11.916344324914331</v>
       </c>
+      <c r="AF3">
+        <v>10.774470971714203</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -931,8 +944,11 @@
       <c r="AE4">
         <v>15.595549801872435</v>
       </c>
+      <c r="AF4">
+        <v>14.141731489157788</v>
+      </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1026,8 +1042,11 @@
       <c r="AE5">
         <v>26.508480011935593</v>
       </c>
+      <c r="AF5">
+        <v>27.275380305916332</v>
+      </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1121,8 +1140,11 @@
       <c r="AE6">
         <v>0</v>
       </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1216,8 +1238,11 @@
       <c r="AE7">
         <v>1.2043022267373138</v>
       </c>
+      <c r="AF7">
+        <v>4.2103534177627351</v>
+      </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1311,8 +1336,11 @@
       <c r="AE8">
         <v>11.549025325762834</v>
       </c>
+      <c r="AF8">
+        <v>13.535980989973574</v>
+      </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1406,8 +1434,11 @@
       <c r="AE9">
         <v>24.067907073703363</v>
       </c>
+      <c r="AF9">
+        <v>22.358540510919667</v>
+      </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1501,8 +1532,11 @@
       <c r="AE10">
         <v>24.161856483336027</v>
       </c>
+      <c r="AF10">
+        <v>21.852220645540704</v>
+      </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1596,8 +1630,11 @@
       <c r="AE11">
         <v>11.990364530593782</v>
       </c>
+      <c r="AF11">
+        <v>9.6534038810884795</v>
+      </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1691,8 +1728,11 @@
       <c r="AE12">
         <v>0</v>
       </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1786,8 +1826,11 @@
       <c r="AE13">
         <v>8.9142744139749173</v>
       </c>
+      <c r="AF13">
+        <v>7.8441604470884752</v>
+      </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1881,8 +1924,11 @@
       <c r="AE14">
         <v>0</v>
       </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1976,8 +2022,11 @@
       <c r="AE15">
         <v>0</v>
       </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2071,8 +2120,11 @@
       <c r="AE16">
         <v>14.483721004046092</v>
       </c>
+      <c r="AF16">
+        <v>15.817764657367206</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2166,8 +2218,11 @@
       <c r="AE17">
         <v>0</v>
       </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2259,6 +2314,9 @@
         <v>0</v>
       </c>
       <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7271E19A-C68C-47AA-AE26-9FBE7F319BCD}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF5B8F7E-959E-49F2-BAB8-67656E7685D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
   <si>
     <t>Línea</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>18-jul</t>
+  </si>
+  <si>
+    <t>19-jul</t>
   </si>
 </sst>
 </file>
@@ -537,10 +540,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB8" sqref="AB8"/>
+      <selection activeCell="AG19" sqref="AG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +559,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -653,8 +656,11 @@
       <c r="AF1" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="AG1" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -751,8 +757,11 @@
       <c r="AF2">
         <v>0</v>
       </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="AF3">
         <v>10.774470971714203</v>
       </c>
+      <c r="AG3">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -947,8 +959,11 @@
       <c r="AF4">
         <v>14.141731489157788</v>
       </c>
+      <c r="AG4">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1045,8 +1060,11 @@
       <c r="AF5">
         <v>27.275380305916332</v>
       </c>
+      <c r="AG5">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1161,11 @@
       <c r="AF6">
         <v>0</v>
       </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1241,8 +1262,11 @@
       <c r="AF7">
         <v>4.2103534177627351</v>
       </c>
+      <c r="AG7">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1339,8 +1363,11 @@
       <c r="AF8">
         <v>13.535980989973574</v>
       </c>
+      <c r="AG8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1437,8 +1464,11 @@
       <c r="AF9">
         <v>22.358540510919667</v>
       </c>
+      <c r="AG9">
+        <v>21</v>
+      </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1535,8 +1565,11 @@
       <c r="AF10">
         <v>21.852220645540704</v>
       </c>
+      <c r="AG10">
+        <v>23</v>
+      </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1633,8 +1666,11 @@
       <c r="AF11">
         <v>9.6534038810884795</v>
       </c>
+      <c r="AG11">
+        <v>12</v>
+      </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1731,8 +1767,11 @@
       <c r="AF12">
         <v>0</v>
       </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1829,8 +1868,11 @@
       <c r="AF13">
         <v>7.8441604470884752</v>
       </c>
+      <c r="AG13">
+        <v>7</v>
+      </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1927,8 +1969,11 @@
       <c r="AF14">
         <v>0</v>
       </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2025,8 +2070,11 @@
       <c r="AF15">
         <v>0</v>
       </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2123,8 +2171,11 @@
       <c r="AF16">
         <v>15.817764657367206</v>
       </c>
+      <c r="AG16">
+        <v>3</v>
+      </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2221,8 +2272,11 @@
       <c r="AF17">
         <v>0</v>
       </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2317,6 +2371,9 @@
         <v>0</v>
       </c>
       <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF5B8F7E-959E-49F2-BAB8-67656E7685D5}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1466E651-296E-4C8C-A3A4-24FB7D6BCF44}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
   <si>
     <t>Línea</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t>19-jul</t>
+  </si>
+  <si>
+    <t>20-jul</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AH18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG19" sqref="AG19"/>
+      <selection activeCell="AH8" sqref="AH8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +562,7 @@
     <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -659,8 +662,11 @@
       <c r="AG1" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="AH1" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -760,8 +766,11 @@
       <c r="AG2">
         <v>0</v>
       </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -861,8 +870,11 @@
       <c r="AG3">
         <v>10</v>
       </c>
+      <c r="AH3">
+        <v>8.3892039993575054</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -962,8 +974,11 @@
       <c r="AG4">
         <v>24</v>
       </c>
+      <c r="AH4">
+        <v>12.958977668816591</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1063,8 +1078,11 @@
       <c r="AG5">
         <v>26</v>
       </c>
+      <c r="AH5">
+        <v>24.985887282395023</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1164,8 +1182,11 @@
       <c r="AG6">
         <v>0</v>
       </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1265,8 +1286,11 @@
       <c r="AG7">
         <v>9</v>
       </c>
+      <c r="AH7">
+        <v>9.0259672675828213</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1366,8 +1390,11 @@
       <c r="AG8">
         <v>10</v>
       </c>
+      <c r="AH8">
+        <v>10.203274628609107</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1467,8 +1494,11 @@
       <c r="AG9">
         <v>21</v>
       </c>
+      <c r="AH9">
+        <v>18.994987121083639</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1568,8 +1598,11 @@
       <c r="AG10">
         <v>23</v>
       </c>
+      <c r="AH10">
+        <v>22.04276782764936</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1669,8 +1702,11 @@
       <c r="AG11">
         <v>12</v>
       </c>
+      <c r="AH11">
+        <v>13.215969599109227</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1770,8 +1806,11 @@
       <c r="AG12">
         <v>0</v>
       </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1871,8 +1910,11 @@
       <c r="AG13">
         <v>7</v>
       </c>
+      <c r="AH13">
+        <v>9.0379072696581595</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -1972,8 +2014,11 @@
       <c r="AG14">
         <v>0</v>
       </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2073,8 +2118,11 @@
       <c r="AG15">
         <v>0</v>
       </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2174,8 +2222,11 @@
       <c r="AG16">
         <v>3</v>
       </c>
+      <c r="AH16">
+        <v>12.5826256717438</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2275,8 +2326,11 @@
       <c r="AG17">
         <v>0</v>
       </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2374,6 +2428,9 @@
         <v>0</v>
       </c>
       <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1466E651-296E-4C8C-A3A4-24FB7D6BCF44}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B87843B-750F-40AD-A65F-5010889196B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
   <si>
     <t>Línea</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>20-jul</t>
+  </si>
+  <si>
+    <t>21-jul</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AH8" sqref="AH8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AK8" sqref="AK8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +562,10 @@
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="19" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -665,8 +668,11 @@
       <c r="AH1" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="AI1" s="3" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -769,8 +775,11 @@
       <c r="AH2">
         <v>0</v>
       </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="AH3">
         <v>8.3892039993575054</v>
       </c>
+      <c r="AI3">
+        <v>8.7689015631202185</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -977,8 +989,11 @@
       <c r="AH4">
         <v>12.958977668816591</v>
       </c>
+      <c r="AI4">
+        <v>11.521334511659333</v>
+      </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1081,8 +1096,11 @@
       <c r="AH5">
         <v>24.985887282395023</v>
       </c>
+      <c r="AI5">
+        <v>24.179073320231613</v>
+      </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1185,8 +1203,11 @@
       <c r="AH6">
         <v>0</v>
       </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1310,11 @@
       <c r="AH7">
         <v>9.0259672675828213</v>
       </c>
+      <c r="AI7">
+        <v>14.265769208504937</v>
+      </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1393,8 +1417,11 @@
       <c r="AH8">
         <v>10.203274628609107</v>
       </c>
+      <c r="AI8">
+        <v>8.9100214653227088</v>
+      </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1497,8 +1524,11 @@
       <c r="AH9">
         <v>18.994987121083639</v>
       </c>
+      <c r="AI9">
+        <v>18.18247688837014</v>
+      </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1601,8 +1631,11 @@
       <c r="AH10">
         <v>22.04276782764936</v>
       </c>
+      <c r="AI10">
+        <v>21.113639532588557</v>
+      </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1705,8 +1738,11 @@
       <c r="AH11">
         <v>13.215969599109227</v>
       </c>
+      <c r="AI11">
+        <v>14.257185852491116</v>
+      </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1809,8 +1845,11 @@
       <c r="AH12">
         <v>0</v>
       </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1913,8 +1952,11 @@
       <c r="AH13">
         <v>9.0379072696581595</v>
       </c>
+      <c r="AI13">
+        <v>13.288712091839649</v>
+      </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2017,8 +2059,11 @@
       <c r="AH14">
         <v>0</v>
       </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2121,8 +2166,11 @@
       <c r="AH15">
         <v>0</v>
       </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2225,8 +2273,11 @@
       <c r="AH16">
         <v>12.5826256717438</v>
       </c>
+      <c r="AI16">
+        <v>10.772324494682191</v>
+      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2329,8 +2380,11 @@
       <c r="AH17">
         <v>0</v>
       </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2431,6 +2485,9 @@
         <v>0</v>
       </c>
       <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B87843B-750F-40AD-A65F-5010889196B8}"/>
+  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0492553-EBFB-44D4-BD68-00EA9D680B63}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>Línea</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>21-jul</t>
+  </si>
+  <si>
+    <t>24-jul</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AI18"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AK8" sqref="AK8"/>
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +568,7 @@
     <col min="11" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -671,8 +674,11 @@
       <c r="AI1" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="AJ1" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -778,8 +784,11 @@
       <c r="AI2">
         <v>0</v>
       </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -885,8 +894,11 @@
       <c r="AI3">
         <v>8.7689015631202185</v>
       </c>
+      <c r="AJ3">
+        <v>9.8723034898639028</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -992,8 +1004,11 @@
       <c r="AI4">
         <v>11.521334511659333</v>
       </c>
+      <c r="AJ4">
+        <v>11.383038046902159</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1099,8 +1114,11 @@
       <c r="AI5">
         <v>24.179073320231613</v>
       </c>
+      <c r="AJ5">
+        <v>28.803963576257583</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1206,8 +1224,11 @@
       <c r="AI6">
         <v>0</v>
       </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1313,8 +1334,11 @@
       <c r="AI7">
         <v>14.265769208504937</v>
       </c>
+      <c r="AJ7">
+        <v>18.669100546592478</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1420,8 +1444,11 @@
       <c r="AI8">
         <v>8.9100214653227088</v>
       </c>
+      <c r="AJ8">
+        <v>7.7688735866172669</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1527,8 +1554,11 @@
       <c r="AI9">
         <v>18.18247688837014</v>
       </c>
+      <c r="AJ9">
+        <v>18.975278738927418</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1634,8 +1664,11 @@
       <c r="AI10">
         <v>21.113639532588557</v>
       </c>
+      <c r="AJ10">
+        <v>23.011524730821645</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1741,8 +1774,11 @@
       <c r="AI11">
         <v>14.257185852491116</v>
       </c>
+      <c r="AJ11">
+        <v>16.781644240659087</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1848,8 +1884,11 @@
       <c r="AI12">
         <v>0</v>
       </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1955,8 +1994,11 @@
       <c r="AI13">
         <v>13.288712091839649</v>
       </c>
+      <c r="AJ13">
+        <v>16.819050389046506</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2062,8 +2104,11 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2169,8 +2214,11 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2276,8 +2324,11 @@
       <c r="AI16">
         <v>10.772324494682191</v>
       </c>
+      <c r="AJ16">
+        <v>10.584004969564333</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2383,8 +2434,11 @@
       <c r="AI17">
         <v>0</v>
       </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2488,6 +2542,9 @@
         <v>0</v>
       </c>
       <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="80" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0492553-EBFB-44D4-BD68-00EA9D680B63}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8994BD86-5BF3-4EC5-89CD-732A1CD5F740}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
   <si>
     <t>Línea</t>
   </si>
@@ -211,6 +211,12 @@
   </si>
   <si>
     <t>24-jul</t>
+  </si>
+  <si>
+    <t>25-jul</t>
+  </si>
+  <si>
+    <t>26-jul</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AL18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+      <selection activeCell="AM6" sqref="AM6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,7 +574,7 @@
     <col min="11" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,8 +683,14 @@
       <c r="AJ1" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="AK1" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -787,8 +799,14 @@
       <c r="AJ2">
         <v>0</v>
       </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -897,8 +915,14 @@
       <c r="AJ3">
         <v>9.8723034898639028</v>
       </c>
+      <c r="AK3">
+        <v>11.659527624372734</v>
+      </c>
+      <c r="AL3">
+        <v>13.915561918321162</v>
+      </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1007,8 +1031,14 @@
       <c r="AJ4">
         <v>11.383038046902159</v>
       </c>
+      <c r="AK4">
+        <v>13.720636393633743</v>
+      </c>
+      <c r="AL4">
+        <v>14.251428814301386</v>
+      </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1117,8 +1147,14 @@
       <c r="AJ5">
         <v>28.803963576257583</v>
       </c>
+      <c r="AK5">
+        <v>32.333350072248543</v>
+      </c>
+      <c r="AL5">
+        <v>31.199771520604326</v>
+      </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1227,8 +1263,14 @@
       <c r="AJ6">
         <v>0</v>
       </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1337,8 +1379,14 @@
       <c r="AJ7">
         <v>18.669100546592478</v>
       </c>
+      <c r="AK7">
+        <v>4.7557679868774043</v>
+      </c>
+      <c r="AL7">
+        <v>4.4834732748942949</v>
+      </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1447,8 +1495,14 @@
       <c r="AJ8">
         <v>7.7688735866172669</v>
       </c>
+      <c r="AK8">
+        <v>7.7698180044860479</v>
+      </c>
+      <c r="AL8">
+        <v>6.5948098977110403</v>
+      </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1557,8 +1611,14 @@
       <c r="AJ9">
         <v>18.975278738927418</v>
       </c>
+      <c r="AK9">
+        <v>19.041765407060616</v>
+      </c>
+      <c r="AL9">
+        <v>20.055897514355209</v>
+      </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1667,8 +1727,14 @@
       <c r="AJ10">
         <v>23.011524730821645</v>
       </c>
+      <c r="AK10">
+        <v>21.205082518937406</v>
+      </c>
+      <c r="AL10">
+        <v>20.226085172726076</v>
+      </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1777,8 +1843,14 @@
       <c r="AJ11">
         <v>16.781644240659087</v>
       </c>
+      <c r="AK11">
+        <v>16.046546576595595</v>
+      </c>
+      <c r="AL11">
+        <v>14.468429411561974</v>
+      </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1887,8 +1959,14 @@
       <c r="AJ12">
         <v>0</v>
       </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1997,8 +2075,14 @@
       <c r="AJ13">
         <v>16.819050389046506</v>
       </c>
+      <c r="AK13">
+        <v>17.277466146157163</v>
+      </c>
+      <c r="AL13">
+        <v>15.842736838675009</v>
+      </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2107,8 +2191,14 @@
       <c r="AJ14">
         <v>0</v>
       </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2217,8 +2307,14 @@
       <c r="AJ15">
         <v>0</v>
       </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2327,8 +2423,14 @@
       <c r="AJ16">
         <v>10.584004969564333</v>
       </c>
+      <c r="AK16">
+        <v>6.8181059731661264</v>
+      </c>
+      <c r="AL16">
+        <v>5.8811808146019091</v>
+      </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2437,8 +2539,14 @@
       <c r="AJ17">
         <v>0</v>
       </c>
+      <c r="AK17">
+        <v>0</v>
+      </c>
+      <c r="AL17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2545,6 +2653,12 @@
         <v>0</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8994BD86-5BF3-4EC5-89CD-732A1CD5F740}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DDAFBA-5CA3-46EE-A580-62B498EE03CC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>Línea</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>26-jul</t>
+  </si>
+  <si>
+    <t>27-jul</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AL18"/>
+  <dimension ref="A1:AM18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AM6" sqref="AM6"/>
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +577,7 @@
     <col min="11" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -689,8 +692,11 @@
       <c r="AL1" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="AM1" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -805,8 +811,11 @@
       <c r="AL2">
         <v>0</v>
       </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -921,8 +930,11 @@
       <c r="AL3">
         <v>13.915561918321162</v>
       </c>
+      <c r="AM3">
+        <v>16.408288513876712</v>
+      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1037,8 +1049,11 @@
       <c r="AL4">
         <v>14.251428814301386</v>
       </c>
+      <c r="AM4">
+        <v>14.803082072462523</v>
+      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1153,8 +1168,11 @@
       <c r="AL5">
         <v>31.199771520604326</v>
       </c>
+      <c r="AM5">
+        <v>29.697120882378265</v>
+      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1269,8 +1287,11 @@
       <c r="AL6">
         <v>0</v>
       </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1385,8 +1406,11 @@
       <c r="AL7">
         <v>4.4834732748942949</v>
       </c>
+      <c r="AM7">
+        <v>5.5463615989111208</v>
+      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1501,8 +1525,11 @@
       <c r="AL8">
         <v>6.5948098977110403</v>
       </c>
+      <c r="AM8">
+        <v>4.872284924428306</v>
+      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1617,8 +1644,11 @@
       <c r="AL9">
         <v>20.055897514355209</v>
       </c>
+      <c r="AM9">
+        <v>19.252245655744399</v>
+      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1733,8 +1763,11 @@
       <c r="AL10">
         <v>20.226085172726076</v>
       </c>
+      <c r="AM10">
+        <v>19.810990297932474</v>
+      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1849,8 +1882,11 @@
       <c r="AL11">
         <v>14.468429411561974</v>
       </c>
+      <c r="AM11">
+        <v>13.083454944338438</v>
+      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1965,8 +2001,11 @@
       <c r="AL12">
         <v>0</v>
       </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2081,8 +2120,11 @@
       <c r="AL13">
         <v>15.842736838675009</v>
       </c>
+      <c r="AM13">
+        <v>14.107237455014955</v>
+      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2239,11 @@
       <c r="AL14">
         <v>0</v>
       </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2313,8 +2358,11 @@
       <c r="AL15">
         <v>0</v>
       </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2429,8 +2477,11 @@
       <c r="AL16">
         <v>5.8811808146019091</v>
       </c>
+      <c r="AM16">
+        <v>3.9678216052448567</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2545,8 +2596,11 @@
       <c r="AL17">
         <v>0</v>
       </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2659,6 +2713,9 @@
         <v>0</v>
       </c>
       <c r="AL18">
+        <v>0</v>
+      </c>
+      <c r="AM18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2DDAFBA-5CA3-46EE-A580-62B498EE03CC}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D56B78-6845-420A-92DD-E1047553A8BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
   <si>
     <t>Línea</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>27-jul</t>
+  </si>
+  <si>
+    <t>28-jul</t>
   </si>
 </sst>
 </file>
@@ -558,10 +561,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AM18"/>
+  <dimension ref="A1:AN18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AO7" sqref="AO7"/>
+      <selection activeCell="AO4" sqref="AO4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,7 +580,7 @@
     <col min="11" max="28" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -695,8 +698,11 @@
       <c r="AM1" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="AN1" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -814,8 +820,11 @@
       <c r="AM2">
         <v>0</v>
       </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -933,8 +942,11 @@
       <c r="AM3">
         <v>16.408288513876712</v>
       </c>
+      <c r="AN3">
+        <v>18.059946848652984</v>
+      </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1052,8 +1064,11 @@
       <c r="AM4">
         <v>14.803082072462523</v>
       </c>
+      <c r="AN4">
+        <v>15.628244088871613</v>
+      </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1171,8 +1186,11 @@
       <c r="AM5">
         <v>29.697120882378265</v>
       </c>
+      <c r="AN5">
+        <v>22.058646804729133</v>
+      </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1290,8 +1308,11 @@
       <c r="AM6">
         <v>0</v>
       </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1409,8 +1430,11 @@
       <c r="AM7">
         <v>5.5463615989111208</v>
       </c>
+      <c r="AN7">
+        <v>4.5434088342255592</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1528,8 +1552,11 @@
       <c r="AM8">
         <v>4.872284924428306</v>
       </c>
+      <c r="AN8">
+        <v>5.8319774095429713</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1647,8 +1674,11 @@
       <c r="AM9">
         <v>19.252245655744399</v>
       </c>
+      <c r="AN9">
+        <v>16.812588227818729</v>
+      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1766,8 +1796,11 @@
       <c r="AM10">
         <v>19.810990297932474</v>
       </c>
+      <c r="AN10">
+        <v>16.315969771958027</v>
+      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1885,8 +1918,11 @@
       <c r="AM11">
         <v>13.083454944338438</v>
       </c>
+      <c r="AN11">
+        <v>8.8123318708146101</v>
+      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2004,8 +2040,11 @@
       <c r="AM12">
         <v>0</v>
       </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2123,8 +2162,11 @@
       <c r="AM13">
         <v>14.107237455014955</v>
       </c>
+      <c r="AN13">
+        <v>12.971410086591584</v>
+      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2242,8 +2284,11 @@
       <c r="AM14">
         <v>0</v>
       </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2361,8 +2406,11 @@
       <c r="AM15">
         <v>0</v>
       </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2480,8 +2528,11 @@
       <c r="AM16">
         <v>3.9678216052448567</v>
       </c>
+      <c r="AN16">
+        <v>2.4721278280188441</v>
+      </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2599,8 +2650,11 @@
       <c r="AM17">
         <v>0</v>
       </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2716,6 +2770,9 @@
         <v>0</v>
       </c>
       <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55D56B78-6845-420A-92DD-E1047553A8BB}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B11CFB-6E8B-4DF4-BF9F-97D003A7FC38}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Línea</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>28-jul</t>
+  </si>
+  <si>
+    <t>31-jul</t>
   </si>
 </sst>
 </file>
@@ -561,10 +564,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AN18"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AO4" sqref="AO4"/>
+      <selection activeCell="AQ7" sqref="AQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,10 +580,10 @@
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="28" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -701,8 +704,11 @@
       <c r="AN1" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="AO1" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -823,8 +829,11 @@
       <c r="AN2">
         <v>0</v>
       </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -945,8 +954,11 @@
       <c r="AN3">
         <v>18.059946848652984</v>
       </c>
+      <c r="AO3">
+        <v>17.434819783586502</v>
+      </c>
     </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1067,8 +1079,11 @@
       <c r="AN4">
         <v>15.628244088871613</v>
       </c>
+      <c r="AO4">
+        <v>16.500922457349205</v>
+      </c>
     </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1189,8 +1204,11 @@
       <c r="AN5">
         <v>22.058646804729133</v>
       </c>
+      <c r="AO5">
+        <v>20.153971215047854</v>
+      </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1311,8 +1329,11 @@
       <c r="AN6">
         <v>0</v>
       </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1433,8 +1454,11 @@
       <c r="AN7">
         <v>4.5434088342255592</v>
       </c>
+      <c r="AO7">
+        <v>8.4121172344980533</v>
+      </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1555,8 +1579,11 @@
       <c r="AN8">
         <v>5.8319774095429713</v>
       </c>
+      <c r="AO8">
+        <v>6.5614872419778925</v>
+      </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1677,8 +1704,11 @@
       <c r="AN9">
         <v>16.812588227818729</v>
       </c>
+      <c r="AO9">
+        <v>15.648249761236167</v>
+      </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1799,8 +1829,11 @@
       <c r="AN10">
         <v>16.315969771958027</v>
       </c>
+      <c r="AO10">
+        <v>15.534729889681385</v>
+      </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1921,8 +1954,11 @@
       <c r="AN11">
         <v>8.8123318708146101</v>
       </c>
+      <c r="AO11">
+        <v>7.9180654772955563</v>
+      </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2043,8 +2079,11 @@
       <c r="AN12">
         <v>0</v>
       </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2165,8 +2204,11 @@
       <c r="AN13">
         <v>12.971410086591584</v>
       </c>
+      <c r="AO13">
+        <v>11.864538843514532</v>
+      </c>
     </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2287,8 +2329,11 @@
       <c r="AN14">
         <v>0</v>
       </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2409,8 +2454,11 @@
       <c r="AN15">
         <v>0</v>
       </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2531,8 +2579,11 @@
       <c r="AN16">
         <v>2.4721278280188441</v>
       </c>
+      <c r="AO16">
+        <v>0.22576509844920953</v>
+      </c>
     </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2653,8 +2704,11 @@
       <c r="AN17">
         <v>0</v>
       </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2773,6 +2827,9 @@
         <v>0</v>
       </c>
       <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52B11CFB-6E8B-4DF4-BF9F-97D003A7FC38}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2244A834-ADFB-4947-89E9-FB404BBAF4AE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Línea</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>31-jul</t>
+  </si>
+  <si>
+    <t>01-ago</t>
   </si>
 </sst>
 </file>
@@ -564,10 +567,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AP18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+      <selection activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +586,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -707,8 +710,11 @@
       <c r="AO1" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="AP1" s="3" t="s">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="AO2">
         <v>0</v>
       </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -957,8 +966,11 @@
       <c r="AO3">
         <v>17.434819783586502</v>
       </c>
+      <c r="AP3">
+        <v>17.739341569465441</v>
+      </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1082,8 +1094,11 @@
       <c r="AO4">
         <v>16.500922457349205</v>
       </c>
+      <c r="AP4">
+        <v>17.25967898842293</v>
+      </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1207,8 +1222,11 @@
       <c r="AO5">
         <v>20.153971215047854</v>
       </c>
+      <c r="AP5">
+        <v>23.484576240675192</v>
+      </c>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1332,8 +1350,11 @@
       <c r="AO6">
         <v>0</v>
       </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1457,8 +1478,11 @@
       <c r="AO7">
         <v>8.4121172344980533</v>
       </c>
+      <c r="AP7">
+        <v>11.361505408100504</v>
+      </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1582,8 +1606,11 @@
       <c r="AO8">
         <v>6.5614872419778925</v>
       </c>
+      <c r="AP8">
+        <v>10.854212682994305</v>
+      </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1707,8 +1734,11 @@
       <c r="AO9">
         <v>15.648249761236167</v>
       </c>
+      <c r="AP9">
+        <v>15.324218930563593</v>
+      </c>
     </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1832,8 +1862,11 @@
       <c r="AO10">
         <v>15.534729889681385</v>
       </c>
+      <c r="AP10">
+        <v>15.656736395367849</v>
+      </c>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1957,8 +1990,11 @@
       <c r="AO11">
         <v>7.9180654772955563</v>
       </c>
+      <c r="AP11">
+        <v>9.4022613603242409</v>
+      </c>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2082,8 +2118,11 @@
       <c r="AO12">
         <v>0</v>
       </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2207,8 +2246,11 @@
       <c r="AO13">
         <v>11.864538843514532</v>
       </c>
+      <c r="AP13">
+        <v>11.473445449940511</v>
+      </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2332,8 +2374,11 @@
       <c r="AO14">
         <v>0</v>
       </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2457,8 +2502,11 @@
       <c r="AO15">
         <v>0</v>
       </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2582,8 +2630,11 @@
       <c r="AO16">
         <v>0.22576509844920953</v>
       </c>
+      <c r="AP16">
+        <v>6.4035590373244649</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2707,8 +2758,11 @@
       <c r="AO17">
         <v>0</v>
       </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2830,6 +2884,9 @@
         <v>0</v>
       </c>
       <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2244A834-ADFB-4947-89E9-FB404BBAF4AE}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B618F3C8-335B-4A5A-B677-0E397B755509}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>Línea</t>
   </si>
@@ -229,6 +229,9 @@
   </si>
   <si>
     <t>01-ago</t>
+  </si>
+  <si>
+    <t>02-ago</t>
   </si>
 </sst>
 </file>
@@ -567,7 +570,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AP18"/>
+  <dimension ref="A1:AQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AS7" sqref="AS7"/>
@@ -586,7 +589,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -713,8 +716,11 @@
       <c r="AP1" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="AQ1" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -841,8 +847,11 @@
       <c r="AP2">
         <v>0</v>
       </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -969,8 +978,11 @@
       <c r="AP3">
         <v>17.739341569465441</v>
       </c>
+      <c r="AQ3">
+        <v>16.651895630789305</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1097,8 +1109,11 @@
       <c r="AP4">
         <v>17.25967898842293</v>
       </c>
+      <c r="AQ4">
+        <v>16.382439903877927</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1225,8 +1240,11 @@
       <c r="AP5">
         <v>23.484576240675192</v>
       </c>
+      <c r="AQ5">
+        <v>21.437824827707033</v>
+      </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1353,8 +1371,11 @@
       <c r="AP6">
         <v>0</v>
       </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1481,8 +1502,11 @@
       <c r="AP7">
         <v>11.361505408100504</v>
       </c>
+      <c r="AQ7">
+        <v>14.037490135098141</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1609,8 +1633,11 @@
       <c r="AP8">
         <v>10.854212682994305</v>
       </c>
+      <c r="AQ8">
+        <v>8.7223461005345975</v>
+      </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1737,8 +1764,11 @@
       <c r="AP9">
         <v>15.324218930563593</v>
       </c>
+      <c r="AQ9">
+        <v>14.279971016631979</v>
+      </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1865,8 +1895,11 @@
       <c r="AP10">
         <v>15.656736395367849</v>
       </c>
+      <c r="AQ10">
+        <v>15.161708685889922</v>
+      </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1993,8 +2026,11 @@
       <c r="AP11">
         <v>9.4022613603242409</v>
       </c>
+      <c r="AQ11">
+        <v>12.435248895912705</v>
+      </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2121,8 +2157,11 @@
       <c r="AP12">
         <v>0</v>
       </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2249,8 +2288,11 @@
       <c r="AP13">
         <v>11.473445449940511</v>
       </c>
+      <c r="AQ13">
+        <v>10.016256522474805</v>
+      </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2377,8 +2419,11 @@
       <c r="AP14">
         <v>0</v>
       </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2505,8 +2550,11 @@
       <c r="AP15">
         <v>0</v>
       </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2633,8 +2681,11 @@
       <c r="AP16">
         <v>6.4035590373244649</v>
       </c>
+      <c r="AQ16">
+        <v>12.697432316260828</v>
+      </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2761,8 +2812,11 @@
       <c r="AP17">
         <v>0</v>
       </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2887,6 +2941,9 @@
         <v>0</v>
       </c>
       <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B618F3C8-335B-4A5A-B677-0E397B755509}"/>
+  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9DD6BC-B58F-43E0-81F9-09DC86E83802}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>Línea</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>02-ago</t>
+  </si>
+  <si>
+    <t>03-ago</t>
   </si>
 </sst>
 </file>
@@ -570,10 +573,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AQ18"/>
+  <dimension ref="A1:AR18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AS7" sqref="AS7"/>
+      <selection activeCell="AT7" sqref="AT7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -719,8 +722,11 @@
       <c r="AQ1" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="AR1" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -850,8 +856,11 @@
       <c r="AQ2">
         <v>0</v>
       </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -981,8 +990,11 @@
       <c r="AQ3">
         <v>16.651895630789305</v>
       </c>
+      <c r="AR3">
+        <v>15.689327096616635</v>
+      </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1112,8 +1124,11 @@
       <c r="AQ4">
         <v>16.382439903877927</v>
       </c>
+      <c r="AR4">
+        <v>19.966936274338202</v>
+      </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1243,8 +1258,11 @@
       <c r="AQ5">
         <v>21.437824827707033</v>
       </c>
+      <c r="AR5">
+        <v>18.822531355581052</v>
+      </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1374,8 +1392,11 @@
       <c r="AQ6">
         <v>0</v>
       </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1505,8 +1526,11 @@
       <c r="AQ7">
         <v>14.037490135098141</v>
       </c>
+      <c r="AR7">
+        <v>15.114920988675921</v>
+      </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1636,8 +1660,11 @@
       <c r="AQ8">
         <v>8.7223461005345975</v>
       </c>
+      <c r="AR8">
+        <v>8.3982846636579307</v>
+      </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1767,8 +1794,11 @@
       <c r="AQ9">
         <v>14.279971016631979</v>
       </c>
+      <c r="AR9">
+        <v>12.541465128871852</v>
+      </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1898,8 +1928,11 @@
       <c r="AQ10">
         <v>15.161708685889922</v>
       </c>
+      <c r="AR10">
+        <v>11.648992059434557</v>
+      </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2029,8 +2062,11 @@
       <c r="AQ11">
         <v>12.435248895912705</v>
       </c>
+      <c r="AR11">
+        <v>15.023644843967348</v>
+      </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2160,8 +2196,11 @@
       <c r="AQ12">
         <v>0</v>
       </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2291,8 +2330,11 @@
       <c r="AQ13">
         <v>10.016256522474805</v>
       </c>
+      <c r="AR13">
+        <v>6.6675980200815719</v>
+      </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2422,8 +2464,11 @@
       <c r="AQ14">
         <v>0</v>
       </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2553,8 +2598,11 @@
       <c r="AQ15">
         <v>0</v>
       </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2684,8 +2732,11 @@
       <c r="AQ16">
         <v>12.697432316260828</v>
       </c>
+      <c r="AR16">
+        <v>11.506558368047143</v>
+      </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2815,8 +2866,11 @@
       <c r="AQ17">
         <v>0</v>
       </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -2944,6 +2998,9 @@
         <v>0</v>
       </c>
       <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="98" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9DD6BC-B58F-43E0-81F9-09DC86E83802}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E995CC8-C938-4EAD-944B-911749B5597C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
   <si>
     <t>Línea</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>03-ago</t>
+  </si>
+  <si>
+    <t>04-ago</t>
   </si>
 </sst>
 </file>
@@ -573,10 +576,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AR18"/>
+  <dimension ref="A1:AS18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AT7" sqref="AT7"/>
+      <selection activeCell="AU7" sqref="AU7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +595,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -725,8 +728,11 @@
       <c r="AR1" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="AS1" s="3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -859,8 +865,11 @@
       <c r="AR2">
         <v>0</v>
       </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -991,10 +1000,13 @@
         <v>16.651895630789305</v>
       </c>
       <c r="AR3">
+        <v>16.90502550478282</v>
+      </c>
+      <c r="AS3">
         <v>15.689327096616635</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1125,10 +1137,13 @@
         <v>16.382439903877927</v>
       </c>
       <c r="AR4">
+        <v>18.25753844709287</v>
+      </c>
+      <c r="AS4">
         <v>19.966936274338202</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1259,10 +1274,13 @@
         <v>21.437824827707033</v>
       </c>
       <c r="AR5">
+        <v>20.080904446517032</v>
+      </c>
+      <c r="AS5">
         <v>18.822531355581052</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1395,8 +1413,11 @@
       <c r="AR6">
         <v>0</v>
       </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1527,10 +1548,13 @@
         <v>14.037490135098141</v>
       </c>
       <c r="AR7">
+        <v>13.476089988166191</v>
+      </c>
+      <c r="AS7">
         <v>15.114920988675921</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1661,10 +1685,13 @@
         <v>8.7223461005345975</v>
       </c>
       <c r="AR8">
+        <v>7.6357437427157979</v>
+      </c>
+      <c r="AS8">
         <v>8.3982846636579307</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1795,10 +1822,13 @@
         <v>14.279971016631979</v>
       </c>
       <c r="AR9">
+        <v>13.755462932008793</v>
+      </c>
+      <c r="AS9">
         <v>12.541465128871852</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1929,10 +1959,13 @@
         <v>15.161708685889922</v>
       </c>
       <c r="AR10">
+        <v>14.56767543451641</v>
+      </c>
+      <c r="AS10">
         <v>11.648992059434557</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2063,10 +2096,13 @@
         <v>12.435248895912705</v>
       </c>
       <c r="AR11">
+        <v>14.188463642094328</v>
+      </c>
+      <c r="AS11">
         <v>15.023644843967348</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2199,8 +2235,11 @@
       <c r="AR12">
         <v>0</v>
       </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2331,10 +2370,13 @@
         <v>10.016256522474805</v>
       </c>
       <c r="AR13">
+        <v>8.7009517800518097</v>
+      </c>
+      <c r="AS13">
         <v>6.6675980200815719</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2467,8 +2509,11 @@
       <c r="AR14">
         <v>0</v>
       </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2601,8 +2646,11 @@
       <c r="AR15">
         <v>0</v>
       </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2733,10 +2781,13 @@
         <v>12.697432316260828</v>
       </c>
       <c r="AR16">
+        <v>11.778161198341493</v>
+      </c>
+      <c r="AS16">
         <v>11.506558368047143</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2869,8 +2920,11 @@
       <c r="AR17">
         <v>0</v>
       </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3001,6 +3055,9 @@
         <v>0</v>
       </c>
       <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E995CC8-C938-4EAD-944B-911749B5597C}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998BEDC0-7223-40AA-AF4F-253ACD25C194}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Línea</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>04-ago</t>
+  </si>
+  <si>
+    <t>07-ago</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AS18"/>
+  <dimension ref="A1:AT18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AU7" sqref="AU7"/>
+      <selection activeCell="AV5" sqref="AV5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +598,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -731,8 +734,11 @@
       <c r="AS1" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="AT1" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -868,8 +874,11 @@
       <c r="AS2">
         <v>0</v>
       </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1005,8 +1014,11 @@
       <c r="AS3">
         <v>15.689327096616635</v>
       </c>
+      <c r="AT3">
+        <v>14.103146384608888</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1142,8 +1154,11 @@
       <c r="AS4">
         <v>19.966936274338202</v>
       </c>
+      <c r="AT4">
+        <v>19.175891190222764</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1279,8 +1294,11 @@
       <c r="AS5">
         <v>18.822531355581052</v>
       </c>
+      <c r="AT5">
+        <v>17.72017533329516</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1416,8 +1434,11 @@
       <c r="AS6">
         <v>0</v>
       </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1553,8 +1574,11 @@
       <c r="AS7">
         <v>15.114920988675921</v>
       </c>
+      <c r="AT7">
+        <v>14.672089134327582</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1690,8 +1714,11 @@
       <c r="AS8">
         <v>8.3982846636579307</v>
       </c>
+      <c r="AT8">
+        <v>15.75586833200383</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1827,8 +1854,11 @@
       <c r="AS9">
         <v>12.541465128871852</v>
       </c>
+      <c r="AT9">
+        <v>11.856526897434366</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1964,8 +1994,11 @@
       <c r="AS10">
         <v>11.648992059434557</v>
       </c>
+      <c r="AT10">
+        <v>11.368491737273116</v>
+      </c>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2101,8 +2134,11 @@
       <c r="AS11">
         <v>15.023644843967348</v>
       </c>
+      <c r="AT11">
+        <v>14.49408607939103</v>
+      </c>
     </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2238,8 +2274,11 @@
       <c r="AS12">
         <v>0</v>
       </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2375,8 +2414,11 @@
       <c r="AS13">
         <v>6.6675980200815719</v>
       </c>
+      <c r="AT13">
+        <v>5.8945829087612465</v>
+      </c>
     </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2512,8 +2554,11 @@
       <c r="AS14">
         <v>0</v>
       </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2649,8 +2694,11 @@
       <c r="AS15">
         <v>0</v>
       </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2786,8 +2834,11 @@
       <c r="AS16">
         <v>11.506558368047143</v>
       </c>
+      <c r="AT16">
+        <v>12.567299766239854</v>
+      </c>
     </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2923,8 +2974,11 @@
       <c r="AS17">
         <v>0</v>
       </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3058,6 +3112,9 @@
         <v>0</v>
       </c>
       <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{998BEDC0-7223-40AA-AF4F-253ACD25C194}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3113C74D-D137-482E-86ED-574C27A31910}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>Línea</t>
   </si>
@@ -241,6 +241,9 @@
   </si>
   <si>
     <t>07-ago</t>
+  </si>
+  <si>
+    <t>08-ago</t>
   </si>
 </sst>
 </file>
@@ -579,10 +582,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AT18"/>
+  <dimension ref="A1:AU18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AV5" sqref="AV5"/>
+      <selection activeCell="AW5" sqref="AW5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,7 +601,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -737,8 +740,11 @@
       <c r="AT1" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="AU1" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -877,8 +883,11 @@
       <c r="AT2">
         <v>0</v>
       </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1017,8 +1026,11 @@
       <c r="AT3">
         <v>14.103146384608888</v>
       </c>
+      <c r="AU3">
+        <v>13.00976649845494</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1157,8 +1169,11 @@
       <c r="AT4">
         <v>19.175891190222764</v>
       </c>
+      <c r="AU4">
+        <v>18.670726704322401</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1297,8 +1312,11 @@
       <c r="AT5">
         <v>17.72017533329516</v>
       </c>
+      <c r="AU5">
+        <v>15.543866453957417</v>
+      </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1437,8 +1455,11 @@
       <c r="AT6">
         <v>0</v>
       </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1577,8 +1598,11 @@
       <c r="AT7">
         <v>14.672089134327582</v>
       </c>
+      <c r="AU7">
+        <v>8.4651412514770641</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1717,8 +1741,11 @@
       <c r="AT8">
         <v>15.75586833200383</v>
       </c>
+      <c r="AU8">
+        <v>14.613141895780513</v>
+      </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1857,8 +1884,11 @@
       <c r="AT9">
         <v>11.856526897434366</v>
       </c>
+      <c r="AU9">
+        <v>11.426605606748559</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1997,8 +2027,11 @@
       <c r="AT10">
         <v>11.368491737273116</v>
       </c>
+      <c r="AU10">
+        <v>17.512875661830336</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2137,8 +2170,11 @@
       <c r="AT11">
         <v>14.49408607939103</v>
       </c>
+      <c r="AU11">
+        <v>14.079554146773756</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2277,8 +2313,11 @@
       <c r="AT12">
         <v>0</v>
       </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2417,8 +2456,11 @@
       <c r="AT13">
         <v>5.8945829087612465</v>
       </c>
+      <c r="AU13">
+        <v>6.7693726043457261</v>
+      </c>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2557,8 +2599,11 @@
       <c r="AT14">
         <v>0</v>
       </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2697,8 +2742,11 @@
       <c r="AT15">
         <v>0</v>
       </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2837,8 +2885,11 @@
       <c r="AT16">
         <v>12.567299766239854</v>
       </c>
+      <c r="AU16">
+        <v>11.335939523265097</v>
+      </c>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2977,8 +3028,11 @@
       <c r="AT17">
         <v>0</v>
       </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3115,6 +3169,9 @@
         <v>0</v>
       </c>
       <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3113C74D-D137-482E-86ED-574C27A31910}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5952FE56-EBBA-455C-A5F8-B7F565A6D48C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
   <si>
     <t>Línea</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>08-ago</t>
+  </si>
+  <si>
+    <t>09-ago</t>
   </si>
 </sst>
 </file>
@@ -582,10 +585,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AU18"/>
+  <dimension ref="A1:AV18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AW5" sqref="AW5"/>
+      <selection activeCell="AW7" sqref="AW7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +604,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -743,8 +746,11 @@
       <c r="AU1" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="AV1" s="3" t="s">
+        <v>70</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -886,8 +892,11 @@
       <c r="AU2">
         <v>0</v>
       </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1029,8 +1038,11 @@
       <c r="AU3">
         <v>13.00976649845494</v>
       </c>
+      <c r="AV3">
+        <v>13.963963764522161</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1172,8 +1184,11 @@
       <c r="AU4">
         <v>18.670726704322401</v>
       </c>
+      <c r="AV4">
+        <v>18.562568061245496</v>
+      </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1315,8 +1330,11 @@
       <c r="AU5">
         <v>15.543866453957417</v>
       </c>
+      <c r="AV5">
+        <v>17.904324546162204</v>
+      </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1458,8 +1476,11 @@
       <c r="AU6">
         <v>0</v>
       </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1601,8 +1622,11 @@
       <c r="AU7">
         <v>8.4651412514770641</v>
       </c>
+      <c r="AV7">
+        <v>15.84464979576129</v>
+      </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1744,8 +1768,11 @@
       <c r="AU8">
         <v>14.613141895780513</v>
       </c>
+      <c r="AV8">
+        <v>15.175125690339041</v>
+      </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1887,8 +1914,11 @@
       <c r="AU9">
         <v>11.426605606748559</v>
       </c>
+      <c r="AV9">
+        <v>10.415863499507099</v>
+      </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2030,8 +2060,11 @@
       <c r="AU10">
         <v>17.512875661830336</v>
       </c>
+      <c r="AV10">
+        <v>15.281259224339818</v>
+      </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2173,8 +2206,11 @@
       <c r="AU11">
         <v>14.079554146773756</v>
       </c>
+      <c r="AV11">
+        <v>12.780891376323334</v>
+      </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2316,8 +2352,11 @@
       <c r="AU12">
         <v>0</v>
       </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2459,8 +2498,11 @@
       <c r="AU13">
         <v>6.7693726043457261</v>
       </c>
+      <c r="AV13">
+        <v>10.243537395381232</v>
+      </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2602,8 +2644,11 @@
       <c r="AU14">
         <v>0</v>
       </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2745,8 +2790,11 @@
       <c r="AU15">
         <v>0</v>
       </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2888,8 +2936,11 @@
       <c r="AU16">
         <v>11.335939523265097</v>
       </c>
+      <c r="AV16">
+        <v>10.71097779190605</v>
+      </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3031,8 +3082,11 @@
       <c r="AU17">
         <v>0</v>
       </c>
+      <c r="AV17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3172,6 +3226,9 @@
         <v>0</v>
       </c>
       <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AV18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5952FE56-EBBA-455C-A5F8-B7F565A6D48C}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F7AE84-C40C-4898-BC3C-ACA823AC8D59}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
   <si>
     <t>Línea</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>09-ago</t>
+  </si>
+  <si>
+    <t>10-ago</t>
   </si>
 </sst>
 </file>
@@ -585,10 +588,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AV18"/>
+  <dimension ref="A1:AW18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AW7" sqref="AW7"/>
+      <selection activeCell="AY7" sqref="AY7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,7 +607,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -749,8 +752,11 @@
       <c r="AV1" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="AW1" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -895,8 +901,11 @@
       <c r="AV2">
         <v>0</v>
       </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1041,8 +1050,11 @@
       <c r="AV3">
         <v>13.963963764522161</v>
       </c>
+      <c r="AW3">
+        <v>14.380819173936141</v>
+      </c>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1187,8 +1199,11 @@
       <c r="AV4">
         <v>18.562568061245496</v>
       </c>
+      <c r="AW4">
+        <v>19.030831363037265</v>
+      </c>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1333,8 +1348,11 @@
       <c r="AV5">
         <v>17.904324546162204</v>
       </c>
+      <c r="AW5">
+        <v>16.657132149926341</v>
+      </c>
     </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1479,8 +1497,11 @@
       <c r="AV6">
         <v>0</v>
       </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1625,8 +1646,11 @@
       <c r="AV7">
         <v>15.84464979576129</v>
       </c>
+      <c r="AW7">
+        <v>20.966458075265646</v>
+      </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1771,8 +1795,11 @@
       <c r="AV8">
         <v>15.175125690339041</v>
       </c>
+      <c r="AW8">
+        <v>17.832115395293926</v>
+      </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1917,8 +1944,11 @@
       <c r="AV9">
         <v>10.415863499507099</v>
       </c>
+      <c r="AW9">
+        <v>12.011222637791512</v>
+      </c>
     </row>
-    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2063,8 +2093,11 @@
       <c r="AV10">
         <v>15.281259224339818</v>
       </c>
+      <c r="AW10">
+        <v>13.836021912441199</v>
+      </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2209,8 +2242,11 @@
       <c r="AV11">
         <v>12.780891376323334</v>
       </c>
+      <c r="AW11">
+        <v>10.78547843868779</v>
+      </c>
     </row>
-    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2355,8 +2391,11 @@
       <c r="AV12">
         <v>0</v>
       </c>
+      <c r="AW12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2501,8 +2540,11 @@
       <c r="AV13">
         <v>10.243537395381232</v>
       </c>
+      <c r="AW13">
+        <v>13.993635850395382</v>
+      </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2647,8 +2689,11 @@
       <c r="AV14">
         <v>0</v>
       </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2793,8 +2838,11 @@
       <c r="AV15">
         <v>0</v>
       </c>
+      <c r="AW15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2939,8 +2987,11 @@
       <c r="AV16">
         <v>10.71097779190605</v>
       </c>
+      <c r="AW16">
+        <v>9.5724336476479834</v>
+      </c>
     </row>
-    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3085,8 +3136,11 @@
       <c r="AV17">
         <v>0</v>
       </c>
+      <c r="AW17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3229,6 +3283,9 @@
         <v>0</v>
       </c>
       <c r="AV18">
+        <v>0</v>
+      </c>
+      <c r="AW18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1F7AE84-C40C-4898-BC3C-ACA823AC8D59}"/>
+  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8887A3C3-593F-4B23-AA7D-8D2E0788B4A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Línea</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>10-ago</t>
+  </si>
+  <si>
+    <t>11-ago</t>
   </si>
 </sst>
 </file>
@@ -588,10 +591,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AW18"/>
+  <dimension ref="A1:AX18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AY7" sqref="AY7"/>
+      <selection activeCell="AY3" sqref="AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,7 +610,7 @@
     <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -755,8 +758,11 @@
       <c r="AW1" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="AX1" s="3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -904,8 +910,11 @@
       <c r="AW2">
         <v>0</v>
       </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1053,8 +1062,11 @@
       <c r="AW3">
         <v>14.380819173936141</v>
       </c>
+      <c r="AX3">
+        <v>16.37161535676869</v>
+      </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1202,8 +1214,11 @@
       <c r="AW4">
         <v>19.030831363037265</v>
       </c>
+      <c r="AX4">
+        <v>19.189888191091537</v>
+      </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1351,8 +1366,11 @@
       <c r="AW5">
         <v>16.657132149926341</v>
       </c>
+      <c r="AX5">
+        <v>15.51038477889068</v>
+      </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1500,8 +1518,11 @@
       <c r="AW6">
         <v>0</v>
       </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1649,8 +1670,11 @@
       <c r="AW7">
         <v>20.966458075265646</v>
       </c>
+      <c r="AX7">
+        <v>22.283401534305217</v>
+      </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1798,8 +1822,11 @@
       <c r="AW8">
         <v>17.832115395293926</v>
       </c>
+      <c r="AX8">
+        <v>15.622993165001118</v>
+      </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1947,8 +1974,11 @@
       <c r="AW9">
         <v>12.011222637791512</v>
       </c>
+      <c r="AX9">
+        <v>14.050738871089072</v>
+      </c>
     </row>
-    <row r="10" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2096,8 +2126,11 @@
       <c r="AW10">
         <v>13.836021912441199</v>
       </c>
+      <c r="AX10">
+        <v>11.625658964831546</v>
+      </c>
     </row>
-    <row r="11" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2245,8 +2278,11 @@
       <c r="AW11">
         <v>10.78547843868779</v>
       </c>
+      <c r="AX11">
+        <v>9.5946551562429665</v>
+      </c>
     </row>
-    <row r="12" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2394,8 +2430,11 @@
       <c r="AW12">
         <v>0</v>
       </c>
+      <c r="AX12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2543,8 +2582,11 @@
       <c r="AW13">
         <v>13.993635850395382</v>
       </c>
+      <c r="AX13">
+        <v>13.042864421251565</v>
+      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2692,8 +2734,11 @@
       <c r="AW14">
         <v>0</v>
       </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2841,8 +2886,11 @@
       <c r="AW15">
         <v>0</v>
       </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -2990,8 +3038,11 @@
       <c r="AW16">
         <v>9.5724336476479834</v>
       </c>
+      <c r="AX16">
+        <v>8.1121270278387243</v>
+      </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3139,8 +3190,11 @@
       <c r="AW17">
         <v>0</v>
       </c>
+      <c r="AX17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3286,6 +3340,9 @@
         <v>0</v>
       </c>
       <c r="AW18">
+        <v>0</v>
+      </c>
+      <c r="AX18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="116" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8887A3C3-593F-4B23-AA7D-8D2E0788B4A3}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E040BDA-8002-4216-B742-A67BF2B908BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>Línea</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>11-ago</t>
+  </si>
+  <si>
+    <t>14-ago</t>
   </si>
 </sst>
 </file>
@@ -591,10 +594,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AX18"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AY3" sqref="AY3"/>
+      <selection activeCell="AY2" sqref="AY2:AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,10 +610,10 @@
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="37" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -761,8 +764,11 @@
       <c r="AX1" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="AY1" s="3" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -913,8 +919,11 @@
       <c r="AX2">
         <v>0</v>
       </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1065,8 +1074,11 @@
       <c r="AX3">
         <v>16.37161535676869</v>
       </c>
+      <c r="AY3">
+        <v>17.471036026470173</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1217,8 +1229,11 @@
       <c r="AX4">
         <v>19.189888191091537</v>
       </c>
+      <c r="AY4">
+        <v>18.62859577367583</v>
+      </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1369,8 +1384,11 @@
       <c r="AX5">
         <v>15.51038477889068</v>
       </c>
+      <c r="AY5">
+        <v>13.00852083249233</v>
+      </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1521,8 +1539,11 @@
       <c r="AX6">
         <v>0</v>
       </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1673,8 +1694,11 @@
       <c r="AX7">
         <v>22.283401534305217</v>
       </c>
+      <c r="AY7">
+        <v>22.312450829281918</v>
+      </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1825,8 +1849,11 @@
       <c r="AX8">
         <v>15.622993165001118</v>
       </c>
+      <c r="AY8">
+        <v>12.909476434487644</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1977,8 +2004,11 @@
       <c r="AX9">
         <v>14.050738871089072</v>
       </c>
+      <c r="AY9">
+        <v>13.622743317224776</v>
+      </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2129,8 +2159,11 @@
       <c r="AX10">
         <v>11.625658964831546</v>
       </c>
+      <c r="AY10">
+        <v>10.379891936413133</v>
+      </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2281,8 +2314,11 @@
       <c r="AX11">
         <v>9.5946551562429665</v>
       </c>
+      <c r="AY11">
+        <v>8.5388710638244518</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2433,8 +2469,11 @@
       <c r="AX12">
         <v>0</v>
       </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2585,8 +2624,11 @@
       <c r="AX13">
         <v>13.042864421251565</v>
       </c>
+      <c r="AY13">
+        <v>13.695878812869779</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2737,8 +2779,11 @@
       <c r="AX14">
         <v>0</v>
       </c>
+      <c r="AY14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2889,8 +2934,11 @@
       <c r="AX15">
         <v>0</v>
       </c>
+      <c r="AY15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3041,8 +3089,11 @@
       <c r="AX16">
         <v>8.1121270278387243</v>
       </c>
+      <c r="AY16">
+        <v>15.711033388543576</v>
+      </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3193,8 +3244,11 @@
       <c r="AX17">
         <v>0</v>
       </c>
+      <c r="AY17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3343,6 +3397,9 @@
         <v>0</v>
       </c>
       <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E040BDA-8002-4216-B742-A67BF2B908BB}"/>
+  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42541A39-A9A2-4482-9DB0-5433CB1A3230}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>Línea</t>
   </si>
@@ -256,6 +256,18 @@
   </si>
   <si>
     <t>14-ago</t>
+  </si>
+  <si>
+    <t>16-ago</t>
+  </si>
+  <si>
+    <t>17-ago</t>
+  </si>
+  <si>
+    <t>18-ago</t>
+  </si>
+  <si>
+    <t>22-ago</t>
   </si>
 </sst>
 </file>
@@ -594,10 +606,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:BC18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2:AY18"/>
+      <selection activeCell="BE9" sqref="BE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,7 +625,7 @@
     <col min="11" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -767,8 +779,20 @@
       <c r="AY1" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="AZ1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BB1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC1" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -922,8 +946,20 @@
       <c r="AY2">
         <v>0</v>
       </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1077,8 +1113,20 @@
       <c r="AY3">
         <v>17.471036026470173</v>
       </c>
+      <c r="AZ3">
+        <v>16.72581762695949</v>
+      </c>
+      <c r="BA3">
+        <v>14.740217530833212</v>
+      </c>
+      <c r="BB3">
+        <v>13.691533671864502</v>
+      </c>
+      <c r="BC3">
+        <v>10.777018540069239</v>
+      </c>
     </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1232,8 +1280,20 @@
       <c r="AY4">
         <v>18.62859577367583</v>
       </c>
+      <c r="AZ4">
+        <v>18.818043194818785</v>
+      </c>
+      <c r="BA4">
+        <v>19.960144967120499</v>
+      </c>
+      <c r="BB4">
+        <v>19.387145101836023</v>
+      </c>
+      <c r="BC4">
+        <v>17.969858079165061</v>
+      </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1387,8 +1447,20 @@
       <c r="AY5">
         <v>13.00852083249233</v>
       </c>
+      <c r="AZ5">
+        <v>15.429149913526052</v>
+      </c>
+      <c r="BA5">
+        <v>14.054991147108684</v>
+      </c>
+      <c r="BB5">
+        <v>12.83351668807102</v>
+      </c>
+      <c r="BC5">
+        <v>24.140000030352329</v>
+      </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1542,8 +1614,20 @@
       <c r="AY6">
         <v>0</v>
       </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1697,8 +1781,20 @@
       <c r="AY7">
         <v>22.312450829281918</v>
       </c>
+      <c r="AZ7">
+        <v>17.798327699583332</v>
+      </c>
+      <c r="BA7">
+        <v>15.36157249125</v>
+      </c>
+      <c r="BB7">
+        <v>17.714209574583332</v>
+      </c>
+      <c r="BC7">
+        <v>16.35543054</v>
+      </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1852,8 +1948,20 @@
       <c r="AY8">
         <v>12.909476434487644</v>
       </c>
+      <c r="AZ8">
+        <v>10.923344317743496</v>
+      </c>
+      <c r="BA8">
+        <v>10.910910232009014</v>
+      </c>
+      <c r="BB8">
+        <v>18.688430858928257</v>
+      </c>
+      <c r="BC8">
+        <v>27.143643547145082</v>
+      </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2007,8 +2115,20 @@
       <c r="AY9">
         <v>13.622743317224776</v>
       </c>
+      <c r="AZ9">
+        <v>13.689515933258763</v>
+      </c>
+      <c r="BA9">
+        <v>15.27918512076481</v>
+      </c>
+      <c r="BB9">
+        <v>17.540477460439064</v>
+      </c>
+      <c r="BC9">
+        <v>12.683070220135964</v>
+      </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2162,8 +2282,20 @@
       <c r="AY10">
         <v>10.379891936413133</v>
       </c>
+      <c r="AZ10">
+        <v>7.9249502724298022</v>
+      </c>
+      <c r="BA10">
+        <v>5.5504855470052172</v>
+      </c>
+      <c r="BB10">
+        <v>6.5053828093824233</v>
+      </c>
+      <c r="BC10">
+        <v>7.7129678895261709</v>
+      </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2317,8 +2449,20 @@
       <c r="AY11">
         <v>8.5388710638244518</v>
       </c>
+      <c r="AZ11">
+        <v>10.563495125915415</v>
+      </c>
+      <c r="BA11">
+        <v>11.478486262124781</v>
+      </c>
+      <c r="BB11">
+        <v>13.287532296681094</v>
+      </c>
+      <c r="BC11">
+        <v>9.6923635399766965</v>
+      </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2472,8 +2616,20 @@
       <c r="AY12">
         <v>0</v>
       </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2627,8 +2783,20 @@
       <c r="AY13">
         <v>13.695878812869779</v>
       </c>
+      <c r="AZ13">
+        <v>11.421590914992073</v>
+      </c>
+      <c r="BA13">
+        <v>9.7691323624350179</v>
+      </c>
+      <c r="BB13">
+        <v>8.3477647568830644</v>
+      </c>
+      <c r="BC13">
+        <v>11.972790548583601</v>
+      </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2782,8 +2950,20 @@
       <c r="AY14">
         <v>0</v>
       </c>
+      <c r="AZ14">
+        <v>0</v>
+      </c>
+      <c r="BA14">
+        <v>0</v>
+      </c>
+      <c r="BB14">
+        <v>0</v>
+      </c>
+      <c r="BC14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2937,8 +3117,20 @@
       <c r="AY15">
         <v>0</v>
       </c>
+      <c r="AZ15">
+        <v>0</v>
+      </c>
+      <c r="BA15">
+        <v>0</v>
+      </c>
+      <c r="BB15">
+        <v>0</v>
+      </c>
+      <c r="BC15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3092,8 +3284,20 @@
       <c r="AY16">
         <v>15.711033388543576</v>
       </c>
+      <c r="AZ16">
+        <v>11.859470296760426</v>
+      </c>
+      <c r="BA16">
+        <v>10.861278408055139</v>
+      </c>
+      <c r="BB16">
+        <v>9.5778888368626287</v>
+      </c>
+      <c r="BC16">
+        <v>6.4515444224646235</v>
+      </c>
     </row>
-    <row r="17" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3247,8 +3451,20 @@
       <c r="AY17">
         <v>0</v>
       </c>
+      <c r="AZ17">
+        <v>0</v>
+      </c>
+      <c r="BA17">
+        <v>0</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:51" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3400,6 +3616,18 @@
         <v>0</v>
       </c>
       <c r="AY18">
+        <v>0</v>
+      </c>
+      <c r="AZ18">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>0</v>
+      </c>
+      <c r="BB18">
+        <v>0</v>
+      </c>
+      <c r="BC18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="127" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42541A39-A9A2-4482-9DB0-5433CB1A3230}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C376355B-1CF9-4A4E-81E2-F8240A313246}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
   <si>
     <t>Línea</t>
   </si>
@@ -268,6 +268,9 @@
   </si>
   <si>
     <t>22-ago</t>
+  </si>
+  <si>
+    <t>23-ago</t>
   </si>
 </sst>
 </file>
@@ -606,10 +609,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BC18"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BE9" sqref="BE9"/>
+      <selection activeCell="BE6" sqref="BE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +628,7 @@
     <col min="11" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -791,8 +794,11 @@
       <c r="BC1" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="BD1" s="3" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -958,8 +964,11 @@
       <c r="BC2">
         <v>0</v>
       </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1125,8 +1134,11 @@
       <c r="BC3">
         <v>10.777018540069239</v>
       </c>
+      <c r="BD3">
+        <v>10.462988970924169</v>
+      </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1292,8 +1304,11 @@
       <c r="BC4">
         <v>17.969858079165061</v>
       </c>
+      <c r="BD4">
+        <v>18.307513916545272</v>
+      </c>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1459,8 +1474,11 @@
       <c r="BC5">
         <v>24.140000030352329</v>
       </c>
+      <c r="BD5">
+        <v>22.329040240787812</v>
+      </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1626,8 +1644,11 @@
       <c r="BC6">
         <v>0</v>
       </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1793,8 +1814,11 @@
       <c r="BC7">
         <v>16.35543054</v>
       </c>
+      <c r="BD7">
+        <v>14.647075100176433</v>
+      </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1960,8 +1984,11 @@
       <c r="BC8">
         <v>27.143643547145082</v>
       </c>
+      <c r="BD8">
+        <v>19.910911972361824</v>
+      </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2127,8 +2154,11 @@
       <c r="BC9">
         <v>12.683070220135964</v>
       </c>
+      <c r="BD9">
+        <v>12.996003441818548</v>
+      </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2294,8 +2324,11 @@
       <c r="BC10">
         <v>7.7129678895261709</v>
       </c>
+      <c r="BD10">
+        <v>5.5697887286241388</v>
+      </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2461,8 +2494,11 @@
       <c r="BC11">
         <v>9.6923635399766965</v>
       </c>
+      <c r="BD11">
+        <v>11.372584698734656</v>
+      </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2628,8 +2664,11 @@
       <c r="BC12">
         <v>0</v>
       </c>
+      <c r="BD12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2795,8 +2834,11 @@
       <c r="BC13">
         <v>11.972790548583601</v>
       </c>
+      <c r="BD13">
+        <v>10.3897971017286</v>
+      </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -2962,8 +3004,11 @@
       <c r="BC14">
         <v>0</v>
       </c>
+      <c r="BD14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3129,8 +3174,11 @@
       <c r="BC15">
         <v>0</v>
       </c>
+      <c r="BD15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3296,8 +3344,11 @@
       <c r="BC16">
         <v>6.4515444224646235</v>
       </c>
+      <c r="BD16">
+        <v>5.0108105179688893</v>
+      </c>
     </row>
-    <row r="17" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3463,8 +3514,11 @@
       <c r="BC17">
         <v>0</v>
       </c>
+      <c r="BD17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:55" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3628,6 +3682,9 @@
         <v>0</v>
       </c>
       <c r="BC18">
+        <v>0</v>
+      </c>
+      <c r="BD18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C376355B-1CF9-4A4E-81E2-F8240A313246}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27B8C8E-FB67-4058-9385-915FF87A7A32}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
   <si>
     <t>Línea</t>
   </si>
@@ -271,6 +271,9 @@
   </si>
   <si>
     <t>23-ago</t>
+  </si>
+  <si>
+    <t>24-ago</t>
   </si>
 </sst>
 </file>
@@ -609,10 +612,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BE6" sqref="BE6"/>
+      <selection activeCell="BG7" sqref="BG7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +631,7 @@
     <col min="11" max="45" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -797,8 +800,11 @@
       <c r="BD1" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="BE1" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -967,8 +973,11 @@
       <c r="BD2">
         <v>0</v>
       </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1137,8 +1146,11 @@
       <c r="BD3">
         <v>10.462988970924169</v>
       </c>
+      <c r="BE3">
+        <v>11.30610872990993</v>
+      </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1307,8 +1319,11 @@
       <c r="BD4">
         <v>18.307513916545272</v>
       </c>
+      <c r="BE4">
+        <v>19.613724179130244</v>
+      </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1477,8 +1492,11 @@
       <c r="BD5">
         <v>22.329040240787812</v>
       </c>
+      <c r="BE5">
+        <v>21.209603009491765</v>
+      </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1647,8 +1665,11 @@
       <c r="BD6">
         <v>0</v>
       </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1817,8 +1838,11 @@
       <c r="BD7">
         <v>14.647075100176433</v>
       </c>
+      <c r="BE7">
+        <v>13.847620683361276</v>
+      </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1987,8 +2011,11 @@
       <c r="BD8">
         <v>19.910911972361824</v>
       </c>
+      <c r="BE8">
+        <v>24.839863034507928</v>
+      </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2157,8 +2184,11 @@
       <c r="BD9">
         <v>12.996003441818548</v>
       </c>
+      <c r="BE9">
+        <v>11.859902798862157</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2327,8 +2357,11 @@
       <c r="BD10">
         <v>5.5697887286241388</v>
       </c>
+      <c r="BE10">
+        <v>3.7025223923995703</v>
+      </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2497,8 +2530,11 @@
       <c r="BD11">
         <v>11.372584698734656</v>
       </c>
+      <c r="BE11">
+        <v>13.882607946509887</v>
+      </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2667,8 +2703,11 @@
       <c r="BD12">
         <v>0</v>
       </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2837,8 +2876,11 @@
       <c r="BD13">
         <v>10.3897971017286</v>
       </c>
+      <c r="BE13">
+        <v>8.6832817927842729</v>
+      </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3007,8 +3049,11 @@
       <c r="BD14">
         <v>0</v>
       </c>
+      <c r="BE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3177,8 +3222,11 @@
       <c r="BD15">
         <v>0</v>
       </c>
+      <c r="BE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3347,8 +3395,11 @@
       <c r="BD16">
         <v>5.0108105179688893</v>
       </c>
+      <c r="BE16">
+        <v>4.3194735259753889</v>
+      </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3517,8 +3568,11 @@
       <c r="BD17">
         <v>0</v>
       </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3685,6 +3739,9 @@
         <v>0</v>
       </c>
       <c r="BD18">
+        <v>0</v>
+      </c>
+      <c r="BE18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E27B8C8E-FB67-4058-9385-915FF87A7A32}"/>
+  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B53D828D-DB6E-416E-B9F1-0C961FC20432}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
   <si>
     <t>Línea</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>24-ago</t>
+  </si>
+  <si>
+    <t>25-ago</t>
   </si>
 </sst>
 </file>
@@ -612,10 +615,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BE18"/>
+  <dimension ref="A1:BF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="BG7" sqref="BG7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BH4" sqref="BH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,10 +631,10 @@
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="45" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="51" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -803,8 +806,11 @@
       <c r="BE1" s="3" t="s">
         <v>79</v>
       </c>
+      <c r="BF1" s="3" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="2" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -976,8 +982,11 @@
       <c r="BE2">
         <v>0</v>
       </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1149,8 +1158,11 @@
       <c r="BE3">
         <v>11.30610872990993</v>
       </c>
+      <c r="BF3">
+        <v>12.019981377311693</v>
+      </c>
     </row>
-    <row r="4" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1322,8 +1334,11 @@
       <c r="BE4">
         <v>19.613724179130244</v>
       </c>
+      <c r="BF4">
+        <v>19.974989025376676</v>
+      </c>
     </row>
-    <row r="5" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1495,8 +1510,11 @@
       <c r="BE5">
         <v>21.209603009491765</v>
       </c>
+      <c r="BF5">
+        <v>19.470743843545236</v>
+      </c>
     </row>
-    <row r="6" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1668,8 +1686,11 @@
       <c r="BE6">
         <v>0</v>
       </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1841,8 +1862,11 @@
       <c r="BE7">
         <v>13.847620683361276</v>
       </c>
+      <c r="BF7">
+        <v>11.720508748751541</v>
+      </c>
     </row>
-    <row r="8" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2014,8 +2038,11 @@
       <c r="BE8">
         <v>24.839863034507928</v>
       </c>
+      <c r="BF8">
+        <v>21.73992723887012</v>
+      </c>
     </row>
-    <row r="9" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2187,8 +2214,11 @@
       <c r="BE9">
         <v>11.859902798862157</v>
       </c>
+      <c r="BF9">
+        <v>9.9739757315545461</v>
+      </c>
     </row>
-    <row r="10" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2360,8 +2390,11 @@
       <c r="BE10">
         <v>3.7025223923995703</v>
       </c>
+      <c r="BF10">
+        <v>1.5685037224286367</v>
+      </c>
     </row>
-    <row r="11" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2533,8 +2566,11 @@
       <c r="BE11">
         <v>13.882607946509887</v>
       </c>
+      <c r="BF11">
+        <v>11.10824088360085</v>
+      </c>
     </row>
-    <row r="12" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2706,8 +2742,11 @@
       <c r="BE12">
         <v>0</v>
       </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2879,8 +2918,11 @@
       <c r="BE13">
         <v>8.6832817927842729</v>
       </c>
+      <c r="BF13">
+        <v>9.8822750163412625</v>
+      </c>
     </row>
-    <row r="14" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3052,8 +3094,11 @@
       <c r="BE14">
         <v>0</v>
       </c>
+      <c r="BF14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3225,8 +3270,11 @@
       <c r="BE15">
         <v>0</v>
       </c>
+      <c r="BF15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3398,8 +3446,11 @@
       <c r="BE16">
         <v>4.3194735259753889</v>
       </c>
+      <c r="BF16">
+        <v>15.126453384817784</v>
+      </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3571,8 +3622,11 @@
       <c r="BE17">
         <v>0</v>
       </c>
+      <c r="BF17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3742,6 +3796,9 @@
         <v>0</v>
       </c>
       <c r="BE18">
+        <v>0</v>
+      </c>
+      <c r="BF18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B53D828D-DB6E-416E-B9F1-0C961FC20432}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F99AFCF-39CC-4EC5-B273-15CC1821B629}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
   <si>
     <t>Línea</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>25-ago</t>
+  </si>
+  <si>
+    <t>28-ago</t>
   </si>
 </sst>
 </file>
@@ -615,10 +618,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BF18"/>
+  <dimension ref="A1:BG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BH4" sqref="BH4"/>
+      <selection activeCell="BI7" sqref="BI7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +637,7 @@
     <col min="11" max="51" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -809,8 +812,11 @@
       <c r="BF1" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="BG1" s="3" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -985,8 +991,11 @@
       <c r="BF2">
         <v>0</v>
       </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1161,8 +1170,11 @@
       <c r="BF3">
         <v>12.019981377311693</v>
       </c>
+      <c r="BG3">
+        <v>14.097377768918269</v>
+      </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1337,8 +1349,11 @@
       <c r="BF4">
         <v>19.974989025376676</v>
       </c>
+      <c r="BG4">
+        <v>20.720229759568294</v>
+      </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1513,8 +1528,11 @@
       <c r="BF5">
         <v>19.470743843545236</v>
       </c>
+      <c r="BG5">
+        <v>24.122039928300879</v>
+      </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1689,8 +1707,11 @@
       <c r="BF6">
         <v>0</v>
       </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1865,8 +1886,11 @@
       <c r="BF7">
         <v>11.720508748751541</v>
       </c>
+      <c r="BG7">
+        <v>9.9124666536503501</v>
+      </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2041,8 +2065,11 @@
       <c r="BF8">
         <v>21.73992723887012</v>
       </c>
+      <c r="BG8">
+        <v>23.256071045566348</v>
+      </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2217,8 +2244,11 @@
       <c r="BF9">
         <v>9.9739757315545461</v>
       </c>
+      <c r="BG9">
+        <v>9.9692034840391344</v>
+      </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2393,8 +2423,11 @@
       <c r="BF10">
         <v>1.5685037224286367</v>
       </c>
+      <c r="BG10">
+        <v>0.84658676151751278</v>
+      </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2569,8 +2602,11 @@
       <c r="BF11">
         <v>11.10824088360085</v>
       </c>
+      <c r="BG11">
+        <v>15.034121883031451</v>
+      </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2745,8 +2781,11 @@
       <c r="BF12">
         <v>0</v>
       </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2921,8 +2960,11 @@
       <c r="BF13">
         <v>9.8822750163412625</v>
       </c>
+      <c r="BG13">
+        <v>14.465597790691803</v>
+      </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3097,8 +3139,11 @@
       <c r="BF14">
         <v>0</v>
       </c>
+      <c r="BG14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3273,8 +3318,11 @@
       <c r="BF15">
         <v>0</v>
       </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3449,8 +3497,11 @@
       <c r="BF16">
         <v>15.126453384817784</v>
       </c>
+      <c r="BG16">
+        <v>39.157878186329093</v>
+      </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3625,8 +3676,11 @@
       <c r="BF17">
         <v>0</v>
       </c>
+      <c r="BG17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3799,6 +3853,9 @@
         <v>0</v>
       </c>
       <c r="BF18">
+        <v>0</v>
+      </c>
+      <c r="BG18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="136" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F99AFCF-39CC-4EC5-B273-15CC1821B629}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66777781-3B2F-4A56-9B36-6F92260DF333}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>Línea</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>28-ago</t>
+  </si>
+  <si>
+    <t>29-ago</t>
   </si>
 </sst>
 </file>
@@ -618,10 +621,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BG18"/>
+  <dimension ref="A1:BH18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI7" sqref="BI7"/>
+      <selection activeCell="BI3" sqref="BI3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,7 +640,7 @@
     <col min="11" max="51" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -815,8 +818,11 @@
       <c r="BG1" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="BH1" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -994,8 +1000,11 @@
       <c r="BG2">
         <v>0</v>
       </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1173,8 +1182,11 @@
       <c r="BG3">
         <v>14.097377768918269</v>
       </c>
+      <c r="BH3">
+        <v>9.8985397970785254</v>
+      </c>
     </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1352,8 +1364,11 @@
       <c r="BG4">
         <v>20.720229759568294</v>
       </c>
+      <c r="BH4">
+        <v>13.596589824929751</v>
+      </c>
     </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1531,8 +1546,11 @@
       <c r="BG5">
         <v>24.122039928300879</v>
       </c>
+      <c r="BH5">
+        <v>14.508820366750768</v>
+      </c>
     </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1710,8 +1728,11 @@
       <c r="BG6">
         <v>0</v>
       </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1889,8 +1910,11 @@
       <c r="BG7">
         <v>9.9124666536503501</v>
       </c>
+      <c r="BH7">
+        <v>4.5824293674136189</v>
+      </c>
     </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2068,8 +2092,11 @@
       <c r="BG8">
         <v>23.256071045566348</v>
       </c>
+      <c r="BH8">
+        <v>10.790698731736981</v>
+      </c>
     </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2247,8 +2274,11 @@
       <c r="BG9">
         <v>9.9692034840391344</v>
       </c>
+      <c r="BH9">
+        <v>6.5775601314698795</v>
+      </c>
     </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2426,8 +2456,11 @@
       <c r="BG10">
         <v>0.84658676151751278</v>
       </c>
+      <c r="BH10">
+        <v>4.3790450403251375</v>
+      </c>
     </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2605,8 +2638,11 @@
       <c r="BG11">
         <v>15.034121883031451</v>
       </c>
+      <c r="BH11">
+        <v>10.630922464183731</v>
+      </c>
     </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2784,8 +2820,11 @@
       <c r="BG12">
         <v>0</v>
       </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -2963,8 +3002,11 @@
       <c r="BG13">
         <v>14.465597790691803</v>
       </c>
+      <c r="BH13">
+        <v>10.323352056992627</v>
+      </c>
     </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3142,8 +3184,11 @@
       <c r="BG14">
         <v>0</v>
       </c>
+      <c r="BH14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3321,8 +3366,11 @@
       <c r="BG15">
         <v>0</v>
       </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3500,8 +3548,11 @@
       <c r="BG16">
         <v>39.157878186329093</v>
       </c>
+      <c r="BH16">
+        <v>19.990982256420512</v>
+      </c>
     </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3679,8 +3730,11 @@
       <c r="BG17">
         <v>0</v>
       </c>
+      <c r="BH17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3856,6 +3910,9 @@
         <v>0</v>
       </c>
       <c r="BG18">
+        <v>0</v>
+      </c>
+      <c r="BH18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66777781-3B2F-4A56-9B36-6F92260DF333}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CF5D45-61E9-4C2F-85F7-E396DB8F6952}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
   <si>
     <t>Línea</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>29-ago</t>
+  </si>
+  <si>
+    <t>30-ago</t>
   </si>
 </sst>
 </file>
@@ -621,10 +624,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BH18"/>
+  <dimension ref="A1:BI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BI3" sqref="BI3"/>
+      <selection activeCell="BJ4" sqref="BJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +643,7 @@
     <col min="11" max="51" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:60" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -821,8 +824,11 @@
       <c r="BH1" s="3" t="s">
         <v>82</v>
       </c>
+      <c r="BI1" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1003,8 +1009,11 @@
       <c r="BH2">
         <v>0</v>
       </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1185,8 +1194,11 @@
       <c r="BH3">
         <v>9.8985397970785254</v>
       </c>
+      <c r="BI3">
+        <v>11.790335228036453</v>
+      </c>
     </row>
-    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1367,8 +1379,11 @@
       <c r="BH4">
         <v>13.596589824929751</v>
       </c>
+      <c r="BI4">
+        <v>13.289322258264672</v>
+      </c>
     </row>
-    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1549,8 +1564,11 @@
       <c r="BH5">
         <v>14.508820366750768</v>
       </c>
+      <c r="BI5">
+        <v>13.653018835169508</v>
+      </c>
     </row>
-    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1731,8 +1749,11 @@
       <c r="BH6">
         <v>0</v>
       </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1913,8 +1934,11 @@
       <c r="BH7">
         <v>4.5824293674136189</v>
       </c>
+      <c r="BI7">
+        <v>3.9227148084470347</v>
+      </c>
     </row>
-    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2095,8 +2119,11 @@
       <c r="BH8">
         <v>10.790698731736981</v>
       </c>
+      <c r="BI8">
+        <v>10.508508770588659</v>
+      </c>
     </row>
-    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2277,8 +2304,11 @@
       <c r="BH9">
         <v>6.5775601314698795</v>
       </c>
+      <c r="BI9">
+        <v>5.2889086594976442</v>
+      </c>
     </row>
-    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2459,8 +2489,11 @@
       <c r="BH10">
         <v>4.3790450403251375</v>
       </c>
+      <c r="BI10">
+        <v>17.840837908014674</v>
+      </c>
     </row>
-    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2641,8 +2674,11 @@
       <c r="BH11">
         <v>10.630922464183731</v>
       </c>
+      <c r="BI11">
+        <v>13.387885519631487</v>
+      </c>
     </row>
-    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2823,8 +2859,11 @@
       <c r="BH12">
         <v>0</v>
       </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3005,8 +3044,11 @@
       <c r="BH13">
         <v>10.323352056992627</v>
       </c>
+      <c r="BI13">
+        <v>9.1914140751933608</v>
+      </c>
     </row>
-    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3187,8 +3229,11 @@
       <c r="BH14">
         <v>0</v>
       </c>
+      <c r="BI14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3369,8 +3414,11 @@
       <c r="BH15">
         <v>0</v>
       </c>
+      <c r="BI15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3551,8 +3599,11 @@
       <c r="BH16">
         <v>19.990982256420512</v>
       </c>
+      <c r="BI16">
+        <v>18.926216224121152</v>
+      </c>
     </row>
-    <row r="17" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3733,8 +3784,11 @@
       <c r="BH17">
         <v>0</v>
       </c>
+      <c r="BI17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3913,6 +3967,9 @@
         <v>0</v>
       </c>
       <c r="BH18">
+        <v>0</v>
+      </c>
+      <c r="BI18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CF5D45-61E9-4C2F-85F7-E396DB8F6952}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07CCA26A-144C-42FE-A28E-0BF512A24252}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
   <si>
     <t>Línea</t>
   </si>
@@ -286,6 +286,9 @@
   </si>
   <si>
     <t>30-ago</t>
+  </si>
+  <si>
+    <t>31-ago</t>
   </si>
 </sst>
 </file>
@@ -624,10 +627,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BI18"/>
+  <dimension ref="A1:BJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BJ4" sqref="BJ4"/>
+      <selection activeCell="BK4" sqref="BK4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,7 +646,7 @@
     <col min="11" max="51" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -827,8 +830,11 @@
       <c r="BI1" s="3" t="s">
         <v>83</v>
       </c>
+      <c r="BJ1" s="3" t="s">
+        <v>84</v>
+      </c>
     </row>
-    <row r="2" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1012,8 +1018,11 @@
       <c r="BI2">
         <v>0</v>
       </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1197,8 +1206,11 @@
       <c r="BI3">
         <v>11.790335228036453</v>
       </c>
+      <c r="BJ3">
+        <v>12.498609596300213</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1382,8 +1394,11 @@
       <c r="BI4">
         <v>13.289322258264672</v>
       </c>
+      <c r="BJ4">
+        <v>14.266603824463326</v>
+      </c>
     </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1567,8 +1582,11 @@
       <c r="BI5">
         <v>13.653018835169508</v>
       </c>
+      <c r="BJ5">
+        <v>12.896729109586072</v>
+      </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1752,8 +1770,11 @@
       <c r="BI6">
         <v>0</v>
       </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1937,8 +1958,11 @@
       <c r="BI7">
         <v>3.9227148084470347</v>
       </c>
+      <c r="BJ7">
+        <v>5.231148683730761</v>
+      </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2122,8 +2146,11 @@
       <c r="BI8">
         <v>10.508508770588659</v>
       </c>
+      <c r="BJ8">
+        <v>10.093403248029892</v>
+      </c>
     </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2307,8 +2334,11 @@
       <c r="BI9">
         <v>5.2889086594976442</v>
       </c>
+      <c r="BJ9">
+        <v>4.3657291897079604</v>
+      </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2492,8 +2522,11 @@
       <c r="BI10">
         <v>17.840837908014674</v>
       </c>
+      <c r="BJ10">
+        <v>24.37233824545234</v>
+      </c>
     </row>
-    <row r="11" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2677,8 +2710,11 @@
       <c r="BI11">
         <v>13.387885519631487</v>
       </c>
+      <c r="BJ11">
+        <v>15.690741044455448</v>
+      </c>
     </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2862,8 +2898,11 @@
       <c r="BI12">
         <v>0</v>
       </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3047,8 +3086,11 @@
       <c r="BI13">
         <v>9.1914140751933608</v>
       </c>
+      <c r="BJ13">
+        <v>8.2846987450042402</v>
+      </c>
     </row>
-    <row r="14" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3232,8 +3274,11 @@
       <c r="BI14">
         <v>0</v>
       </c>
+      <c r="BJ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3417,8 +3462,11 @@
       <c r="BI15">
         <v>0</v>
       </c>
+      <c r="BJ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3602,8 +3650,11 @@
       <c r="BI16">
         <v>18.926216224121152</v>
       </c>
+      <c r="BJ16">
+        <v>17.861450191821788</v>
+      </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3787,8 +3838,11 @@
       <c r="BI17">
         <v>0</v>
       </c>
+      <c r="BJ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -3970,6 +4024,9 @@
         <v>0</v>
       </c>
       <c r="BI18">
+        <v>0</v>
+      </c>
+      <c r="BJ18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07CCA26A-144C-42FE-A28E-0BF512A24252}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776B18B6-124A-4081-9998-DF82A66239B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
   <si>
     <t>Línea</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>31-ago</t>
+  </si>
+  <si>
+    <t>01-sep</t>
   </si>
 </sst>
 </file>
@@ -627,10 +630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BJ18"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BK4" sqref="BK4"/>
+      <selection activeCell="BM4" sqref="BM4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,10 +646,10 @@
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="51" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -833,8 +836,11 @@
       <c r="BJ1" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="BK1" s="3" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1021,8 +1027,11 @@
       <c r="BJ2">
         <v>0</v>
       </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1209,8 +1218,11 @@
       <c r="BJ3">
         <v>12.498609596300213</v>
       </c>
+      <c r="BK3">
+        <v>27.239267029014986</v>
+      </c>
     </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1397,8 +1409,11 @@
       <c r="BJ4">
         <v>14.266603824463326</v>
       </c>
+      <c r="BK4">
+        <v>23.297642305215735</v>
+      </c>
     </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1585,8 +1600,11 @@
       <c r="BJ5">
         <v>12.896729109586072</v>
       </c>
+      <c r="BK5">
+        <v>17.640707357263107</v>
+      </c>
     </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1773,8 +1791,11 @@
       <c r="BJ6">
         <v>0</v>
       </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1961,8 +1982,11 @@
       <c r="BJ7">
         <v>5.231148683730761</v>
       </c>
+      <c r="BK7">
+        <v>19.003421510140669</v>
+      </c>
     </row>
-    <row r="8" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2149,8 +2173,11 @@
       <c r="BJ8">
         <v>10.093403248029892</v>
       </c>
+      <c r="BK8">
+        <v>11.551901808677695</v>
+      </c>
     </row>
-    <row r="9" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2337,8 +2364,11 @@
       <c r="BJ9">
         <v>4.3657291897079604</v>
       </c>
+      <c r="BK9">
+        <v>9.6931865424973367</v>
+      </c>
     </row>
-    <row r="10" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2525,8 +2555,11 @@
       <c r="BJ10">
         <v>24.37233824545234</v>
       </c>
+      <c r="BK10">
+        <v>27.977605772145317</v>
+      </c>
     </row>
-    <row r="11" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2713,8 +2746,11 @@
       <c r="BJ11">
         <v>15.690741044455448</v>
       </c>
+      <c r="BK11">
+        <v>18.010741131289311</v>
+      </c>
     </row>
-    <row r="12" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2901,8 +2937,11 @@
       <c r="BJ12">
         <v>0</v>
       </c>
+      <c r="BK12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3089,8 +3128,11 @@
       <c r="BJ13">
         <v>8.2846987450042402</v>
       </c>
+      <c r="BK13">
+        <v>11.226310241047724</v>
+      </c>
     </row>
-    <row r="14" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3277,8 +3319,11 @@
       <c r="BJ14">
         <v>0</v>
       </c>
+      <c r="BK14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3465,8 +3510,11 @@
       <c r="BJ15">
         <v>0</v>
       </c>
+      <c r="BK15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3653,8 +3701,11 @@
       <c r="BJ16">
         <v>17.861450191821788</v>
       </c>
+      <c r="BK16">
+        <v>24.713057225738531</v>
+      </c>
     </row>
-    <row r="17" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3841,8 +3892,11 @@
       <c r="BJ17">
         <v>0</v>
       </c>
+      <c r="BK17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4027,6 +4081,9 @@
         <v>0</v>
       </c>
       <c r="BJ18">
+        <v>0</v>
+      </c>
+      <c r="BK18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="145" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{776B18B6-124A-4081-9998-DF82A66239B8}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11C6D06C-91B3-49DE-9DF0-FDCBCCA7D960}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
   <si>
     <t>Línea</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>01-sep</t>
+  </si>
+  <si>
+    <t>04-sep</t>
   </si>
 </sst>
 </file>
@@ -630,10 +633,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BM4" sqref="BM4"/>
+      <selection activeCell="BN5" sqref="BN5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +652,7 @@
     <col min="11" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -839,8 +842,11 @@
       <c r="BK1" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="BL1" s="3" t="s">
+        <v>86</v>
+      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1030,8 +1036,11 @@
       <c r="BK2">
         <v>0</v>
       </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1221,8 +1230,11 @@
       <c r="BK3">
         <v>27.239267029014986</v>
       </c>
+      <c r="BL3">
+        <v>16.713348746320555</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1412,8 +1424,11 @@
       <c r="BK4">
         <v>23.297642305215735</v>
       </c>
+      <c r="BL4">
+        <v>13.968397319158779</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1603,8 +1618,11 @@
       <c r="BK5">
         <v>17.640707357263107</v>
       </c>
+      <c r="BL5">
+        <v>10.925234804063917</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1794,8 +1812,11 @@
       <c r="BK6">
         <v>0</v>
       </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1985,8 +2006,11 @@
       <c r="BK7">
         <v>19.003421510140669</v>
       </c>
+      <c r="BL7">
+        <v>14.719281109091291</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2176,8 +2200,11 @@
       <c r="BK8">
         <v>11.551901808677695</v>
       </c>
+      <c r="BL8">
+        <v>10.207087334673719</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2367,8 +2394,11 @@
       <c r="BK9">
         <v>9.6931865424973367</v>
       </c>
+      <c r="BL9">
+        <v>9.0560117471410742</v>
+      </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2558,8 +2588,11 @@
       <c r="BK10">
         <v>27.977605772145317</v>
       </c>
+      <c r="BL10">
+        <v>17.498656503306165</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2749,8 +2782,11 @@
       <c r="BK11">
         <v>18.010741131289311</v>
       </c>
+      <c r="BL11">
+        <v>10.764454819496196</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2940,8 +2976,11 @@
       <c r="BK12">
         <v>0</v>
       </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3131,8 +3170,11 @@
       <c r="BK13">
         <v>11.226310241047724</v>
       </c>
+      <c r="BL13">
+        <v>10.115268498261946</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3322,8 +3364,11 @@
       <c r="BK14">
         <v>0</v>
       </c>
+      <c r="BL14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3513,8 +3558,11 @@
       <c r="BK15">
         <v>0</v>
       </c>
+      <c r="BL15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3704,8 +3752,11 @@
       <c r="BK16">
         <v>24.713057225738531</v>
       </c>
+      <c r="BL16">
+        <v>17.197013873821557</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3895,8 +3946,11 @@
       <c r="BK17">
         <v>0</v>
       </c>
+      <c r="BL17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4084,6 +4138,9 @@
         <v>0</v>
       </c>
       <c r="BK18">
+        <v>0</v>
+      </c>
+      <c r="BL18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="147" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11C6D06C-91B3-49DE-9DF0-FDCBCCA7D960}"/>
+  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7C129C-03FB-4145-B333-1F7E5ADEE0BC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
   <si>
     <t>Línea</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t>04-sep</t>
+  </si>
+  <si>
+    <t>05-sep</t>
   </si>
 </sst>
 </file>
@@ -633,10 +636,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BL18"/>
+  <dimension ref="A1:BM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BN5" sqref="BN5"/>
+      <selection activeCell="BM2" sqref="BM2:BM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,7 +655,7 @@
     <col min="11" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,8 +848,11 @@
       <c r="BL1" s="3" t="s">
         <v>86</v>
       </c>
+      <c r="BM1" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1039,8 +1045,11 @@
       <c r="BL2">
         <v>0</v>
       </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1233,8 +1242,11 @@
       <c r="BL3">
         <v>16.713348746320555</v>
       </c>
+      <c r="BM3">
+        <v>16.935527873406798</v>
+      </c>
     </row>
-    <row r="4" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1427,8 +1439,11 @@
       <c r="BL4">
         <v>13.968397319158779</v>
       </c>
+      <c r="BM4">
+        <v>15.198662349629252</v>
+      </c>
     </row>
-    <row r="5" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1621,8 +1636,11 @@
       <c r="BL5">
         <v>10.925234804063917</v>
       </c>
+      <c r="BM5">
+        <v>9.5836557024985272</v>
+      </c>
     </row>
-    <row r="6" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1815,8 +1833,11 @@
       <c r="BL6">
         <v>0</v>
       </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2009,8 +2030,11 @@
       <c r="BL7">
         <v>14.719281109091291</v>
       </c>
+      <c r="BM7">
+        <v>15.149087125517745</v>
+      </c>
     </row>
-    <row r="8" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2203,8 +2227,11 @@
       <c r="BL8">
         <v>10.207087334673719</v>
       </c>
+      <c r="BM8">
+        <v>11.134564455002007</v>
+      </c>
     </row>
-    <row r="9" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2397,8 +2424,11 @@
       <c r="BL9">
         <v>9.0560117471410742</v>
       </c>
+      <c r="BM9">
+        <v>10.710590896623469</v>
+      </c>
     </row>
-    <row r="10" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2591,8 +2621,11 @@
       <c r="BL10">
         <v>17.498656503306165</v>
       </c>
+      <c r="BM10">
+        <v>15.316834092944312</v>
+      </c>
     </row>
-    <row r="11" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2785,8 +2818,11 @@
       <c r="BL11">
         <v>10.764454819496196</v>
       </c>
+      <c r="BM11">
+        <v>12.470076000906772</v>
+      </c>
     </row>
-    <row r="12" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2979,8 +3015,11 @@
       <c r="BL12">
         <v>0</v>
       </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3173,8 +3212,11 @@
       <c r="BL13">
         <v>10.115268498261946</v>
       </c>
+      <c r="BM13">
+        <v>9.3455170694668421</v>
+      </c>
     </row>
-    <row r="14" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3367,8 +3409,11 @@
       <c r="BL14">
         <v>0</v>
       </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3561,8 +3606,11 @@
       <c r="BL15">
         <v>0</v>
       </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3755,8 +3803,11 @@
       <c r="BL16">
         <v>17.197013873821557</v>
       </c>
+      <c r="BM16">
+        <v>16.112116524939253</v>
+      </c>
     </row>
-    <row r="17" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -3949,8 +4000,11 @@
       <c r="BL17">
         <v>0</v>
       </c>
+      <c r="BM17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:64" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4141,6 +4195,9 @@
         <v>0</v>
       </c>
       <c r="BL18">
+        <v>0</v>
+      </c>
+      <c r="BM18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="151" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC7C129C-03FB-4145-B333-1F7E5ADEE0BC}"/>
+  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BDED36-591E-4180-B0F0-FF24A89979D5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>Línea</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>05-sep</t>
+  </si>
+  <si>
+    <t>06-sep</t>
   </si>
 </sst>
 </file>
@@ -636,10 +639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BM18"/>
+  <dimension ref="A1:BN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2:BM18"/>
+      <selection activeCell="BP4" sqref="BP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +658,7 @@
     <col min="11" max="57" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -851,8 +854,11 @@
       <c r="BM1" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="BN1" s="3" t="s">
+        <v>88</v>
+      </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1048,8 +1054,11 @@
       <c r="BM2">
         <v>0</v>
       </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1245,8 +1254,11 @@
       <c r="BM3">
         <v>16.935527873406798</v>
       </c>
+      <c r="BN3">
+        <v>18.963749384232457</v>
+      </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1442,8 +1454,11 @@
       <c r="BM4">
         <v>15.198662349629252</v>
       </c>
+      <c r="BN4">
+        <v>15.595485358533317</v>
+      </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1639,8 +1654,11 @@
       <c r="BM5">
         <v>9.5836557024985272</v>
       </c>
+      <c r="BN5">
+        <v>9.0390542850313889</v>
+      </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1836,8 +1854,11 @@
       <c r="BM6">
         <v>0</v>
       </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2033,8 +2054,11 @@
       <c r="BM7">
         <v>15.149087125517745</v>
       </c>
+      <c r="BN7">
+        <v>17.368701186887201</v>
+      </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2230,8 +2254,11 @@
       <c r="BM8">
         <v>11.134564455002007</v>
       </c>
+      <c r="BN8">
+        <v>14.924719869769632</v>
+      </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2427,8 +2454,11 @@
       <c r="BM9">
         <v>10.710590896623469</v>
       </c>
+      <c r="BN9">
+        <v>13.081382378826341</v>
+      </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2624,8 +2654,11 @@
       <c r="BM10">
         <v>15.316834092944312</v>
       </c>
+      <c r="BN10">
+        <v>14.57854065105419</v>
+      </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2821,8 +2854,11 @@
       <c r="BM11">
         <v>12.470076000906772</v>
       </c>
+      <c r="BN11">
+        <v>14.609192351939512</v>
+      </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3018,8 +3054,11 @@
       <c r="BM12">
         <v>0</v>
       </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3215,8 +3254,11 @@
       <c r="BM13">
         <v>9.3455170694668421</v>
       </c>
+      <c r="BN13">
+        <v>8.83121034345724</v>
+      </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3412,8 +3454,11 @@
       <c r="BM14">
         <v>0</v>
       </c>
+      <c r="BN14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3609,8 +3654,11 @@
       <c r="BM15">
         <v>0</v>
       </c>
+      <c r="BN15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3806,8 +3854,11 @@
       <c r="BM16">
         <v>16.112116524939253</v>
       </c>
+      <c r="BN16">
+        <v>15.33321586420324</v>
+      </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4003,8 +4054,11 @@
       <c r="BM17">
         <v>0</v>
       </c>
+      <c r="BN17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4198,6 +4252,9 @@
         <v>0</v>
       </c>
       <c r="BM18">
+        <v>0</v>
+      </c>
+      <c r="BN18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="153" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34BDED36-591E-4180-B0F0-FF24A89979D5}"/>
+  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEAC33C2-3CED-40EB-8A3B-1E9FA060CB7F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
   <si>
     <t>Línea</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>06-sep</t>
+  </si>
+  <si>
+    <t>07-sep</t>
   </si>
 </sst>
 </file>
@@ -639,10 +642,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BN18"/>
+  <dimension ref="A1:BO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BP4" sqref="BP4"/>
+      <selection activeCell="BQ6" sqref="BQ6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,10 +658,10 @@
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="57" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,8 +860,11 @@
       <c r="BN1" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="BO1" s="3" t="s">
+        <v>89</v>
+      </c>
     </row>
-    <row r="2" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1057,8 +1063,11 @@
       <c r="BN2">
         <v>0</v>
       </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1257,8 +1266,11 @@
       <c r="BN3">
         <v>18.963749384232457</v>
       </c>
+      <c r="BO3">
+        <v>20.559786839630078</v>
+      </c>
     </row>
-    <row r="4" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1457,8 +1469,11 @@
       <c r="BN4">
         <v>15.595485358533317</v>
       </c>
+      <c r="BO4">
+        <v>16.319772626934139</v>
+      </c>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1657,8 +1672,11 @@
       <c r="BN5">
         <v>9.0390542850313889</v>
       </c>
+      <c r="BO5">
+        <v>18.888370164345623</v>
+      </c>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1857,8 +1875,11 @@
       <c r="BN6">
         <v>0</v>
       </c>
+      <c r="BO6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2057,8 +2078,11 @@
       <c r="BN7">
         <v>17.368701186887201</v>
       </c>
+      <c r="BO7">
+        <v>17.456931160933685</v>
+      </c>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2257,8 +2281,11 @@
       <c r="BN8">
         <v>14.924719869769632</v>
       </c>
+      <c r="BO8">
+        <v>13.157271079161424</v>
+      </c>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2457,8 +2484,11 @@
       <c r="BN9">
         <v>13.081382378826341</v>
       </c>
+      <c r="BO9">
+        <v>15.241169988155876</v>
+      </c>
     </row>
-    <row r="10" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2657,8 +2687,11 @@
       <c r="BN10">
         <v>14.57854065105419</v>
       </c>
+      <c r="BO10">
+        <v>12.246121070953558</v>
+      </c>
     </row>
-    <row r="11" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2857,8 +2890,11 @@
       <c r="BN11">
         <v>14.609192351939512</v>
       </c>
+      <c r="BO11">
+        <v>13.690113140510944</v>
+      </c>
     </row>
-    <row r="12" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3057,8 +3093,11 @@
       <c r="BN12">
         <v>0</v>
       </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3257,8 +3296,11 @@
       <c r="BN13">
         <v>8.83121034345724</v>
       </c>
+      <c r="BO13">
+        <v>8.2562461796624529</v>
+      </c>
     </row>
-    <row r="14" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3457,8 +3499,11 @@
       <c r="BN14">
         <v>0</v>
       </c>
+      <c r="BO14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3657,8 +3702,11 @@
       <c r="BN15">
         <v>0</v>
       </c>
+      <c r="BO15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3857,8 +3905,11 @@
       <c r="BN16">
         <v>15.33321586420324</v>
       </c>
+      <c r="BO16">
+        <v>13.374837060066978</v>
+      </c>
     </row>
-    <row r="17" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4057,8 +4108,11 @@
       <c r="BN17">
         <v>0</v>
       </c>
+      <c r="BO17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:66" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4255,6 +4309,9 @@
         <v>0</v>
       </c>
       <c r="BN18">
+        <v>0</v>
+      </c>
+      <c r="BO18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEAC33C2-3CED-40EB-8A3B-1E9FA060CB7F}"/>
+  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E14144A-5171-4C55-8E31-CD59D89A2549}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
   <si>
     <t>Línea</t>
   </si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>07-sep</t>
+  </si>
+  <si>
+    <t>08-sep</t>
   </si>
 </sst>
 </file>
@@ -642,10 +645,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BO18"/>
+  <dimension ref="A1:BP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BQ6" sqref="BQ6"/>
+      <selection activeCell="BS6" sqref="BS6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +664,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -863,8 +866,11 @@
       <c r="BO1" s="3" t="s">
         <v>89</v>
       </c>
+      <c r="BP1" s="3" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="2" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1066,8 +1072,11 @@
       <c r="BO2">
         <v>0</v>
       </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1269,8 +1278,11 @@
       <c r="BO3">
         <v>20.559786839630078</v>
       </c>
+      <c r="BP3">
+        <v>19.380715691229927</v>
+      </c>
     </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1472,8 +1484,11 @@
       <c r="BO4">
         <v>16.319772626934139</v>
       </c>
+      <c r="BP4">
+        <v>15.099740854572941</v>
+      </c>
     </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1675,8 +1690,11 @@
       <c r="BO5">
         <v>18.888370164345623</v>
       </c>
+      <c r="BP5">
+        <v>17.394037006661399</v>
+      </c>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1878,8 +1896,11 @@
       <c r="BO6">
         <v>0</v>
       </c>
+      <c r="BP6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2081,8 +2102,11 @@
       <c r="BO7">
         <v>17.456931160933685</v>
       </c>
+      <c r="BP7">
+        <v>15.856187346090296</v>
+      </c>
     </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2284,8 +2308,11 @@
       <c r="BO8">
         <v>13.157271079161424</v>
       </c>
+      <c r="BP8">
+        <v>12.837896349030995</v>
+      </c>
     </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2487,8 +2514,11 @@
       <c r="BO9">
         <v>15.241169988155876</v>
       </c>
+      <c r="BP9">
+        <v>16.580101067648886</v>
+      </c>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2690,8 +2720,11 @@
       <c r="BO10">
         <v>12.246121070953558</v>
       </c>
+      <c r="BP10">
+        <v>13.77780448024799</v>
+      </c>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2893,8 +2926,11 @@
       <c r="BO11">
         <v>13.690113140510944</v>
       </c>
+      <c r="BP11">
+        <v>11.418459548031638</v>
+      </c>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3096,8 +3132,11 @@
       <c r="BO12">
         <v>0</v>
       </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3299,8 +3338,11 @@
       <c r="BO13">
         <v>8.2562461796624529</v>
       </c>
+      <c r="BP13">
+        <v>9.3386824285896406</v>
+      </c>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3502,8 +3544,11 @@
       <c r="BO14">
         <v>0</v>
       </c>
+      <c r="BP14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3705,8 +3750,11 @@
       <c r="BO15">
         <v>0</v>
       </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3908,8 +3956,11 @@
       <c r="BO16">
         <v>13.374837060066978</v>
       </c>
+      <c r="BP16">
+        <v>11.127152296228767</v>
+      </c>
     </row>
-    <row r="17" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4111,8 +4162,11 @@
       <c r="BO17">
         <v>0</v>
       </c>
+      <c r="BP17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4312,6 +4366,9 @@
         <v>0</v>
       </c>
       <c r="BO18">
+        <v>0</v>
+      </c>
+      <c r="BP18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="158" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E14144A-5171-4C55-8E31-CD59D89A2549}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDFB6A5F-C9E9-4010-92EB-07CC98CB4151}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
   <si>
     <t>Línea</t>
   </si>
@@ -307,6 +307,9 @@
   </si>
   <si>
     <t>08-sep</t>
+  </si>
+  <si>
+    <t>11-sep</t>
   </si>
 </sst>
 </file>
@@ -645,10 +648,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BP18"/>
+  <dimension ref="A1:BQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BS6" sqref="BS6"/>
+      <selection activeCell="BS4" sqref="BS4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +667,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:69" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -869,8 +872,11 @@
       <c r="BP1" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="BQ1" s="3" t="s">
+        <v>91</v>
+      </c>
     </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1075,8 +1081,11 @@
       <c r="BP2">
         <v>0</v>
       </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1281,8 +1290,11 @@
       <c r="BP3">
         <v>19.380715691229927</v>
       </c>
+      <c r="BQ3">
+        <v>18.871834183711847</v>
+      </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1487,8 +1499,11 @@
       <c r="BP4">
         <v>15.099740854572941</v>
       </c>
+      <c r="BQ4">
+        <v>14.668806985304631</v>
+      </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1693,8 +1708,11 @@
       <c r="BP5">
         <v>17.394037006661399</v>
       </c>
+      <c r="BQ5">
+        <v>16.683398571673791</v>
+      </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1899,8 +1917,11 @@
       <c r="BP6">
         <v>0</v>
       </c>
+      <c r="BQ6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2105,8 +2126,11 @@
       <c r="BP7">
         <v>15.856187346090296</v>
       </c>
+      <c r="BQ7">
+        <v>13.566582448166319</v>
+      </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2311,8 +2335,11 @@
       <c r="BP8">
         <v>12.837896349030995</v>
       </c>
+      <c r="BQ8">
+        <v>11.688227970745805</v>
+      </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2517,8 +2544,11 @@
       <c r="BP9">
         <v>16.580101067648886</v>
       </c>
+      <c r="BQ9">
+        <v>15.710353396536831</v>
+      </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2723,8 +2753,11 @@
       <c r="BP10">
         <v>13.77780448024799</v>
       </c>
+      <c r="BQ10">
+        <v>15.26541066913107</v>
+      </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2929,8 +2962,11 @@
       <c r="BP11">
         <v>11.418459548031638</v>
       </c>
+      <c r="BQ11">
+        <v>11.056731268974424</v>
+      </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3135,8 +3171,11 @@
       <c r="BP12">
         <v>0</v>
       </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3341,8 +3380,11 @@
       <c r="BP13">
         <v>9.3386824285896406</v>
       </c>
+      <c r="BQ13">
+        <v>11.794881493834833</v>
+      </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3547,8 +3589,11 @@
       <c r="BP14">
         <v>0</v>
       </c>
+      <c r="BQ14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3753,8 +3798,11 @@
       <c r="BP15">
         <v>0</v>
       </c>
+      <c r="BQ15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -3959,8 +4007,11 @@
       <c r="BP16">
         <v>11.127152296228767</v>
       </c>
+      <c r="BQ16">
+        <v>10.264797993271037</v>
+      </c>
     </row>
-    <row r="17" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4165,8 +4216,11 @@
       <c r="BP17">
         <v>0</v>
       </c>
+      <c r="BQ17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4369,6 +4423,9 @@
         <v>0</v>
       </c>
       <c r="BP18">
+        <v>0</v>
+      </c>
+      <c r="BQ18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CDFB6A5F-C9E9-4010-92EB-07CC98CB4151}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF4A7881-2675-48CF-B534-34AF65889447}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
   <si>
     <t>Línea</t>
   </si>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>11-sep</t>
+  </si>
+  <si>
+    <t>12-sep</t>
   </si>
 </sst>
 </file>
@@ -648,10 +651,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BQ18"/>
+  <dimension ref="A1:BR18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BS4" sqref="BS4"/>
+      <selection activeCell="BT6" sqref="BT6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,7 +670,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -875,8 +878,11 @@
       <c r="BQ1" s="3" t="s">
         <v>91</v>
       </c>
+      <c r="BR1" s="3" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1084,8 +1090,11 @@
       <c r="BQ2">
         <v>0</v>
       </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1293,8 +1302,11 @@
       <c r="BQ3">
         <v>18.871834183711847</v>
       </c>
+      <c r="BR3">
+        <v>18.625306659136701</v>
+      </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1502,8 +1514,11 @@
       <c r="BQ4">
         <v>14.668806985304631</v>
       </c>
+      <c r="BR4">
+        <v>17.413594215947633</v>
+      </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1711,8 +1726,11 @@
       <c r="BQ5">
         <v>16.683398571673791</v>
       </c>
+      <c r="BR5">
+        <v>17.115094817227014</v>
+      </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1920,8 +1938,11 @@
       <c r="BQ6">
         <v>0</v>
       </c>
+      <c r="BR6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2129,8 +2150,11 @@
       <c r="BQ7">
         <v>13.566582448166319</v>
       </c>
+      <c r="BR7">
+        <v>14.455851615152497</v>
+      </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2338,8 +2362,11 @@
       <c r="BQ8">
         <v>11.688227970745805</v>
       </c>
+      <c r="BR8">
+        <v>13.405673647040658</v>
+      </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2547,8 +2574,11 @@
       <c r="BQ9">
         <v>15.710353396536831</v>
       </c>
+      <c r="BR9">
+        <v>15.195709804162837</v>
+      </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2756,8 +2786,11 @@
       <c r="BQ10">
         <v>15.26541066913107</v>
       </c>
+      <c r="BR10">
+        <v>14.668531642727368</v>
+      </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2965,8 +2998,11 @@
       <c r="BQ11">
         <v>11.056731268974424</v>
       </c>
+      <c r="BR11">
+        <v>13.927406891572478</v>
+      </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3174,8 +3210,11 @@
       <c r="BQ12">
         <v>0</v>
       </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3383,8 +3422,11 @@
       <c r="BQ13">
         <v>11.794881493834833</v>
       </c>
+      <c r="BR13">
+        <v>11.285700748483132</v>
+      </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3592,8 +3634,11 @@
       <c r="BQ14">
         <v>0</v>
       </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3801,8 +3846,11 @@
       <c r="BQ15">
         <v>0</v>
       </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4010,8 +4058,11 @@
       <c r="BQ16">
         <v>10.264797993271037</v>
       </c>
+      <c r="BR16">
+        <v>9.597168855497312</v>
+      </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4219,8 +4270,11 @@
       <c r="BQ17">
         <v>0</v>
       </c>
+      <c r="BR17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4426,6 +4480,9 @@
         <v>0</v>
       </c>
       <c r="BQ18">
+        <v>0</v>
+      </c>
+      <c r="BR18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF4A7881-2675-48CF-B534-34AF65889447}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D48BD7-C8FB-4658-A5C5-4F3DEE5DC1B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
   <si>
     <t>Línea</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>12-sep</t>
+  </si>
+  <si>
+    <t>13-sep</t>
   </si>
 </sst>
 </file>
@@ -651,10 +654,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BR18"/>
+  <dimension ref="A1:BS18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BT6" sqref="BT6"/>
+      <selection activeCell="BU6" sqref="BU6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -670,7 +673,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -881,8 +884,11 @@
       <c r="BR1" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="BS1" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1093,8 +1099,11 @@
       <c r="BR2">
         <v>0</v>
       </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1305,8 +1314,11 @@
       <c r="BR3">
         <v>18.625306659136701</v>
       </c>
+      <c r="BS3">
+        <v>17.593543315544416</v>
+      </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1517,8 +1529,11 @@
       <c r="BR4">
         <v>17.413594215947633</v>
       </c>
+      <c r="BS4">
+        <v>16.438023609530195</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1729,8 +1744,11 @@
       <c r="BR5">
         <v>17.115094817227014</v>
       </c>
+      <c r="BS5">
+        <v>15.554346852534602</v>
+      </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1941,8 +1959,11 @@
       <c r="BR6">
         <v>0</v>
       </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2153,8 +2174,11 @@
       <c r="BR7">
         <v>14.455851615152497</v>
       </c>
+      <c r="BS7">
+        <v>11.342060131097806</v>
+      </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2365,8 +2389,11 @@
       <c r="BR8">
         <v>13.405673647040658</v>
       </c>
+      <c r="BS8">
+        <v>15.277172696949297</v>
+      </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2577,8 +2604,11 @@
       <c r="BR9">
         <v>15.195709804162837</v>
       </c>
+      <c r="BS9">
+        <v>14.954685055067683</v>
+      </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2789,8 +2819,11 @@
       <c r="BR10">
         <v>14.668531642727368</v>
       </c>
+      <c r="BS10">
+        <v>16.303061899648281</v>
+      </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3001,8 +3034,11 @@
       <c r="BR11">
         <v>13.927406891572478</v>
       </c>
+      <c r="BS11">
+        <v>15.875530711263007</v>
+      </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3213,8 +3249,11 @@
       <c r="BR12">
         <v>0</v>
       </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3425,8 +3464,11 @@
       <c r="BR13">
         <v>11.285700748483132</v>
       </c>
+      <c r="BS13">
+        <v>10.635555535039101</v>
+      </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3637,8 +3679,11 @@
       <c r="BR14">
         <v>0</v>
       </c>
+      <c r="BS14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3849,8 +3894,11 @@
       <c r="BR15">
         <v>0</v>
       </c>
+      <c r="BS15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4061,8 +4109,11 @@
       <c r="BR16">
         <v>9.597168855497312</v>
       </c>
+      <c r="BS16">
+        <v>8.8127046186131821</v>
+      </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4273,8 +4324,11 @@
       <c r="BR17">
         <v>0</v>
       </c>
+      <c r="BS17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4483,6 +4537,9 @@
         <v>0</v>
       </c>
       <c r="BR18">
+        <v>0</v>
+      </c>
+      <c r="BS18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7D48BD7-C8FB-4658-A5C5-4F3DEE5DC1B1}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5360F2B1-2F5E-4875-8EC2-B20B11D8962B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
   <si>
     <t>Línea</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>13-sep</t>
+  </si>
+  <si>
+    <t>14-sep</t>
   </si>
 </sst>
 </file>
@@ -654,10 +657,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BS18"/>
+  <dimension ref="A1:BT18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BU6" sqref="BU6"/>
+      <selection activeCell="BV6" sqref="BV6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +676,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -887,8 +890,11 @@
       <c r="BS1" s="3" t="s">
         <v>93</v>
       </c>
+      <c r="BT1" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
-    <row r="2" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1102,8 +1108,11 @@
       <c r="BS2">
         <v>0</v>
       </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1317,8 +1326,11 @@
       <c r="BS3">
         <v>17.593543315544416</v>
       </c>
+      <c r="BT3">
+        <v>16.85517816169342</v>
+      </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1532,8 +1544,11 @@
       <c r="BS4">
         <v>16.438023609530195</v>
       </c>
+      <c r="BT4">
+        <v>16.958782744424354</v>
+      </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1747,8 +1762,11 @@
       <c r="BS5">
         <v>15.554346852534602</v>
       </c>
+      <c r="BT5">
+        <v>18.37033466968176</v>
+      </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1962,8 +1980,11 @@
       <c r="BS6">
         <v>0</v>
       </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2177,8 +2198,11 @@
       <c r="BS7">
         <v>11.342060131097806</v>
       </c>
+      <c r="BT7">
+        <v>9.8420764294722094</v>
+      </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2392,8 +2416,11 @@
       <c r="BS8">
         <v>15.277172696949297</v>
       </c>
+      <c r="BT8">
+        <v>18.435433917128044</v>
+      </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2607,8 +2634,11 @@
       <c r="BS9">
         <v>14.954685055067683</v>
       </c>
+      <c r="BT9">
+        <v>12.160170348476889</v>
+      </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2822,8 +2852,11 @@
       <c r="BS10">
         <v>16.303061899648281</v>
       </c>
+      <c r="BT10">
+        <v>14.303058023483253</v>
+      </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3037,8 +3070,11 @@
       <c r="BS11">
         <v>15.875530711263007</v>
       </c>
+      <c r="BT11">
+        <v>14.76198637701328</v>
+      </c>
     </row>
-    <row r="12" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3252,8 +3288,11 @@
       <c r="BS12">
         <v>0</v>
       </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3467,8 +3506,11 @@
       <c r="BS13">
         <v>10.635555535039101</v>
       </c>
+      <c r="BT13">
+        <v>9.8265049212000761</v>
+      </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3682,8 +3724,11 @@
       <c r="BS14">
         <v>0</v>
       </c>
+      <c r="BT14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3897,8 +3942,11 @@
       <c r="BS15">
         <v>0</v>
       </c>
+      <c r="BT15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4112,8 +4160,11 @@
       <c r="BS16">
         <v>8.8127046186131821</v>
       </c>
+      <c r="BT16">
+        <v>7.4663191907695028</v>
+      </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4327,8 +4378,11 @@
       <c r="BS17">
         <v>0</v>
       </c>
+      <c r="BT17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4540,6 +4594,9 @@
         <v>0</v>
       </c>
       <c r="BS18">
+        <v>0</v>
+      </c>
+      <c r="BT18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5360F2B1-2F5E-4875-8EC2-B20B11D8962B}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05143DEB-5814-4CB9-8DE1-E7035A6AC7DC}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>Línea</t>
   </si>
@@ -319,6 +319,9 @@
   </si>
   <si>
     <t>14-sep</t>
+  </si>
+  <si>
+    <t>15-sep</t>
   </si>
 </sst>
 </file>
@@ -657,10 +660,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BT18"/>
+  <dimension ref="A1:BU18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV6" sqref="BV6"/>
+      <selection activeCell="BV4" sqref="BV4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,7 +679,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -893,8 +896,11 @@
       <c r="BT1" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="BU1" s="3" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="2" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1111,8 +1117,11 @@
       <c r="BT2">
         <v>0</v>
       </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1329,8 +1338,11 @@
       <c r="BT3">
         <v>16.85517816169342</v>
       </c>
+      <c r="BU3">
+        <v>16.188640780434685</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1547,8 +1559,11 @@
       <c r="BT4">
         <v>16.958782744424354</v>
       </c>
+      <c r="BU4">
+        <v>18.368698306146527</v>
+      </c>
     </row>
-    <row r="5" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1765,8 +1780,11 @@
       <c r="BT5">
         <v>18.37033466968176</v>
       </c>
+      <c r="BU5">
+        <v>17.360829603157306</v>
+      </c>
     </row>
-    <row r="6" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1983,8 +2001,11 @@
       <c r="BT6">
         <v>0</v>
       </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2201,8 +2222,11 @@
       <c r="BT7">
         <v>9.8420764294722094</v>
       </c>
+      <c r="BU7">
+        <v>7.8096137130507701</v>
+      </c>
     </row>
-    <row r="8" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2419,8 +2443,11 @@
       <c r="BT8">
         <v>18.435433917128044</v>
       </c>
+      <c r="BU8">
+        <v>17.297045043200637</v>
+      </c>
     </row>
-    <row r="9" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2637,8 +2664,11 @@
       <c r="BT9">
         <v>12.160170348476889</v>
       </c>
+      <c r="BU9">
+        <v>10.830674401510734</v>
+      </c>
     </row>
-    <row r="10" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2855,8 +2885,11 @@
       <c r="BT10">
         <v>14.303058023483253</v>
       </c>
+      <c r="BU10">
+        <v>12.50323819001977</v>
+      </c>
     </row>
-    <row r="11" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3073,8 +3106,11 @@
       <c r="BT11">
         <v>14.76198637701328</v>
       </c>
+      <c r="BU11">
+        <v>13.801236067837319</v>
+      </c>
     </row>
-    <row r="12" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3291,8 +3327,11 @@
       <c r="BT12">
         <v>0</v>
       </c>
+      <c r="BU12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3509,8 +3548,11 @@
       <c r="BT13">
         <v>9.8265049212000761</v>
       </c>
+      <c r="BU13">
+        <v>10.42795331839403</v>
+      </c>
     </row>
-    <row r="14" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3727,8 +3769,11 @@
       <c r="BT14">
         <v>0</v>
       </c>
+      <c r="BU14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3945,8 +3990,11 @@
       <c r="BT15">
         <v>0</v>
       </c>
+      <c r="BU15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4163,8 +4211,11 @@
       <c r="BT16">
         <v>7.4663191907695028</v>
       </c>
+      <c r="BU16">
+        <v>6.4314940272202277</v>
+      </c>
     </row>
-    <row r="17" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4381,8 +4432,11 @@
       <c r="BT17">
         <v>0</v>
       </c>
+      <c r="BU17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4597,6 +4651,9 @@
         <v>0</v>
       </c>
       <c r="BT18">
+        <v>0</v>
+      </c>
+      <c r="BU18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05143DEB-5814-4CB9-8DE1-E7035A6AC7DC}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C9A9B5B-A476-43E3-8252-250B7572DCB6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
   <si>
     <t>Línea</t>
   </si>
@@ -322,6 +322,9 @@
   </si>
   <si>
     <t>15-sep</t>
+  </si>
+  <si>
+    <t>18-sep</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BU18"/>
+  <dimension ref="A1:BV18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BV4" sqref="BV4"/>
+      <selection activeCell="BX5" sqref="BX5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +682,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -899,8 +902,11 @@
       <c r="BU1" s="3" t="s">
         <v>95</v>
       </c>
+      <c r="BV1" s="3" t="s">
+        <v>96</v>
+      </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1120,8 +1126,11 @@
       <c r="BU2">
         <v>0</v>
       </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1341,8 +1350,11 @@
       <c r="BU3">
         <v>16.188640780434685</v>
       </c>
+      <c r="BV3">
+        <v>13.477752678266757</v>
+      </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1562,8 +1574,11 @@
       <c r="BU4">
         <v>18.368698306146527</v>
       </c>
+      <c r="BV4">
+        <v>18.228496928146512</v>
+      </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1783,8 +1798,11 @@
       <c r="BU5">
         <v>17.360829603157306</v>
       </c>
+      <c r="BV5">
+        <v>13.965362300654338</v>
+      </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2004,8 +2022,11 @@
       <c r="BU6">
         <v>0</v>
       </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2225,8 +2246,11 @@
       <c r="BU7">
         <v>7.8096137130507701</v>
       </c>
+      <c r="BV7">
+        <v>6.4794461216874097</v>
+      </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2446,8 +2470,11 @@
       <c r="BU8">
         <v>17.297045043200637</v>
       </c>
+      <c r="BV8">
+        <v>15.171960384450029</v>
+      </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2667,8 +2694,11 @@
       <c r="BU9">
         <v>10.830674401510734</v>
       </c>
+      <c r="BV9">
+        <v>7.58655075961574</v>
+      </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2888,8 +2918,11 @@
       <c r="BU10">
         <v>12.50323819001977</v>
       </c>
+      <c r="BV10">
+        <v>9.0841000158561442</v>
+      </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3109,8 +3142,11 @@
       <c r="BU11">
         <v>13.801236067837319</v>
       </c>
+      <c r="BV11">
+        <v>11.948169857989011</v>
+      </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3330,8 +3366,11 @@
       <c r="BU12">
         <v>0</v>
       </c>
+      <c r="BV12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3551,8 +3590,11 @@
       <c r="BU13">
         <v>10.42795331839403</v>
       </c>
+      <c r="BV13">
+        <v>10.572743472774256</v>
+      </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3772,8 +3814,11 @@
       <c r="BU14">
         <v>0</v>
       </c>
+      <c r="BV14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -3993,8 +4038,11 @@
       <c r="BU15">
         <v>0</v>
       </c>
+      <c r="BV15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4214,8 +4262,11 @@
       <c r="BU16">
         <v>6.4314940272202277</v>
       </c>
+      <c r="BV16">
+        <v>15.684717266013774</v>
+      </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4435,8 +4486,11 @@
       <c r="BU17">
         <v>0</v>
       </c>
+      <c r="BV17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4654,6 +4708,9 @@
         <v>0</v>
       </c>
       <c r="BU18">
+        <v>0</v>
+      </c>
+      <c r="BV18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C9A9B5B-A476-43E3-8252-250B7572DCB6}"/>
+  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FE8F64-2B1A-4FF5-A654-D96AEB32085E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
   <si>
     <t>Línea</t>
   </si>
@@ -325,6 +325,12 @@
   </si>
   <si>
     <t>18-sep</t>
+  </si>
+  <si>
+    <t>19-sep</t>
+  </si>
+  <si>
+    <t>20-sep</t>
   </si>
 </sst>
 </file>
@@ -663,10 +669,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BV18"/>
+  <dimension ref="A1:BX18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BX5" sqref="BX5"/>
+      <selection activeCell="BY6" sqref="BY6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,7 +688,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -905,8 +911,14 @@
       <c r="BV1" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="BW1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="BX1" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1129,8 +1141,14 @@
       <c r="BV2">
         <v>0</v>
       </c>
+      <c r="BW2">
+        <v>7.9116409943885166</v>
+      </c>
+      <c r="BX2">
+        <v>7.2688818618900193</v>
+      </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1353,8 +1371,14 @@
       <c r="BV3">
         <v>13.477752678266757</v>
       </c>
+      <c r="BW3">
+        <v>12.017627588988839</v>
+      </c>
+      <c r="BX3">
+        <v>12.623770242829666</v>
+      </c>
     </row>
-    <row r="4" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1577,8 +1601,14 @@
       <c r="BV4">
         <v>18.228496928146512</v>
       </c>
+      <c r="BW4">
+        <v>16.971366953750735</v>
+      </c>
+      <c r="BX4">
+        <v>16.061534328955645</v>
+      </c>
     </row>
-    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1801,8 +1831,14 @@
       <c r="BV5">
         <v>13.965362300654338</v>
       </c>
+      <c r="BW5">
+        <v>12.619242420514217</v>
+      </c>
+      <c r="BX5">
+        <v>11.899724162235227</v>
+      </c>
     </row>
-    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2025,8 +2061,14 @@
       <c r="BV6">
         <v>0</v>
       </c>
+      <c r="BW6">
+        <v>7.2925472924187735</v>
+      </c>
+      <c r="BX6">
+        <v>7.2925472924187735</v>
+      </c>
     </row>
-    <row r="7" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2249,8 +2291,14 @@
       <c r="BV7">
         <v>6.4794461216874097</v>
       </c>
+      <c r="BW7">
+        <v>5.5298095606344528</v>
+      </c>
+      <c r="BX7">
+        <v>4.7873753694828443</v>
+      </c>
     </row>
-    <row r="8" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2473,8 +2521,14 @@
       <c r="BV8">
         <v>15.171960384450029</v>
       </c>
+      <c r="BW8">
+        <v>15.304092930975141</v>
+      </c>
+      <c r="BX8">
+        <v>15.884436341845593</v>
+      </c>
     </row>
-    <row r="9" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2697,8 +2751,14 @@
       <c r="BV9">
         <v>7.58655075961574</v>
       </c>
+      <c r="BW9">
+        <v>7.9339033504315601</v>
+      </c>
+      <c r="BX9">
+        <v>8.5804808028424997</v>
+      </c>
     </row>
-    <row r="10" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2921,8 +2981,14 @@
       <c r="BV10">
         <v>9.0841000158561442</v>
       </c>
+      <c r="BW10">
+        <v>8.5281262825021429</v>
+      </c>
+      <c r="BX10">
+        <v>7.4183818810695774</v>
+      </c>
     </row>
-    <row r="11" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3145,8 +3211,14 @@
       <c r="BV11">
         <v>11.948169857989011</v>
       </c>
+      <c r="BW11">
+        <v>13.475327332393714</v>
+      </c>
+      <c r="BX11">
+        <v>12.141471890224029</v>
+      </c>
     </row>
-    <row r="12" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3369,8 +3441,14 @@
       <c r="BV12">
         <v>0</v>
       </c>
+      <c r="BW12">
+        <v>19.022204251896223</v>
+      </c>
+      <c r="BX12">
+        <v>17.459840305331543</v>
+      </c>
     </row>
-    <row r="13" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3593,8 +3671,14 @@
       <c r="BV13">
         <v>10.572743472774256</v>
       </c>
+      <c r="BW13">
+        <v>10.152308216548757</v>
+      </c>
+      <c r="BX13">
+        <v>9.3600842207558657</v>
+      </c>
     </row>
-    <row r="14" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3817,8 +3901,14 @@
       <c r="BV14">
         <v>0</v>
       </c>
+      <c r="BW14">
+        <v>19.769558115100633</v>
+      </c>
+      <c r="BX14">
+        <v>19.678023170632123</v>
+      </c>
     </row>
-    <row r="15" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4041,8 +4131,14 @@
       <c r="BV15">
         <v>0</v>
       </c>
+      <c r="BW15">
+        <v>0</v>
+      </c>
+      <c r="BX15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4265,8 +4361,14 @@
       <c r="BV16">
         <v>15.684717266013774</v>
       </c>
+      <c r="BW16">
+        <v>14.629151902165445</v>
+      </c>
+      <c r="BX16">
+        <v>13.696085266036443</v>
+      </c>
     </row>
-    <row r="17" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4489,8 +4591,14 @@
       <c r="BV17">
         <v>0</v>
       </c>
+      <c r="BW17">
+        <v>0</v>
+      </c>
+      <c r="BX17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:74" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4711,6 +4819,12 @@
         <v>0</v>
       </c>
       <c r="BV18">
+        <v>0</v>
+      </c>
+      <c r="BW18">
+        <v>0</v>
+      </c>
+      <c r="BX18">
         <v>0</v>
       </c>
     </row>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="176" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20FE8F64-2B1A-4FF5-A654-D96AEB32085E}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B85A40A-3755-4C64-B642-575ED805D6BB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
   <si>
     <t>Línea</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>20-sep</t>
+  </si>
+  <si>
+    <t>21-sep</t>
   </si>
 </sst>
 </file>
@@ -669,10 +672,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BX18"/>
+  <dimension ref="A1:BY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BY6" sqref="BY6"/>
+      <selection activeCell="BX19" sqref="BX19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,7 +691,7 @@
     <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:76" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -917,8 +920,11 @@
       <c r="BX1" s="3" t="s">
         <v>98</v>
       </c>
+      <c r="BY1" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1147,8 +1153,11 @@
       <c r="BX2">
         <v>7.2688818618900193</v>
       </c>
+      <c r="BY2">
+        <v>18.38789843037825</v>
+      </c>
     </row>
-    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1377,8 +1386,11 @@
       <c r="BX3">
         <v>12.623770242829666</v>
       </c>
+      <c r="BY3">
+        <v>7.7906725090427837</v>
+      </c>
     </row>
-    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1607,8 +1619,11 @@
       <c r="BX4">
         <v>16.061534328955645</v>
       </c>
+      <c r="BY4">
+        <v>13.385616485586558</v>
+      </c>
     </row>
-    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1837,8 +1852,11 @@
       <c r="BX5">
         <v>11.899724162235227</v>
       </c>
+      <c r="BY5">
+        <v>7.0382685920577623</v>
+      </c>
     </row>
-    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2067,8 +2085,11 @@
       <c r="BX6">
         <v>7.2925472924187735</v>
       </c>
+      <c r="BY6">
+        <v>3.5133052664530298</v>
+      </c>
     </row>
-    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2297,8 +2318,11 @@
       <c r="BX7">
         <v>4.7873753694828443</v>
       </c>
+      <c r="BY7">
+        <v>2.3634502918911746</v>
+      </c>
     </row>
-    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2527,8 +2551,11 @@
       <c r="BX8">
         <v>15.884436341845593</v>
       </c>
+      <c r="BY8">
+        <v>5.7246486802758279</v>
+      </c>
     </row>
-    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2757,8 +2784,11 @@
       <c r="BX9">
         <v>8.5804808028424997</v>
       </c>
+      <c r="BY9">
+        <v>14.356981722891851</v>
+      </c>
     </row>
-    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2987,8 +3017,11 @@
       <c r="BX10">
         <v>7.4183818810695774</v>
       </c>
+      <c r="BY10">
+        <v>15.983144021186069</v>
+      </c>
     </row>
-    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3217,8 +3250,11 @@
       <c r="BX11">
         <v>12.141471890224029</v>
       </c>
+      <c r="BY11">
+        <v>7.2315886699020515</v>
+      </c>
     </row>
-    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3447,8 +3483,11 @@
       <c r="BX12">
         <v>17.459840305331543</v>
       </c>
+      <c r="BY12">
+        <v>12.44455808387311</v>
+      </c>
     </row>
-    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3677,8 +3716,11 @@
       <c r="BX13">
         <v>9.3600842207558657</v>
       </c>
+      <c r="BY13">
+        <v>11.563361526313006</v>
+      </c>
     </row>
-    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3907,8 +3949,11 @@
       <c r="BX14">
         <v>19.678023170632123</v>
       </c>
+      <c r="BY14">
+        <v>10.769519954876801</v>
+      </c>
     </row>
-    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4137,8 +4182,11 @@
       <c r="BX15">
         <v>0</v>
       </c>
+      <c r="BY15">
+        <v>6.6567925859687973</v>
+      </c>
     </row>
-    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4367,8 +4415,11 @@
       <c r="BX16">
         <v>13.696085266036443</v>
       </c>
+      <c r="BY16">
+        <v>11.348955959083439</v>
+      </c>
     </row>
-    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4597,8 +4648,11 @@
       <c r="BX17">
         <v>0</v>
       </c>
+      <c r="BY17">
+        <v>11.18781752150775</v>
+      </c>
     </row>
-    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4826,6 +4880,9 @@
       </c>
       <c r="BX18">
         <v>0</v>
+      </c>
+      <c r="BY18">
+        <v>20.676947999397147</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5B85A40A-3755-4C64-B642-575ED805D6BB}"/>
+  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E1F1A9-25E6-4808-AAC3-86E8CA6BF7C1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
   <si>
     <t>Línea</t>
   </si>
@@ -334,6 +335,30 @@
   </si>
   <si>
     <t>21-sep</t>
+  </si>
+  <si>
+    <t>3D QUESO 92GX27</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 40GX58X1 CH</t>
+  </si>
+  <si>
+    <t>LAYS ONDAS FH 70GX28</t>
+  </si>
+  <si>
+    <t>LAYS ONDAS FH 30GX72</t>
+  </si>
+  <si>
+    <t>LAYS CLASICAS 40GX68</t>
+  </si>
+  <si>
+    <t>LAYS QSO Y CEBOLLA 34GX72</t>
+  </si>
+  <si>
+    <t>QUAKER AVENA INSTANT FORTIF 18X280G</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 140GrX19</t>
   </si>
 </sst>
 </file>
@@ -375,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -391,6 +416,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -675,20 +701,21 @@
   <dimension ref="A1:BY18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BX19" sqref="BX19"/>
+      <selection activeCell="CA14" sqref="CA14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="62" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="62" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="63" max="71" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -1148,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="BW2">
-        <v>7.9116409943885166</v>
+        <v>0</v>
       </c>
       <c r="BX2">
-        <v>7.2688818618900193</v>
+        <v>0</v>
       </c>
       <c r="BY2">
-        <v>18.38789843037825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:77" x14ac:dyDescent="0.25">
@@ -1381,13 +1408,13 @@
         <v>13.477752678266757</v>
       </c>
       <c r="BW3">
-        <v>12.017627588988839</v>
+        <v>12.44455808387311</v>
       </c>
       <c r="BX3">
         <v>12.623770242829666</v>
       </c>
       <c r="BY3">
-        <v>7.7906725090427837</v>
+        <v>12.44455808387311</v>
       </c>
     </row>
     <row r="4" spans="1:77" x14ac:dyDescent="0.25">
@@ -1614,13 +1641,13 @@
         <v>18.228496928146512</v>
       </c>
       <c r="BW4">
-        <v>16.971366953750735</v>
+        <v>14.356981722891851</v>
       </c>
       <c r="BX4">
         <v>16.061534328955645</v>
       </c>
       <c r="BY4">
-        <v>13.385616485586558</v>
+        <v>14.356981722891851</v>
       </c>
     </row>
     <row r="5" spans="1:77" x14ac:dyDescent="0.25">
@@ -1847,13 +1874,13 @@
         <v>13.965362300654338</v>
       </c>
       <c r="BW5">
-        <v>12.619242420514217</v>
+        <v>15.983144021186069</v>
       </c>
       <c r="BX5">
         <v>11.899724162235227</v>
       </c>
       <c r="BY5">
-        <v>7.0382685920577623</v>
+        <v>15.983144021186069</v>
       </c>
     </row>
     <row r="6" spans="1:77" x14ac:dyDescent="0.25">
@@ -2080,13 +2107,13 @@
         <v>0</v>
       </c>
       <c r="BW6">
-        <v>7.2925472924187735</v>
+        <v>0</v>
       </c>
       <c r="BX6">
-        <v>7.2925472924187735</v>
+        <v>0</v>
       </c>
       <c r="BY6">
-        <v>3.5133052664530298</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:77" x14ac:dyDescent="0.25">
@@ -2313,13 +2340,13 @@
         <v>6.4794461216874097</v>
       </c>
       <c r="BW7">
-        <v>5.5298095606344528</v>
+        <v>3.5133052664530298</v>
       </c>
       <c r="BX7">
         <v>4.7873753694828443</v>
       </c>
       <c r="BY7">
-        <v>2.3634502918911746</v>
+        <v>3.5133052664530298</v>
       </c>
     </row>
     <row r="8" spans="1:77" x14ac:dyDescent="0.25">
@@ -2546,13 +2573,13 @@
         <v>15.171960384450029</v>
       </c>
       <c r="BW8">
-        <v>15.304092930975141</v>
+        <v>13.385616485586558</v>
       </c>
       <c r="BX8">
         <v>15.884436341845593</v>
       </c>
       <c r="BY8">
-        <v>5.7246486802758279</v>
+        <v>13.385616485586558</v>
       </c>
     </row>
     <row r="9" spans="1:77" x14ac:dyDescent="0.25">
@@ -2779,13 +2806,13 @@
         <v>7.58655075961574</v>
       </c>
       <c r="BW9">
-        <v>7.9339033504315601</v>
+        <v>11.18781752150775</v>
       </c>
       <c r="BX9">
         <v>8.5804808028424997</v>
       </c>
       <c r="BY9">
-        <v>14.356981722891851</v>
+        <v>11.18781752150775</v>
       </c>
     </row>
     <row r="10" spans="1:77" x14ac:dyDescent="0.25">
@@ -3012,13 +3039,13 @@
         <v>9.0841000158561442</v>
       </c>
       <c r="BW10">
-        <v>8.5281262825021429</v>
+        <v>6.6567925859687973</v>
       </c>
       <c r="BX10">
         <v>7.4183818810695774</v>
       </c>
       <c r="BY10">
-        <v>15.983144021186069</v>
+        <v>6.6567925859687973</v>
       </c>
     </row>
     <row r="11" spans="1:77" x14ac:dyDescent="0.25">
@@ -3245,13 +3272,13 @@
         <v>11.948169857989011</v>
       </c>
       <c r="BW11">
-        <v>13.475327332393714</v>
+        <v>11.348955959083439</v>
       </c>
       <c r="BX11">
         <v>12.141471890224029</v>
       </c>
       <c r="BY11">
-        <v>7.2315886699020515</v>
+        <v>11.348955959083439</v>
       </c>
     </row>
     <row r="12" spans="1:77" x14ac:dyDescent="0.25">
@@ -3478,13 +3505,13 @@
         <v>0</v>
       </c>
       <c r="BW12">
-        <v>19.022204251896223</v>
+        <v>0</v>
       </c>
       <c r="BX12">
-        <v>17.459840305331543</v>
+        <v>0</v>
       </c>
       <c r="BY12">
-        <v>12.44455808387311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:77" x14ac:dyDescent="0.25">
@@ -3711,13 +3738,13 @@
         <v>10.572743472774256</v>
       </c>
       <c r="BW13">
-        <v>10.152308216548757</v>
+        <v>7.7906725090427837</v>
       </c>
       <c r="BX13">
         <v>9.3600842207558657</v>
       </c>
       <c r="BY13">
-        <v>11.563361526313006</v>
+        <v>7.7906725090427837</v>
       </c>
     </row>
     <row r="14" spans="1:77" x14ac:dyDescent="0.25">
@@ -3944,13 +3971,13 @@
         <v>0</v>
       </c>
       <c r="BW14">
-        <v>19.769558115100633</v>
+        <v>0</v>
       </c>
       <c r="BX14">
-        <v>19.678023170632123</v>
+        <v>0</v>
       </c>
       <c r="BY14">
-        <v>10.769519954876801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:77" x14ac:dyDescent="0.25">
@@ -4183,7 +4210,7 @@
         <v>0</v>
       </c>
       <c r="BY15">
-        <v>6.6567925859687973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:77" x14ac:dyDescent="0.25">
@@ -4410,13 +4437,13 @@
         <v>15.684717266013774</v>
       </c>
       <c r="BW16">
-        <v>14.629151902165445</v>
+        <v>11.563361526313006</v>
       </c>
       <c r="BX16">
         <v>13.696085266036443</v>
       </c>
       <c r="BY16">
-        <v>11.348955959083439</v>
+        <v>11.563361526313001</v>
       </c>
     </row>
     <row r="17" spans="1:77" x14ac:dyDescent="0.25">
@@ -4649,7 +4676,7 @@
         <v>0</v>
       </c>
       <c r="BY17">
-        <v>11.18781752150775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:77" x14ac:dyDescent="0.25">
@@ -4882,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="BY18">
-        <v>20.676947999397147</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4890,4 +4917,378 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="597" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A4410-C161-46B3-8156-4FCF0BD3674B}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7">
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="5" t="e">
+        <f>VLOOKUP(B2,$A$20:$B$36,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
+        <v>12.44455808387311</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>14.356981722891851</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>15.983144021186069</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>3.5133052664530298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>13.385616485586558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>11.18781752150775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>6.6567925859687973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>11.348955959083439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>7.7906725090427837</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>11.563361526313006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20">
+        <v>18.38789843037825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21">
+        <v>7.7906725090427837</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>13.385616485586558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>7.0382685920577623</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>3.5133052664530298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25">
+        <v>2.3634502918911746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26">
+        <v>5.7246486802758279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27">
+        <v>14.356981722891851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28">
+        <v>15.983144021186069</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29">
+        <v>7.2315886699020515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>12.44455808387311</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31">
+        <v>11.563361526313006</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32">
+        <v>10.769519954876801</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33">
+        <v>6.6567925859687973</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34">
+        <v>11.348955959083439</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>11.18781752150775</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36">
+        <v>20.676947999397147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="282" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3E1F1A9-25E6-4808-AAC3-86E8CA6BF7C1}"/>
+  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB8CA64-4B4A-40D0-8673-DBB123C5AC5D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
   <si>
     <t>Línea</t>
   </si>
@@ -340,9 +340,6 @@
     <t>3D QUESO 92GX27</t>
   </si>
   <si>
-    <t>DORITOS QUESO 40GX58X1 CH</t>
-  </si>
-  <si>
     <t>LAYS ONDAS FH 70GX28</t>
   </si>
   <si>
@@ -358,7 +355,10 @@
     <t>QUAKER AVENA INSTANT FORTIF 18X280G</t>
   </si>
   <si>
-    <t>DORITOS QUESO 140GrX19</t>
+    <t>22-sep</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 40GRX58X1 CH</t>
   </si>
 </sst>
 </file>
@@ -400,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -411,9 +411,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -698,10 +695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BY18"/>
+  <dimension ref="A1:BZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CA14" sqref="CA14"/>
+      <selection activeCell="CF19" sqref="CF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,13 +709,14 @@
     <col min="4" max="4" width="14" style="1" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="9" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="11" max="62" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="63" max="71" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="71" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:77" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -950,8 +948,11 @@
       <c r="BY1" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="BZ1" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -982,209 +983,212 @@
       <c r="J2" s="1">
         <v>0</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="5">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="6">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>0</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>0</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-      <c r="AZ2">
-        <v>0</v>
-      </c>
-      <c r="BA2">
-        <v>0</v>
-      </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
-        <v>0</v>
-      </c>
-      <c r="BD2">
-        <v>0</v>
-      </c>
-      <c r="BE2">
-        <v>0</v>
-      </c>
-      <c r="BF2">
-        <v>0</v>
-      </c>
-      <c r="BG2">
-        <v>0</v>
-      </c>
-      <c r="BH2">
-        <v>0</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
-        <v>0</v>
-      </c>
-      <c r="BL2">
-        <v>0</v>
-      </c>
-      <c r="BM2">
-        <v>0</v>
-      </c>
-      <c r="BN2">
-        <v>0</v>
-      </c>
-      <c r="BO2">
-        <v>0</v>
-      </c>
-      <c r="BP2">
-        <v>0</v>
-      </c>
-      <c r="BQ2">
-        <v>0</v>
-      </c>
-      <c r="BR2">
-        <v>0</v>
-      </c>
-      <c r="BS2">
-        <v>0</v>
-      </c>
-      <c r="BT2">
-        <v>0</v>
-      </c>
-      <c r="BU2">
-        <v>0</v>
-      </c>
-      <c r="BV2">
-        <v>0</v>
-      </c>
-      <c r="BW2">
-        <v>0</v>
-      </c>
-      <c r="BX2">
-        <v>0</v>
-      </c>
-      <c r="BY2">
+      <c r="K2" s="1">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0</v>
+      </c>
+      <c r="S2" s="1">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY2" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ2" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1215,209 +1219,212 @@
       <c r="J3" s="1">
         <v>13.132209895812792</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="1">
         <v>13.695562417517014</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="1">
         <v>14.945487314099447</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="1">
         <v>13.17106684475379</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="1">
         <v>12.696568499229443</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="1">
         <v>13.390610855369534</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="1">
         <v>15.118505714037614</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="1">
         <v>14.815379981990016</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="1">
         <v>14.815379981990016</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="1">
         <v>16.214590788615514</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="1">
         <v>15.527066483319157</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="2">
         <v>15</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="1">
         <v>15.013077939530611</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="2">
         <v>14.479368061886348</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="1">
         <v>13.696895105679078</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="1">
         <v>12.282111633415292</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="1">
         <v>12.114747032477784</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="1">
         <v>11.899744633765254</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="1">
         <v>11.798624784142465</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="1">
         <v>11.863420027590076</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="1">
         <v>11.826604548358478</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="1">
         <v>11.916344324914331</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="1">
         <v>10.774470971714203</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="1">
         <v>10</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="1">
         <v>8.3892039993575054</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="1">
         <v>8.7689015631202185</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="1">
         <v>9.8723034898639028</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="1">
         <v>11.659527624372734</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" s="1">
         <v>13.915561918321162</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" s="1">
         <v>16.408288513876712</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="1">
         <v>18.059946848652984</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" s="1">
         <v>17.434819783586502</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" s="1">
         <v>17.739341569465441</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" s="1">
         <v>16.651895630789305</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="1">
         <v>16.90502550478282</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="1">
         <v>15.689327096616635</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="1">
         <v>14.103146384608888</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="1">
         <v>13.00976649845494</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="1">
         <v>13.963963764522161</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="1">
         <v>14.380819173936141</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="1">
         <v>16.37161535676869</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="1">
         <v>17.471036026470173</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="1">
         <v>16.72581762695949</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="1">
         <v>14.740217530833212</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" s="1">
         <v>13.691533671864502</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" s="1">
         <v>10.777018540069239</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="1">
         <v>10.462988970924169</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="1">
         <v>11.30610872990993</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="1">
         <v>12.019981377311693</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="1">
         <v>14.097377768918269</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="1">
         <v>9.8985397970785254</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="1">
         <v>11.790335228036453</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" s="1">
         <v>12.498609596300213</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" s="1">
         <v>27.239267029014986</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" s="1">
         <v>16.713348746320555</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" s="1">
         <v>16.935527873406798</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" s="1">
         <v>18.963749384232457</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" s="1">
         <v>20.559786839630078</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" s="1">
         <v>19.380715691229927</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" s="1">
         <v>18.871834183711847</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" s="1">
         <v>18.625306659136701</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" s="1">
         <v>17.593543315544416</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" s="1">
         <v>16.85517816169342</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" s="1">
         <v>16.188640780434685</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" s="1">
         <v>13.477752678266757</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" s="1">
         <v>12.44455808387311</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" s="1">
         <v>12.623770242829666</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" s="1">
         <v>12.44455808387311</v>
       </c>
+      <c r="BZ3" s="1">
+        <v>10.691896052242944</v>
+      </c>
     </row>
-    <row r="4" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1448,209 +1455,212 @@
       <c r="J4" s="1">
         <v>17.626869978956577</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="1">
         <v>18.840491590611677</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="1">
         <v>19.085022473555476</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="1">
         <v>16.880024755672888</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="1">
         <v>16.021400258648665</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="1">
         <v>16.080135502803358</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="1">
         <v>16.042993976342153</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="1">
         <v>14.630213722631952</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="1">
         <v>14.630213722631952</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="1">
         <v>11.871641373282211</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="1">
         <v>13.135707916075548</v>
       </c>
-      <c r="U4" s="5">
+      <c r="U4" s="2">
         <v>14</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="1">
         <v>14.196482638689593</v>
       </c>
-      <c r="W4" s="6">
+      <c r="W4" s="2">
         <v>12.815287227932272</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="1">
         <v>11.878435897576063</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="1">
         <v>15.416875209161896</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="1">
         <v>19.896132867731442</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="1">
         <v>19.596710872362944</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="1">
         <v>20.164695214552214</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="1">
         <v>18.941985896417894</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="1">
         <v>15.3530921747726</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="1">
         <v>15.595549801872435</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="1">
         <v>14.141731489157788</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="1">
         <v>24</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="1">
         <v>12.958977668816591</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="1">
         <v>11.521334511659333</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="1">
         <v>11.383038046902159</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="1">
         <v>13.720636393633743</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" s="1">
         <v>14.251428814301386</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" s="1">
         <v>14.803082072462523</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="1">
         <v>15.628244088871613</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" s="1">
         <v>16.500922457349205</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" s="1">
         <v>17.25967898842293</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" s="1">
         <v>16.382439903877927</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="1">
         <v>18.25753844709287</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="1">
         <v>19.966936274338202</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="1">
         <v>19.175891190222764</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="1">
         <v>18.670726704322401</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="1">
         <v>18.562568061245496</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="1">
         <v>19.030831363037265</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="1">
         <v>19.189888191091537</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="1">
         <v>18.62859577367583</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="1">
         <v>18.818043194818785</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="1">
         <v>19.960144967120499</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" s="1">
         <v>19.387145101836023</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" s="1">
         <v>17.969858079165061</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="1">
         <v>18.307513916545272</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="1">
         <v>19.613724179130244</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="1">
         <v>19.974989025376676</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="1">
         <v>20.720229759568294</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="1">
         <v>13.596589824929751</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="1">
         <v>13.289322258264672</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" s="1">
         <v>14.266603824463326</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" s="1">
         <v>23.297642305215735</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" s="1">
         <v>13.968397319158779</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" s="1">
         <v>15.198662349629252</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" s="1">
         <v>15.595485358533317</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" s="1">
         <v>16.319772626934139</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" s="1">
         <v>15.099740854572941</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" s="1">
         <v>14.668806985304631</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" s="1">
         <v>17.413594215947633</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" s="1">
         <v>16.438023609530195</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" s="1">
         <v>16.958782744424354</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" s="1">
         <v>18.368698306146527</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" s="1">
         <v>18.228496928146512</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" s="1">
         <v>14.356981722891851</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" s="1">
         <v>16.061534328955645</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" s="1">
         <v>14.356981722891851</v>
       </c>
+      <c r="BZ4" s="1">
+        <v>13.061964483220009</v>
+      </c>
     </row>
-    <row r="5" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1681,209 +1691,212 @@
       <c r="J5" s="1">
         <v>19.421960383193653</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="1">
         <v>18.759559370813314</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="1">
         <v>17.572681940411279</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="1">
         <v>16.111859843455196</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="1">
         <v>15.505918927536154</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="1">
         <v>15.184806525986239</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="1">
         <v>16.95922399864774</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="1">
         <v>16.255628058144431</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="1">
         <v>16.255628058144431</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="1">
         <v>17.723916505413239</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="1">
         <v>17.126746841624716</v>
       </c>
-      <c r="U5" s="5">
+      <c r="U5" s="2">
         <v>30</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="1">
         <v>29.818282710578451</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="2">
         <v>27.873531228416816</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="1">
         <v>25.839536848412195</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="1">
         <v>24.750029803912465</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="1">
         <v>25.39509033762949</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="1">
         <v>24.968764356028654</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="1">
         <v>24.755601365228237</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="1">
         <v>24.747402788658988</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="1">
         <v>28.248194983727391</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="1">
         <v>26.508480011935593</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="1">
         <v>27.275380305916332</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="1">
         <v>26</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="1">
         <v>24.985887282395023</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="1">
         <v>24.179073320231613</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="1">
         <v>28.803963576257583</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="1">
         <v>32.333350072248543</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" s="1">
         <v>31.199771520604326</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" s="1">
         <v>29.697120882378265</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="1">
         <v>22.058646804729133</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" s="1">
         <v>20.153971215047854</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" s="1">
         <v>23.484576240675192</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" s="1">
         <v>21.437824827707033</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="1">
         <v>20.080904446517032</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="1">
         <v>18.822531355581052</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="1">
         <v>17.72017533329516</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="1">
         <v>15.543866453957417</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="1">
         <v>17.904324546162204</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="1">
         <v>16.657132149926341</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="1">
         <v>15.51038477889068</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="1">
         <v>13.00852083249233</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="1">
         <v>15.429149913526052</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="1">
         <v>14.054991147108684</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" s="1">
         <v>12.83351668807102</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" s="1">
         <v>24.140000030352329</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="1">
         <v>22.329040240787812</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="1">
         <v>21.209603009491765</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="1">
         <v>19.470743843545236</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="1">
         <v>24.122039928300879</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="1">
         <v>14.508820366750768</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="1">
         <v>13.653018835169508</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" s="1">
         <v>12.896729109586072</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" s="1">
         <v>17.640707357263107</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" s="1">
         <v>10.925234804063917</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" s="1">
         <v>9.5836557024985272</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" s="1">
         <v>9.0390542850313889</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" s="1">
         <v>18.888370164345623</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" s="1">
         <v>17.394037006661399</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" s="1">
         <v>16.683398571673791</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" s="1">
         <v>17.115094817227014</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" s="1">
         <v>15.554346852534602</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" s="1">
         <v>18.37033466968176</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" s="1">
         <v>17.360829603157306</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" s="1">
         <v>13.965362300654338</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" s="1">
         <v>15.983144021186069</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" s="1">
         <v>11.899724162235227</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" s="1">
         <v>15.983144021186069</v>
       </c>
+      <c r="BZ5" s="1">
+        <v>13.929134634304171</v>
+      </c>
     </row>
-    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1914,209 +1927,212 @@
       <c r="J6" s="1">
         <v>0</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
-        <v>0</v>
-      </c>
-      <c r="BD6">
-        <v>0</v>
-      </c>
-      <c r="BE6">
-        <v>0</v>
-      </c>
-      <c r="BF6">
-        <v>0</v>
-      </c>
-      <c r="BG6">
-        <v>0</v>
-      </c>
-      <c r="BH6">
-        <v>0</v>
-      </c>
-      <c r="BI6">
-        <v>0</v>
-      </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
-        <v>0</v>
-      </c>
-      <c r="BL6">
-        <v>0</v>
-      </c>
-      <c r="BM6">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>0</v>
-      </c>
-      <c r="BO6">
-        <v>0</v>
-      </c>
-      <c r="BP6">
-        <v>0</v>
-      </c>
-      <c r="BQ6">
-        <v>0</v>
-      </c>
-      <c r="BR6">
-        <v>0</v>
-      </c>
-      <c r="BS6">
-        <v>0</v>
-      </c>
-      <c r="BT6">
-        <v>0</v>
-      </c>
-      <c r="BU6">
-        <v>0</v>
-      </c>
-      <c r="BV6">
-        <v>0</v>
-      </c>
-      <c r="BW6">
-        <v>0</v>
-      </c>
-      <c r="BX6">
-        <v>0</v>
-      </c>
-      <c r="BY6">
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0</v>
+      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY6" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2147,209 +2163,212 @@
       <c r="J7" s="1">
         <v>7.1148367049590693</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="1">
         <v>6.188497351569211</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="1">
         <v>5.3498893018430147</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="1">
         <v>9.3061338130800877</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="1">
         <v>8.6621980147994719</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="1">
         <v>9.1556316764176984</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="1">
         <v>9.7031684073560651</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="1">
         <v>6.8780659362289978</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="1">
         <v>6.8780659362289978</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="1">
         <v>5.3872246234134087</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="1">
         <v>7.1497709652943229</v>
       </c>
-      <c r="U7" s="5">
+      <c r="U7" s="2">
         <v>29</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="1">
         <v>24.394734874761802</v>
       </c>
-      <c r="W7" s="6">
+      <c r="W7" s="2">
         <v>33.880299523869624</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="1">
         <v>26.660891473203652</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="1">
         <v>18.603854330999585</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="1">
         <v>17.249084502201711</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="1">
         <v>14.813672327534999</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="1">
         <v>11.534424368550971</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="1">
         <v>10.957853298839492</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="1">
         <v>3.0600308335208122</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="1">
         <v>1.2043022267373138</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="1">
         <v>4.2103534177627351</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="1">
         <v>9</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="1">
         <v>9.0259672675828213</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="1">
         <v>14.265769208504937</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="1">
         <v>18.669100546592478</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="1">
         <v>4.7557679868774043</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" s="1">
         <v>4.4834732748942949</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" s="1">
         <v>5.5463615989111208</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="1">
         <v>4.5434088342255592</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" s="1">
         <v>8.4121172344980533</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" s="1">
         <v>11.361505408100504</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" s="1">
         <v>14.037490135098141</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="1">
         <v>13.476089988166191</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="1">
         <v>15.114920988675921</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="1">
         <v>14.672089134327582</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="1">
         <v>8.4651412514770641</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="1">
         <v>15.84464979576129</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="1">
         <v>20.966458075265646</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="1">
         <v>22.283401534305217</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="1">
         <v>22.312450829281918</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="1">
         <v>17.798327699583332</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="1">
         <v>15.36157249125</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" s="1">
         <v>17.714209574583332</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" s="1">
         <v>16.35543054</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" s="1">
         <v>14.647075100176433</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="1">
         <v>13.847620683361276</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="1">
         <v>11.720508748751541</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="1">
         <v>9.9124666536503501</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="1">
         <v>4.5824293674136189</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="1">
         <v>3.9227148084470347</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" s="1">
         <v>5.231148683730761</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" s="1">
         <v>19.003421510140669</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" s="1">
         <v>14.719281109091291</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" s="1">
         <v>15.149087125517745</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" s="1">
         <v>17.368701186887201</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" s="1">
         <v>17.456931160933685</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" s="1">
         <v>15.856187346090296</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" s="1">
         <v>13.566582448166319</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" s="1">
         <v>14.455851615152497</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" s="1">
         <v>11.342060131097806</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" s="1">
         <v>9.8420764294722094</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" s="1">
         <v>7.8096137130507701</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" s="1">
         <v>6.4794461216874097</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" s="1">
         <v>3.5133052664530298</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" s="1">
         <v>4.7873753694828443</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" s="1">
         <v>3.5133052664530298</v>
       </c>
+      <c r="BZ7" s="1">
+        <v>2.064232818366051</v>
+      </c>
     </row>
-    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2380,209 +2399,212 @@
       <c r="J8" s="1">
         <v>5.4360915226953104</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="1">
         <v>4.5189692517910807</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="1">
         <v>2.8379637672919702</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="1">
         <v>7.3290334555807117</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="1">
         <v>7.6880963776035349</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="1">
         <v>7.7088456091791997</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="1">
         <v>7.1668761855984791</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="1">
         <v>5.7936075396684261</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="1">
         <v>5.7936075396684261</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="1">
         <v>5.4518904379050817</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="1">
         <v>7.3671837859201563</v>
       </c>
-      <c r="U8" s="5">
+      <c r="U8" s="2">
         <v>10</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="1">
         <v>14.931930065813283</v>
       </c>
-      <c r="W8" s="6">
+      <c r="W8" s="2">
         <v>16.545371833125643</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="1">
         <v>13.049338848802693</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="1">
         <v>12.176750436582211</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="1">
         <v>9.6951537000179258</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="1">
         <v>9.1319086042206283</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="1">
         <v>10.125520551384172</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="1">
         <v>10.542004601093442</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="1">
         <v>12.92637578567901</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="1">
         <v>11.549025325762834</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="1">
         <v>13.535980989973574</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="1">
         <v>10</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="1">
         <v>10.203274628609107</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="1">
         <v>8.9100214653227088</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="1">
         <v>7.7688735866172669</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="1">
         <v>7.7698180044860479</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" s="1">
         <v>6.5948098977110403</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" s="1">
         <v>4.872284924428306</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="1">
         <v>5.8319774095429713</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" s="1">
         <v>6.5614872419778925</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" s="1">
         <v>10.854212682994305</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" s="1">
         <v>8.7223461005345975</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="1">
         <v>7.6357437427157979</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="1">
         <v>8.3982846636579307</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="1">
         <v>15.75586833200383</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="1">
         <v>14.613141895780513</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="1">
         <v>15.175125690339041</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="1">
         <v>17.832115395293926</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="1">
         <v>15.622993165001118</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="1">
         <v>12.909476434487644</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="1">
         <v>10.923344317743496</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" s="1">
         <v>10.910910232009014</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" s="1">
         <v>18.688430858928257</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" s="1">
         <v>27.143643547145082</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" s="1">
         <v>19.910911972361824</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="1">
         <v>24.839863034507928</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="1">
         <v>21.73992723887012</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" s="1">
         <v>23.256071045566348</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="1">
         <v>10.790698731736981</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" s="1">
         <v>10.508508770588659</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" s="1">
         <v>10.093403248029892</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" s="1">
         <v>11.551901808677695</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" s="1">
         <v>10.207087334673719</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" s="1">
         <v>11.134564455002007</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" s="1">
         <v>14.924719869769632</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" s="1">
         <v>13.157271079161424</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" s="1">
         <v>12.837896349030995</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" s="1">
         <v>11.688227970745805</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" s="1">
         <v>13.405673647040658</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" s="1">
         <v>15.277172696949297</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" s="1">
         <v>18.435433917128044</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" s="1">
         <v>17.297045043200637</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" s="1">
         <v>15.171960384450029</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" s="1">
         <v>13.385616485586558</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" s="1">
         <v>15.884436341845593</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" s="1">
         <v>13.385616485586558</v>
       </c>
+      <c r="BZ8" s="1">
+        <v>12.582393773643259</v>
+      </c>
     </row>
-    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2613,209 +2635,212 @@
       <c r="J9" s="1">
         <v>10.979997668130585</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="1">
         <v>10.262801375855235</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="1">
         <v>10.753019815331831</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="1">
         <v>16.140204137518531</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="1">
         <v>15.641182915824235</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="1">
         <v>16.768409207945815</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="1">
         <v>16.340161153858404</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="1">
         <v>14.858127856878696</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="1">
         <v>14.858127856878696</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="1">
         <v>15.157706403255874</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="1">
         <v>13.628403751588257</v>
       </c>
-      <c r="U9" s="5">
+      <c r="U9" s="2">
         <v>22</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="1">
         <v>21.771032694534203</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9" s="2">
         <v>21.356382587299496</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="1">
         <v>21.831898765320943</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="1">
         <v>21.0550955369051</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="1">
         <v>21.319303056650977</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="1">
         <v>22.675626347262316</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="1">
         <v>24.08038975539549</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="1">
         <v>23.277091139825085</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="1">
         <v>22.263885348326731</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="1">
         <v>24.067907073703363</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="1">
         <v>22.358540510919667</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="1">
         <v>21</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="1">
         <v>18.994987121083639</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="1">
         <v>18.18247688837014</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="1">
         <v>18.975278738927418</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="1">
         <v>19.041765407060616</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" s="1">
         <v>20.055897514355209</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" s="1">
         <v>19.252245655744399</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="1">
         <v>16.812588227818729</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" s="1">
         <v>15.648249761236167</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" s="1">
         <v>15.324218930563593</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" s="1">
         <v>14.279971016631979</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="1">
         <v>13.755462932008793</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="1">
         <v>12.541465128871852</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="1">
         <v>11.856526897434366</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="1">
         <v>11.426605606748559</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="1">
         <v>10.415863499507099</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="1">
         <v>12.011222637791512</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="1">
         <v>14.050738871089072</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="1">
         <v>13.622743317224776</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="1">
         <v>13.689515933258763</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" s="1">
         <v>15.27918512076481</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" s="1">
         <v>17.540477460439064</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" s="1">
         <v>12.683070220135964</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="1">
         <v>12.996003441818548</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" s="1">
         <v>11.859902798862157</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="1">
         <v>9.9739757315545461</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" s="1">
         <v>9.9692034840391344</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="1">
         <v>6.5775601314698795</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="1">
         <v>5.2889086594976442</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" s="1">
         <v>4.3657291897079604</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" s="1">
         <v>9.6931865424973367</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" s="1">
         <v>9.0560117471410742</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" s="1">
         <v>10.710590896623469</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" s="1">
         <v>13.081382378826341</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" s="1">
         <v>15.241169988155876</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" s="1">
         <v>16.580101067648886</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" s="1">
         <v>15.710353396536831</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" s="1">
         <v>15.195709804162837</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" s="1">
         <v>14.954685055067683</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" s="1">
         <v>12.160170348476889</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" s="1">
         <v>10.830674401510734</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" s="1">
         <v>7.58655075961574</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" s="1">
         <v>11.18781752150775</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" s="1">
         <v>8.5804808028424997</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" s="1">
         <v>11.18781752150775</v>
       </c>
+      <c r="BZ9" s="1">
+        <v>12.710015542456617</v>
+      </c>
     </row>
-    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2846,209 +2871,212 @@
       <c r="J10" s="1">
         <v>14.115669720462879</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="1">
         <v>17.172310630797565</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="1">
         <v>15.154081275730999</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="1">
         <v>12.748526836025437</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="1">
         <v>11.262975680222553</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="1">
         <v>9.0950660987877221</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="1">
         <v>12.627995443348777</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="1">
         <v>16.740544025206376</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="1">
         <v>16.740544025206376</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="1">
         <v>20.587123418261537</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="1">
         <v>19.915551216535398</v>
       </c>
-      <c r="U10" s="5">
+      <c r="U10" s="2">
         <v>28</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="1">
         <v>27.669167259839902</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10" s="2">
         <v>26.604011613386586</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="1">
         <v>25.005500657833284</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="1">
         <v>23.66822495571671</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="1">
         <v>22.581117190588198</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="1">
         <v>22.678933420429548</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="1">
         <v>21.676717950743591</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="1">
         <v>21.26781403911172</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="1">
         <v>20.379450246782088</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="1">
         <v>24.161856483336027</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="1">
         <v>21.852220645540704</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="1">
         <v>23</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="1">
         <v>22.04276782764936</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="1">
         <v>21.113639532588557</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="1">
         <v>23.011524730821645</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="1">
         <v>21.205082518937406</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" s="1">
         <v>20.226085172726076</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" s="1">
         <v>19.810990297932474</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="1">
         <v>16.315969771958027</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" s="1">
         <v>15.534729889681385</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" s="1">
         <v>15.656736395367849</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" s="1">
         <v>15.161708685889922</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="1">
         <v>14.56767543451641</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="1">
         <v>11.648992059434557</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="1">
         <v>11.368491737273116</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="1">
         <v>17.512875661830336</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="1">
         <v>15.281259224339818</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="1">
         <v>13.836021912441199</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="1">
         <v>11.625658964831546</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="1">
         <v>10.379891936413133</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="1">
         <v>7.9249502724298022</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" s="1">
         <v>5.5504855470052172</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" s="1">
         <v>6.5053828093824233</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" s="1">
         <v>7.7129678895261709</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="1">
         <v>5.5697887286241388</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" s="1">
         <v>3.7025223923995703</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" s="1">
         <v>1.5685037224286367</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" s="1">
         <v>0.84658676151751278</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="1">
         <v>4.3790450403251375</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" s="1">
         <v>17.840837908014674</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" s="1">
         <v>24.37233824545234</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" s="1">
         <v>27.977605772145317</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" s="1">
         <v>17.498656503306165</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" s="1">
         <v>15.316834092944312</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" s="1">
         <v>14.57854065105419</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" s="1">
         <v>12.246121070953558</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" s="1">
         <v>13.77780448024799</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" s="1">
         <v>15.26541066913107</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" s="1">
         <v>14.668531642727368</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" s="1">
         <v>16.303061899648281</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" s="1">
         <v>14.303058023483253</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" s="1">
         <v>12.50323819001977</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" s="1">
         <v>9.0841000158561442</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" s="1">
         <v>6.6567925859687973</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" s="1">
         <v>7.4183818810695774</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" s="1">
         <v>6.6567925859687973</v>
       </c>
+      <c r="BZ10" s="1">
+        <v>8.623534172218065</v>
+      </c>
     </row>
-    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3079,209 +3107,212 @@
       <c r="J11" s="1">
         <v>15.279211001908271</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="1">
         <v>14.761439822931656</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="1">
         <v>13.284348698237924</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="1">
         <v>12.781254427131508</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="1">
         <v>11.072010352859856</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="1">
         <v>9.3988615693660282</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="1">
         <v>11.147753991943693</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="1">
         <v>12.427535297661905</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="1">
         <v>12.427535297661905</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="1">
         <v>11.691203479300381</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="1">
         <v>10.798594735818151</v>
       </c>
-      <c r="U11" s="5">
+      <c r="U11" s="2">
         <v>14</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="1">
         <v>13.812642495354032</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11" s="2">
         <v>13.460144203373545</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="1">
         <v>12.024928644576905</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="1">
         <v>11.666278549944053</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="1">
         <v>14.46941243756444</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="1">
         <v>13.779379398022883</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="1">
         <v>13.108048188524972</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="1">
         <v>12.67597142544755</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="1">
         <v>10.958627514887576</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="1">
         <v>11.990364530593782</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="1">
         <v>9.6534038810884795</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="1">
         <v>12</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="1">
         <v>13.215969599109227</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="1">
         <v>14.257185852491116</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="1">
         <v>16.781644240659087</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="1">
         <v>16.046546576595595</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" s="1">
         <v>14.468429411561974</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" s="1">
         <v>13.083454944338438</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="1">
         <v>8.8123318708146101</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" s="1">
         <v>7.9180654772955563</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" s="1">
         <v>9.4022613603242409</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" s="1">
         <v>12.435248895912705</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="1">
         <v>14.188463642094328</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="1">
         <v>15.023644843967348</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="1">
         <v>14.49408607939103</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="1">
         <v>14.079554146773756</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="1">
         <v>12.780891376323334</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="1">
         <v>10.78547843868779</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="1">
         <v>9.5946551562429665</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="1">
         <v>8.5388710638244518</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="1">
         <v>10.563495125915415</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" s="1">
         <v>11.478486262124781</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" s="1">
         <v>13.287532296681094</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" s="1">
         <v>9.6923635399766965</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="1">
         <v>11.372584698734656</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="1">
         <v>13.882607946509887</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="1">
         <v>11.10824088360085</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="1">
         <v>15.034121883031451</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="1">
         <v>10.630922464183731</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="1">
         <v>13.387885519631487</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" s="1">
         <v>15.690741044455448</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" s="1">
         <v>18.010741131289311</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" s="1">
         <v>10.764454819496196</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" s="1">
         <v>12.470076000906772</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" s="1">
         <v>14.609192351939512</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" s="1">
         <v>13.690113140510944</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" s="1">
         <v>11.418459548031638</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" s="1">
         <v>11.056731268974424</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" s="1">
         <v>13.927406891572478</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" s="1">
         <v>15.875530711263007</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" s="1">
         <v>14.76198637701328</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" s="1">
         <v>13.801236067837319</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" s="1">
         <v>11.948169857989011</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" s="1">
         <v>11.348955959083439</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" s="1">
         <v>12.141471890224029</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" s="1">
         <v>11.348955959083439</v>
       </c>
+      <c r="BZ11" s="1">
+        <v>10.353198039150341</v>
+      </c>
     </row>
-    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3312,209 +3343,212 @@
       <c r="J12" s="1">
         <v>0</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12" s="6">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
-      </c>
-      <c r="AM12">
-        <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>0</v>
-      </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
-        <v>0</v>
-      </c>
-      <c r="BD12">
-        <v>0</v>
-      </c>
-      <c r="BE12">
-        <v>0</v>
-      </c>
-      <c r="BF12">
-        <v>0</v>
-      </c>
-      <c r="BG12">
-        <v>0</v>
-      </c>
-      <c r="BH12">
-        <v>0</v>
-      </c>
-      <c r="BI12">
-        <v>0</v>
-      </c>
-      <c r="BJ12">
-        <v>0</v>
-      </c>
-      <c r="BK12">
-        <v>0</v>
-      </c>
-      <c r="BL12">
-        <v>0</v>
-      </c>
-      <c r="BM12">
-        <v>0</v>
-      </c>
-      <c r="BN12">
-        <v>0</v>
-      </c>
-      <c r="BO12">
-        <v>0</v>
-      </c>
-      <c r="BP12">
-        <v>0</v>
-      </c>
-      <c r="BQ12">
-        <v>0</v>
-      </c>
-      <c r="BR12">
-        <v>0</v>
-      </c>
-      <c r="BS12">
-        <v>0</v>
-      </c>
-      <c r="BT12">
-        <v>0</v>
-      </c>
-      <c r="BU12">
-        <v>0</v>
-      </c>
-      <c r="BV12">
-        <v>0</v>
-      </c>
-      <c r="BW12">
-        <v>0</v>
-      </c>
-      <c r="BX12">
-        <v>0</v>
-      </c>
-      <c r="BY12">
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" s="1">
+        <v>0</v>
+      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ12" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3545,209 +3579,212 @@
       <c r="J13" s="1">
         <v>14.594242540544988</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="1">
         <v>16.337426708654956</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="1">
         <v>15.116935131384595</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="1">
         <v>12.717347754040736</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="1">
         <v>13.502219378486847</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="1">
         <v>13.356573097661794</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="1">
         <v>12.879422759603091</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="1">
         <v>11.696535955512893</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="1">
         <v>11.696535955512893</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="1">
         <v>10.738703718410937</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="1">
         <v>12.63906448205965</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="2">
         <v>13</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="1">
         <v>14.455591408120702</v>
       </c>
-      <c r="W13" s="6">
+      <c r="W13" s="2">
         <v>13.936386260932005</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="1">
         <v>14.464628206568607</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="1">
         <v>13.213442385099647</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="1">
         <v>13.057731994777569</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="1">
         <v>12.932019573330978</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="1">
         <v>12.929436441383448</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="1">
         <v>11.082497098897598</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="1">
         <v>9.9777776693361329</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="1">
         <v>8.9142744139749173</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="1">
         <v>7.8441604470884752</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="1">
         <v>7</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="1">
         <v>9.0379072696581595</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="1">
         <v>13.288712091839649</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="1">
         <v>16.819050389046506</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="1">
         <v>17.277466146157163</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="1">
         <v>15.842736838675009</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="1">
         <v>14.107237455014955</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="1">
         <v>12.971410086591584</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" s="1">
         <v>11.864538843514532</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="1">
         <v>11.473445449940511</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="1">
         <v>10.016256522474805</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="1">
         <v>8.7009517800518097</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="1">
         <v>6.6675980200815719</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="1">
         <v>5.8945829087612465</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="1">
         <v>6.7693726043457261</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="1">
         <v>10.243537395381232</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="1">
         <v>13.993635850395382</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" s="1">
         <v>13.042864421251565</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" s="1">
         <v>13.695878812869779</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" s="1">
         <v>11.421590914992073</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" s="1">
         <v>9.7691323624350179</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" s="1">
         <v>8.3477647568830644</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" s="1">
         <v>11.972790548583601</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" s="1">
         <v>10.3897971017286</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" s="1">
         <v>8.6832817927842729</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" s="1">
         <v>9.8822750163412625</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" s="1">
         <v>14.465597790691803</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="1">
         <v>10.323352056992627</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" s="1">
         <v>9.1914140751933608</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" s="1">
         <v>8.2846987450042402</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" s="1">
         <v>11.226310241047724</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" s="1">
         <v>10.115268498261946</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" s="1">
         <v>9.3455170694668421</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" s="1">
         <v>8.83121034345724</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" s="1">
         <v>8.2562461796624529</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" s="1">
         <v>9.3386824285896406</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" s="1">
         <v>11.794881493834833</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" s="1">
         <v>11.285700748483132</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" s="1">
         <v>10.635555535039101</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" s="1">
         <v>9.8265049212000761</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" s="1">
         <v>10.42795331839403</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" s="1">
         <v>10.572743472774256</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" s="1">
         <v>7.7906725090427837</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" s="1">
         <v>9.3600842207558657</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" s="1">
         <v>7.7906725090427837</v>
       </c>
+      <c r="BZ13" s="1">
+        <v>7.0116052581385055</v>
+      </c>
     </row>
-    <row r="14" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -3778,209 +3815,212 @@
       <c r="J14" s="1">
         <v>0</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14" s="6">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
-        <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
-        <v>0</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>0</v>
-      </c>
-      <c r="AZ14">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
-        <v>0</v>
-      </c>
-      <c r="BD14">
-        <v>0</v>
-      </c>
-      <c r="BE14">
-        <v>0</v>
-      </c>
-      <c r="BF14">
-        <v>0</v>
-      </c>
-      <c r="BG14">
-        <v>0</v>
-      </c>
-      <c r="BH14">
-        <v>0</v>
-      </c>
-      <c r="BI14">
-        <v>0</v>
-      </c>
-      <c r="BJ14">
-        <v>0</v>
-      </c>
-      <c r="BK14">
-        <v>0</v>
-      </c>
-      <c r="BL14">
-        <v>0</v>
-      </c>
-      <c r="BM14">
-        <v>0</v>
-      </c>
-      <c r="BN14">
-        <v>0</v>
-      </c>
-      <c r="BO14">
-        <v>0</v>
-      </c>
-      <c r="BP14">
-        <v>0</v>
-      </c>
-      <c r="BQ14">
-        <v>0</v>
-      </c>
-      <c r="BR14">
-        <v>0</v>
-      </c>
-      <c r="BS14">
-        <v>0</v>
-      </c>
-      <c r="BT14">
-        <v>0</v>
-      </c>
-      <c r="BU14">
-        <v>0</v>
-      </c>
-      <c r="BV14">
-        <v>0</v>
-      </c>
-      <c r="BW14">
-        <v>0</v>
-      </c>
-      <c r="BX14">
-        <v>0</v>
-      </c>
-      <c r="BY14">
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1">
+        <v>0</v>
+      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="1">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4011,209 +4051,212 @@
       <c r="J15" s="1">
         <v>0</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15" s="6">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AK15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
-      </c>
-      <c r="AN15">
-        <v>0</v>
-      </c>
-      <c r="AO15">
-        <v>0</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>0</v>
-      </c>
-      <c r="AS15">
-        <v>0</v>
-      </c>
-      <c r="AT15">
-        <v>0</v>
-      </c>
-      <c r="AU15">
-        <v>0</v>
-      </c>
-      <c r="AV15">
-        <v>0</v>
-      </c>
-      <c r="AW15">
-        <v>0</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>0</v>
-      </c>
-      <c r="AZ15">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
-        <v>0</v>
-      </c>
-      <c r="BD15">
-        <v>0</v>
-      </c>
-      <c r="BE15">
-        <v>0</v>
-      </c>
-      <c r="BF15">
-        <v>0</v>
-      </c>
-      <c r="BG15">
-        <v>0</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>0</v>
-      </c>
-      <c r="BK15">
-        <v>0</v>
-      </c>
-      <c r="BL15">
-        <v>0</v>
-      </c>
-      <c r="BM15">
-        <v>0</v>
-      </c>
-      <c r="BN15">
-        <v>0</v>
-      </c>
-      <c r="BO15">
-        <v>0</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>0</v>
-      </c>
-      <c r="BR15">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>0</v>
-      </c>
-      <c r="BT15">
-        <v>0</v>
-      </c>
-      <c r="BU15">
-        <v>0</v>
-      </c>
-      <c r="BV15">
-        <v>0</v>
-      </c>
-      <c r="BW15">
-        <v>0</v>
-      </c>
-      <c r="BX15">
-        <v>0</v>
-      </c>
-      <c r="BY15">
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4244,209 +4287,212 @@
       <c r="J16" s="1">
         <v>12.510503873694049</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="1">
         <v>16.481133505248394</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="1">
         <v>18.139681428802216</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="1">
         <v>16.034844474149928</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="1">
         <v>15.33349861184303</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="1">
         <v>14.239918582097831</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="1">
         <v>14.089944000775855</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="1">
         <v>13.452883396260123</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="1">
         <v>13.452883396260123</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="1">
         <v>11.601964072329285</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="1">
         <v>11.091167731771625</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="2">
         <v>17</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="1">
         <v>15.920611459455261</v>
       </c>
-      <c r="W16" s="6">
+      <c r="W16" s="2">
         <v>14.838542045497856</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="1">
         <v>13.885079242215715</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="1">
         <v>12.887269331804175</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="1">
         <v>23.050760072076518</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="1">
         <v>22.311574590031984</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="1">
         <v>20.531615949268769</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="1">
         <v>18.497377502682234</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="1">
         <v>15.45784680051514</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="1">
         <v>14.483721004046092</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="1">
         <v>15.817764657367206</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="1">
         <v>3</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="1">
         <v>12.5826256717438</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="1">
         <v>10.772324494682191</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="1">
         <v>10.584004969564333</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="1">
         <v>6.8181059731661264</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" s="1">
         <v>5.8811808146019091</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" s="1">
         <v>3.9678216052448567</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="1">
         <v>2.4721278280188441</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" s="1">
         <v>0.22576509844920953</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" s="1">
         <v>6.4035590373244649</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" s="1">
         <v>12.697432316260828</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="1">
         <v>11.778161198341493</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" s="1">
         <v>11.506558368047143</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" s="1">
         <v>12.567299766239854</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" s="1">
         <v>11.335939523265097</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" s="1">
         <v>10.71097779190605</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" s="1">
         <v>9.5724336476479834</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" s="1">
         <v>8.1121270278387243</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" s="1">
         <v>15.711033388543576</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" s="1">
         <v>11.859470296760426</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" s="1">
         <v>10.861278408055139</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" s="1">
         <v>9.5778888368626287</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" s="1">
         <v>6.4515444224646235</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" s="1">
         <v>5.0108105179688893</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" s="1">
         <v>4.3194735259753889</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" s="1">
         <v>15.126453384817784</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" s="1">
         <v>39.157878186329093</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" s="1">
         <v>19.990982256420512</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" s="1">
         <v>18.926216224121152</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" s="1">
         <v>17.861450191821788</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" s="1">
         <v>24.713057225738531</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" s="1">
         <v>17.197013873821557</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" s="1">
         <v>16.112116524939253</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" s="1">
         <v>15.33321586420324</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" s="1">
         <v>13.374837060066978</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" s="1">
         <v>11.127152296228767</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" s="1">
         <v>10.264797993271037</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" s="1">
         <v>9.597168855497312</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" s="1">
         <v>8.8127046186131821</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" s="1">
         <v>7.4663191907695028</v>
       </c>
-      <c r="BU16">
+      <c r="BU16" s="1">
         <v>6.4314940272202277</v>
       </c>
-      <c r="BV16">
+      <c r="BV16" s="1">
         <v>15.684717266013774</v>
       </c>
-      <c r="BW16">
+      <c r="BW16" s="1">
         <v>11.563361526313006</v>
       </c>
-      <c r="BX16">
+      <c r="BX16" s="1">
         <v>13.696085266036443</v>
       </c>
-      <c r="BY16">
+      <c r="BY16" s="1">
         <v>11.563361526313001</v>
       </c>
+      <c r="BZ16" s="1">
+        <v>9.450632071649478</v>
+      </c>
     </row>
-    <row r="17" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4477,209 +4523,212 @@
       <c r="J17" s="1">
         <v>0</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17" s="6">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
-        <v>0</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
-      </c>
-      <c r="AW17">
-        <v>0</v>
-      </c>
-      <c r="AX17">
-        <v>0</v>
-      </c>
-      <c r="AY17">
-        <v>0</v>
-      </c>
-      <c r="AZ17">
-        <v>0</v>
-      </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
-        <v>0</v>
-      </c>
-      <c r="BD17">
-        <v>0</v>
-      </c>
-      <c r="BE17">
-        <v>0</v>
-      </c>
-      <c r="BF17">
-        <v>0</v>
-      </c>
-      <c r="BG17">
-        <v>0</v>
-      </c>
-      <c r="BH17">
-        <v>0</v>
-      </c>
-      <c r="BI17">
-        <v>0</v>
-      </c>
-      <c r="BJ17">
-        <v>0</v>
-      </c>
-      <c r="BK17">
-        <v>0</v>
-      </c>
-      <c r="BL17">
-        <v>0</v>
-      </c>
-      <c r="BM17">
-        <v>0</v>
-      </c>
-      <c r="BN17">
-        <v>0</v>
-      </c>
-      <c r="BO17">
-        <v>0</v>
-      </c>
-      <c r="BP17">
-        <v>0</v>
-      </c>
-      <c r="BQ17">
-        <v>0</v>
-      </c>
-      <c r="BR17">
-        <v>0</v>
-      </c>
-      <c r="BS17">
-        <v>0</v>
-      </c>
-      <c r="BT17">
-        <v>0</v>
-      </c>
-      <c r="BU17">
-        <v>0</v>
-      </c>
-      <c r="BV17">
-        <v>0</v>
-      </c>
-      <c r="BW17">
-        <v>0</v>
-      </c>
-      <c r="BX17">
-        <v>0</v>
-      </c>
-      <c r="BY17">
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+      <c r="L17" s="1">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0</v>
+      </c>
+      <c r="N17" s="1">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:77" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4710,205 +4759,208 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18" s="6">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
-      </c>
-      <c r="AK18">
-        <v>0</v>
-      </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
-        <v>0</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
-      </c>
-      <c r="AW18">
-        <v>0</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>0</v>
-      </c>
-      <c r="AZ18">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
-        <v>0</v>
-      </c>
-      <c r="BD18">
-        <v>0</v>
-      </c>
-      <c r="BE18">
-        <v>0</v>
-      </c>
-      <c r="BF18">
-        <v>0</v>
-      </c>
-      <c r="BG18">
-        <v>0</v>
-      </c>
-      <c r="BH18">
-        <v>0</v>
-      </c>
-      <c r="BI18">
-        <v>0</v>
-      </c>
-      <c r="BJ18">
-        <v>0</v>
-      </c>
-      <c r="BK18">
-        <v>0</v>
-      </c>
-      <c r="BL18">
-        <v>0</v>
-      </c>
-      <c r="BM18">
-        <v>0</v>
-      </c>
-      <c r="BN18">
-        <v>0</v>
-      </c>
-      <c r="BO18">
-        <v>0</v>
-      </c>
-      <c r="BP18">
-        <v>0</v>
-      </c>
-      <c r="BQ18">
-        <v>0</v>
-      </c>
-      <c r="BR18">
-        <v>0</v>
-      </c>
-      <c r="BS18">
-        <v>0</v>
-      </c>
-      <c r="BT18">
-        <v>0</v>
-      </c>
-      <c r="BU18">
-        <v>0</v>
-      </c>
-      <c r="BV18">
-        <v>0</v>
-      </c>
-      <c r="BW18">
-        <v>0</v>
-      </c>
-      <c r="BX18">
-        <v>0</v>
-      </c>
-      <c r="BY18">
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0</v>
+      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -4925,7 +4977,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4944,7 +4996,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>45189</v>
       </c>
     </row>
@@ -4969,7 +5021,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>12.44455808387311</v>
+        <v>10.691896052242944</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -4981,7 +5033,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>14.356981722891851</v>
+        <v>13.061964483220009</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -4993,7 +5045,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>15.983144021186069</v>
+        <v>13.929134634304171</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5017,7 +5069,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>3.5133052664530298</v>
+        <v>2.064232818366051</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5029,7 +5081,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>13.385616485586558</v>
+        <v>12.582393773643259</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5041,7 +5093,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>11.18781752150775</v>
+        <v>12.710015542456617</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5053,7 +5105,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>6.6567925859687973</v>
+        <v>8.623534172218065</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5065,7 +5117,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>11.348955959083439</v>
+        <v>10.353198039150341</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5089,7 +5141,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>7.7906725090427837</v>
+        <v>7.0116052581385055</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5125,7 +5177,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>11.563361526313006</v>
+        <v>9.450632071649478</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5157,7 +5209,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>18.38789843037825</v>
+        <v>19.279113046168813</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,23 +5217,23 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>7.7906725090427837</v>
+        <v>7.0116052581385055</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>13.385616485586558</v>
+        <v>12.582393773643259</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B23">
-        <v>7.0382685920577623</v>
+        <v>6.6651422382671495</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,71 +5241,71 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>3.5133052664530298</v>
+        <v>2.064232818366051</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>2.3634502918911746</v>
+        <v>9.450632071649478</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>5.7246486802758279</v>
+        <v>13.061964483220009</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>14.356981722891851</v>
+        <v>13.929134634304171</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>103</v>
       </c>
       <c r="B28">
-        <v>15.983144021186069</v>
+        <v>5.8934211926867466</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="B29">
-        <v>7.2315886699020515</v>
+        <v>10.691896052242944</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="B30">
-        <v>12.44455808387311</v>
+        <v>8.3500806000649526</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="B31">
-        <v>11.563361526313006</v>
+        <v>7.3515408001143276</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B32">
-        <v>10.769519954876801</v>
+        <v>9.0380858785300475</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5261,7 +5313,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>6.6567925859687973</v>
+        <v>8.623534172218065</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5269,7 +5321,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>11.348955959083439</v>
+        <v>10.353198039150341</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5277,15 +5329,15 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>11.18781752150775</v>
+        <v>12.710015542456617</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B36">
-        <v>20.676947999397147</v>
+        <v>24.027922922983404</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="316" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB8CA64-4B4A-40D0-8673-DBB123C5AC5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A95582-C6EB-470E-9C8B-0E0DA5B02E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -698,10 +698,10 @@
   <dimension ref="A1:BZ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CF19" sqref="CF19"/>
+      <selection activeCell="CB8" sqref="CB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -4977,10 +4977,10 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A95582-C6EB-470E-9C8B-0E0DA5B02E7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F089DA4-ADD4-4928-A336-5D77C47B73C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="110">
   <si>
     <t>Línea</t>
   </si>
@@ -359,6 +359,12 @@
   </si>
   <si>
     <t>DORITOS QUESO 40GRX58X1 CH</t>
+  </si>
+  <si>
+    <t>25-sep</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 85GrX26</t>
   </si>
 </sst>
 </file>
@@ -695,13 +701,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:BZ18"/>
+  <dimension ref="A1:CA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CB8" sqref="CB8"/>
+      <selection activeCell="CC8" sqref="CC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -716,7 +722,7 @@
     <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -951,8 +957,11 @@
       <c r="BZ1" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="CA1" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1187,8 +1196,11 @@
       <c r="BZ2" s="1">
         <v>0</v>
       </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1423,8 +1435,11 @@
       <c r="BZ3" s="1">
         <v>10.691896052242944</v>
       </c>
+      <c r="CA3">
+        <v>9.2380510078173028</v>
+      </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1659,8 +1674,11 @@
       <c r="BZ4" s="1">
         <v>13.061964483220009</v>
       </c>
+      <c r="CA4">
+        <v>11.860409477431915</v>
+      </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1895,8 +1913,11 @@
       <c r="BZ5" s="1">
         <v>13.929134634304171</v>
       </c>
+      <c r="CA5">
+        <v>15.792991420179193</v>
+      </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2131,8 +2152,11 @@
       <c r="BZ6" s="1">
         <v>0</v>
       </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2367,8 +2391,11 @@
       <c r="BZ7" s="1">
         <v>2.064232818366051</v>
       </c>
+      <c r="CA7">
+        <v>0.17288193666060836</v>
+      </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2603,8 +2630,11 @@
       <c r="BZ8" s="1">
         <v>12.582393773643259</v>
       </c>
+      <c r="CA8">
+        <v>12.940041072508262</v>
+      </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2839,8 +2869,11 @@
       <c r="BZ9" s="1">
         <v>12.710015542456617</v>
       </c>
+      <c r="CA9">
+        <v>11.614763627804068</v>
+      </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3075,8 +3108,11 @@
       <c r="BZ10" s="1">
         <v>8.623534172218065</v>
       </c>
+      <c r="CA10">
+        <v>14.982430051219202</v>
+      </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3311,8 +3347,11 @@
       <c r="BZ11" s="1">
         <v>10.353198039150341</v>
       </c>
+      <c r="CA11">
+        <v>8.5085416773233966</v>
+      </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3547,8 +3586,11 @@
       <c r="BZ12" s="1">
         <v>0</v>
       </c>
+      <c r="CA12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3783,8 +3825,11 @@
       <c r="BZ13" s="1">
         <v>7.0116052581385055</v>
       </c>
+      <c r="CA13">
+        <v>4.9773522073788445</v>
+      </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4019,8 +4064,11 @@
       <c r="BZ14" s="1">
         <v>0</v>
       </c>
+      <c r="CA14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4255,8 +4303,11 @@
       <c r="BZ15" s="1">
         <v>0</v>
       </c>
+      <c r="CA15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4491,8 +4542,11 @@
       <c r="BZ16" s="1">
         <v>9.450632071649478</v>
       </c>
+      <c r="CA16">
+        <v>6.7563355521713309</v>
+      </c>
     </row>
-    <row r="17" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4727,8 +4781,11 @@
       <c r="BZ17" s="1">
         <v>0</v>
       </c>
+      <c r="CA17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -4961,6 +5018,9 @@
         <v>0</v>
       </c>
       <c r="BZ18" s="1">
+        <v>0</v>
+      </c>
+      <c r="CA18">
         <v>0</v>
       </c>
     </row>
@@ -4977,10 +5037,10 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+      <selection activeCell="C7" sqref="C7:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
@@ -5021,7 +5081,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>10.691896052242944</v>
+        <v>9.2380510078173028</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5033,7 +5093,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>13.061964483220009</v>
+        <v>11.860409477431915</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5045,7 +5105,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>13.929134634304171</v>
+        <v>15.792991420179193</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5069,7 +5129,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>2.064232818366051</v>
+        <v>0.17288193666060836</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5081,7 +5141,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>12.582393773643259</v>
+        <v>12.940041072508262</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,7 +5153,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>12.710015542456617</v>
+        <v>11.614763627804068</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5105,7 +5165,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>8.623534172218065</v>
+        <v>14.982430051219202</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5117,7 +5177,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>10.353198039150341</v>
+        <v>8.5085416773233966</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5141,7 +5201,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>7.0116052581385055</v>
+        <v>4.9773522073788445</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5177,7 +5237,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>9.450632071649478</v>
+        <v>6.7563355521713309</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5209,7 +5269,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>19.279113046168813</v>
+        <v>16.25762017271817</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5217,7 +5277,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>7.0116052581385055</v>
+        <v>4.9773522073788445</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5225,7 +5285,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>12.582393773643259</v>
+        <v>12.940041072508262</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5233,15 +5293,15 @@
         <v>107</v>
       </c>
       <c r="B23">
-        <v>6.6651422382671495</v>
+        <v>1.0266851514853432</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B24">
-        <v>2.064232818366051</v>
+        <v>0.17288193666060836</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5249,7 +5309,7 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>9.450632071649478</v>
+        <v>6.7563355521713309</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5257,7 +5317,7 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>13.061964483220009</v>
+        <v>11.860409477431915</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5265,7 +5325,7 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>13.929134634304171</v>
+        <v>15.792991420179193</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5273,7 +5333,7 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>5.8934211926867466</v>
+        <v>4.4536274889009215</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5281,7 +5341,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>10.691896052242944</v>
+        <v>9.2380510078173028</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5289,7 +5349,7 @@
         <v>102</v>
       </c>
       <c r="B30">
-        <v>8.3500806000649526</v>
+        <v>16.54929098162831</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5297,7 +5357,7 @@
         <v>101</v>
       </c>
       <c r="B31">
-        <v>7.3515408001143276</v>
+        <v>10.28231674603585</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5305,7 +5365,7 @@
         <v>104</v>
       </c>
       <c r="B32">
-        <v>9.0380858785300475</v>
+        <v>7.7622672353493476</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5313,7 +5373,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>8.623534172218065</v>
+        <v>14.982430051219202</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5321,7 +5381,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>10.353198039150341</v>
+        <v>8.5085416773233966</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5329,7 +5389,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>12.710015542456617</v>
+        <v>11.614763627804068</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5337,7 +5397,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>24.027922922983404</v>
+        <v>23.133381693891206</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="331" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F089DA4-ADD4-4928-A336-5D77C47B73C8}"/>
+  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D647DE-3B02-4F8C-8E5D-42CC87375C44}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
   <si>
     <t>Línea</t>
   </si>
@@ -364,7 +364,7 @@
     <t>25-sep</t>
   </si>
   <si>
-    <t>DORITOS QUESO 85GrX26</t>
+    <t>26-sep</t>
   </si>
 </sst>
 </file>
@@ -701,10 +701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CA18"/>
+  <dimension ref="A1:CB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CC8" sqref="CC8"/>
+      <selection activeCell="CD10" sqref="CD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +722,7 @@
     <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -960,8 +960,11 @@
       <c r="CA1" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="CB1" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1199,8 +1202,11 @@
       <c r="CA2">
         <v>0</v>
       </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1438,8 +1444,11 @@
       <c r="CA3">
         <v>9.2380510078173028</v>
       </c>
+      <c r="CB3">
+        <v>8.6279094617879508</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1677,8 +1686,11 @@
       <c r="CA4">
         <v>11.860409477431915</v>
       </c>
+      <c r="CB4">
+        <v>10.91905820099767</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1916,8 +1928,11 @@
       <c r="CA5">
         <v>15.792991420179193</v>
       </c>
+      <c r="CB5">
+        <v>14.712125697480428</v>
+      </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2155,8 +2170,11 @@
       <c r="CA6">
         <v>0</v>
       </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2394,8 +2412,11 @@
       <c r="CA7">
         <v>0.17288193666060836</v>
       </c>
+      <c r="CB7">
+        <v>0.14341357928414475</v>
+      </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2633,8 +2654,11 @@
       <c r="CA8">
         <v>12.940041072508262</v>
       </c>
+      <c r="CB8">
+        <v>13.795974844098746</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2872,8 +2896,11 @@
       <c r="CA9">
         <v>11.614763627804068</v>
       </c>
+      <c r="CB9">
+        <v>10.613387902917527</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3111,8 +3138,11 @@
       <c r="CA10">
         <v>14.982430051219202</v>
       </c>
+      <c r="CB10">
+        <v>13.905110992579916</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3350,8 +3380,11 @@
       <c r="CA11">
         <v>8.5085416773233966</v>
       </c>
+      <c r="CB11">
+        <v>8.6126543971001546</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3589,8 +3622,11 @@
       <c r="CA12">
         <v>0</v>
       </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3828,8 +3864,11 @@
       <c r="CA13">
         <v>4.9773522073788445</v>
       </c>
+      <c r="CB13">
+        <v>4.0587076097117203</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4067,8 +4106,11 @@
       <c r="CA14">
         <v>0</v>
       </c>
+      <c r="CB14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4306,8 +4348,11 @@
       <c r="CA15">
         <v>0</v>
       </c>
+      <c r="CB15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4545,8 +4590,11 @@
       <c r="CA16">
         <v>6.7563355521713309</v>
       </c>
+      <c r="CB16">
+        <v>6.0319720914122206</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4784,8 +4832,11 @@
       <c r="CA17">
         <v>0</v>
       </c>
+      <c r="CB17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5021,6 +5072,9 @@
         <v>0</v>
       </c>
       <c r="CA18">
+        <v>0</v>
+      </c>
+      <c r="CB18">
         <v>0</v>
       </c>
     </row>
@@ -5081,7 +5135,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>9.2380510078173028</v>
+        <v>8.6279094617879508</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5093,7 +5147,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>11.860409477431915</v>
+        <v>10.91905820099767</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5105,7 +5159,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>15.792991420179193</v>
+        <v>14.712125697480428</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5129,7 +5183,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>0.17288193666060836</v>
+        <v>0.14341357928414475</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5141,7 +5195,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>12.940041072508262</v>
+        <v>13.795974844098746</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5153,7 +5207,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>11.614763627804068</v>
+        <v>10.613387902917527</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5165,7 +5219,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>14.982430051219202</v>
+        <v>13.905110992579916</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5177,7 +5231,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>8.5085416773233966</v>
+        <v>8.6126543971001546</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5201,7 +5255,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4.9773522073788445</v>
+        <v>4.0587076097117203</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5237,7 +5291,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>6.7563355521713309</v>
+        <v>6.0319720914122206</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5269,7 +5323,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>16.25762017271817</v>
+        <v>15.230156207210904</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5277,7 +5331,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>4.9773522073788445</v>
+        <v>4.0587076097117203</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5285,7 +5339,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>12.940041072508262</v>
+        <v>13.795974844098746</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5293,15 +5347,15 @@
         <v>107</v>
       </c>
       <c r="B23">
-        <v>1.0266851514853432</v>
+        <v>0.78643886484359637</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>109</v>
+        <v>9</v>
       </c>
       <c r="B24">
-        <v>0.17288193666060836</v>
+        <v>0.14341357928414475</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5309,7 +5363,7 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>6.7563355521713309</v>
+        <v>6.0319720914122206</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5317,7 +5371,7 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>11.860409477431915</v>
+        <v>10.91905820099767</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5325,7 +5379,7 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>15.792991420179193</v>
+        <v>14.712125697480428</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5333,7 +5387,7 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>4.4536274889009215</v>
+        <v>3.8699347189568201</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5341,7 +5395,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>9.2380510078173028</v>
+        <v>8.6279094617879508</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5349,7 +5403,7 @@
         <v>102</v>
       </c>
       <c r="B30">
-        <v>16.54929098162831</v>
+        <v>16.075829751960246</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5357,7 +5411,7 @@
         <v>101</v>
       </c>
       <c r="B31">
-        <v>10.28231674603585</v>
+        <v>9.7377703763080934</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,7 +5419,7 @@
         <v>104</v>
       </c>
       <c r="B32">
-        <v>7.7622672353493476</v>
+        <v>7.5246468097774271</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5373,7 +5427,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>14.982430051219202</v>
+        <v>13.905110992579916</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5381,7 +5435,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>8.5085416773233966</v>
+        <v>8.6126543971001546</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5389,7 +5443,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>11.614763627804068</v>
+        <v>10.613387902917527</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5397,7 +5451,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>23.133381693891206</v>
+        <v>26.995786613800714</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="345" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B8D647DE-3B02-4F8C-8E5D-42CC87375C44}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5EC1716-C4E8-4287-AE2D-9C9E22516959}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
   <si>
     <t>Línea</t>
   </si>
@@ -365,6 +365,15 @@
   </si>
   <si>
     <t>26-sep</t>
+  </si>
+  <si>
+    <t>27-sep</t>
+  </si>
+  <si>
+    <t>28-sep</t>
+  </si>
+  <si>
+    <t>QUAKER AVENA INSTANT FORTIF 18X380G</t>
   </si>
 </sst>
 </file>
@@ -701,10 +710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB18"/>
+  <dimension ref="A1:CD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CD10" sqref="CD10"/>
+      <selection activeCell="CE12" sqref="CE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +731,7 @@
     <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -963,8 +972,14 @@
       <c r="CB1" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="CC1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CD1" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1205,8 +1220,14 @@
       <c r="CB2">
         <v>0</v>
       </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1447,8 +1468,14 @@
       <c r="CB3">
         <v>8.6279094617879508</v>
       </c>
+      <c r="CC3">
+        <v>8.5501410152399515</v>
+      </c>
+      <c r="CD3">
+        <v>10.44810621217886</v>
+      </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1689,8 +1716,14 @@
       <c r="CB4">
         <v>10.91905820099767</v>
       </c>
+      <c r="CC4">
+        <v>11.851042528623028</v>
+      </c>
+      <c r="CD4">
+        <v>11.283400236559579</v>
+      </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1931,8 +1964,14 @@
       <c r="CB5">
         <v>14.712125697480428</v>
       </c>
+      <c r="CC5">
+        <v>13.280969106577285</v>
+      </c>
+      <c r="CD5">
+        <v>15.11011272850342</v>
+      </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2173,8 +2212,14 @@
       <c r="CB6">
         <v>0</v>
       </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2415,8 +2460,14 @@
       <c r="CB7">
         <v>0.14341357928414475</v>
       </c>
+      <c r="CC7">
+        <v>0.1460048391794305</v>
+      </c>
+      <c r="CD7">
+        <v>8.2387989614102861E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2657,8 +2708,14 @@
       <c r="CB8">
         <v>13.795974844098746</v>
       </c>
+      <c r="CC8">
+        <v>17.081030293182987</v>
+      </c>
+      <c r="CD8">
+        <v>13.664268562806352</v>
+      </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2899,8 +2956,14 @@
       <c r="CB9">
         <v>10.613387902917527</v>
       </c>
+      <c r="CC9">
+        <v>9.3202264370082162</v>
+      </c>
+      <c r="CD9">
+        <v>13.772667789822741</v>
+      </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3141,8 +3204,14 @@
       <c r="CB10">
         <v>13.905110992579916</v>
       </c>
+      <c r="CC10">
+        <v>18.302199599042719</v>
+      </c>
+      <c r="CD10">
+        <v>21.021141992859288</v>
+      </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3383,8 +3452,14 @@
       <c r="CB11">
         <v>8.6126543971001546</v>
       </c>
+      <c r="CC11">
+        <v>10.316745736733861</v>
+      </c>
+      <c r="CD11">
+        <v>10.85079098148764</v>
+      </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3625,8 +3700,14 @@
       <c r="CB12">
         <v>0</v>
       </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3867,8 +3948,14 @@
       <c r="CB13">
         <v>4.0587076097117203</v>
       </c>
+      <c r="CC13">
+        <v>4.3868710092011174</v>
+      </c>
+      <c r="CD13">
+        <v>3.6909999455501676</v>
+      </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4109,8 +4196,14 @@
       <c r="CB14">
         <v>0</v>
       </c>
+      <c r="CC14">
+        <v>0</v>
+      </c>
+      <c r="CD14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4351,8 +4444,14 @@
       <c r="CB15">
         <v>0</v>
       </c>
+      <c r="CC15">
+        <v>0</v>
+      </c>
+      <c r="CD15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4593,8 +4692,14 @@
       <c r="CB16">
         <v>6.0319720914122206</v>
       </c>
+      <c r="CC16">
+        <v>8.446148759307448</v>
+      </c>
+      <c r="CD16">
+        <v>13.020591615962587</v>
+      </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4835,8 +4940,14 @@
       <c r="CB17">
         <v>0</v>
       </c>
+      <c r="CC17">
+        <v>0</v>
+      </c>
+      <c r="CD17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5075,6 +5186,12 @@
         <v>0</v>
       </c>
       <c r="CB18">
+        <v>0</v>
+      </c>
+      <c r="CC18">
+        <v>0</v>
+      </c>
+      <c r="CD18">
         <v>0</v>
       </c>
     </row>
@@ -5091,12 +5208,12 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C8"/>
+      <selection activeCell="C18" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -5135,7 +5252,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>8.6279094617879508</v>
+        <v>8.5501410152399515</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5147,7 +5264,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>10.91905820099767</v>
+        <v>11.851042528623028</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5159,7 +5276,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>14.712125697480428</v>
+        <v>13.280969106577285</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5183,7 +5300,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>0.14341357928414475</v>
+        <v>0.1460048391794305</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5195,7 +5312,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>13.795974844098746</v>
+        <v>17.081030293182987</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5207,7 +5324,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>10.613387902917527</v>
+        <v>9.3202264370082162</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5219,7 +5336,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>13.905110992579916</v>
+        <v>18.302199599042719</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5231,7 +5348,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>8.6126543971001546</v>
+        <v>10.316745736733861</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5255,7 +5372,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4.0587076097117203</v>
+        <v>4.3868710092011174</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5263,7 +5380,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>112</v>
       </c>
       <c r="C14" s="5" t="e">
         <f t="shared" si="0"/>
@@ -5291,7 +5408,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>6.0319720914122206</v>
+        <v>8.446148759307448</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5323,7 +5440,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>15.230156207210904</v>
+        <v>12.932431557650453</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5331,7 +5448,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>4.0587076097117203</v>
+        <v>4.3868710092011174</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5339,7 +5456,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>13.795974844098746</v>
+        <v>17.081030293182987</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5347,7 +5464,7 @@
         <v>107</v>
       </c>
       <c r="B23">
-        <v>0.78643886484359637</v>
+        <v>0.61609298369987453</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5355,7 +5472,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>0.14341357928414475</v>
+        <v>0.1460048391794305</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5363,7 +5480,7 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>6.0319720914122206</v>
+        <v>8.446148759307448</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5371,7 +5488,7 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>10.91905820099767</v>
+        <v>11.851042528623028</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5379,7 +5496,7 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>14.712125697480428</v>
+        <v>13.280969106577285</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5387,7 +5504,7 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>3.8699347189568201</v>
+        <v>4.9152320053171135</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>8.6279094617879508</v>
+        <v>8.5501410152399515</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5403,7 +5520,7 @@
         <v>102</v>
       </c>
       <c r="B30">
-        <v>16.075829751960246</v>
+        <v>15.136357236460894</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5411,7 +5528,7 @@
         <v>101</v>
       </c>
       <c r="B31">
-        <v>9.7377703763080934</v>
+        <v>8.4467464792202041</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5419,7 +5536,7 @@
         <v>104</v>
       </c>
       <c r="B32">
-        <v>7.5246468097774271</v>
+        <v>5.4905774113919961</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5427,7 +5544,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>13.905110992579916</v>
+        <v>18.302199599042719</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +5552,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>8.6126543971001546</v>
+        <v>10.316745736733861</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5443,7 +5560,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>10.613387902917527</v>
+        <v>9.3202264370082162</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5451,7 +5568,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>26.995786613800714</v>
+        <v>36.423418904126457</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5EC1716-C4E8-4287-AE2D-9C9E22516959}"/>
+  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93EC3E11-95EA-4FC3-95D3-41F7270B6A55}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
   <si>
     <t>Línea</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>QUAKER AVENA INSTANT FORTIF 18X380G</t>
+  </si>
+  <si>
+    <t>29-sep</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD18"/>
+  <dimension ref="A1:CE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CE12" sqref="CE12"/>
+      <selection activeCell="CF6" sqref="CF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,7 +734,7 @@
     <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -978,8 +981,11 @@
       <c r="CD1" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="CE1" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1226,8 +1232,11 @@
       <c r="CD2">
         <v>0</v>
       </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1474,8 +1483,11 @@
       <c r="CD3">
         <v>10.44810621217886</v>
       </c>
+      <c r="CE3">
+        <v>12.157100117135014</v>
+      </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1722,8 +1734,11 @@
       <c r="CD4">
         <v>11.283400236559579</v>
       </c>
+      <c r="CE4">
+        <v>9.3589905312070112</v>
+      </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1970,8 +1985,11 @@
       <c r="CD5">
         <v>15.11011272850342</v>
       </c>
+      <c r="CE5">
+        <v>18.174507366868241</v>
+      </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2218,8 +2236,11 @@
       <c r="CD6">
         <v>0</v>
       </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2466,8 +2487,11 @@
       <c r="CD7">
         <v>8.2387989614102861E-2</v>
       </c>
+      <c r="CE7">
+        <v>5.1298452948722956E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2714,8 +2738,11 @@
       <c r="CD8">
         <v>13.664268562806352</v>
       </c>
+      <c r="CE8">
+        <v>11.733316302379142</v>
+      </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2962,8 +2989,11 @@
       <c r="CD9">
         <v>13.772667789822741</v>
       </c>
+      <c r="CE9">
+        <v>13.622350936712492</v>
+      </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3210,8 +3240,11 @@
       <c r="CD10">
         <v>21.021141992859288</v>
       </c>
+      <c r="CE10">
+        <v>19.190135605703976</v>
+      </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3458,8 +3491,11 @@
       <c r="CD11">
         <v>10.85079098148764</v>
       </c>
+      <c r="CE11">
+        <v>8.7832946709545148</v>
+      </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3706,8 +3742,11 @@
       <c r="CD12">
         <v>0</v>
       </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3954,8 +3993,11 @@
       <c r="CD13">
         <v>3.6909999455501676</v>
       </c>
+      <c r="CE13">
+        <v>3.865789780510545</v>
+      </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4202,8 +4244,11 @@
       <c r="CD14">
         <v>0</v>
       </c>
+      <c r="CE14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4450,8 +4495,11 @@
       <c r="CD15">
         <v>0</v>
       </c>
+      <c r="CE15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4698,8 +4746,11 @@
       <c r="CD16">
         <v>13.020591615962587</v>
       </c>
+      <c r="CE16">
+        <v>9.596215839287412</v>
+      </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4946,8 +4997,11 @@
       <c r="CD17">
         <v>0</v>
       </c>
+      <c r="CE17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5192,6 +5246,9 @@
         <v>0</v>
       </c>
       <c r="CD18">
+        <v>0</v>
+      </c>
+      <c r="CE18">
         <v>0</v>
       </c>
     </row>
@@ -5208,7 +5265,7 @@
   <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C2:C18"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5252,7 +5309,7 @@
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>8.5501410152399515</v>
+        <v>12.157100117135014</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5264,7 +5321,7 @@
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>11.851042528623028</v>
+        <v>9.3589905312070112</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5276,7 +5333,7 @@
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>13.280969106577285</v>
+        <v>18.174507366868241</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5300,7 +5357,7 @@
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>0.1460048391794305</v>
+        <v>5.1298452948722956E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5312,7 +5369,7 @@
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>17.081030293182987</v>
+        <v>11.733316302379142</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5324,7 +5381,7 @@
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>9.3202264370082162</v>
+        <v>13.622350936712492</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5336,7 +5393,7 @@
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>18.302199599042719</v>
+        <v>19.190135605703976</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5348,7 +5405,7 @@
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>10.316745736733861</v>
+        <v>8.7832946709545148</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,7 +5429,7 @@
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>4.3868710092011174</v>
+        <v>3.865789780510545</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5408,7 +5465,7 @@
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>8.446148759307448</v>
+        <v>9.596215839287412</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5440,7 +5497,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>12.932431557650453</v>
+        <v>9.6085615041690247</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5448,7 +5505,7 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>4.3868710092011174</v>
+        <v>3.865789780510545</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5456,7 +5513,7 @@
         <v>10</v>
       </c>
       <c r="B22">
-        <v>17.081030293182987</v>
+        <v>11.733316302379142</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5464,7 +5521,7 @@
         <v>107</v>
       </c>
       <c r="B23">
-        <v>0.61609298369987453</v>
+        <v>0.73568217001000313</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5472,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>0.1460048391794305</v>
+        <v>5.1298452948722956E-2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5480,7 +5537,7 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>8.446148759307448</v>
+        <v>9.596215839287412</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5488,7 +5545,7 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>11.851042528623028</v>
+        <v>9.3589905312070112</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5496,7 +5553,7 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>13.280969106577285</v>
+        <v>18.174507366868241</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,7 +5561,7 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>4.9152320053171135</v>
+        <v>4.7015145853429274</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5512,7 +5569,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>8.5501410152399515</v>
+        <v>12.157100117135014</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5520,7 +5577,7 @@
         <v>102</v>
       </c>
       <c r="B30">
-        <v>15.136357236460894</v>
+        <v>18.437108213476126</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5528,7 +5585,7 @@
         <v>101</v>
       </c>
       <c r="B31">
-        <v>8.4467464792202041</v>
+        <v>5.9943798296302946</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5536,7 +5593,7 @@
         <v>104</v>
       </c>
       <c r="B32">
-        <v>5.4905774113919961</v>
+        <v>2.343282153753885</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5544,7 +5601,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>18.302199599042719</v>
+        <v>19.190135605703976</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5609,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>10.316745736733861</v>
+        <v>8.7832946709545148</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5560,7 +5617,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>9.3202264370082162</v>
+        <v>13.622350936712492</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5568,7 +5625,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>36.423418904126457</v>
+        <v>50.690872523403456</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pepsico-my.sharepoint.com/personal/catalina_miranda_contractor_pepsico_com/Documents/War Room/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="389" documentId="13_ncr:1_{27D02F0F-DAC5-4F59-908A-DADD584E6AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93EC3E11-95EA-4FC3-95D3-41F7270B6A55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F585F0C-53BA-4D11-9BC4-5989344825C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>Línea</t>
   </si>
@@ -358,25 +358,16 @@
     <t>22-sep</t>
   </si>
   <si>
-    <t>DORITOS QUESO 40GRX58X1 CH</t>
-  </si>
-  <si>
-    <t>25-sep</t>
-  </si>
-  <si>
-    <t>26-sep</t>
-  </si>
-  <si>
-    <t>27-sep</t>
-  </si>
-  <si>
-    <t>28-sep</t>
-  </si>
-  <si>
-    <t>QUAKER AVENA INSTANT FORTIF 18X380G</t>
-  </si>
-  <si>
-    <t>29-sep</t>
+    <t>DORITOS QUESO 140GX19</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 40GX58X1 CH</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 85GX26</t>
+  </si>
+  <si>
+    <t>25 - Oct</t>
   </si>
 </sst>
 </file>
@@ -713,13 +704,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CE18"/>
+  <dimension ref="A1:CA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CF6" sqref="CF6"/>
+      <selection activeCell="BX6" sqref="BX6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="37.42578125" customWidth="1"/>
@@ -734,7 +725,7 @@
     <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -970,22 +961,10 @@
         <v>106</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CB1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="CC1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="CD1" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="CE1" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1221,22 +1200,10 @@
         <v>0</v>
       </c>
       <c r="CA2">
-        <v>0</v>
-      </c>
-      <c r="CB2">
-        <v>0</v>
-      </c>
-      <c r="CC2">
-        <v>0</v>
-      </c>
-      <c r="CD2">
-        <v>0</v>
-      </c>
-      <c r="CE2">
-        <v>0</v>
+        <v>19.157121981040763</v>
       </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1472,22 +1439,10 @@
         <v>10.691896052242944</v>
       </c>
       <c r="CA3">
-        <v>9.2380510078173028</v>
-      </c>
-      <c r="CB3">
-        <v>8.6279094617879508</v>
-      </c>
-      <c r="CC3">
-        <v>8.5501410152399515</v>
-      </c>
-      <c r="CD3">
-        <v>10.44810621217886</v>
-      </c>
-      <c r="CE3">
-        <v>12.157100117135014</v>
+        <v>2.1926697864742222</v>
       </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1723,22 +1678,10 @@
         <v>13.061964483220009</v>
       </c>
       <c r="CA4">
-        <v>11.860409477431915</v>
-      </c>
-      <c r="CB4">
-        <v>10.91905820099767</v>
-      </c>
-      <c r="CC4">
-        <v>11.851042528623028</v>
-      </c>
-      <c r="CD4">
-        <v>11.283400236559579</v>
-      </c>
-      <c r="CE4">
-        <v>9.3589905312070112</v>
+        <v>18.233398417051458</v>
       </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1974,22 +1917,10 @@
         <v>13.929134634304171</v>
       </c>
       <c r="CA5">
-        <v>15.792991420179193</v>
-      </c>
-      <c r="CB5">
-        <v>14.712125697480428</v>
-      </c>
-      <c r="CC5">
-        <v>13.280969106577285</v>
-      </c>
-      <c r="CD5">
-        <v>15.11011272850342</v>
-      </c>
-      <c r="CE5">
-        <v>18.174507366868241</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2227,20 +2158,8 @@
       <c r="CA6">
         <v>0</v>
       </c>
-      <c r="CB6">
-        <v>0</v>
-      </c>
-      <c r="CC6">
-        <v>0</v>
-      </c>
-      <c r="CD6">
-        <v>0</v>
-      </c>
-      <c r="CE6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2476,22 +2395,10 @@
         <v>2.064232818366051</v>
       </c>
       <c r="CA7">
-        <v>0.17288193666060836</v>
-      </c>
-      <c r="CB7">
-        <v>0.14341357928414475</v>
-      </c>
-      <c r="CC7">
-        <v>0.1460048391794305</v>
-      </c>
-      <c r="CD7">
-        <v>8.2387989614102861E-2</v>
-      </c>
-      <c r="CE7">
-        <v>5.1298452948722956E-2</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2727,22 +2634,10 @@
         <v>12.582393773643259</v>
       </c>
       <c r="CA8">
-        <v>12.940041072508262</v>
-      </c>
-      <c r="CB8">
-        <v>13.795974844098746</v>
-      </c>
-      <c r="CC8">
-        <v>17.081030293182987</v>
-      </c>
-      <c r="CD8">
-        <v>13.664268562806352</v>
-      </c>
-      <c r="CE8">
-        <v>11.733316302379142</v>
+        <v>5.8273851245061286</v>
       </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2978,22 +2873,10 @@
         <v>12.710015542456617</v>
       </c>
       <c r="CA9">
-        <v>11.614763627804068</v>
-      </c>
-      <c r="CB9">
-        <v>10.613387902917527</v>
-      </c>
-      <c r="CC9">
-        <v>9.3202264370082162</v>
-      </c>
-      <c r="CD9">
-        <v>13.772667789822741</v>
-      </c>
-      <c r="CE9">
-        <v>13.622350936712492</v>
+        <v>9.0340270253750035</v>
       </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3229,22 +3112,10 @@
         <v>8.623534172218065</v>
       </c>
       <c r="CA10">
-        <v>14.982430051219202</v>
-      </c>
-      <c r="CB10">
-        <v>13.905110992579916</v>
-      </c>
-      <c r="CC10">
-        <v>18.302199599042719</v>
-      </c>
-      <c r="CD10">
-        <v>21.021141992859288</v>
-      </c>
-      <c r="CE10">
-        <v>19.190135605703976</v>
+        <v>4.6471908629674861</v>
       </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3480,22 +3351,10 @@
         <v>10.353198039150341</v>
       </c>
       <c r="CA11">
-        <v>8.5085416773233966</v>
-      </c>
-      <c r="CB11">
-        <v>8.6126543971001546</v>
-      </c>
-      <c r="CC11">
-        <v>10.316745736733861</v>
-      </c>
-      <c r="CD11">
-        <v>10.85079098148764</v>
-      </c>
-      <c r="CE11">
-        <v>8.7832946709545148</v>
+        <v>6.1492215874504037</v>
       </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -3731,22 +3590,10 @@
         <v>0</v>
       </c>
       <c r="CA12">
-        <v>0</v>
-      </c>
-      <c r="CB12">
-        <v>0</v>
-      </c>
-      <c r="CC12">
-        <v>0</v>
-      </c>
-      <c r="CD12">
-        <v>0</v>
-      </c>
-      <c r="CE12">
-        <v>0</v>
+        <v>4.5005648034463546</v>
       </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -3982,22 +3829,10 @@
         <v>7.0116052581385055</v>
       </c>
       <c r="CA13">
-        <v>4.9773522073788445</v>
-      </c>
-      <c r="CB13">
-        <v>4.0587076097117203</v>
-      </c>
-      <c r="CC13">
-        <v>4.3868710092011174</v>
-      </c>
-      <c r="CD13">
-        <v>3.6909999455501676</v>
-      </c>
-      <c r="CE13">
-        <v>3.865789780510545</v>
+        <v>5.3926617198736801</v>
       </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -4233,22 +4068,10 @@
         <v>0</v>
       </c>
       <c r="CA14">
-        <v>0</v>
-      </c>
-      <c r="CB14">
-        <v>0</v>
-      </c>
-      <c r="CC14">
-        <v>0</v>
-      </c>
-      <c r="CD14">
-        <v>0</v>
-      </c>
-      <c r="CE14">
-        <v>0</v>
+        <v>5.1325978829223429</v>
       </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4484,22 +4307,10 @@
         <v>0</v>
       </c>
       <c r="CA15">
-        <v>0</v>
-      </c>
-      <c r="CB15">
-        <v>0</v>
-      </c>
-      <c r="CC15">
-        <v>0</v>
-      </c>
-      <c r="CD15">
-        <v>0</v>
-      </c>
-      <c r="CE15">
-        <v>0</v>
+        <v>6.9594126652105421</v>
       </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4735,22 +4546,10 @@
         <v>9.450632071649478</v>
       </c>
       <c r="CA16">
-        <v>6.7563355521713309</v>
-      </c>
-      <c r="CB16">
-        <v>6.0319720914122206</v>
-      </c>
-      <c r="CC16">
-        <v>8.446148759307448</v>
-      </c>
-      <c r="CD16">
-        <v>13.020591615962587</v>
-      </c>
-      <c r="CE16">
-        <v>9.596215839287412</v>
+        <v>5.5233505224672443</v>
       </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4986,22 +4785,10 @@
         <v>0</v>
       </c>
       <c r="CA17">
-        <v>0</v>
-      </c>
-      <c r="CB17">
-        <v>0</v>
-      </c>
-      <c r="CC17">
-        <v>0</v>
-      </c>
-      <c r="CD17">
-        <v>0</v>
-      </c>
-      <c r="CE17">
-        <v>0</v>
+        <v>7.6196685419009063</v>
       </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5237,19 +5024,7 @@
         <v>0</v>
       </c>
       <c r="CA18">
-        <v>0</v>
-      </c>
-      <c r="CB18">
-        <v>0</v>
-      </c>
-      <c r="CC18">
-        <v>0</v>
-      </c>
-      <c r="CD18">
-        <v>0</v>
-      </c>
-      <c r="CE18">
-        <v>0</v>
+        <v>29.777407690159443</v>
       </c>
     </row>
   </sheetData>
@@ -5268,9 +5043,9 @@
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -5293,11 +5068,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5" t="e">
+        <v>100</v>
+      </c>
+      <c r="C2" s="5">
         <f>VLOOKUP(B2,$A$20:$B$36,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>19.157121981040763</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5305,11 +5080,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>12.157100117135014</v>
+        <v>2.1926697864742222</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5317,11 +5092,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>107</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" si="0"/>
-        <v>9.3589905312070112</v>
+        <v>18.233398417051458</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5329,11 +5104,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>18.174507366868241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -5341,11 +5116,11 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="5" t="e">
+        <v>109</v>
+      </c>
+      <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -5353,11 +5128,11 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>5.1298452948722956E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,11 +5140,11 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>11.733316302379142</v>
+        <v>5.8273851245061286</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -5377,11 +5152,11 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>13.622350936712492</v>
+        <v>9.0340270253750035</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -5389,11 +5164,11 @@
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>103</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>19.190135605703976</v>
+        <v>4.6471908629674861</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -5401,11 +5176,11 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>8.7832946709545148</v>
+        <v>6.1492215874504037</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -5413,11 +5188,11 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="e">
+        <v>102</v>
+      </c>
+      <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>4.5005648034463546</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -5425,11 +5200,11 @@
         <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>3.865789780510545</v>
+        <v>5.3926617198736801</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -5437,11 +5212,11 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="5" t="e">
+        <v>104</v>
+      </c>
+      <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>5.1325978829223429</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5449,11 +5224,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="5" t="e">
+        <v>13</v>
+      </c>
+      <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>6.9594126652105421</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5461,11 +5236,11 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
-        <v>9.596215839287412</v>
+        <v>5.5233505224672443</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5473,11 +5248,11 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="e">
+        <v>12</v>
+      </c>
+      <c r="C17" s="5">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>7.6196685419009063</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5485,11 +5260,11 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="e">
+        <v>105</v>
+      </c>
+      <c r="C18" s="5">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>29.777407690159443</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5497,7 +5272,7 @@
         <v>100</v>
       </c>
       <c r="B20">
-        <v>9.6085615041690247</v>
+        <v>19.157121981040763</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5505,31 +5280,31 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>3.865789780510545</v>
+        <v>2.1926697864742222</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B22">
-        <v>11.733316302379142</v>
+        <v>18.233398417051458</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B23">
-        <v>0.73568217001000313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>109</v>
       </c>
       <c r="B24">
-        <v>5.1298452948722956E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5537,7 +5312,7 @@
         <v>17</v>
       </c>
       <c r="B25">
-        <v>9.596215839287412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5545,7 +5320,7 @@
         <v>5</v>
       </c>
       <c r="B26">
-        <v>9.3589905312070112</v>
+        <v>5.8273851245061286</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5553,7 +5328,7 @@
         <v>6</v>
       </c>
       <c r="B27">
-        <v>18.174507366868241</v>
+        <v>9.0340270253750035</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5561,7 +5336,7 @@
         <v>103</v>
       </c>
       <c r="B28">
-        <v>4.7015145853429274</v>
+        <v>4.6471908629674861</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5569,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="B29">
-        <v>12.157100117135014</v>
+        <v>6.1492215874504037</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5577,7 +5352,7 @@
         <v>102</v>
       </c>
       <c r="B30">
-        <v>18.437108213476126</v>
+        <v>4.5005648034463546</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -5585,7 +5360,7 @@
         <v>101</v>
       </c>
       <c r="B31">
-        <v>5.9943798296302946</v>
+        <v>5.3926617198736801</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -5593,7 +5368,7 @@
         <v>104</v>
       </c>
       <c r="B32">
-        <v>2.343282153753885</v>
+        <v>5.1325978829223429</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5601,7 +5376,7 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>19.190135605703976</v>
+        <v>6.9594126652105421</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5609,7 +5384,7 @@
         <v>15</v>
       </c>
       <c r="B34">
-        <v>8.7832946709545148</v>
+        <v>5.5233505224672443</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5617,7 +5392,7 @@
         <v>12</v>
       </c>
       <c r="B35">
-        <v>13.622350936712492</v>
+        <v>7.6196685419009063</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5625,7 +5400,7 @@
         <v>105</v>
       </c>
       <c r="B36">
-        <v>50.690872523403456</v>
+        <v>29.777407690159443</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F585F0C-53BA-4D11-9BC4-5989344825C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629A727-3D7C-4B51-8F31-1B5FA39361FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,7 +367,7 @@
     <t>DORITOS QUESO 85GX26</t>
   </si>
   <si>
-    <t>25 - Oct</t>
+    <t>25-oct</t>
   </si>
 </sst>
 </file>
@@ -707,7 +707,7 @@
   <dimension ref="A1:CA18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BX6" sqref="BX6"/>
+      <selection activeCell="CA1" sqref="CA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1629A727-3D7C-4B51-8F31-1B5FA39361FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC7D8B-BBC6-40E1-ADC1-F1E01593E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>Línea</t>
   </si>
@@ -46,9 +46,6 @@
     <t>PCFLEX</t>
   </si>
   <si>
-    <t>LAYS CLASICAS 45GRX54</t>
-  </si>
-  <si>
     <t>LAYS CLASICAS 94GRX25</t>
   </si>
   <si>
@@ -61,15 +58,6 @@
     <t>TC1000</t>
   </si>
   <si>
-    <t>DORITOS QUESO 45GRX70</t>
-  </si>
-  <si>
-    <t>DORITOS QUESO 85GRX26</t>
-  </si>
-  <si>
-    <t>DORITOS QUESO 140GRX19</t>
-  </si>
-  <si>
     <t>PC32</t>
   </si>
   <si>
@@ -94,24 +82,9 @@
     <t>FRYPACK</t>
   </si>
   <si>
-    <t>3DMEGAQUESO 95GX24</t>
-  </si>
-  <si>
     <t>BARRACAS</t>
   </si>
   <si>
-    <t>QUAKER AVENA INSTANT 18X380G</t>
-  </si>
-  <si>
-    <t>LAYS CEBOLLA CARAMELIZADA 41GX54</t>
-  </si>
-  <si>
-    <t>LAYS QUESO Y PIMIENTA 41GX54</t>
-  </si>
-  <si>
-    <t>LAYS QUESO Y PIMIENTA 85GX25</t>
-  </si>
-  <si>
     <t>9-jun</t>
   </si>
   <si>
@@ -368,6 +341,9 @@
   </si>
   <si>
     <t>25-oct</t>
+  </si>
+  <si>
+    <t>26-oct</t>
   </si>
 </sst>
 </file>
@@ -409,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -418,9 +394,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -704,10 +677,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CA18"/>
+  <dimension ref="A1:CB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CA1" sqref="CA1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="CD6" sqref="CD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,9 +696,10 @@
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="71" width="9.140625" hidden="1" customWidth="1"/>
     <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
+    <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:79" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -733,243 +707,246 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="BQ1" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="BR1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="BS1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="BT1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="BU1" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="BV1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BZ1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="BX1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="BY1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="BZ1" s="3" t="s">
-        <v>106</v>
-      </c>
       <c r="CA1" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
         <v>4.3052239375143602</v>
@@ -1199,16 +1176,20 @@
       <c r="BZ2" s="1">
         <v>0</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="1">
         <v>19.157121981040763</v>
       </c>
+      <c r="CB2" s="1">
+        <f>VLOOKUP(B2,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.0220117269375164</v>
+      </c>
     </row>
-    <row r="3" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>11.354553947314896</v>
@@ -1438,16 +1419,20 @@
       <c r="BZ3" s="1">
         <v>10.691896052242944</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" s="1">
         <v>2.1926697864742222</v>
       </c>
+      <c r="CB3" s="1">
+        <f>VLOOKUP(B3,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.1949852911465646</v>
+      </c>
     </row>
-    <row r="4" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>7.3564769541436084</v>
@@ -1677,16 +1662,20 @@
       <c r="BZ4" s="1">
         <v>13.061964483220009</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" s="1">
         <v>18.233398417051458</v>
       </c>
+      <c r="CB4" s="1">
+        <f>VLOOKUP(B4,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.9279930346274634</v>
+      </c>
     </row>
-    <row r="5" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>13.359761649315365</v>
@@ -1916,16 +1905,20 @@
       <c r="BZ5" s="1">
         <v>13.929134634304171</v>
       </c>
-      <c r="CA5">
-        <v>0</v>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
+        <f>VLOOKUP(B5,Sheet3!$B$1:$C$18,2,)</f>
+        <v>8.0937591349191997</v>
       </c>
     </row>
-    <row r="6" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
         <v>6.385992170417321</v>
@@ -2155,16 +2148,20 @@
       <c r="BZ6" s="1">
         <v>0</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB6" s="1">
+        <f>VLOOKUP(B6,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
         <v>9.4398757653820713</v>
@@ -2394,16 +2391,20 @@
       <c r="BZ7" s="1">
         <v>2.064232818366051</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB7" s="1">
+        <f>VLOOKUP(B7,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
         <v>11.828023010087275</v>
@@ -2633,16 +2634,20 @@
       <c r="BZ8" s="1">
         <v>12.582393773643259</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" s="1">
         <v>5.8273851245061286</v>
       </c>
+      <c r="CB8" s="1">
+        <f>VLOOKUP(B8,Sheet3!$B$1:$C$18,2,)</f>
+        <v>18.233398417051458</v>
+      </c>
     </row>
-    <row r="9" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>7.0723401144585827</v>
@@ -2872,16 +2877,20 @@
       <c r="BZ9" s="1">
         <v>12.710015542456617</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" s="1">
         <v>9.0340270253750035</v>
       </c>
+      <c r="CB9" s="1">
+        <f>VLOOKUP(B9,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.5173814044250067</v>
+      </c>
     </row>
-    <row r="10" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <v>8.1540557089776353</v>
@@ -3111,16 +3120,20 @@
       <c r="BZ10" s="1">
         <v>8.623534172218065</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" s="1">
         <v>4.6471908629674861</v>
       </c>
+      <c r="CB10" s="1">
+        <f>VLOOKUP(B10,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.8072927481145928</v>
+      </c>
     </row>
-    <row r="11" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>9.7754291242708042</v>
@@ -3350,16 +3363,20 @@
       <c r="BZ11" s="1">
         <v>10.353198039150341</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" s="1">
         <v>6.1492215874504037</v>
       </c>
+      <c r="CB11" s="1">
+        <f>VLOOKUP(B11,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.5900576543810994</v>
+      </c>
     </row>
-    <row r="12" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -3589,16 +3606,20 @@
       <c r="BZ12" s="1">
         <v>0</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" s="1">
         <v>4.5005648034463546</v>
       </c>
+      <c r="CB12" s="1">
+        <f>VLOOKUP(B12,Sheet3!$B$1:$C$18,2,)</f>
+        <v>17.750706298189819</v>
+      </c>
     </row>
-    <row r="13" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <v>4.632702365952623</v>
@@ -3828,16 +3849,20 @@
       <c r="BZ13" s="1">
         <v>7.0116052581385055</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" s="1">
         <v>5.3926617198736801</v>
       </c>
+      <c r="CB13" s="1">
+        <f>VLOOKUP(B13,Sheet3!$B$1:$C$18,2,)</f>
+        <v>1.0347066004220071</v>
+      </c>
     </row>
-    <row r="14" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -4067,16 +4092,20 @@
       <c r="BZ14" s="1">
         <v>0</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" s="1">
         <v>5.1325978829223429</v>
       </c>
+      <c r="CB14" s="1">
+        <f>VLOOKUP(B14,Sheet3!$B$1:$C$18,2,)</f>
+        <v>28.222804632904499</v>
+      </c>
     </row>
-    <row r="15" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -4306,16 +4335,20 @@
       <c r="BZ15" s="1">
         <v>0</v>
       </c>
-      <c r="CA15">
+      <c r="CA15" s="1">
         <v>6.9594126652105421</v>
       </c>
+      <c r="CB15" s="1">
+        <f>VLOOKUP(B15,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.0137877467435841</v>
+      </c>
     </row>
-    <row r="16" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
         <v>5.2680642367083559</v>
@@ -4545,16 +4578,20 @@
       <c r="BZ16" s="1">
         <v>9.450632071649478</v>
       </c>
-      <c r="CA16">
+      <c r="CA16" s="1">
         <v>5.5233505224672443</v>
       </c>
+      <c r="CB16" s="1">
+        <f>VLOOKUP(B16,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -4784,16 +4821,20 @@
       <c r="BZ17" s="1">
         <v>0</v>
       </c>
-      <c r="CA17">
+      <c r="CA17" s="1">
         <v>7.6196685419009063</v>
       </c>
+      <c r="CB17" s="1">
+        <f>VLOOKUP(B17,Sheet3!$B$1:$C$18,2,)</f>
+        <v>3.1690367550894449</v>
+      </c>
     </row>
-    <row r="18" spans="1:79" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -5023,8 +5064,12 @@
       <c r="BZ18" s="1">
         <v>0</v>
       </c>
-      <c r="CA18">
+      <c r="CA18" s="1">
         <v>29.777407690159443</v>
+      </c>
+      <c r="CB18" s="1">
+        <f>VLOOKUP(B18,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.1958973052852979</v>
       </c>
     </row>
   </sheetData>
@@ -5037,10 +5082,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A4410-C161-46B3-8156-4FCF0BD3674B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5052,355 +5097,406 @@
     <col min="5" max="5" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6">
-        <v>45189</v>
+      <c r="C1" s="5">
+        <v>45225</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="5">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2">
         <f>VLOOKUP(B2,$A$20:$B$36,2,FALSE)</f>
-        <v>19.157121981040763</v>
+        <v>17.750706298189819</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="5">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>2.1926697864742222</v>
+        <v>1.0347066004220071</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C4" s="5">
+        <v>98</v>
+      </c>
+      <c r="C4" s="2">
         <f t="shared" si="0"/>
         <v>18.233398417051458</v>
       </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="5">
+        <v>99</v>
+      </c>
+      <c r="C5" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>5.9279930346274634</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.0937591349191997</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.0220117269375164</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="5">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>5.8273851245061286</v>
+        <v>5.1949852911465646</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="5">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>9.0340270253750035</v>
+        <v>3.1690367550894449</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="5">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>4.6471908629674861</v>
+        <v>4.1958973052852979</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="5">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>6.1492215874504037</v>
+        <v>5.0137877467435841</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="5">
-        <f t="shared" si="0"/>
-        <v>4.5005648034463546</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C13" s="5">
-        <f t="shared" si="0"/>
-        <v>5.3926617198736801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="5">
-        <f t="shared" si="0"/>
-        <v>5.1325978829223429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="5">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>6.9594126652105421</v>
+        <v>7.8072927481145928</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2">
         <f t="shared" si="0"/>
-        <v>5.5233505224672443</v>
+        <v>5.5900576543810994</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="5">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>7.6196685419009063</v>
+        <v>5.5173814044250067</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="5">
+        <v>96</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>29.777407690159443</v>
+        <v>28.222804632904499</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1">
+        <v>17.750706298189819</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.0347066004220071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="1">
+        <v>18.233398417051458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>100</v>
       </c>
-      <c r="B20">
-        <v>19.157121981040763</v>
+      <c r="B24" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21">
-        <v>2.1926697864742222</v>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22">
-        <v>18.233398417051458</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="1">
+        <v>5.9279930346274634</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="1">
+        <v>8.0937591349191997</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="1">
+        <v>4.0220117269375164</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.1949852911465646</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>5.8273851245061286</v>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.1690367550894449</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27">
-        <v>9.0340270253750035</v>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.1958973052852979</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>103</v>
-      </c>
-      <c r="B28">
-        <v>4.6471908629674861</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29">
-        <v>6.1492215874504037</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30">
-        <v>4.5005648034463546</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>101</v>
-      </c>
-      <c r="B31">
-        <v>5.3926617198736801</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>104</v>
-      </c>
-      <c r="B32">
-        <v>5.1325978829223429</v>
+        <v>95</v>
+      </c>
+      <c r="B32" s="1">
+        <v>5.0137877467435841</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33">
-        <v>6.9594126652105421</v>
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>7.8072927481145928</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B34">
-        <v>5.5233505224672443</v>
+        <v>11</v>
+      </c>
+      <c r="B34" s="1">
+        <v>5.5900576543810994</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35">
-        <v>7.6196685419009063</v>
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5.5173814044250067</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36">
-        <v>29.777407690159443</v>
+        <v>96</v>
+      </c>
+      <c r="B36" s="1">
+        <v>28.222804632904499</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BC7D8B-BBC6-40E1-ADC1-F1E01593E2BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63907778-D292-404C-A89D-B8807C36BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
   <si>
     <t>Línea</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>26-oct</t>
+  </si>
+  <si>
+    <t>27-oct</t>
   </si>
 </sst>
 </file>
@@ -677,10 +680,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CB18"/>
+  <dimension ref="A1:CC18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CD6" sqref="CD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CF8" sqref="CF8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,7 +702,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -940,8 +943,11 @@
       <c r="CB1" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="CC1" s="3" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="2" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1180,11 +1186,15 @@
         <v>19.157121981040763</v>
       </c>
       <c r="CB2" s="1">
-        <f>VLOOKUP(B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0220117269375164</v>
+        <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.7780022334884098</v>
+      </c>
+      <c r="CC2" s="1">
+        <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.7780022334884098</v>
       </c>
     </row>
-    <row r="3" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1423,11 +1433,15 @@
         <v>2.1926697864742222</v>
       </c>
       <c r="CB3" s="1">
-        <f>VLOOKUP(B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.1949852911465646</v>
+        <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.4813282516161346</v>
+      </c>
+      <c r="CC3" s="1">
+        <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.4813282516161346</v>
       </c>
     </row>
-    <row r="4" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1666,11 +1680,15 @@
         <v>18.233398417051458</v>
       </c>
       <c r="CB4" s="1">
-        <f>VLOOKUP(B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9279930346274634</v>
+        <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.8163953117382547</v>
+      </c>
+      <c r="CC4" s="1">
+        <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.8163953117382547</v>
       </c>
     </row>
-    <row r="5" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1909,11 +1927,15 @@
         <v>0</v>
       </c>
       <c r="CB5" s="1">
-        <f>VLOOKUP(B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.0937591349191997</v>
+        <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
+        <v>8.2237724383598074</v>
+      </c>
+      <c r="CC5" s="1">
+        <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
+        <v>8.2237724383598074</v>
       </c>
     </row>
-    <row r="6" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2152,11 +2174,15 @@
         <v>0</v>
       </c>
       <c r="CB6" s="1">
-        <f>VLOOKUP(B6,Sheet3!$B$1:$C$18,2,)</f>
+        <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="CC6" s="1">
+        <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2395,11 +2421,15 @@
         <v>0</v>
       </c>
       <c r="CB7" s="1">
-        <f>VLOOKUP(B7,Sheet3!$B$1:$C$18,2,)</f>
+        <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="CC7" s="1">
+        <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2638,11 +2668,15 @@
         <v>5.8273851245061286</v>
       </c>
       <c r="CB8" s="1">
-        <f>VLOOKUP(B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>18.233398417051458</v>
+        <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
+        <v>12.072014613499624</v>
+      </c>
+      <c r="CC8" s="1">
+        <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
+        <v>12.072014613499624</v>
       </c>
     </row>
-    <row r="9" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2881,11 +2915,15 @@
         <v>9.0340270253750035</v>
       </c>
       <c r="CB9" s="1">
-        <f>VLOOKUP(B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5173814044250067</v>
+        <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.170416399557876</v>
+      </c>
+      <c r="CC9" s="1">
+        <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.170416399557876</v>
       </c>
     </row>
-    <row r="10" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3124,11 +3162,15 @@
         <v>4.6471908629674861</v>
       </c>
       <c r="CB10" s="1">
-        <f>VLOOKUP(B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8072927481145928</v>
+        <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.0412601452528989</v>
+      </c>
+      <c r="CC10" s="1">
+        <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.0412601452528989</v>
       </c>
     </row>
-    <row r="11" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3367,11 +3409,15 @@
         <v>6.1492215874504037</v>
       </c>
       <c r="CB11" s="1">
-        <f>VLOOKUP(B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5900576543810994</v>
+        <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.0032998851250161</v>
+      </c>
+      <c r="CC11" s="1">
+        <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.0032998851250161</v>
       </c>
     </row>
-    <row r="12" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3610,11 +3656,15 @@
         <v>4.5005648034463546</v>
       </c>
       <c r="CB12" s="1">
-        <f>VLOOKUP(B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.750706298189819</v>
+        <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
+        <v>17.066972185230046</v>
+      </c>
+      <c r="CC12" s="1">
+        <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
+        <v>17.066972185230046</v>
       </c>
     </row>
-    <row r="13" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3853,11 +3903,15 @@
         <v>5.3926617198736801</v>
       </c>
       <c r="CB13" s="1">
-        <f>VLOOKUP(B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.0347066004220071</v>
+        <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
+        <v>1.4844142670901579</v>
+      </c>
+      <c r="CC13" s="1">
+        <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
+        <v>1.4844142670901579</v>
       </c>
     </row>
-    <row r="14" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4096,11 +4150,15 @@
         <v>5.1325978829223429</v>
       </c>
       <c r="CB14" s="1">
-        <f>VLOOKUP(B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>28.222804632904499</v>
+        <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
+        <v>41.535785349703858</v>
+      </c>
+      <c r="CC14" s="1">
+        <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
+        <v>41.535785349703858</v>
       </c>
     </row>
-    <row r="15" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4339,11 +4397,15 @@
         <v>6.9594126652105421</v>
       </c>
       <c r="CB15" s="1">
-        <f>VLOOKUP(B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.0137877467435841</v>
+        <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
+        <v>9.0140083746758908</v>
+      </c>
+      <c r="CC15" s="1">
+        <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
+        <v>9.0140083746758908</v>
       </c>
     </row>
-    <row r="16" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4582,11 +4644,15 @@
         <v>5.5233505224672443</v>
       </c>
       <c r="CB16" s="1">
-        <f>VLOOKUP(B16,Sheet3!$B$1:$C$18,2,)</f>
+        <f>VLOOKUP($B16,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="CC16" s="1">
+        <f>VLOOKUP($B16,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4825,11 +4891,15 @@
         <v>7.6196685419009063</v>
       </c>
       <c r="CB17" s="1">
-        <f>VLOOKUP(B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.1690367550894449</v>
+        <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
+        <v>1.4302902346381163</v>
+      </c>
+      <c r="CC17" s="1">
+        <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
+        <v>1.4302902346381163</v>
       </c>
     </row>
-    <row r="18" spans="1:80" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5068,8 +5138,12 @@
         <v>29.777407690159443</v>
       </c>
       <c r="CB18" s="1">
-        <f>VLOOKUP(B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.1958973052852979</v>
+        <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.654328693117928</v>
+      </c>
+      <c r="CC18" s="1">
+        <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.654328693117928</v>
       </c>
     </row>
   </sheetData>
@@ -5084,8 +5158,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,7 +5179,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5">
-        <v>45225</v>
+        <v>45226</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5116,8 +5190,7 @@
         <v>91</v>
       </c>
       <c r="C2" s="2">
-        <f>VLOOKUP(B2,$A$20:$B$36,2,FALSE)</f>
-        <v>17.750706298189819</v>
+        <v>17.066972185230046</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5131,8 +5204,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C18" si="0">VLOOKUP(B3,$A$20:$B$36,2,FALSE)</f>
-        <v>1.0347066004220071</v>
+        <v>1.4844142670901579</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5146,8 +5218,7 @@
         <v>98</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" si="0"/>
-        <v>18.233398417051458</v>
+        <v>12.072014613499624</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5161,7 +5232,6 @@
         <v>99</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5">
@@ -5176,7 +5246,6 @@
         <v>100</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6">
@@ -5191,7 +5260,6 @@
         <v>13</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
@@ -5206,8 +5274,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>5.9279930346274634</v>
+        <v>4.8163953117382547</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5221,8 +5288,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>8.0937591349191997</v>
+        <v>8.2237724383598074</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5236,8 +5302,7 @@
         <v>94</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>4.0220117269375164</v>
+        <v>5.7780022334884098</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5251,8 +5316,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="0"/>
-        <v>5.1949852911465646</v>
+        <v>5.4813282516161346</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5266,8 +5330,7 @@
         <v>93</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="0"/>
-        <v>3.1690367550894449</v>
+        <v>1.4302902346381163</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5281,8 +5344,7 @@
         <v>92</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="0"/>
-        <v>4.1958973052852979</v>
+        <v>4.654328693117928</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5296,8 +5358,7 @@
         <v>95</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="0"/>
-        <v>5.0137877467435841</v>
+        <v>9.0140083746758908</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5311,8 +5372,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="0"/>
-        <v>7.8072927481145928</v>
+        <v>7.0412601452528989</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5326,8 +5386,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5900576543810994</v>
+        <v>4.0032998851250161</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5341,8 +5400,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
-        <v>5.5173814044250067</v>
+        <v>7.170416399557876</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5356,8 +5414,7 @@
         <v>96</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="0"/>
-        <v>28.222804632904499</v>
+        <v>41.535785349703858</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5368,7 +5425,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>17.750706298189819</v>
+        <v>17.066972185230046</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5376,7 +5433,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0347066004220071</v>
+        <v>1.4844142670901579</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5384,7 +5441,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="1">
-        <v>18.233398417051458</v>
+        <v>12.072014613499624</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5416,7 +5473,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>5.9279930346274634</v>
+        <v>4.8163953117382547</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5424,7 +5481,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>8.0937591349191997</v>
+        <v>8.2237724383598074</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5432,7 +5489,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>4.0220117269375164</v>
+        <v>5.7780022334884098</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5440,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>5.1949852911465646</v>
+        <v>5.4813282516161346</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5448,7 +5505,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>3.1690367550894449</v>
+        <v>1.4302902346381163</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5456,7 +5513,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>4.1958973052852979</v>
+        <v>4.654328693117928</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5464,7 +5521,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>5.0137877467435841</v>
+        <v>9.0140083746758908</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5472,7 +5529,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>7.8072927481145928</v>
+        <v>7.0412601452528989</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5537,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>5.5900576543810994</v>
+        <v>4.0032998851250161</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5488,7 +5545,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>5.5173814044250067</v>
+        <v>7.170416399557876</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5496,7 +5553,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>28.222804632904499</v>
+        <v>41.535785349703858</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63907778-D292-404C-A89D-B8807C36BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924503F-F488-40F8-A6C8-DEB8A70EDD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
   <si>
     <t>Línea</t>
   </si>
@@ -347,6 +347,9 @@
   </si>
   <si>
     <t>27-oct</t>
+  </si>
+  <si>
+    <t>30-oct</t>
   </si>
 </sst>
 </file>
@@ -680,10 +683,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CC18"/>
+  <dimension ref="A1:CD18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CF8" sqref="CF8"/>
+      <selection activeCell="CB7" sqref="CB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +705,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:82" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -946,8 +949,11 @@
       <c r="CC1" s="3" t="s">
         <v>103</v>
       </c>
+      <c r="CD1" s="3" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1187,14 +1193,18 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.7780022334884098</v>
+        <v>4.9276109148536538</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.7780022334884098</v>
+        <v>4.9276109148536538</v>
+      </c>
+      <c r="CD2" s="1">
+        <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.9276109148536538</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1434,14 +1444,18 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.4813282516161346</v>
+        <v>3.888431220736023</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.4813282516161346</v>
+        <v>3.888431220736023</v>
+      </c>
+      <c r="CD3" s="1">
+        <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
+        <v>3.888431220736023</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1681,14 +1695,18 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8163953117382547</v>
+        <v>2.3961915521389523</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8163953117382547</v>
+        <v>2.3961915521389523</v>
+      </c>
+      <c r="CD4" s="1">
+        <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
+        <v>2.3961915521389523</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1928,14 +1946,18 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.2237724383598074</v>
+        <v>8.2812015243249526</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.2237724383598074</v>
+        <v>8.2812015243249526</v>
+      </c>
+      <c r="CD5" s="1">
+        <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
+        <v>8.2812015243249526</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2181,8 +2203,12 @@
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
+      <c r="CD6" s="1">
+        <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2428,8 +2454,12 @@
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
+      <c r="CD7" s="1">
+        <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2669,14 +2699,18 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.072014613499624</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.072014613499624</v>
+        <v>0</v>
+      </c>
+      <c r="CD8" s="1">
+        <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2916,14 +2950,18 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.170416399557876</v>
+        <v>8.6610022930455202</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.170416399557876</v>
+        <v>8.6610022930455202</v>
+      </c>
+      <c r="CD9" s="1">
+        <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
+        <v>8.6610022930455202</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3163,14 +3201,18 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0412601452528989</v>
+        <v>6.2279493659965617</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0412601452528989</v>
+        <v>6.2279493659965617</v>
+      </c>
+      <c r="CD10" s="1">
+        <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
+        <v>6.2279493659965617</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3410,14 +3452,18 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0032998851250161</v>
+        <v>2.2047859666365399</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0032998851250161</v>
+        <v>2.2047859666365399</v>
+      </c>
+      <c r="CD11" s="1">
+        <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
+        <v>2.2047859666365399</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3657,14 +3703,18 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.066972185230046</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.066972185230046</v>
+        <v>0</v>
+      </c>
+      <c r="CD12" s="1">
+        <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3904,14 +3954,18 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.4844142670901579</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.4844142670901579</v>
+        <v>0</v>
+      </c>
+      <c r="CD13" s="1">
+        <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4151,14 +4205,18 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>41.535785349703858</v>
+        <v>42.153156108638647</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>41.535785349703858</v>
+        <v>42.153156108638647</v>
+      </c>
+      <c r="CD14" s="1">
+        <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
+        <v>42.153156108638647</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4398,14 +4456,18 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.0140083746758908</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.0140083746758908</v>
+        <v>0</v>
+      </c>
+      <c r="CD15" s="1">
+        <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4651,8 +4713,12 @@
         <f>VLOOKUP($B16,Sheet3!$B$1:$C$18,2,)</f>
         <v>0</v>
       </c>
+      <c r="CD16" s="1">
+        <f>VLOOKUP($B16,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4892,14 +4958,18 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.4302902346381163</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.4302902346381163</v>
+        <v>0</v>
+      </c>
+      <c r="CD17" s="1">
+        <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5139,11 +5209,15 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.654328693117928</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.654328693117928</v>
+        <v>0</v>
+      </c>
+      <c r="CD18" s="1">
+        <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5158,8 +5232,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5187,10 +5261,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2">
-        <v>17.066972185230046</v>
+        <f>IFERROR(VLOOKUP(B2,A20:B36,2,),0)</f>
+        <v>4.9276109148536538</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5201,10 +5276,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
-        <v>1.4844142670901579</v>
+        <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP(B3,A21:B37,2,),0)</f>
+        <v>3.888431220736023</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5215,10 +5291,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
-        <v>12.072014613499624</v>
+        <f t="shared" si="0"/>
+        <v>2.3961915521389523</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5229,10 +5306,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>8.2812015243249526</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5243,9 +5321,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6">
@@ -5257,9 +5336,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D7">
@@ -5271,10 +5351,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2">
-        <v>4.8163953117382547</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5285,10 +5366,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>8.2237724383598074</v>
+        <f t="shared" si="0"/>
+        <v>8.6610022930455202</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5299,10 +5381,11 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
-        <v>5.7780022334884098</v>
+        <f t="shared" si="0"/>
+        <v>6.2279493659965617</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5313,10 +5396,11 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
-        <v>5.4813282516161346</v>
+        <f t="shared" si="0"/>
+        <v>2.2047859666365399</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5327,10 +5411,11 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2">
-        <v>1.4302902346381163</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5341,10 +5426,11 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
-        <v>4.654328693117928</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5355,10 +5441,11 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C14" s="2">
-        <v>9.0140083746758908</v>
+        <f t="shared" si="0"/>
+        <v>42.153156108638647</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5369,10 +5456,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2">
-        <v>7.0412601452528989</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5383,10 +5471,11 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C16" s="2">
-        <v>4.0032998851250161</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -5397,10 +5486,11 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>93</v>
       </c>
       <c r="C17" s="2">
-        <v>7.170416399557876</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5411,10 +5501,11 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C18" s="2">
-        <v>41.535785349703858</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5425,7 +5516,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>17.066972185230046</v>
+        <v>14.969170967259931</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5433,7 +5524,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>1.4844142670901579</v>
+        <v>3.1391388891607512</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5441,7 +5532,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="1">
-        <v>12.072014613499624</v>
+        <v>12.7582050172142</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5473,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>4.8163953117382547</v>
+        <v>2.3961915521389523</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5481,7 +5572,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>8.2237724383598074</v>
+        <v>8.2812015243249526</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5489,7 +5580,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>5.7780022334884098</v>
+        <v>4.9276109148536538</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5497,7 +5588,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>5.4813282516161346</v>
+        <v>3.888431220736023</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5505,7 +5596,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>1.4302902346381163</v>
+        <v>0.21330509147019314</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5513,7 +5604,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>4.654328693117928</v>
+        <v>3.0901251487345984</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5521,7 +5612,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>9.0140083746758908</v>
+        <v>5.6742696089004045</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5529,7 +5620,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>7.0412601452528989</v>
+        <v>6.2279493659965617</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5537,7 +5628,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>4.0032998851250161</v>
+        <v>2.2047859666365399</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5545,7 +5636,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.170416399557876</v>
+        <v>8.6610022930455202</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5553,7 +5644,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>41.535785349703858</v>
+        <v>42.153156108638647</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4924503F-F488-40F8-A6C8-DEB8A70EDD2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A6F16C-3308-4B03-B24D-308C9CDC239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
   <si>
     <t>Línea</t>
   </si>
@@ -334,12 +334,6 @@
     <t>DORITOS QUESO 140GX19</t>
   </si>
   <si>
-    <t>DORITOS QUESO 40GX58X1 CH</t>
-  </si>
-  <si>
-    <t>DORITOS QUESO 85GX26</t>
-  </si>
-  <si>
     <t>25-oct</t>
   </si>
   <si>
@@ -350,6 +344,15 @@
   </si>
   <si>
     <t>30-oct</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 70X40G</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 77GX26</t>
+  </si>
+  <si>
+    <t>31-oct</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CD18"/>
+  <dimension ref="A1:CE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CB7" sqref="CB7"/>
+      <selection activeCell="CH5" sqref="CH5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -701,11 +704,11 @@
     <col min="8" max="9" width="9.140625" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="71" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="72" max="73" width="0" hidden="1" customWidth="1"/>
+    <col min="72" max="78" width="0" hidden="1" customWidth="1"/>
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:82" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -941,19 +944,22 @@
         <v>97</v>
       </c>
       <c r="CA1" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="CB1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="CC1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="CC1" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>104</v>
+      <c r="CE1" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1193,18 +1199,20 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9276109148536538</v>
+        <v>4.1802196541549614</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
+        <v>4.1802196541549614</v>
+      </c>
+      <c r="CD2" s="1">
         <v>4.9276109148536538</v>
       </c>
-      <c r="CD2" s="1">
-        <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9276109148536538</v>
+      <c r="CE2" s="1">
+        <v>4.1802196541549614</v>
       </c>
     </row>
-    <row r="3" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1444,18 +1452,20 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.888431220736023</v>
+        <v>3.7515736357510598</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
+        <v>3.7515736357510598</v>
+      </c>
+      <c r="CD3" s="1">
         <v>3.888431220736023</v>
       </c>
-      <c r="CD3" s="1">
-        <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.888431220736023</v>
+      <c r="CE3" s="1">
+        <v>3.7515736357510598</v>
       </c>
     </row>
-    <row r="4" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1695,18 +1705,20 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3961915521389523</v>
+        <v>2.8565382753409985</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
+        <v>2.8565382753409985</v>
+      </c>
+      <c r="CD4" s="1">
         <v>2.3961915521389523</v>
       </c>
-      <c r="CD4" s="1">
-        <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3961915521389523</v>
+      <c r="CE4" s="1">
+        <v>2.8565382753409985</v>
       </c>
     </row>
-    <row r="5" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1946,23 +1958,25 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.2812015243249526</v>
+        <v>7.9452609293320471</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.9452609293320471</v>
+      </c>
+      <c r="CD5" s="1">
         <v>8.2812015243249526</v>
       </c>
-      <c r="CD5" s="1">
-        <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.2812015243249526</v>
+      <c r="CE5" s="1">
+        <v>7.9452609293320471</v>
       </c>
     </row>
-    <row r="6" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2">
         <v>6.385992170417321</v>
@@ -2197,23 +2211,25 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>5.5053445530629608</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>5.5053445530629608</v>
       </c>
       <c r="CD6" s="1">
-        <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE6" s="1">
+        <v>5.5053445530629608</v>
       </c>
     </row>
-    <row r="7" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2">
         <v>9.4398757653820713</v>
@@ -2448,18 +2464,20 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>9.3534243710886429</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>9.3534243710886429</v>
       </c>
       <c r="CD7" s="1">
-        <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE7" s="1">
+        <v>9.3534243710886429</v>
       </c>
     </row>
-    <row r="8" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2699,18 +2717,20 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>12.7582050172142</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>12.7582050172142</v>
       </c>
       <c r="CD8" s="1">
-        <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>12.7582050172142</v>
       </c>
     </row>
-    <row r="9" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2950,18 +2970,20 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.6610022930455202</v>
+        <v>7.5505749823476567</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
+        <v>7.5505749823476567</v>
+      </c>
+      <c r="CD9" s="1">
         <v>8.6610022930455202</v>
       </c>
-      <c r="CD9" s="1">
-        <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.6610022930455202</v>
+      <c r="CE9" s="1">
+        <v>7.5505749823476567</v>
       </c>
     </row>
-    <row r="10" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3201,18 +3223,20 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.2279493659965617</v>
+        <v>5.2132121984207469</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
+        <v>5.2132121984207469</v>
+      </c>
+      <c r="CD10" s="1">
         <v>6.2279493659965617</v>
       </c>
-      <c r="CD10" s="1">
-        <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.2279493659965617</v>
+      <c r="CE10" s="1">
+        <v>5.2132121984207469</v>
       </c>
     </row>
-    <row r="11" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3452,18 +3476,20 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.2047859666365399</v>
+        <v>1.601773118534713</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
+        <v>1.601773118534713</v>
+      </c>
+      <c r="CD11" s="1">
         <v>2.2047859666365399</v>
       </c>
-      <c r="CD11" s="1">
-        <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.2047859666365399</v>
+      <c r="CE11" s="1">
+        <v>1.601773118534713</v>
       </c>
     </row>
-    <row r="12" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3703,18 +3729,20 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>14.566942238131627</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>14.566942238131627</v>
       </c>
       <c r="CD12" s="1">
-        <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>14.566942238131627</v>
       </c>
     </row>
-    <row r="13" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3954,18 +3982,20 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>2.6069629896942499</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>2.6069629896942499</v>
       </c>
       <c r="CD13" s="1">
-        <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>2.6069629896942499</v>
       </c>
     </row>
-    <row r="14" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4205,18 +4235,20 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>42.153156108638647</v>
+        <v>41.931858704652754</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
+        <v>41.931858704652754</v>
+      </c>
+      <c r="CD14" s="1">
         <v>42.153156108638647</v>
       </c>
-      <c r="CD14" s="1">
-        <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>42.153156108638647</v>
+      <c r="CE14" s="1">
+        <v>41.931858704652754</v>
       </c>
     </row>
-    <row r="15" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4456,18 +4488,20 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>5.6742696089004045</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>5.6742696089004045</v>
       </c>
       <c r="CD15" s="1">
-        <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>5.6742696089004045</v>
       </c>
     </row>
-    <row r="16" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4714,11 +4748,13 @@
         <v>0</v>
       </c>
       <c r="CD16" s="1">
-        <f>VLOOKUP($B16,Sheet3!$B$1:$C$18,2,)</f>
+        <v>0</v>
+      </c>
+      <c r="CE16" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4958,18 +4994,20 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>7.297279445032924E-2</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>7.297279445032924E-2</v>
       </c>
       <c r="CD17" s="1">
-        <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>7.297279445032924E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:82" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5209,15 +5247,17 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>1.6733391449777195</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>1.6733391449777195</v>
       </c>
       <c r="CD18" s="1">
-        <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>1.6733391449777195</v>
       </c>
     </row>
   </sheetData>
@@ -5233,7 +5273,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,8 +5304,8 @@
         <v>94</v>
       </c>
       <c r="C2" s="2">
-        <f>IFERROR(VLOOKUP(B2,A20:B36,2,),0)</f>
-        <v>4.9276109148536538</v>
+        <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
+        <v>4.1802196541549614</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5279,8 +5319,8 @@
         <v>3</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP(B3,A21:B37,2,),0)</f>
-        <v>3.888431220736023</v>
+        <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
+        <v>3.7515736357510598</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5295,7 +5335,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>2.3961915521389523</v>
+        <v>2.8565382753409985</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5310,7 +5350,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>8.2812015243249526</v>
+        <v>7.9452609293320471</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5321,11 +5361,11 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.5053445530629608</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5336,11 +5376,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.3534243710886429</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5355,7 +5395,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.7582050172142</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5370,7 +5410,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>8.6610022930455202</v>
+        <v>7.5505749823476567</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5385,7 +5425,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>6.2279493659965617</v>
+        <v>5.2132121984207469</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5400,7 +5440,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>2.2047859666365399</v>
+        <v>1.601773118534713</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5415,7 +5455,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14.566942238131627</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5430,7 +5470,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6069629896942499</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5445,7 +5485,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>42.153156108638647</v>
+        <v>41.931858704652754</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5460,7 +5500,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6742696089004045</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5490,7 +5530,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.297279445032924E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5505,7 +5545,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6733391449777195</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5516,7 +5556,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>14.969170967259931</v>
+        <v>14.566942238131627</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5524,7 +5564,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>3.1391388891607512</v>
+        <v>2.6069629896942499</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5537,18 +5577,18 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>0</v>
+        <v>5.5053445530629608</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>9.3534243710886429</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5604,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>2.3961915521389523</v>
+        <v>2.8565382753409985</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,7 +5612,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>8.2812015243249526</v>
+        <v>7.9452609293320471</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5580,7 +5620,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>4.9276109148536538</v>
+        <v>4.1802196541549614</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>3.888431220736023</v>
+        <v>3.7515736357510598</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5596,7 +5636,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>0.21330509147019314</v>
+        <v>7.297279445032924E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,7 +5644,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>3.0901251487345984</v>
+        <v>1.6733391449777195</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5660,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>6.2279493659965617</v>
+        <v>5.2132121984207469</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5628,7 +5668,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>2.2047859666365399</v>
+        <v>1.601773118534713</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5636,7 +5676,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>8.6610022930455202</v>
+        <v>7.5505749823476567</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5644,7 +5684,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>42.153156108638647</v>
+        <v>41.931858704652754</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A6F16C-3308-4B03-B24D-308C9CDC239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE262F-C6AA-4399-838F-025595D72EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
   <si>
     <t>Línea</t>
   </si>
@@ -353,6 +353,9 @@
   </si>
   <si>
     <t>31-oct</t>
+  </si>
+  <si>
+    <t>01-nov</t>
   </si>
 </sst>
 </file>
@@ -686,10 +689,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CE18"/>
+  <dimension ref="A1:CF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CH5" sqref="CH5"/>
+      <selection activeCell="CF3" sqref="CF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,7 +711,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -958,8 +961,11 @@
       <c r="CE1" s="3" t="s">
         <v>105</v>
       </c>
+      <c r="CF1" s="3" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1199,11 +1205,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.1802196541549614</v>
+        <v>6.1097237465596645</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.1802196541549614</v>
+        <v>6.1097237465596645</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1211,8 +1217,11 @@
       <c r="CE2" s="1">
         <v>4.1802196541549614</v>
       </c>
+      <c r="CF2" s="1">
+        <v>6.1097237465596645</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1452,11 +1461,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7515736357510598</v>
+        <v>5.6087545349707479</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7515736357510598</v>
+        <v>5.6087545349707479</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1464,8 +1473,11 @@
       <c r="CE3" s="1">
         <v>3.7515736357510598</v>
       </c>
+      <c r="CF3" s="1">
+        <v>5.6087545349707479</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1705,11 +1717,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.8565382753409985</v>
+        <v>4.5359485055591584</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.8565382753409985</v>
+        <v>4.5359485055591584</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1717,8 +1729,11 @@
       <c r="CE4" s="1">
         <v>2.8565382753409985</v>
       </c>
+      <c r="CF4" s="1">
+        <v>4.5359485055591584</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1958,11 +1973,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.9452609293320471</v>
+        <v>7.7016289315344393</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.9452609293320471</v>
+        <v>7.7016289315344393</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -1970,8 +1985,11 @@
       <c r="CE5" s="1">
         <v>7.9452609293320471</v>
       </c>
+      <c r="CF5" s="1">
+        <v>7.7016289315344393</v>
+      </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2211,11 +2229,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5053445530629608</v>
+        <v>4.9420866472597345</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5053445530629608</v>
+        <v>4.9420866472597345</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2223,8 +2241,11 @@
       <c r="CE6" s="1">
         <v>5.5053445530629608</v>
       </c>
+      <c r="CF6" s="1">
+        <v>4.9420866472597345</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2464,11 +2485,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.3534243710886429</v>
+        <v>9.5146973188374702</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.3534243710886429</v>
+        <v>9.5146973188374702</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2476,8 +2497,11 @@
       <c r="CE7" s="1">
         <v>9.3534243710886429</v>
       </c>
+      <c r="CF7" s="1">
+        <v>9.5146973188374702</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2717,11 +2741,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.7582050172142</v>
+        <v>8.6477451095384463</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.7582050172142</v>
+        <v>8.6477451095384463</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2729,8 +2753,11 @@
       <c r="CE8" s="1">
         <v>12.7582050172142</v>
       </c>
+      <c r="CF8" s="1">
+        <v>8.6477451095384463</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2970,11 +2997,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.5505749823476567</v>
+        <v>9.3189498171769962</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.5505749823476567</v>
+        <v>9.3189498171769962</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -2982,8 +3009,11 @@
       <c r="CE9" s="1">
         <v>7.5505749823476567</v>
       </c>
+      <c r="CF9" s="1">
+        <v>9.3189498171769962</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3223,11 +3253,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2132121984207469</v>
+        <v>4.4376056965310759</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2132121984207469</v>
+        <v>4.4376056965310759</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3235,8 +3265,11 @@
       <c r="CE10" s="1">
         <v>5.2132121984207469</v>
       </c>
+      <c r="CF10" s="1">
+        <v>4.4376056965310759</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3476,11 +3509,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.601773118534713</v>
+        <v>0.53256600935462006</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.601773118534713</v>
+        <v>0.53256600935462006</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3488,8 +3521,11 @@
       <c r="CE11" s="1">
         <v>1.601773118534713</v>
       </c>
+      <c r="CF11" s="1">
+        <v>0.53256600935462006</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3729,11 +3765,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.566942238131627</v>
+        <v>14.11258681578026</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.566942238131627</v>
+        <v>14.11258681578026</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3741,8 +3777,11 @@
       <c r="CE12" s="1">
         <v>14.566942238131627</v>
       </c>
+      <c r="CF12" s="1">
+        <v>14.11258681578026</v>
+      </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3982,11 +4021,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.6069629896942499</v>
+        <v>2.3061734304100252</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.6069629896942499</v>
+        <v>2.3061734304100252</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -3994,8 +4033,11 @@
       <c r="CE13" s="1">
         <v>2.6069629896942499</v>
       </c>
+      <c r="CF13" s="1">
+        <v>2.3061734304100252</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4235,11 +4277,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>41.931858704652754</v>
+        <v>43.826786251136497</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>41.931858704652754</v>
+        <v>43.826786251136497</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4247,8 +4289,11 @@
       <c r="CE14" s="1">
         <v>41.931858704652754</v>
       </c>
+      <c r="CF14" s="1">
+        <v>43.826786251136497</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4488,11 +4533,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.6742696089004045</v>
+        <v>6.6542717890275496</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.6742696089004045</v>
+        <v>6.6542717890275496</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4500,8 +4545,11 @@
       <c r="CE15" s="1">
         <v>5.6742696089004045</v>
       </c>
+      <c r="CF15" s="1">
+        <v>6.6542717890275496</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4753,8 +4801,11 @@
       <c r="CE16" s="1">
         <v>0</v>
       </c>
+      <c r="CF16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -4994,11 +5045,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.297279445032924E-2</v>
+        <v>7.1876271447111131E-2</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.297279445032924E-2</v>
+        <v>7.1876271447111131E-2</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5006,8 +5057,11 @@
       <c r="CE17" s="1">
         <v>7.297279445032924E-2</v>
       </c>
+      <c r="CF17" s="1">
+        <v>7.1876271447111131E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5247,17 +5301,20 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.6733391449777195</v>
+        <v>1.0375768621809889</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.6733391449777195</v>
+        <v>1.0375768621809889</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
       </c>
       <c r="CE18" s="1">
         <v>1.6733391449777195</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>1.0375768621809889</v>
       </c>
     </row>
   </sheetData>
@@ -5305,7 +5362,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>4.1802196541549614</v>
+        <v>6.1097237465596645</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5320,7 +5377,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>3.7515736357510598</v>
+        <v>5.6087545349707479</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5335,7 +5392,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>2.8565382753409985</v>
+        <v>4.5359485055591584</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5350,7 +5407,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>7.9452609293320471</v>
+        <v>7.7016289315344393</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5365,7 +5422,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>5.5053445530629608</v>
+        <v>4.9420866472597345</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5380,7 +5437,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>9.3534243710886429</v>
+        <v>9.5146973188374702</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5395,7 +5452,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>12.7582050172142</v>
+        <v>8.6477451095384463</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5410,7 +5467,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.5505749823476567</v>
+        <v>9.3189498171769962</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5425,7 +5482,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>5.2132121984207469</v>
+        <v>4.4376056965310759</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5440,7 +5497,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>1.601773118534713</v>
+        <v>0.53256600935462006</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5455,7 +5512,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>14.566942238131627</v>
+        <v>14.11258681578026</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5470,7 +5527,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>2.6069629896942499</v>
+        <v>2.3061734304100252</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5485,7 +5542,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>41.931858704652754</v>
+        <v>43.826786251136497</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5500,7 +5557,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>5.6742696089004045</v>
+        <v>6.6542717890275496</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5530,7 +5587,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>7.297279445032924E-2</v>
+        <v>7.1876271447111131E-2</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5545,7 +5602,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>1.6733391449777195</v>
+        <v>1.0375768621809889</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5556,7 +5613,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>14.566942238131627</v>
+        <v>14.11258681578026</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,7 +5621,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>2.6069629896942499</v>
+        <v>2.3061734304100252</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5572,7 +5629,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="1">
-        <v>12.7582050172142</v>
+        <v>8.6477451095384463</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5580,7 +5637,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>5.5053445530629608</v>
+        <v>4.9420866472597345</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5588,7 +5645,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>9.3534243710886429</v>
+        <v>9.5146973188374702</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5604,7 +5661,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>2.8565382753409985</v>
+        <v>4.5359485055591584</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5612,7 +5669,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>7.9452609293320471</v>
+        <v>7.7016289315344393</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5620,7 +5677,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>4.1802196541549614</v>
+        <v>6.1097237465596645</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5628,7 +5685,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>3.7515736357510598</v>
+        <v>5.6087545349707479</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5636,7 +5693,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>7.297279445032924E-2</v>
+        <v>7.1876271447111131E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5644,7 +5701,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>1.6733391449777195</v>
+        <v>1.0375768621809889</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5652,7 +5709,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>5.6742696089004045</v>
+        <v>6.6542717890275496</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5717,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>5.2132121984207469</v>
+        <v>4.4376056965310759</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5668,7 +5725,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>1.601773118534713</v>
+        <v>0.53256600935462006</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5676,7 +5733,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.5505749823476567</v>
+        <v>9.3189498171769962</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5684,7 +5741,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>41.931858704652754</v>
+        <v>43.826786251136497</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACE262F-C6AA-4399-838F-025595D72EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB15C3-8544-4C87-BBBA-47D724A05536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
   <si>
     <t>Línea</t>
   </si>
@@ -356,6 +356,9 @@
   </si>
   <si>
     <t>01-nov</t>
+  </si>
+  <si>
+    <t>02-nov</t>
   </si>
 </sst>
 </file>
@@ -689,10 +692,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CF18"/>
+  <dimension ref="A1:CG18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CF3" sqref="CF3"/>
+      <selection activeCell="CG1" sqref="CG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,7 +714,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -964,8 +967,11 @@
       <c r="CF1" s="3" t="s">
         <v>106</v>
       </c>
+      <c r="CG1" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1205,11 +1211,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.1097237465596645</v>
+        <v>7.0164811917716952</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.1097237465596645</v>
+        <v>7.0164811917716952</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1220,8 +1226,11 @@
       <c r="CF2" s="1">
         <v>6.1097237465596645</v>
       </c>
+      <c r="CG2" s="1">
+        <v>7.0164811917716952</v>
+      </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1461,11 +1470,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.6087545349707479</v>
+        <v>5.9617133897615</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.6087545349707479</v>
+        <v>5.9617133897615</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1476,8 +1485,11 @@
       <c r="CF3" s="1">
         <v>5.6087545349707479</v>
       </c>
+      <c r="CG3" s="1">
+        <v>5.9617133897615</v>
+      </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1717,11 +1729,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.5359485055591584</v>
+        <v>3.9134548346044098</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.5359485055591584</v>
+        <v>3.9134548346044098</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1732,8 +1744,11 @@
       <c r="CF4" s="1">
         <v>4.5359485055591584</v>
       </c>
+      <c r="CG4" s="1">
+        <v>3.9134548346044098</v>
+      </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1973,11 +1988,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.7016289315344393</v>
+        <v>7.1357289184805728</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.7016289315344393</v>
+        <v>7.1357289184805728</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -1988,8 +2003,11 @@
       <c r="CF5" s="1">
         <v>7.7016289315344393</v>
       </c>
+      <c r="CG5" s="1">
+        <v>7.1357289184805728</v>
+      </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2229,11 +2247,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9420866472597345</v>
+        <v>5.9133386724631194</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9420866472597345</v>
+        <v>5.9133386724631194</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2244,8 +2262,11 @@
       <c r="CF6" s="1">
         <v>4.9420866472597345</v>
       </c>
+      <c r="CG6" s="1">
+        <v>5.9133386724631194</v>
+      </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2485,11 +2506,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.5146973188374702</v>
+        <v>10.508365400476409</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.5146973188374702</v>
+        <v>10.508365400476409</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2500,8 +2521,11 @@
       <c r="CF7" s="1">
         <v>9.5146973188374702</v>
       </c>
+      <c r="CG7" s="1">
+        <v>10.508365400476409</v>
+      </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2756,8 +2780,11 @@
       <c r="CF8" s="1">
         <v>8.6477451095384463</v>
       </c>
+      <c r="CG8" s="1">
+        <v>8.6477451095384463</v>
+      </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -2997,11 +3024,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.3189498171769962</v>
+        <v>9.6587287816936396</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.3189498171769962</v>
+        <v>9.6587287816936396</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3012,8 +3039,11 @@
       <c r="CF9" s="1">
         <v>9.3189498171769962</v>
       </c>
+      <c r="CG9" s="1">
+        <v>9.6587287816936396</v>
+      </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3253,11 +3283,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.4376056965310759</v>
+        <v>3.8728842971732478</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.4376056965310759</v>
+        <v>3.8728842971732478</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3268,8 +3298,11 @@
       <c r="CF10" s="1">
         <v>4.4376056965310759</v>
       </c>
+      <c r="CG10" s="1">
+        <v>3.8728842971732478</v>
+      </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3509,11 +3542,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.53256600935462006</v>
+        <v>3.156161120655943</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.53256600935462006</v>
+        <v>3.156161120655943</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3524,8 +3557,11 @@
       <c r="CF11" s="1">
         <v>0.53256600935462006</v>
       </c>
+      <c r="CG11" s="1">
+        <v>3.156161120655943</v>
+      </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3765,11 +3801,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.11258681578026</v>
+        <v>13.456241942693559</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.11258681578026</v>
+        <v>13.456241942693559</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3780,8 +3816,11 @@
       <c r="CF12" s="1">
         <v>14.11258681578026</v>
       </c>
+      <c r="CG12" s="1">
+        <v>13.456241942693559</v>
+      </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4021,11 +4060,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3061734304100252</v>
+        <v>1.7525390803943737</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3061734304100252</v>
+        <v>1.7525390803943737</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4036,8 +4075,11 @@
       <c r="CF13" s="1">
         <v>2.3061734304100252</v>
       </c>
+      <c r="CG13" s="1">
+        <v>1.7525390803943737</v>
+      </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4277,11 +4319,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.826786251136497</v>
+        <v>43.274218130082168</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.826786251136497</v>
+        <v>43.274218130082168</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4292,8 +4334,11 @@
       <c r="CF14" s="1">
         <v>43.826786251136497</v>
       </c>
+      <c r="CG14" s="1">
+        <v>43.274218130082168</v>
+      </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4533,11 +4578,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.6542717890275496</v>
+        <v>10.192396789047077</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.6542717890275496</v>
+        <v>10.192396789047077</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4548,8 +4593,11 @@
       <c r="CF15" s="1">
         <v>6.6542717890275496</v>
       </c>
+      <c r="CG15" s="1">
+        <v>10.192396789047077</v>
+      </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4804,8 +4852,11 @@
       <c r="CF16" s="1">
         <v>0</v>
       </c>
+      <c r="CG16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5045,11 +5096,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1876271447111131E-2</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1876271447111131E-2</v>
+        <v>0</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5060,8 +5111,11 @@
       <c r="CF17" s="1">
         <v>7.1876271447111131E-2</v>
       </c>
+      <c r="CG17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5301,11 +5355,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.0375768621809889</v>
+        <v>0.12903874681946309</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.0375768621809889</v>
+        <v>0.12903874681946309</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5315,6 +5369,9 @@
       </c>
       <c r="CF18" s="1">
         <v>1.0375768621809889</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>0.12903874681946309</v>
       </c>
     </row>
   </sheetData>
@@ -5329,7 +5386,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
@@ -5362,7 +5419,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.1097237465596645</v>
+        <v>7.0164811917716952</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5377,7 +5434,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>5.6087545349707479</v>
+        <v>5.9617133897615</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5392,7 +5449,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>4.5359485055591584</v>
+        <v>3.9134548346044098</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5407,7 +5464,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>7.7016289315344393</v>
+        <v>7.1357289184805728</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5422,7 +5479,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>4.9420866472597345</v>
+        <v>5.9133386724631194</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5437,7 +5494,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>9.5146973188374702</v>
+        <v>10.508365400476409</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5467,7 +5524,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>9.3189498171769962</v>
+        <v>9.6587287816936396</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5482,7 +5539,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>4.4376056965310759</v>
+        <v>3.8728842971732478</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5497,7 +5554,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>0.53256600935462006</v>
+        <v>3.156161120655943</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5512,7 +5569,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>14.11258681578026</v>
+        <v>13.456241942693559</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5527,7 +5584,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>2.3061734304100252</v>
+        <v>1.7525390803943737</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5542,7 +5599,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>43.826786251136497</v>
+        <v>43.274218130082168</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5557,7 +5614,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>6.6542717890275496</v>
+        <v>10.192396789047077</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5587,7 +5644,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>7.1876271447111131E-2</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5602,7 +5659,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>1.0375768621809889</v>
+        <v>0.12903874681946309</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5613,7 +5670,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>14.11258681578026</v>
+        <v>13.456241942693559</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5621,7 +5678,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>2.3061734304100252</v>
+        <v>1.7525390803943737</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5637,7 +5694,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>4.9420866472597345</v>
+        <v>5.9133386724631194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5645,7 +5702,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>9.5146973188374702</v>
+        <v>10.508365400476409</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5661,7 +5718,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>4.5359485055591584</v>
+        <v>3.9134548346044098</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,7 +5726,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>7.7016289315344393</v>
+        <v>7.1357289184805728</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5677,7 +5734,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>6.1097237465596645</v>
+        <v>7.0164811917716952</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5685,7 +5742,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>5.6087545349707479</v>
+        <v>5.9617133897615</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5693,7 +5750,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>7.1876271447111131E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5701,7 +5758,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0375768621809889</v>
+        <v>0.12903874681946309</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5709,7 +5766,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>6.6542717890275496</v>
+        <v>10.192396789047077</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5717,7 +5774,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>4.4376056965310759</v>
+        <v>3.8728842971732478</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5725,7 +5782,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>0.53256600935462006</v>
+        <v>3.156161120655943</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5733,7 +5790,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>9.3189498171769962</v>
+        <v>9.6587287816936396</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5741,7 +5798,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>43.826786251136497</v>
+        <v>43.274218130082168</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7DB15C3-8544-4C87-BBBA-47D724A05536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61887C8-2396-4F28-A5B0-8CC1421D6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
   <si>
     <t>Línea</t>
   </si>
@@ -359,6 +359,9 @@
   </si>
   <si>
     <t>02-nov</t>
+  </si>
+  <si>
+    <t>03-nov</t>
   </si>
 </sst>
 </file>
@@ -692,10 +695,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CG18"/>
+  <dimension ref="A1:CH18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CG1" sqref="CG1"/>
+      <selection activeCell="CH22" sqref="CH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +717,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:85" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -970,8 +973,11 @@
       <c r="CG1" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="CH1" s="3" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="2" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1211,11 +1217,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0164811917716952</v>
+        <v>6.9465275606272439</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0164811917716952</v>
+        <v>6.9465275606272439</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1229,8 +1235,11 @@
       <c r="CG2" s="1">
         <v>7.0164811917716952</v>
       </c>
+      <c r="CH2" s="1">
+        <v>6.9465275606272439</v>
+      </c>
     </row>
-    <row r="3" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1470,11 +1479,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9617133897615</v>
+        <v>4.8284998318561394</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9617133897615</v>
+        <v>4.8284998318561394</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1488,8 +1497,11 @@
       <c r="CG3" s="1">
         <v>5.9617133897615</v>
       </c>
+      <c r="CH3" s="1">
+        <v>4.8284998318561394</v>
+      </c>
     </row>
-    <row r="4" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1729,11 +1741,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9134548346044098</v>
+        <v>3.9168015747708331</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9134548346044098</v>
+        <v>3.9168015747708331</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1747,8 +1759,11 @@
       <c r="CG4" s="1">
         <v>3.9134548346044098</v>
       </c>
+      <c r="CH4" s="1">
+        <v>3.9168015747708331</v>
+      </c>
     </row>
-    <row r="5" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1988,11 +2003,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1357289184805728</v>
+        <v>12.713886190011543</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1357289184805728</v>
+        <v>12.713886190011543</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2006,8 +2021,11 @@
       <c r="CG5" s="1">
         <v>7.1357289184805728</v>
       </c>
+      <c r="CH5" s="1">
+        <v>12.713886190011543</v>
+      </c>
     </row>
-    <row r="6" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2247,11 +2265,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9133386724631194</v>
+        <v>5.8590180893980532</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9133386724631194</v>
+        <v>5.8590180893980532</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2265,8 +2283,11 @@
       <c r="CG6" s="1">
         <v>5.9133386724631194</v>
       </c>
+      <c r="CH6" s="1">
+        <v>5.8590180893980532</v>
+      </c>
     </row>
-    <row r="7" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2506,11 +2527,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.508365400476409</v>
+        <v>9.2131255648029455</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.508365400476409</v>
+        <v>9.2131255648029455</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2524,8 +2545,11 @@
       <c r="CG7" s="1">
         <v>10.508365400476409</v>
       </c>
+      <c r="CH7" s="1">
+        <v>9.2131255648029455</v>
+      </c>
     </row>
-    <row r="8" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2783,8 +2807,11 @@
       <c r="CG8" s="1">
         <v>8.6477451095384463</v>
       </c>
+      <c r="CH8" s="1">
+        <v>8.6477451095384463</v>
+      </c>
     </row>
-    <row r="9" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3024,11 +3051,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.6587287816936396</v>
+        <v>8.813784465112489</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.6587287816936396</v>
+        <v>8.813784465112489</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3042,8 +3069,11 @@
       <c r="CG9" s="1">
         <v>9.6587287816936396</v>
       </c>
+      <c r="CH9" s="1">
+        <v>8.813784465112489</v>
+      </c>
     </row>
-    <row r="10" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3283,11 +3313,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.8728842971732478</v>
+        <v>3.3420105526665189</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.8728842971732478</v>
+        <v>3.3420105526665189</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3301,8 +3331,11 @@
       <c r="CG10" s="1">
         <v>3.8728842971732478</v>
       </c>
+      <c r="CH10" s="1">
+        <v>3.3420105526665189</v>
+      </c>
     </row>
-    <row r="11" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3542,11 +3575,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.156161120655943</v>
+        <v>5.5218347709050883</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.156161120655943</v>
+        <v>5.5218347709050883</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3560,8 +3593,11 @@
       <c r="CG11" s="1">
         <v>3.156161120655943</v>
       </c>
+      <c r="CH11" s="1">
+        <v>5.5218347709050883</v>
+      </c>
     </row>
-    <row r="12" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3801,11 +3837,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.456241942693559</v>
+        <v>12.529154809458598</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.456241942693559</v>
+        <v>12.529154809458598</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3819,8 +3855,11 @@
       <c r="CG12" s="1">
         <v>13.456241942693559</v>
       </c>
+      <c r="CH12" s="1">
+        <v>12.529154809458598</v>
+      </c>
     </row>
-    <row r="13" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4060,11 +4099,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.7525390803943737</v>
+        <v>0.9860418682175317</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.7525390803943737</v>
+        <v>0.9860418682175317</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4078,8 +4117,11 @@
       <c r="CG13" s="1">
         <v>1.7525390803943737</v>
       </c>
+      <c r="CH13" s="1">
+        <v>0.9860418682175317</v>
+      </c>
     </row>
-    <row r="14" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4319,11 +4361,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.274218130082168</v>
+        <v>42.320547261257438</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.274218130082168</v>
+        <v>42.320547261257438</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4337,8 +4379,11 @@
       <c r="CG14" s="1">
         <v>43.274218130082168</v>
       </c>
+      <c r="CH14" s="1">
+        <v>42.320547261257438</v>
+      </c>
     </row>
-    <row r="15" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4578,11 +4623,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.192396789047077</v>
+        <v>8.894002293627068</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.192396789047077</v>
+        <v>8.894002293627068</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4596,8 +4641,11 @@
       <c r="CG15" s="1">
         <v>10.192396789047077</v>
       </c>
+      <c r="CH15" s="1">
+        <v>8.894002293627068</v>
+      </c>
     </row>
-    <row r="16" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4855,8 +4903,11 @@
       <c r="CG16" s="1">
         <v>0</v>
       </c>
+      <c r="CH16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5114,8 +5165,11 @@
       <c r="CG17" s="1">
         <v>0</v>
       </c>
+      <c r="CH17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:85" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5355,11 +5409,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.12903874681946309</v>
+        <v>2.4464693019445143</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.12903874681946309</v>
+        <v>2.4464693019445143</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5372,6 +5426,9 @@
       </c>
       <c r="CG18" s="1">
         <v>0.12903874681946309</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>2.4464693019445143</v>
       </c>
     </row>
   </sheetData>
@@ -5386,7 +5443,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C18"/>
     </sheetView>
   </sheetViews>
@@ -5419,7 +5476,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>7.0164811917716952</v>
+        <v>6.9465275606272439</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5434,7 +5491,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>5.9617133897615</v>
+        <v>4.8284998318561394</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5449,7 +5506,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>3.9134548346044098</v>
+        <v>3.9168015747708331</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5464,7 +5521,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>7.1357289184805728</v>
+        <v>12.713886190011543</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5479,7 +5536,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>5.9133386724631194</v>
+        <v>5.8590180893980532</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5494,7 +5551,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>10.508365400476409</v>
+        <v>9.2131255648029455</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5524,7 +5581,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>9.6587287816936396</v>
+        <v>8.813784465112489</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5539,7 +5596,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>3.8728842971732478</v>
+        <v>3.3420105526665189</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5554,7 +5611,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>3.156161120655943</v>
+        <v>5.5218347709050883</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5569,7 +5626,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>13.456241942693559</v>
+        <v>12.529154809458598</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5584,7 +5641,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>1.7525390803943737</v>
+        <v>0.9860418682175317</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5599,7 +5656,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>43.274218130082168</v>
+        <v>42.320547261257438</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5614,7 +5671,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>10.192396789047077</v>
+        <v>8.894002293627068</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5659,7 +5716,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>0.12903874681946309</v>
+        <v>2.4464693019445143</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5670,7 +5727,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>13.456241942693559</v>
+        <v>12.529154809458598</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5678,7 +5735,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>1.7525390803943737</v>
+        <v>0.9860418682175317</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5694,7 +5751,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>5.9133386724631194</v>
+        <v>5.8590180893980532</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5702,7 +5759,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>10.508365400476409</v>
+        <v>9.2131255648029455</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5718,7 +5775,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>3.9134548346044098</v>
+        <v>3.9168015747708331</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5726,7 +5783,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>7.1357289184805728</v>
+        <v>12.713886190011543</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5734,7 +5791,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>7.0164811917716952</v>
+        <v>6.9465275606272439</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5742,7 +5799,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>5.9617133897615</v>
+        <v>4.8284998318561394</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5758,7 +5815,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>0.12903874681946309</v>
+        <v>2.4464693019445143</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5766,7 +5823,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>10.192396789047077</v>
+        <v>8.894002293627068</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5774,7 +5831,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>3.8728842971732478</v>
+        <v>3.3420105526665189</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5782,7 +5839,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>3.156161120655943</v>
+        <v>5.5218347709050883</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5790,7 +5847,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>9.6587287816936396</v>
+        <v>8.813784465112489</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5798,7 +5855,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>43.274218130082168</v>
+        <v>42.320547261257438</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61887C8-2396-4F28-A5B0-8CC1421D6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B9E38-0290-4AE6-BD2C-B074C3FDEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
   <si>
     <t>Línea</t>
   </si>
@@ -362,6 +362,9 @@
   </si>
   <si>
     <t>03-nov</t>
+  </si>
+  <si>
+    <t>06-nov</t>
   </si>
 </sst>
 </file>
@@ -695,10 +698,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CH18"/>
+  <dimension ref="A1:CI18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CH22" sqref="CH22"/>
+      <selection activeCell="CB2" sqref="CB2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -717,7 +720,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:87" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -976,8 +979,11 @@
       <c r="CH1" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="CI1" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1217,11 +1223,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9465275606272439</v>
+        <v>5.3076711488414574</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9465275606272439</v>
+        <v>5.3076711488414574</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1238,8 +1244,11 @@
       <c r="CH2" s="1">
         <v>6.9465275606272439</v>
       </c>
+      <c r="CI2" s="1">
+        <v>5.3076711488414574</v>
+      </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1479,11 +1488,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8284998318561394</v>
+        <v>3.0727409418011855</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8284998318561394</v>
+        <v>3.0727409418011855</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1500,8 +1509,11 @@
       <c r="CH3" s="1">
         <v>4.8284998318561394</v>
       </c>
+      <c r="CI3" s="1">
+        <v>3.0727409418011855</v>
+      </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1741,11 +1753,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9168015747708331</v>
+        <v>6.1002054852828183</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9168015747708331</v>
+        <v>6.1002054852828183</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1762,8 +1774,11 @@
       <c r="CH4" s="1">
         <v>3.9168015747708331</v>
       </c>
+      <c r="CI4" s="1">
+        <v>6.1002054852828183</v>
+      </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2003,11 +2018,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.713886190011543</v>
+        <v>15.352112605727879</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.713886190011543</v>
+        <v>15.352112605727879</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2024,8 +2039,11 @@
       <c r="CH5" s="1">
         <v>12.713886190011543</v>
       </c>
+      <c r="CI5" s="1">
+        <v>15.352112605727879</v>
+      </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2265,11 +2283,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.8590180893980532</v>
+        <v>3.7025131645317715</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.8590180893980532</v>
+        <v>3.7025131645317715</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2286,8 +2304,11 @@
       <c r="CH6" s="1">
         <v>5.8590180893980532</v>
       </c>
+      <c r="CI6" s="1">
+        <v>3.7025131645317715</v>
+      </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2527,11 +2548,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.2131255648029455</v>
+        <v>7.4118289328797315</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.2131255648029455</v>
+        <v>7.4118289328797315</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2548,8 +2569,11 @@
       <c r="CH7" s="1">
         <v>9.2131255648029455</v>
       </c>
+      <c r="CI7" s="1">
+        <v>7.4118289328797315</v>
+      </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2789,11 +2813,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.6477451095384463</v>
+        <v>7.7689023041750893</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.6477451095384463</v>
+        <v>7.7689023041750893</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2810,8 +2834,11 @@
       <c r="CH8" s="1">
         <v>8.6477451095384463</v>
       </c>
+      <c r="CI8" s="1">
+        <v>7.7689023041750893</v>
+      </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3051,11 +3078,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.813784465112489</v>
+        <v>6.3752036495534714</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.813784465112489</v>
+        <v>6.3752036495534714</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3072,8 +3099,11 @@
       <c r="CH9" s="1">
         <v>8.813784465112489</v>
       </c>
+      <c r="CI9" s="1">
+        <v>6.3752036495534714</v>
+      </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3313,11 +3343,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.3420105526665189</v>
+        <v>8.7175212733279697</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.3420105526665189</v>
+        <v>8.7175212733279697</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3334,8 +3364,11 @@
       <c r="CH10" s="1">
         <v>3.3420105526665189</v>
       </c>
+      <c r="CI10" s="1">
+        <v>8.7175212733279697</v>
+      </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3575,11 +3608,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5218347709050883</v>
+        <v>6.8722895180192314</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5218347709050883</v>
+        <v>6.8722895180192314</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3596,8 +3629,11 @@
       <c r="CH11" s="1">
         <v>5.5218347709050883</v>
       </c>
+      <c r="CI11" s="1">
+        <v>6.8722895180192314</v>
+      </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3837,11 +3873,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.529154809458598</v>
+        <v>10.598440240581542</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.529154809458598</v>
+        <v>10.598440240581542</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3858,8 +3894,11 @@
       <c r="CH12" s="1">
         <v>12.529154809458598</v>
       </c>
+      <c r="CI12" s="1">
+        <v>10.598440240581542</v>
+      </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4099,11 +4138,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.9860418682175317</v>
+        <v>0.52491621463652338</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.9860418682175317</v>
+        <v>0.52491621463652338</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4120,8 +4159,11 @@
       <c r="CH13" s="1">
         <v>0.9860418682175317</v>
       </c>
+      <c r="CI13" s="1">
+        <v>0.52491621463652338</v>
+      </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4361,11 +4403,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>42.320547261257438</v>
+        <v>51.15410626449934</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>42.320547261257438</v>
+        <v>51.15410626449934</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4382,8 +4424,11 @@
       <c r="CH14" s="1">
         <v>42.320547261257438</v>
       </c>
+      <c r="CI14" s="1">
+        <v>51.15410626449934</v>
+      </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4623,11 +4668,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.894002293627068</v>
+        <v>4.5500612098362145</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.894002293627068</v>
+        <v>4.5500612098362145</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4644,8 +4689,11 @@
       <c r="CH15" s="1">
         <v>8.894002293627068</v>
       </c>
+      <c r="CI15" s="1">
+        <v>4.5500612098362145</v>
+      </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4906,8 +4954,11 @@
       <c r="CH16" s="1">
         <v>0</v>
       </c>
+      <c r="CI16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5147,11 +5198,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>10.304569300734874</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>10.304569300734874</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5168,8 +5219,11 @@
       <c r="CH17" s="1">
         <v>0</v>
       </c>
+      <c r="CI17" s="1">
+        <v>10.304569300734874</v>
+      </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5409,11 +5463,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.4464693019445143</v>
+        <v>18.938279506344095</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.4464693019445143</v>
+        <v>18.938279506344095</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5429,6 +5483,9 @@
       </c>
       <c r="CH18" s="1">
         <v>2.4464693019445143</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>18.938279506344095</v>
       </c>
     </row>
   </sheetData>
@@ -5476,7 +5533,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.9465275606272439</v>
+        <v>5.3076711488414574</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5491,7 +5548,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>4.8284998318561394</v>
+        <v>3.0727409418011855</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5506,7 +5563,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>3.9168015747708331</v>
+        <v>6.1002054852828183</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5521,7 +5578,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>12.713886190011543</v>
+        <v>15.352112605727879</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5536,7 +5593,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>5.8590180893980532</v>
+        <v>3.7025131645317715</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5551,7 +5608,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>9.2131255648029455</v>
+        <v>7.4118289328797315</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5566,7 +5623,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>8.6477451095384463</v>
+        <v>7.7689023041750893</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5581,7 +5638,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>8.813784465112489</v>
+        <v>6.3752036495534714</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5596,7 +5653,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>3.3420105526665189</v>
+        <v>8.7175212733279697</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5611,7 +5668,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>5.5218347709050883</v>
+        <v>6.8722895180192314</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5626,7 +5683,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>12.529154809458598</v>
+        <v>10.598440240581542</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5641,7 +5698,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.9860418682175317</v>
+        <v>0.52491621463652338</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5656,7 +5713,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>42.320547261257438</v>
+        <v>51.15410626449934</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5671,7 +5728,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>8.894002293627068</v>
+        <v>4.5500612098362145</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5701,7 +5758,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10.304569300734874</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5716,7 +5773,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>2.4464693019445143</v>
+        <v>18.938279506344095</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5727,7 +5784,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>12.529154809458598</v>
+        <v>10.598440240581542</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5735,7 +5792,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>0.9860418682175317</v>
+        <v>0.52491621463652338</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5743,7 +5800,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="1">
-        <v>8.6477451095384463</v>
+        <v>7.7689023041750893</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5751,7 +5808,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>5.8590180893980532</v>
+        <v>3.7025131645317715</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,7 +5816,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>9.2131255648029455</v>
+        <v>7.4118289328797315</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5775,7 +5832,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>3.9168015747708331</v>
+        <v>6.1002054852828183</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5783,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>12.713886190011543</v>
+        <v>15.352112605727879</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5791,7 +5848,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>6.9465275606272439</v>
+        <v>5.3076711488414574</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5799,7 +5856,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>4.8284998318561394</v>
+        <v>3.0727409418011855</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5807,7 +5864,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>10.304569300734874</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5815,7 +5872,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>2.4464693019445143</v>
+        <v>18.938279506344095</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5823,7 +5880,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>8.894002293627068</v>
+        <v>4.5500612098362145</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5831,7 +5888,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>3.3420105526665189</v>
+        <v>8.7175212733279697</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5839,7 +5896,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>5.5218347709050883</v>
+        <v>6.8722895180192314</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5847,7 +5904,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>8.813784465112489</v>
+        <v>6.3752036495534714</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5855,7 +5912,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>42.320547261257438</v>
+        <v>51.15410626449934</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B9E38-0290-4AE6-BD2C-B074C3FDEB44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF89DA7-D72B-4641-A960-3668438E19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>Línea</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>06-nov</t>
+  </si>
+  <si>
+    <t>07-nov</t>
   </si>
 </sst>
 </file>
@@ -698,10 +701,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CI18"/>
+  <dimension ref="A1:CJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CB2" sqref="CB2"/>
+      <selection activeCell="CI22" sqref="CI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,7 +723,7 @@
     <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:88" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -982,8 +985,11 @@
       <c r="CI1" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="CJ1" s="3" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="2" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1223,11 +1229,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.3076711488414574</v>
+        <v>4.0474094049327913</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.3076711488414574</v>
+        <v>4.0474094049327913</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1247,8 +1253,11 @@
       <c r="CI2" s="1">
         <v>5.3076711488414574</v>
       </c>
+      <c r="CJ2" s="1">
+        <v>4.0474094049327913</v>
+      </c>
     </row>
-    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1488,11 +1497,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.0727409418011855</v>
+        <v>3.8146778192564836</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.0727409418011855</v>
+        <v>3.8146778192564836</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1512,8 +1521,11 @@
       <c r="CI3" s="1">
         <v>3.0727409418011855</v>
       </c>
+      <c r="CJ3" s="1">
+        <v>3.8146778192564836</v>
+      </c>
     </row>
-    <row r="4" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1753,11 +1765,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.1002054852828183</v>
+        <v>5.630951299561973</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.1002054852828183</v>
+        <v>5.630951299561973</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1777,8 +1789,11 @@
       <c r="CI4" s="1">
         <v>6.1002054852828183</v>
       </c>
+      <c r="CJ4" s="1">
+        <v>5.630951299561973</v>
+      </c>
     </row>
-    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2018,11 +2033,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.352112605727879</v>
+        <v>15.523260272918142</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.352112605727879</v>
+        <v>15.523260272918142</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2042,8 +2057,11 @@
       <c r="CI5" s="1">
         <v>15.352112605727879</v>
       </c>
+      <c r="CJ5" s="1">
+        <v>15.523260272918142</v>
+      </c>
     </row>
-    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2283,11 +2301,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7025131645317715</v>
+        <v>5.085721638017886</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7025131645317715</v>
+        <v>5.085721638017886</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2307,8 +2325,11 @@
       <c r="CI6" s="1">
         <v>3.7025131645317715</v>
       </c>
+      <c r="CJ6" s="1">
+        <v>5.085721638017886</v>
+      </c>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2548,11 +2569,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4118289328797315</v>
+        <v>6.1995403354425003</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4118289328797315</v>
+        <v>6.1995403354425003</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2572,8 +2593,11 @@
       <c r="CI7" s="1">
         <v>7.4118289328797315</v>
       </c>
+      <c r="CJ7" s="1">
+        <v>6.1995403354425003</v>
+      </c>
     </row>
-    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2813,11 +2837,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.7689023041750893</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.7689023041750893</v>
+        <v>0</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2837,8 +2861,11 @@
       <c r="CI8" s="1">
         <v>7.7689023041750893</v>
       </c>
+      <c r="CJ8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3078,11 +3105,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3752036495534714</v>
+        <v>5.2086136085173402</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3752036495534714</v>
+        <v>5.2086136085173402</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3102,8 +3129,11 @@
       <c r="CI9" s="1">
         <v>6.3752036495534714</v>
       </c>
+      <c r="CJ9" s="1">
+        <v>5.2086136085173402</v>
+      </c>
     </row>
-    <row r="10" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3343,11 +3373,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.7175212733279697</v>
+        <v>12.82072511631856</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.7175212733279697</v>
+        <v>12.82072511631856</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3367,8 +3397,11 @@
       <c r="CI10" s="1">
         <v>8.7175212733279697</v>
       </c>
+      <c r="CJ10" s="1">
+        <v>12.82072511631856</v>
+      </c>
     </row>
-    <row r="11" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3608,11 +3641,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8722895180192314</v>
+        <v>7.4757604770686132</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8722895180192314</v>
+        <v>7.4757604770686132</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3632,8 +3665,11 @@
       <c r="CI11" s="1">
         <v>6.8722895180192314</v>
       </c>
+      <c r="CJ11" s="1">
+        <v>7.4757604770686132</v>
+      </c>
     </row>
-    <row r="12" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3873,11 +3909,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.598440240581542</v>
+        <v>11.965584732690733</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.598440240581542</v>
+        <v>11.965584732690733</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3897,8 +3933,11 @@
       <c r="CI12" s="1">
         <v>10.598440240581542</v>
       </c>
+      <c r="CJ12" s="1">
+        <v>11.965584732690733</v>
+      </c>
     </row>
-    <row r="13" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4138,11 +4177,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.52491621463652338</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.52491621463652338</v>
+        <v>0</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4162,8 +4201,11 @@
       <c r="CI13" s="1">
         <v>0.52491621463652338</v>
       </c>
+      <c r="CJ13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4403,11 +4445,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>51.15410626449934</v>
+        <v>48.916269942172214</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>51.15410626449934</v>
+        <v>48.916269942172214</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4427,8 +4469,11 @@
       <c r="CI14" s="1">
         <v>51.15410626449934</v>
       </c>
+      <c r="CJ14" s="1">
+        <v>48.916269942172214</v>
+      </c>
     </row>
-    <row r="15" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4668,11 +4713,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.5500612098362145</v>
+        <v>4.2310265131564799</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.5500612098362145</v>
+        <v>4.2310265131564799</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4692,8 +4737,11 @@
       <c r="CI15" s="1">
         <v>4.5500612098362145</v>
       </c>
+      <c r="CJ15" s="1">
+        <v>4.2310265131564799</v>
+      </c>
     </row>
-    <row r="16" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -4957,8 +5005,11 @@
       <c r="CI16" s="1">
         <v>0</v>
       </c>
+      <c r="CJ16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5198,11 +5249,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.304569300734874</v>
+        <v>8.9280179955007064</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.304569300734874</v>
+        <v>8.9280179955007064</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5222,8 +5273,11 @@
       <c r="CI17" s="1">
         <v>10.304569300734874</v>
       </c>
+      <c r="CJ17" s="1">
+        <v>8.9280179955007064</v>
+      </c>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5463,11 +5517,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>18.938279506344095</v>
+        <v>15.422350855629702</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>18.938279506344095</v>
+        <v>15.422350855629702</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5486,6 +5540,9 @@
       </c>
       <c r="CI18" s="1">
         <v>18.938279506344095</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>15.422350855629702</v>
       </c>
     </row>
   </sheetData>
@@ -5533,7 +5590,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>5.3076711488414574</v>
+        <v>4.0474094049327913</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5548,7 +5605,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>3.0727409418011855</v>
+        <v>3.8146778192564836</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5563,7 +5620,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>6.1002054852828183</v>
+        <v>5.630951299561973</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5578,7 +5635,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>15.352112605727879</v>
+        <v>15.523260272918142</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5593,7 +5650,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>3.7025131645317715</v>
+        <v>5.085721638017886</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5608,7 +5665,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>7.4118289328797315</v>
+        <v>6.1995403354425003</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5623,7 +5680,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>7.7689023041750893</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5638,7 +5695,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>6.3752036495534714</v>
+        <v>5.2086136085173402</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5653,7 +5710,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>8.7175212733279697</v>
+        <v>12.82072511631856</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5668,7 +5725,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>6.8722895180192314</v>
+        <v>7.4757604770686132</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5683,7 +5740,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>10.598440240581542</v>
+        <v>11.965584732690733</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5698,7 +5755,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0.52491621463652338</v>
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5713,7 +5770,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>51.15410626449934</v>
+        <v>48.916269942172214</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5728,7 +5785,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>4.5500612098362145</v>
+        <v>4.2310265131564799</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5758,7 +5815,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>10.304569300734874</v>
+        <v>8.9280179955007064</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5773,7 +5830,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>18.938279506344095</v>
+        <v>15.422350855629702</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5784,7 +5841,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>10.598440240581542</v>
+        <v>11.965584732690733</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5792,7 +5849,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="1">
-        <v>0.52491621463652338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5800,7 +5857,7 @@
         <v>98</v>
       </c>
       <c r="B22" s="1">
-        <v>7.7689023041750893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5808,7 +5865,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>3.7025131645317715</v>
+        <v>5.085721638017886</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5816,7 +5873,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>7.4118289328797315</v>
+        <v>6.1995403354425003</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5832,7 +5889,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>6.1002054852828183</v>
+        <v>5.630951299561973</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5840,7 +5897,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>15.352112605727879</v>
+        <v>15.523260272918142</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5848,7 +5905,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>5.3076711488414574</v>
+        <v>4.0474094049327913</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5856,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>3.0727409418011855</v>
+        <v>3.8146778192564836</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,7 +5921,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>10.304569300734874</v>
+        <v>8.9280179955007064</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5872,7 +5929,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>18.938279506344095</v>
+        <v>15.422350855629702</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5880,7 +5937,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>4.5500612098362145</v>
+        <v>4.2310265131564799</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5888,7 +5945,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>8.7175212733279697</v>
+        <v>12.82072511631856</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5896,7 +5953,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>6.8722895180192314</v>
+        <v>7.4757604770686132</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5904,7 +5961,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>6.3752036495534714</v>
+        <v>5.2086136085173402</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5912,7 +5969,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>51.15410626449934</v>
+        <v>48.916269942172214</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF89DA7-D72B-4641-A960-3668438E19F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D270DBA7-6F6D-40B7-93DE-2C39AAB3C40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>Línea</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t>07-nov</t>
+  </si>
+  <si>
+    <t>08-nov</t>
   </si>
 </sst>
 </file>
@@ -701,10 +704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CJ18"/>
+  <dimension ref="A1:CK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CI22" sqref="CI22"/>
+      <selection activeCell="CK2" sqref="CK2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,10 +723,11 @@
     <col min="10" max="10" width="7.5703125" hidden="1" customWidth="1"/>
     <col min="11" max="71" width="9.140625" hidden="1" customWidth="1"/>
     <col min="72" max="78" width="0" hidden="1" customWidth="1"/>
-    <col min="79" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="79" max="80" width="9.5703125" hidden="1" customWidth="1"/>
+    <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:88" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -988,8 +992,11 @@
       <c r="CJ1" s="3" t="s">
         <v>110</v>
       </c>
+      <c r="CK1" s="3" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="2" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1229,11 +1236,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0474094049327913</v>
+        <v>3.7711403702315951</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0474094049327913</v>
+        <v>3.7711403702315951</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1256,8 +1263,11 @@
       <c r="CJ2" s="1">
         <v>4.0474094049327913</v>
       </c>
+      <c r="CK2" s="1">
+        <v>3.7711403702315951</v>
+      </c>
     </row>
-    <row r="3" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1497,11 +1507,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.8146778192564836</v>
+        <v>4.0718899891423241</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.8146778192564836</v>
+        <v>4.0718899891423241</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1524,8 +1534,11 @@
       <c r="CJ3" s="1">
         <v>3.8146778192564836</v>
       </c>
+      <c r="CK3" s="1">
+        <v>4.0718899891423241</v>
+      </c>
     </row>
-    <row r="4" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1765,11 +1778,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.630951299561973</v>
+        <v>5.2883303828142978</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.630951299561973</v>
+        <v>5.2883303828142978</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1792,8 +1805,11 @@
       <c r="CJ4" s="1">
         <v>5.630951299561973</v>
       </c>
+      <c r="CK4" s="1">
+        <v>5.2883303828142978</v>
+      </c>
     </row>
-    <row r="5" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2033,11 +2049,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.523260272918142</v>
+        <v>14.674201013192437</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.523260272918142</v>
+        <v>14.674201013192437</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2060,8 +2076,11 @@
       <c r="CJ5" s="1">
         <v>15.523260272918142</v>
       </c>
+      <c r="CK5" s="1">
+        <v>14.674201013192437</v>
+      </c>
     </row>
-    <row r="6" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2301,11 +2320,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.085721638017886</v>
+        <v>6.0550147849501252</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.085721638017886</v>
+        <v>6.0550147849501252</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2328,8 +2347,11 @@
       <c r="CJ6" s="1">
         <v>5.085721638017886</v>
       </c>
+      <c r="CK6" s="1">
+        <v>6.0550147849501252</v>
+      </c>
     </row>
-    <row r="7" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2569,11 +2591,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.1995403354425003</v>
+        <v>5.9556439858799726</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.1995403354425003</v>
+        <v>5.9556439858799726</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2596,8 +2618,11 @@
       <c r="CJ7" s="1">
         <v>6.1995403354425003</v>
       </c>
+      <c r="CK7" s="1">
+        <v>5.9556439858799726</v>
+      </c>
     </row>
-    <row r="8" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2864,8 +2889,11 @@
       <c r="CJ8" s="1">
         <v>0</v>
       </c>
+      <c r="CK8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3105,11 +3133,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2086136085173402</v>
+        <v>4.9376131140857851</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2086136085173402</v>
+        <v>4.9376131140857851</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3132,8 +3160,11 @@
       <c r="CJ9" s="1">
         <v>5.2086136085173402</v>
       </c>
+      <c r="CK9" s="1">
+        <v>4.9376131140857851</v>
+      </c>
     </row>
-    <row r="10" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3373,11 +3404,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.82072511631856</v>
+        <v>16.445707798319088</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.82072511631856</v>
+        <v>16.445707798319088</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3400,8 +3431,11 @@
       <c r="CJ10" s="1">
         <v>12.82072511631856</v>
       </c>
+      <c r="CK10" s="1">
+        <v>16.445707798319088</v>
+      </c>
     </row>
-    <row r="11" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3641,11 +3675,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4757604770686132</v>
+        <v>8.0396707445872959</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4757604770686132</v>
+        <v>8.0396707445872959</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3668,8 +3702,11 @@
       <c r="CJ11" s="1">
         <v>7.4757604770686132</v>
       </c>
+      <c r="CK11" s="1">
+        <v>8.0396707445872959</v>
+      </c>
     </row>
-    <row r="12" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3909,11 +3946,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.965584732690733</v>
+        <v>12.072133765285232</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.965584732690733</v>
+        <v>12.072133765285232</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3936,8 +3973,11 @@
       <c r="CJ12" s="1">
         <v>11.965584732690733</v>
       </c>
+      <c r="CK12" s="1">
+        <v>12.072133765285232</v>
+      </c>
     </row>
-    <row r="13" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4204,8 +4244,11 @@
       <c r="CJ13" s="1">
         <v>0</v>
       </c>
+      <c r="CK13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4445,11 +4488,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>48.916269942172214</v>
+        <v>47.942381785227276</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>48.916269942172214</v>
+        <v>47.942381785227276</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4472,8 +4515,11 @@
       <c r="CJ14" s="1">
         <v>48.916269942172214</v>
       </c>
+      <c r="CK14" s="1">
+        <v>47.942381785227276</v>
+      </c>
     </row>
-    <row r="15" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4713,11 +4759,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.2310265131564799</v>
+        <v>3.9013361355079228</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.2310265131564799</v>
+        <v>3.9013361355079228</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4740,8 +4786,11 @@
       <c r="CJ15" s="1">
         <v>4.2310265131564799</v>
       </c>
+      <c r="CK15" s="1">
+        <v>3.9013361355079228</v>
+      </c>
     </row>
-    <row r="16" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5008,8 +5057,11 @@
       <c r="CJ16" s="1">
         <v>0</v>
       </c>
+      <c r="CK16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5249,11 +5301,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.9280179955007064</v>
+        <v>3.9680079980003136</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.9280179955007064</v>
+        <v>3.9680079980003136</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5276,8 +5328,11 @@
       <c r="CJ17" s="1">
         <v>8.9280179955007064</v>
       </c>
+      <c r="CK17" s="1">
+        <v>3.9680079980003136</v>
+      </c>
     </row>
-    <row r="18" spans="1:88" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5517,11 +5572,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.422350855629702</v>
+        <v>13.050987549754897</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.422350855629702</v>
+        <v>13.050987549754897</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5543,6 +5598,9 @@
       </c>
       <c r="CJ18" s="1">
         <v>15.422350855629702</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>13.050987549754897</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5648,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>4.0474094049327913</v>
+        <v>3.7711403702315951</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5605,7 +5663,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>3.8146778192564836</v>
+        <v>4.0718899891423241</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5620,7 +5678,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>5.630951299561973</v>
+        <v>5.2883303828142978</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5635,7 +5693,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>15.523260272918142</v>
+        <v>14.674201013192437</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5650,7 +5708,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>5.085721638017886</v>
+        <v>6.0550147849501252</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5665,7 +5723,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.1995403354425003</v>
+        <v>5.9556439858799726</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5695,7 +5753,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>5.2086136085173402</v>
+        <v>4.9376131140857851</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5710,7 +5768,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>12.82072511631856</v>
+        <v>16.445707798319088</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5725,7 +5783,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>7.4757604770686132</v>
+        <v>8.0396707445872959</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5740,7 +5798,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>11.965584732690733</v>
+        <v>12.072133765285232</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5770,7 +5828,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>48.916269942172214</v>
+        <v>47.942381785227276</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5785,7 +5843,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>4.2310265131564799</v>
+        <v>3.9013361355079228</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5815,7 +5873,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>8.9280179955007064</v>
+        <v>3.9680079980003136</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5830,7 +5888,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>15.422350855629702</v>
+        <v>13.050987549754897</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5841,7 +5899,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>11.965584732690733</v>
+        <v>12.072133765285232</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5865,7 +5923,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>5.085721638017886</v>
+        <v>6.0550147849501252</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5873,7 +5931,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>6.1995403354425003</v>
+        <v>5.9556439858799726</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5889,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>5.630951299561973</v>
+        <v>5.2883303828142978</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5897,7 +5955,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>15.523260272918142</v>
+        <v>14.674201013192437</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5905,7 +5963,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>4.0474094049327913</v>
+        <v>3.7711403702315951</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5913,7 +5971,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>3.8146778192564836</v>
+        <v>4.0718899891423241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5921,7 +5979,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>8.9280179955007064</v>
+        <v>3.9680079980003136</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5929,7 +5987,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>15.422350855629702</v>
+        <v>13.050987549754897</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5937,7 +5995,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>4.2310265131564799</v>
+        <v>3.9013361355079228</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -5945,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>12.82072511631856</v>
+        <v>16.445707798319088</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5953,7 +6011,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>7.4757604770686132</v>
+        <v>8.0396707445872959</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5961,7 +6019,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>5.2086136085173402</v>
+        <v>4.9376131140857851</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5969,7 +6027,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>48.916269942172214</v>
+        <v>47.942381785227276</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D270DBA7-6F6D-40B7-93DE-2C39AAB3C40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A41136-2355-424A-9D76-4944D8423D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>Línea</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>08-nov</t>
+  </si>
+  <si>
+    <t>09-nov</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CK18"/>
+  <dimension ref="A1:CL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CK2" sqref="CK2"/>
+      <selection activeCell="CN9" sqref="CN9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +730,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -995,8 +998,11 @@
       <c r="CK1" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="CL1" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1236,11 +1242,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7711403702315951</v>
+        <v>4.7401233884939167</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7711403702315951</v>
+        <v>4.7401233884939167</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1266,8 +1272,11 @@
       <c r="CK2" s="1">
         <v>3.7711403702315951</v>
       </c>
+      <c r="CL2" s="1">
+        <v>4.7401233884939167</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1507,11 +1516,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0718899891423241</v>
+        <v>4.7740715805220697</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.0718899891423241</v>
+        <v>4.7740715805220697</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1537,8 +1546,11 @@
       <c r="CK3" s="1">
         <v>4.0718899891423241</v>
       </c>
+      <c r="CL3" s="1">
+        <v>4.7740715805220697</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1778,11 +1790,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2883303828142978</v>
+        <v>4.9656565742334378</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2883303828142978</v>
+        <v>4.9656565742334378</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1808,8 +1820,11 @@
       <c r="CK4" s="1">
         <v>5.2883303828142978</v>
       </c>
+      <c r="CL4" s="1">
+        <v>4.9656565742334378</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2049,11 +2064,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.674201013192437</v>
+        <v>14.149124892046276</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.674201013192437</v>
+        <v>14.149124892046276</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2079,8 +2094,11 @@
       <c r="CK5" s="1">
         <v>14.674201013192437</v>
       </c>
+      <c r="CL5" s="1">
+        <v>14.149124892046276</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2320,11 +2338,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.0550147849501252</v>
+        <v>6.8770735298167072</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.0550147849501252</v>
+        <v>6.8770735298167072</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2350,8 +2368,11 @@
       <c r="CK6" s="1">
         <v>6.0550147849501252</v>
       </c>
+      <c r="CL6" s="1">
+        <v>6.8770735298167072</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2591,11 +2612,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9556439858799726</v>
+        <v>6.3560404930784555</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9556439858799726</v>
+        <v>6.3560404930784555</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2621,8 +2642,11 @@
       <c r="CK7" s="1">
         <v>5.9556439858799726</v>
       </c>
+      <c r="CL7" s="1">
+        <v>6.3560404930784555</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2892,8 +2916,11 @@
       <c r="CK8" s="1">
         <v>0</v>
       </c>
+      <c r="CL8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3133,11 +3160,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9376131140857851</v>
+        <v>5.463719645797485</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9376131140857851</v>
+        <v>5.463719645797485</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3163,8 +3190,11 @@
       <c r="CK9" s="1">
         <v>4.9376131140857851</v>
       </c>
+      <c r="CL9" s="1">
+        <v>5.463719645797485</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3404,11 +3434,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.445707798319088</v>
+        <v>17.772727760275266</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.445707798319088</v>
+        <v>17.772727760275266</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3434,8 +3464,11 @@
       <c r="CK10" s="1">
         <v>16.445707798319088</v>
       </c>
+      <c r="CL10" s="1">
+        <v>17.772727760275266</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3675,11 +3708,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.0396707445872959</v>
+        <v>9.5280916333972634</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.0396707445872959</v>
+        <v>9.5280916333972634</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3705,8 +3738,11 @@
       <c r="CK11" s="1">
         <v>8.0396707445872959</v>
       </c>
+      <c r="CL11" s="1">
+        <v>9.5280916333972634</v>
+      </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3946,11 +3982,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.072133765285232</v>
+        <v>13.882183596107454</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.072133765285232</v>
+        <v>13.882183596107454</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3976,8 +4012,11 @@
       <c r="CK12" s="1">
         <v>12.072133765285232</v>
       </c>
+      <c r="CL12" s="1">
+        <v>13.882183596107454</v>
+      </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4247,8 +4286,11 @@
       <c r="CK13" s="1">
         <v>0</v>
       </c>
+      <c r="CL13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4488,11 +4530,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>47.942381785227276</v>
+        <v>47.775264882556257</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>47.942381785227276</v>
+        <v>47.775264882556257</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4518,8 +4560,11 @@
       <c r="CK14" s="1">
         <v>47.942381785227276</v>
       </c>
+      <c r="CL14" s="1">
+        <v>47.775264882556257</v>
+      </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4759,11 +4804,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9013361355079228</v>
+        <v>3.0404779272033577</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9013361355079228</v>
+        <v>3.0404779272033577</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4789,8 +4834,11 @@
       <c r="CK15" s="1">
         <v>3.9013361355079228</v>
       </c>
+      <c r="CL15" s="1">
+        <v>3.0404779272033577</v>
+      </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5060,8 +5108,11 @@
       <c r="CK16" s="1">
         <v>0</v>
       </c>
+      <c r="CL16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5301,11 +5352,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9680079980003136</v>
+        <v>2.9760059985002347</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9680079980003136</v>
+        <v>2.9760059985002347</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5331,8 +5382,11 @@
       <c r="CK17" s="1">
         <v>3.9680079980003136</v>
       </c>
+      <c r="CL17" s="1">
+        <v>2.9760059985002347</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5572,11 +5626,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.050987549754897</v>
+        <v>11.126730929235961</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.050987549754897</v>
+        <v>11.126730929235961</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5601,6 +5655,9 @@
       </c>
       <c r="CK18" s="1">
         <v>13.050987549754897</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>11.126730929235961</v>
       </c>
     </row>
   </sheetData>
@@ -5648,7 +5705,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>3.7711403702315951</v>
+        <v>4.7401233884939167</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5663,7 +5720,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>4.0718899891423241</v>
+        <v>4.7740715805220697</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5678,7 +5735,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>5.2883303828142978</v>
+        <v>4.9656565742334378</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5693,7 +5750,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>14.674201013192437</v>
+        <v>14.149124892046276</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5708,7 +5765,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>6.0550147849501252</v>
+        <v>6.8770735298167072</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5723,7 +5780,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>5.9556439858799726</v>
+        <v>6.3560404930784555</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5753,7 +5810,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>4.9376131140857851</v>
+        <v>5.463719645797485</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5768,7 +5825,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>16.445707798319088</v>
+        <v>17.772727760275266</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5783,7 +5840,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>8.0396707445872959</v>
+        <v>9.5280916333972634</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5798,7 +5855,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>12.072133765285232</v>
+        <v>13.882183596107454</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5828,7 +5885,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>47.942381785227276</v>
+        <v>47.775264882556257</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5843,7 +5900,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>3.9013361355079228</v>
+        <v>3.0404779272033577</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5873,7 +5930,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>3.9680079980003136</v>
+        <v>2.9760059985002347</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5888,7 +5945,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>13.050987549754897</v>
+        <v>11.126730929235961</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5899,7 +5956,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>12.072133765285232</v>
+        <v>13.882183596107454</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5923,7 +5980,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>6.0550147849501252</v>
+        <v>6.8770735298167072</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,7 +5988,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>5.9556439858799726</v>
+        <v>6.3560404930784555</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>5.2883303828142978</v>
+        <v>4.9656565742334378</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5955,7 +6012,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>14.674201013192437</v>
+        <v>14.149124892046276</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,7 +6020,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>3.7711403702315951</v>
+        <v>4.7401233884939167</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>4.0718899891423241</v>
+        <v>4.7740715805220697</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,7 +6036,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>3.9680079980003136</v>
+        <v>2.9760059985002347</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,7 +6044,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>13.050987549754897</v>
+        <v>11.126730929235961</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,7 +6052,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>3.9013361355079228</v>
+        <v>3.0404779272033577</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6003,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>16.445707798319088</v>
+        <v>17.772727760275266</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6011,7 +6068,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>8.0396707445872959</v>
+        <v>9.5280916333972634</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>4.9376131140857851</v>
+        <v>5.463719645797485</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6027,7 +6084,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>47.942381785227276</v>
+        <v>47.775264882556257</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A41136-2355-424A-9D76-4944D8423D8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6E51E-C181-4533-9ED9-C5B1DB16692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>Línea</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>09-nov</t>
+  </si>
+  <si>
+    <t>10-nov</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CL18"/>
+  <dimension ref="A1:CM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CN9" sqref="CN9"/>
+      <selection activeCell="CN6" sqref="CN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +733,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1004,11 @@
       <c r="CL1" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="CM1" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1242,11 +1248,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.7401233884939167</v>
+        <v>5.9050805003373839</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.7401233884939167</v>
+        <v>5.9050805003373839</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1275,8 +1281,11 @@
       <c r="CL2" s="1">
         <v>4.7401233884939167</v>
       </c>
+      <c r="CM2" s="1">
+        <v>5.9050805003373839</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1516,11 +1525,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.7740715805220697</v>
+        <v>4.6023423869781102</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.7740715805220697</v>
+        <v>4.6023423869781102</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1549,8 +1558,11 @@
       <c r="CL3" s="1">
         <v>4.7740715805220697</v>
       </c>
+      <c r="CM3" s="1">
+        <v>4.6023423869781102</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9656565742334378</v>
+        <v>5.7870080869847165</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9656565742334378</v>
+        <v>5.7870080869847165</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1823,8 +1835,11 @@
       <c r="CL4" s="1">
         <v>4.9656565742334378</v>
       </c>
+      <c r="CM4" s="1">
+        <v>5.7870080869847165</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2064,11 +2079,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.149124892046276</v>
+        <v>12.96491066137621</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.149124892046276</v>
+        <v>12.96491066137621</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2097,8 +2112,11 @@
       <c r="CL5" s="1">
         <v>14.149124892046276</v>
       </c>
+      <c r="CM5" s="1">
+        <v>12.96491066137621</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2338,11 +2356,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8770735298167072</v>
+        <v>7.9736630868682123</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8770735298167072</v>
+        <v>7.9736630868682123</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2371,8 +2389,11 @@
       <c r="CL6" s="1">
         <v>6.8770735298167072</v>
       </c>
+      <c r="CM6" s="1">
+        <v>7.9736630868682123</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2612,11 +2633,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3560404930784555</v>
+        <v>5.8281065197545683</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3560404930784555</v>
+        <v>5.8281065197545683</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2645,8 +2666,11 @@
       <c r="CL7" s="1">
         <v>6.3560404930784555</v>
       </c>
+      <c r="CM7" s="1">
+        <v>5.8281065197545683</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2919,8 +2943,11 @@
       <c r="CL8" s="1">
         <v>0</v>
       </c>
+      <c r="CM8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3160,11 +3187,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.463719645797485</v>
+        <v>7.4203273211361607</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.463719645797485</v>
+        <v>7.4203273211361607</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3193,8 +3220,11 @@
       <c r="CL9" s="1">
         <v>5.463719645797485</v>
       </c>
+      <c r="CM9" s="1">
+        <v>7.4203273211361607</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3434,11 +3464,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.772727760275266</v>
+        <v>17.045007135976714</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.772727760275266</v>
+        <v>17.045007135976714</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3467,8 +3497,11 @@
       <c r="CL10" s="1">
         <v>17.772727760275266</v>
       </c>
+      <c r="CM10" s="1">
+        <v>17.045007135976714</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3708,11 +3741,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.5280916333972634</v>
+        <v>9.1159769433714288</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.5280916333972634</v>
+        <v>9.1159769433714288</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3741,8 +3774,11 @@
       <c r="CL11" s="1">
         <v>9.5280916333972634</v>
       </c>
+      <c r="CM11" s="1">
+        <v>9.1159769433714288</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3982,11 +4018,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.882183596107454</v>
+        <v>15.485553978162034</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.882183596107454</v>
+        <v>15.485553978162034</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4015,8 +4051,11 @@
       <c r="CL12" s="1">
         <v>13.882183596107454</v>
       </c>
+      <c r="CM12" s="1">
+        <v>15.485553978162034</v>
+      </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4289,8 +4328,11 @@
       <c r="CL13" s="1">
         <v>0</v>
       </c>
+      <c r="CM13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4530,11 +4572,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>47.775264882556257</v>
+        <v>47.175949093667064</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>47.775264882556257</v>
+        <v>47.175949093667064</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4563,8 +4605,11 @@
       <c r="CL14" s="1">
         <v>47.775264882556257</v>
       </c>
+      <c r="CM14" s="1">
+        <v>47.175949093667064</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4804,11 +4849,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.0404779272033577</v>
+        <v>2.82068434210432</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.0404779272033577</v>
+        <v>2.82068434210432</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4837,8 +4882,11 @@
       <c r="CL15" s="1">
         <v>3.0404779272033577</v>
       </c>
+      <c r="CM15" s="1">
+        <v>2.82068434210432</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5111,8 +5159,11 @@
       <c r="CL16" s="1">
         <v>0</v>
       </c>
+      <c r="CM16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5352,11 +5403,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.9760059985002347</v>
+        <v>1.7856035991001411</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.9760059985002347</v>
+        <v>1.7856035991001411</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5385,8 +5436,11 @@
       <c r="CL17" s="1">
         <v>2.9760059985002347</v>
       </c>
+      <c r="CM17" s="1">
+        <v>1.7856035991001411</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5626,11 +5680,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.126730929235961</v>
+        <v>9.3892403924732761</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.126730929235961</v>
+        <v>9.3892403924732761</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5658,6 +5712,9 @@
       </c>
       <c r="CL18" s="1">
         <v>11.126730929235961</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>9.3892403924732761</v>
       </c>
     </row>
   </sheetData>
@@ -5705,7 +5762,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>4.7401233884939167</v>
+        <v>5.9050805003373839</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5720,7 +5777,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>4.7740715805220697</v>
+        <v>4.6023423869781102</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5735,7 +5792,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>4.9656565742334378</v>
+        <v>5.7870080869847165</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5750,7 +5807,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>14.149124892046276</v>
+        <v>12.96491066137621</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5765,7 +5822,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>6.8770735298167072</v>
+        <v>7.9736630868682123</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5780,7 +5837,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.3560404930784555</v>
+        <v>5.8281065197545683</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5810,7 +5867,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>5.463719645797485</v>
+        <v>7.4203273211361607</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5825,7 +5882,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>17.772727760275266</v>
+        <v>17.045007135976714</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5840,7 +5897,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>9.5280916333972634</v>
+        <v>9.1159769433714288</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5855,7 +5912,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>13.882183596107454</v>
+        <v>15.485553978162034</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5885,7 +5942,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>47.775264882556257</v>
+        <v>47.175949093667064</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5900,7 +5957,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>3.0404779272033577</v>
+        <v>2.82068434210432</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5930,7 +5987,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>2.9760059985002347</v>
+        <v>1.7856035991001411</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5945,7 +6002,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>11.126730929235961</v>
+        <v>9.3892403924732761</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5956,7 +6013,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>13.882183596107454</v>
+        <v>15.485553978162034</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,7 +6037,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>6.8770735298167072</v>
+        <v>7.9736630868682123</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5988,7 +6045,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>6.3560404930784555</v>
+        <v>5.8281065197545683</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>4.9656565742334378</v>
+        <v>5.7870080869847165</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,7 +6069,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>14.149124892046276</v>
+        <v>12.96491066137621</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6020,7 +6077,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>4.7401233884939167</v>
+        <v>5.9050805003373839</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,7 +6085,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>4.7740715805220697</v>
+        <v>4.6023423869781102</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,7 +6093,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>2.9760059985002347</v>
+        <v>1.7856035991001411</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6044,7 +6101,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>11.126730929235961</v>
+        <v>9.3892403924732761</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,7 +6109,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>3.0404779272033577</v>
+        <v>2.82068434210432</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6117,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>17.772727760275266</v>
+        <v>17.045007135976714</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>9.5280916333972634</v>
+        <v>9.1159769433714288</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6133,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>5.463719645797485</v>
+        <v>7.4203273211361607</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6141,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>47.775264882556257</v>
+        <v>47.175949093667064</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D6E51E-C181-4533-9ED9-C5B1DB16692D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D58B5D-71AA-4BFC-8AF9-424CBF58ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>Línea</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>10-nov</t>
+  </si>
+  <si>
+    <t>13-nov</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CM18"/>
+  <dimension ref="A1:CN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CN6" sqref="CN6"/>
+      <selection activeCell="CP8" sqref="CP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +736,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1010,11 @@
       <c r="CM1" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="CN1" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1248,11 +1254,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9050805003373839</v>
+        <v>7.0225947813515264</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.9050805003373839</v>
+        <v>7.0225947813515264</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1284,8 +1290,11 @@
       <c r="CM2" s="1">
         <v>5.9050805003373839</v>
       </c>
+      <c r="CN2" s="1">
+        <v>7.0225947813515264</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1525,11 +1534,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.6023423869781102</v>
+        <v>6.828685610610159</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.6023423869781102</v>
+        <v>6.828685610610159</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1561,8 +1570,11 @@
       <c r="CM3" s="1">
         <v>4.6023423869781102</v>
       </c>
+      <c r="CN3" s="1">
+        <v>6.828685610610159</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1802,11 +1814,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.7870080869847165</v>
+        <v>7.0469660803807077</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.7870080869847165</v>
+        <v>7.0469660803807077</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1838,8 +1850,11 @@
       <c r="CM4" s="1">
         <v>5.7870080869847165</v>
       </c>
+      <c r="CN4" s="1">
+        <v>7.0469660803807077</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2079,11 +2094,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.96491066137621</v>
+        <v>8.4338045207842978</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.96491066137621</v>
+        <v>8.4338045207842978</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2115,8 +2130,11 @@
       <c r="CM5" s="1">
         <v>12.96491066137621</v>
       </c>
+      <c r="CN5" s="1">
+        <v>8.4338045207842978</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2356,11 +2374,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.9736630868682123</v>
+        <v>8.5091935859377461</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.9736630868682123</v>
+        <v>8.5091935859377461</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2392,8 +2410,11 @@
       <c r="CM6" s="1">
         <v>7.9736630868682123</v>
       </c>
+      <c r="CN6" s="1">
+        <v>8.5091935859377461</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2633,11 +2654,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.8281065197545683</v>
+        <v>7.8164448984773891</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.8281065197545683</v>
+        <v>7.8164448984773891</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2669,8 +2690,11 @@
       <c r="CM7" s="1">
         <v>5.8281065197545683</v>
       </c>
+      <c r="CN7" s="1">
+        <v>7.8164448984773891</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2946,8 +2970,11 @@
       <c r="CM8" s="1">
         <v>0</v>
       </c>
+      <c r="CN8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3187,11 +3214,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4203273211361607</v>
+        <v>6.7996246164144107</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4203273211361607</v>
+        <v>6.7996246164144107</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3223,8 +3250,11 @@
       <c r="CM9" s="1">
         <v>7.4203273211361607</v>
       </c>
+      <c r="CN9" s="1">
+        <v>6.7996246164144107</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3464,11 +3494,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.045007135976714</v>
+        <v>14.901707307121656</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>17.045007135976714</v>
+        <v>14.901707307121656</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3500,8 +3530,11 @@
       <c r="CM10" s="1">
         <v>17.045007135976714</v>
       </c>
+      <c r="CN10" s="1">
+        <v>14.901707307121656</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3741,11 +3774,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.1159769433714288</v>
+        <v>8.0197564110179638</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.1159769433714288</v>
+        <v>8.0197564110179638</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3777,8 +3810,11 @@
       <c r="CM11" s="1">
         <v>9.1159769433714288</v>
       </c>
+      <c r="CN11" s="1">
+        <v>8.0197564110179638</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4018,11 +4054,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.485553978162034</v>
+        <v>12.946338812456732</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.485553978162034</v>
+        <v>12.946338812456732</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4054,8 +4090,11 @@
       <c r="CM12" s="1">
         <v>15.485553978162034</v>
       </c>
+      <c r="CN12" s="1">
+        <v>12.946338812456732</v>
+      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4331,8 +4370,11 @@
       <c r="CM13" s="1">
         <v>0</v>
       </c>
+      <c r="CN13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4572,11 +4614,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>47.175949093667064</v>
+        <v>45.433600870996599</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>47.175949093667064</v>
+        <v>45.433600870996599</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4608,8 +4650,11 @@
       <c r="CM14" s="1">
         <v>47.175949093667064</v>
       </c>
+      <c r="CN14" s="1">
+        <v>45.433600870996599</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4849,11 +4894,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.82068434210432</v>
+        <v>16.911388755920086</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.82068434210432</v>
+        <v>16.911388755920086</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4885,8 +4930,11 @@
       <c r="CM15" s="1">
         <v>2.82068434210432</v>
       </c>
+      <c r="CN15" s="1">
+        <v>16.911388755920086</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5162,8 +5210,11 @@
       <c r="CM16" s="1">
         <v>0</v>
       </c>
+      <c r="CN16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5403,11 +5454,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.7856035991001411</v>
+        <v>0.62496000000192742</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.7856035991001411</v>
+        <v>0.62496000000192742</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5439,8 +5490,11 @@
       <c r="CM17" s="1">
         <v>1.7856035991001411</v>
       </c>
+      <c r="CN17" s="1">
+        <v>0.62496000000192742</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5680,11 +5734,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.3892403924732761</v>
+        <v>3.1997734999998424</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.3892403924732761</v>
+        <v>3.1997734999998424</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5715,6 +5769,9 @@
       </c>
       <c r="CM18" s="1">
         <v>9.3892403924732761</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>3.1997734999998424</v>
       </c>
     </row>
   </sheetData>
@@ -5762,7 +5819,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>5.9050805003373839</v>
+        <v>7.0225947813515264</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5777,7 +5834,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>4.6023423869781102</v>
+        <v>6.828685610610159</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5792,7 +5849,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>5.7870080869847165</v>
+        <v>7.0469660803807077</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5807,7 +5864,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>12.96491066137621</v>
+        <v>8.4338045207842978</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5822,7 +5879,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>7.9736630868682123</v>
+        <v>8.5091935859377461</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5837,7 +5894,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>5.8281065197545683</v>
+        <v>7.8164448984773891</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5867,7 +5924,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.4203273211361607</v>
+        <v>6.7996246164144107</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5882,7 +5939,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>17.045007135976714</v>
+        <v>14.901707307121656</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5897,7 +5954,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>9.1159769433714288</v>
+        <v>8.0197564110179638</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5912,7 +5969,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>15.485553978162034</v>
+        <v>12.946338812456732</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5942,7 +5999,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>47.175949093667064</v>
+        <v>45.433600870996599</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5957,7 +6014,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>2.82068434210432</v>
+        <v>16.911388755920086</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5987,7 +6044,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>1.7856035991001411</v>
+        <v>0.62496000000192742</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6002,7 +6059,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>9.3892403924732761</v>
+        <v>3.1997734999998424</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6013,7 +6070,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>15.485553978162034</v>
+        <v>12.946338812456732</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,7 +6094,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>7.9736630868682123</v>
+        <v>8.5091935859377461</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,7 +6102,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>5.8281065197545683</v>
+        <v>7.8164448984773891</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>5.7870080869847165</v>
+        <v>7.0469660803807077</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,7 +6126,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>12.96491066137621</v>
+        <v>8.4338045207842978</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6077,7 +6134,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>5.9050805003373839</v>
+        <v>7.0225947813515264</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>4.6023423869781102</v>
+        <v>6.828685610610159</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6093,7 +6150,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>1.7856035991001411</v>
+        <v>0.62496000000192742</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,7 +6158,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>9.3892403924732761</v>
+        <v>3.1997734999998424</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6109,7 +6166,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>2.82068434210432</v>
+        <v>16.911388755920086</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,7 +6174,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>17.045007135976714</v>
+        <v>14.901707307121656</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +6182,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>9.1159769433714288</v>
+        <v>8.0197564110179638</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +6190,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.4203273211361607</v>
+        <v>6.7996246164144107</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +6198,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>47.175949093667064</v>
+        <v>45.433600870996599</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D58B5D-71AA-4BFC-8AF9-424CBF58ADA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601CFE7E-9194-429B-B33C-397EF1B02C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>Línea</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>13-nov</t>
+  </si>
+  <si>
+    <t>14-nov</t>
   </si>
 </sst>
 </file>
@@ -713,10 +716,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CN18"/>
+  <dimension ref="A1:CO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CP8" sqref="CP8"/>
+      <selection activeCell="CJ26" sqref="CJ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +739,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1016,11 @@
       <c r="CN1" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="CO1" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1254,11 +1260,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0225947813515264</v>
+        <v>6.7020066671549401</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0225947813515264</v>
+        <v>6.7020066671549401</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1293,8 +1299,11 @@
       <c r="CN2" s="1">
         <v>7.0225947813515264</v>
       </c>
+      <c r="CO2" s="1">
+        <v>6.7020066671549401</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1534,11 +1543,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.828685610610159</v>
+        <v>6.2287312161842721</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.828685610610159</v>
+        <v>6.2287312161842721</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1573,8 +1582,11 @@
       <c r="CN3" s="1">
         <v>6.828685610610159</v>
       </c>
+      <c r="CO3" s="1">
+        <v>6.2287312161842721</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1814,11 +1826,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0469660803807077</v>
+        <v>6.8454685958566852</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0469660803807077</v>
+        <v>6.8454685958566852</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1853,8 +1865,11 @@
       <c r="CN4" s="1">
         <v>7.0469660803807077</v>
       </c>
+      <c r="CO4" s="1">
+        <v>6.8454685958566852</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2094,11 +2109,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.4338045207842978</v>
+        <v>4.9110207616356449</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.4338045207842978</v>
+        <v>4.9110207616356449</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2133,8 +2148,11 @@
       <c r="CN5" s="1">
         <v>8.4338045207842978</v>
       </c>
+      <c r="CO5" s="1">
+        <v>4.9110207616356449</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2374,11 +2392,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.5091935859377461</v>
+        <v>7.8693392877096953</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.5091935859377461</v>
+        <v>7.8693392877096953</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2413,8 +2431,11 @@
       <c r="CN6" s="1">
         <v>8.5091935859377461</v>
       </c>
+      <c r="CO6" s="1">
+        <v>7.8693392877096953</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8164448984773891</v>
+        <v>6.9667987848559561</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8164448984773891</v>
+        <v>6.9667987848559561</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2693,8 +2714,11 @@
       <c r="CN7" s="1">
         <v>7.8164448984773891</v>
       </c>
+      <c r="CO7" s="1">
+        <v>6.9667987848559561</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2973,8 +2997,11 @@
       <c r="CN8" s="1">
         <v>0</v>
       </c>
+      <c r="CO8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3214,11 +3241,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.7996246164144107</v>
+        <v>7.0605404447186855</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.7996246164144107</v>
+        <v>7.0605404447186855</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3253,8 +3280,11 @@
       <c r="CN9" s="1">
         <v>6.7996246164144107</v>
       </c>
+      <c r="CO9" s="1">
+        <v>7.0605404447186855</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3494,11 +3524,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.901707307121656</v>
+        <v>12.486550123753087</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.901707307121656</v>
+        <v>12.486550123753087</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3533,8 +3563,11 @@
       <c r="CN10" s="1">
         <v>14.901707307121656</v>
       </c>
+      <c r="CO10" s="1">
+        <v>12.486550123753087</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3774,11 +3807,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.0197564110179638</v>
+        <v>7.1286032676410462</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.0197564110179638</v>
+        <v>7.1286032676410462</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3813,8 +3846,11 @@
       <c r="CN11" s="1">
         <v>8.0197564110179638</v>
       </c>
+      <c r="CO11" s="1">
+        <v>7.1286032676410462</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4054,11 +4090,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.946338812456732</v>
+        <v>12.227808641918193</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.946338812456732</v>
+        <v>12.227808641918193</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4093,8 +4129,11 @@
       <c r="CN12" s="1">
         <v>12.946338812456732</v>
       </c>
+      <c r="CO12" s="1">
+        <v>12.227808641918193</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4373,8 +4412,11 @@
       <c r="CN13" s="1">
         <v>0</v>
       </c>
+      <c r="CO13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4614,11 +4656,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>45.433600870996599</v>
+        <v>44.650810748545069</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>45.433600870996599</v>
+        <v>44.650810748545069</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4653,8 +4695,11 @@
       <c r="CN14" s="1">
         <v>45.433600870996599</v>
       </c>
+      <c r="CO14" s="1">
+        <v>44.650810748545069</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4894,11 +4939,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.911388755920086</v>
+        <v>16.390779966015895</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.911388755920086</v>
+        <v>16.390779966015895</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4933,8 +4978,11 @@
       <c r="CN15" s="1">
         <v>16.911388755920086</v>
       </c>
+      <c r="CO15" s="1">
+        <v>16.390779966015895</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5213,8 +5261,11 @@
       <c r="CN16" s="1">
         <v>0</v>
       </c>
+      <c r="CO16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5493,8 +5544,11 @@
       <c r="CN17" s="1">
         <v>0.62496000000192742</v>
       </c>
+      <c r="CO17" s="1">
+        <v>0.62496000000192742</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5734,11 +5788,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.1997734999998424</v>
+        <v>1.08051533333328</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.1997734999998424</v>
+        <v>1.08051533333328</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5772,6 +5826,9 @@
       </c>
       <c r="CN18" s="1">
         <v>3.1997734999998424</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>1.08051533333328</v>
       </c>
     </row>
   </sheetData>
@@ -5819,7 +5876,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>7.0225947813515264</v>
+        <v>6.7020066671549401</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5834,7 +5891,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>6.828685610610159</v>
+        <v>6.2287312161842721</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5849,7 +5906,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>7.0469660803807077</v>
+        <v>6.8454685958566852</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5864,7 +5921,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>8.4338045207842978</v>
+        <v>4.9110207616356449</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5879,7 +5936,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>8.5091935859377461</v>
+        <v>7.8693392877096953</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5894,7 +5951,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>7.8164448984773891</v>
+        <v>6.9667987848559561</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5924,7 +5981,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>6.7996246164144107</v>
+        <v>7.0605404447186855</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5939,7 +5996,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>14.901707307121656</v>
+        <v>12.486550123753087</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5954,7 +6011,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>8.0197564110179638</v>
+        <v>7.1286032676410462</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5969,7 +6026,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>12.946338812456732</v>
+        <v>12.227808641918193</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5999,7 +6056,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>45.433600870996599</v>
+        <v>44.650810748545069</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6014,7 +6071,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>16.911388755920086</v>
+        <v>16.390779966015895</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6059,7 +6116,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>3.1997734999998424</v>
+        <v>1.08051533333328</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6070,7 +6127,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>12.946338812456732</v>
+        <v>12.227808641918193</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,7 +6151,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>8.5091935859377461</v>
+        <v>7.8693392877096953</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,7 +6159,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>7.8164448984773891</v>
+        <v>6.9667987848559561</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>7.0469660803807077</v>
+        <v>6.8454685958566852</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,7 +6183,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>8.4338045207842978</v>
+        <v>4.9110207616356449</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,7 +6191,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>7.0225947813515264</v>
+        <v>6.7020066671549401</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>6.828685610610159</v>
+        <v>6.2287312161842721</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,7 +6215,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>3.1997734999998424</v>
+        <v>1.08051533333328</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,7 +6223,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>16.911388755920086</v>
+        <v>16.390779966015895</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6174,7 +6231,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>14.901707307121656</v>
+        <v>12.486550123753087</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6182,7 +6239,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>8.0197564110179638</v>
+        <v>7.1286032676410462</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6190,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>6.7996246164144107</v>
+        <v>7.0605404447186855</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6198,7 +6255,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>45.433600870996599</v>
+        <v>44.650810748545069</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601CFE7E-9194-429B-B33C-397EF1B02C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB05853-BED9-4C26-A28D-20BE1712D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>Línea</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>14-nov</t>
+  </si>
+  <si>
+    <t>15-nov</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CO18"/>
+  <dimension ref="A1:CP18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CJ26" sqref="CJ26"/>
+      <selection activeCell="CL27" sqref="CL26:CL27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +742,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1019,8 +1022,11 @@
       <c r="CO1" s="3" t="s">
         <v>115</v>
       </c>
+      <c r="CP1" s="3" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1260,11 +1266,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.7020066671549401</v>
+        <v>5.5581799387251509</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.7020066671549401</v>
+        <v>5.5581799387251509</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1302,8 +1308,11 @@
       <c r="CO2" s="1">
         <v>6.7020066671549401</v>
       </c>
+      <c r="CP2" s="1">
+        <v>5.5581799387251509</v>
+      </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1543,11 +1552,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.2287312161842721</v>
+        <v>4.8888069949958188</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.2287312161842721</v>
+        <v>4.8888069949958188</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1585,8 +1594,11 @@
       <c r="CO3" s="1">
         <v>6.2287312161842721</v>
       </c>
+      <c r="CP3" s="1">
+        <v>4.8888069949958188</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1826,11 +1838,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8454685958566852</v>
+        <v>7.700471435593756</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8454685958566852</v>
+        <v>7.700471435593756</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1868,8 +1880,11 @@
       <c r="CO4" s="1">
         <v>6.8454685958566852</v>
       </c>
+      <c r="CP4" s="1">
+        <v>7.700471435593756</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2109,11 +2124,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9110207616356449</v>
+        <v>4.3630321768791882</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.9110207616356449</v>
+        <v>4.3630321768791882</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2151,8 +2166,11 @@
       <c r="CO5" s="1">
         <v>4.9110207616356449</v>
       </c>
+      <c r="CP5" s="1">
+        <v>4.3630321768791882</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2392,11 +2410,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8693392877096953</v>
+        <v>6.5273824224214518</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8693392877096953</v>
+        <v>6.5273824224214518</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2434,8 +2452,11 @@
       <c r="CO6" s="1">
         <v>7.8693392877096953</v>
       </c>
+      <c r="CP6" s="1">
+        <v>6.5273824224214518</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2675,11 +2696,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9667987848559561</v>
+        <v>6.3626170798673742</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9667987848559561</v>
+        <v>6.3626170798673742</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2717,8 +2738,11 @@
       <c r="CO7" s="1">
         <v>6.9667987848559561</v>
       </c>
+      <c r="CP7" s="1">
+        <v>6.3626170798673742</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -3000,8 +3024,11 @@
       <c r="CO8" s="1">
         <v>0</v>
       </c>
+      <c r="CP8" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3241,11 +3268,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0605404447186855</v>
+        <v>8.9552349995673524</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.0605404447186855</v>
+        <v>8.9552349995673524</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3283,8 +3310,11 @@
       <c r="CO9" s="1">
         <v>7.0605404447186855</v>
       </c>
+      <c r="CP9" s="1">
+        <v>8.9552349995673524</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3524,11 +3554,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.486550123753087</v>
+        <v>10.729297437759444</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.486550123753087</v>
+        <v>10.729297437759444</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3566,8 +3596,11 @@
       <c r="CO10" s="1">
         <v>12.486550123753087</v>
       </c>
+      <c r="CP10" s="1">
+        <v>10.729297437759444</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3807,11 +3840,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1286032676410462</v>
+        <v>6.6093339900976211</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1286032676410462</v>
+        <v>6.6093339900976211</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3849,8 +3882,11 @@
       <c r="CO11" s="1">
         <v>7.1286032676410462</v>
       </c>
+      <c r="CP11" s="1">
+        <v>6.6093339900976211</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -4090,11 +4126,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.227808641918193</v>
+        <v>11.504357031855415</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.227808641918193</v>
+        <v>11.504357031855415</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4132,8 +4168,11 @@
       <c r="CO12" s="1">
         <v>12.227808641918193</v>
       </c>
+      <c r="CP12" s="1">
+        <v>11.504357031855415</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4415,8 +4454,11 @@
       <c r="CO13" s="1">
         <v>0</v>
       </c>
+      <c r="CP13" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -4656,11 +4698,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>44.650810748545069</v>
+        <v>44.399509122518197</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>44.650810748545069</v>
+        <v>44.399509122518197</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4698,8 +4740,11 @@
       <c r="CO14" s="1">
         <v>44.650810748545069</v>
       </c>
+      <c r="CP14" s="1">
+        <v>44.399509122518197</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4939,11 +4984,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.390779966015895</v>
+        <v>16.172460150894779</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.390779966015895</v>
+        <v>16.172460150894779</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4981,8 +5026,11 @@
       <c r="CO15" s="1">
         <v>16.390779966015895</v>
       </c>
+      <c r="CP15" s="1">
+        <v>16.172460150894779</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5264,8 +5312,11 @@
       <c r="CO16" s="1">
         <v>0</v>
       </c>
+      <c r="CP16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5505,11 +5556,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.62496000000192742</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.62496000000192742</v>
+        <v>0</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5547,8 +5598,11 @@
       <c r="CO17" s="1">
         <v>0.62496000000192742</v>
       </c>
+      <c r="CP17" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5788,11 +5842,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.08051533333328</v>
+        <v>0.6349419999999687</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.08051533333328</v>
+        <v>0.6349419999999687</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5829,6 +5883,9 @@
       </c>
       <c r="CO18" s="1">
         <v>1.08051533333328</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>0.6349419999999687</v>
       </c>
     </row>
   </sheetData>
@@ -5876,7 +5933,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.7020066671549401</v>
+        <v>5.5581799387251509</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5891,7 +5948,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>6.2287312161842721</v>
+        <v>4.8888069949958188</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5906,7 +5963,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>6.8454685958566852</v>
+        <v>7.700471435593756</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5921,7 +5978,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>4.9110207616356449</v>
+        <v>4.3630321768791882</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5936,7 +5993,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>7.8693392877096953</v>
+        <v>6.5273824224214518</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5951,7 +6008,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.9667987848559561</v>
+        <v>6.3626170798673742</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5981,7 +6038,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.0605404447186855</v>
+        <v>8.9552349995673524</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5996,7 +6053,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>12.486550123753087</v>
+        <v>10.729297437759444</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6011,7 +6068,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>7.1286032676410462</v>
+        <v>6.6093339900976211</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6026,7 +6083,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>12.227808641918193</v>
+        <v>11.504357031855415</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6056,7 +6113,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>44.650810748545069</v>
+        <v>44.399509122518197</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6071,7 +6128,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>16.390779966015895</v>
+        <v>16.172460150894779</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6101,7 +6158,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0.62496000000192742</v>
+        <v>0</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6116,7 +6173,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>1.08051533333328</v>
+        <v>0.6349419999999687</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6127,7 +6184,7 @@
         <v>91</v>
       </c>
       <c r="B20" s="1">
-        <v>12.227808641918193</v>
+        <v>11.504357031855415</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6151,7 +6208,7 @@
         <v>103</v>
       </c>
       <c r="B23" s="1">
-        <v>7.8693392877096953</v>
+        <v>6.5273824224214518</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6159,7 +6216,7 @@
         <v>104</v>
       </c>
       <c r="B24" s="1">
-        <v>6.9667987848559561</v>
+        <v>6.3626170798673742</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6175,7 +6232,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>6.8454685958566852</v>
+        <v>7.700471435593756</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6183,7 +6240,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>4.9110207616356449</v>
+        <v>4.3630321768791882</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6191,7 +6248,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="1">
-        <v>6.7020066671549401</v>
+        <v>5.5581799387251509</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6199,7 +6256,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>6.2287312161842721</v>
+        <v>4.8888069949958188</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6207,7 +6264,7 @@
         <v>93</v>
       </c>
       <c r="B30" s="1">
-        <v>0.62496000000192742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6215,7 +6272,7 @@
         <v>92</v>
       </c>
       <c r="B31" s="1">
-        <v>1.08051533333328</v>
+        <v>0.6349419999999687</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6223,7 +6280,7 @@
         <v>95</v>
       </c>
       <c r="B32" s="1">
-        <v>16.390779966015895</v>
+        <v>16.172460150894779</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6231,7 +6288,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>12.486550123753087</v>
+        <v>10.729297437759444</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6239,7 +6296,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>7.1286032676410462</v>
+        <v>6.6093339900976211</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6247,7 +6304,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.0605404447186855</v>
+        <v>8.9552349995673524</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6255,7 +6312,7 @@
         <v>96</v>
       </c>
       <c r="B36" s="1">
-        <v>44.650810748545069</v>
+        <v>44.399509122518197</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB05853-BED9-4C26-A28D-20BE1712D5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE456F38-05D1-428E-A0D2-1048E187C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
   <si>
     <t>Línea</t>
   </si>
@@ -73,9 +73,6 @@
     <t>PEHUAMAR MAICITOS 285GX10</t>
   </si>
   <si>
-    <t>CHEETOS 94GRX24</t>
-  </si>
-  <si>
     <t>LAYS CEBOLLA CARAMELIZADA 85GX25</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>22-sep</t>
   </si>
   <si>
-    <t>DORITOS QUESO 140GX19</t>
-  </si>
-  <si>
     <t>25-oct</t>
   </si>
   <si>
@@ -358,24 +352,6 @@
     <t>01-nov</t>
   </si>
   <si>
-    <t>02-nov</t>
-  </si>
-  <si>
-    <t>03-nov</t>
-  </si>
-  <si>
-    <t>06-nov</t>
-  </si>
-  <si>
-    <t>07-nov</t>
-  </si>
-  <si>
-    <t>08-nov</t>
-  </si>
-  <si>
-    <t>09-nov</t>
-  </si>
-  <si>
     <t>10-nov</t>
   </si>
   <si>
@@ -386,6 +362,15 @@
   </si>
   <si>
     <t>15-nov</t>
+  </si>
+  <si>
+    <t>CHEETOS QUESO 85GX24X1</t>
+  </si>
+  <si>
+    <t>DORITOS QUESO 129GX19</t>
+  </si>
+  <si>
+    <t>16-nov</t>
   </si>
 </sst>
 </file>
@@ -719,10 +704,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CP18"/>
+  <dimension ref="A1:CK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CL27" sqref="CL26:CL27"/>
+      <selection activeCell="CK5" sqref="CK5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +727,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:89" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -750,288 +735,273 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="BY1" s="3" t="s">
-        <v>90</v>
-      </c>
       <c r="BZ1" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="CA1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="CC1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="CC1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="CD1" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="CE1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="CF1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="CI1" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="CJ1" s="3" t="s">
-        <v>110</v>
       </c>
       <c r="CK1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CL1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="CM1" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="CN1" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="CO1" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="CP1" s="3" t="s">
-        <v>116</v>
-      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
         <v>4.3052239375143602</v>
@@ -1266,11 +1236,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5581799387251509</v>
+        <v>6.7112417157120436</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.5581799387251509</v>
+        <v>6.7112417157120436</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1282,37 +1252,22 @@
         <v>6.1097237465596645</v>
       </c>
       <c r="CG2" s="1">
-        <v>7.0164811917716952</v>
+        <v>5.9050805003373839</v>
       </c>
       <c r="CH2" s="1">
-        <v>6.9465275606272439</v>
+        <v>7.0225947813515264</v>
       </c>
       <c r="CI2" s="1">
-        <v>5.3076711488414574</v>
+        <v>6.7020066671549401</v>
       </c>
       <c r="CJ2" s="1">
-        <v>4.0474094049327913</v>
+        <v>5.5581799387251509</v>
       </c>
       <c r="CK2" s="1">
-        <v>3.7711403702315951</v>
-      </c>
-      <c r="CL2" s="1">
-        <v>4.7401233884939167</v>
-      </c>
-      <c r="CM2" s="1">
-        <v>5.9050805003373839</v>
-      </c>
-      <c r="CN2" s="1">
-        <v>7.0225947813515264</v>
-      </c>
-      <c r="CO2" s="1">
-        <v>6.7020066671549401</v>
-      </c>
-      <c r="CP2" s="1">
-        <v>5.5581799387251509</v>
+        <v>6.7112417157120436</v>
       </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1552,11 +1507,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8888069949958188</v>
+        <v>4.3303096838874966</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8888069949958188</v>
+        <v>4.3303096838874966</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1568,37 +1523,22 @@
         <v>5.6087545349707479</v>
       </c>
       <c r="CG3" s="1">
-        <v>5.9617133897615</v>
+        <v>4.6023423869781102</v>
       </c>
       <c r="CH3" s="1">
-        <v>4.8284998318561394</v>
+        <v>6.828685610610159</v>
       </c>
       <c r="CI3" s="1">
-        <v>3.0727409418011855</v>
+        <v>6.2287312161842721</v>
       </c>
       <c r="CJ3" s="1">
-        <v>3.8146778192564836</v>
+        <v>4.8888069949958188</v>
       </c>
       <c r="CK3" s="1">
-        <v>4.0718899891423241</v>
-      </c>
-      <c r="CL3" s="1">
-        <v>4.7740715805220697</v>
-      </c>
-      <c r="CM3" s="1">
-        <v>4.6023423869781102</v>
-      </c>
-      <c r="CN3" s="1">
-        <v>6.828685610610159</v>
-      </c>
-      <c r="CO3" s="1">
-        <v>6.2287312161842721</v>
-      </c>
-      <c r="CP3" s="1">
-        <v>4.8888069949958188</v>
+        <v>4.3303096838874966</v>
       </c>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1838,11 +1778,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.700471435593756</v>
+        <v>9.1055079493018116</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.700471435593756</v>
+        <v>9.1055079493018116</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1854,37 +1794,22 @@
         <v>4.5359485055591584</v>
       </c>
       <c r="CG4" s="1">
-        <v>3.9134548346044098</v>
+        <v>5.7870080869847165</v>
       </c>
       <c r="CH4" s="1">
-        <v>3.9168015747708331</v>
+        <v>7.0469660803807077</v>
       </c>
       <c r="CI4" s="1">
-        <v>6.1002054852828183</v>
+        <v>6.8454685958566852</v>
       </c>
       <c r="CJ4" s="1">
-        <v>5.630951299561973</v>
+        <v>7.700471435593756</v>
       </c>
       <c r="CK4" s="1">
-        <v>5.2883303828142978</v>
-      </c>
-      <c r="CL4" s="1">
-        <v>4.9656565742334378</v>
-      </c>
-      <c r="CM4" s="1">
-        <v>5.7870080869847165</v>
-      </c>
-      <c r="CN4" s="1">
-        <v>7.0469660803807077</v>
-      </c>
-      <c r="CO4" s="1">
-        <v>6.8454685958566852</v>
-      </c>
-      <c r="CP4" s="1">
-        <v>7.700471435593756</v>
+        <v>9.1055079493018116</v>
       </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2124,11 +2049,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.3630321768791882</v>
+        <v>3.4601557467566444</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.3630321768791882</v>
+        <v>3.4601557467566444</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2140,42 +2065,27 @@
         <v>7.7016289315344393</v>
       </c>
       <c r="CG5" s="1">
-        <v>7.1357289184805728</v>
+        <v>12.96491066137621</v>
       </c>
       <c r="CH5" s="1">
-        <v>12.713886190011543</v>
+        <v>8.4338045207842978</v>
       </c>
       <c r="CI5" s="1">
-        <v>15.352112605727879</v>
+        <v>4.9110207616356449</v>
       </c>
       <c r="CJ5" s="1">
-        <v>15.523260272918142</v>
+        <v>4.3630321768791882</v>
       </c>
       <c r="CK5" s="1">
-        <v>14.674201013192437</v>
-      </c>
-      <c r="CL5" s="1">
-        <v>14.149124892046276</v>
-      </c>
-      <c r="CM5" s="1">
-        <v>12.96491066137621</v>
-      </c>
-      <c r="CN5" s="1">
-        <v>8.4338045207842978</v>
-      </c>
-      <c r="CO5" s="1">
-        <v>4.9110207616356449</v>
-      </c>
-      <c r="CP5" s="1">
-        <v>4.3630321768791882</v>
+        <v>3.4601557467566444</v>
       </c>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
         <v>6.385992170417321</v>
@@ -2410,11 +2320,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.5273824224214518</v>
+        <v>7.6058698707922634</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.5273824224214518</v>
+        <v>7.6058698707922634</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2426,42 +2336,27 @@
         <v>4.9420866472597345</v>
       </c>
       <c r="CG6" s="1">
-        <v>5.9133386724631194</v>
+        <v>7.9736630868682123</v>
       </c>
       <c r="CH6" s="1">
-        <v>5.8590180893980532</v>
+        <v>8.5091935859377461</v>
       </c>
       <c r="CI6" s="1">
-        <v>3.7025131645317715</v>
+        <v>7.8693392877096953</v>
       </c>
       <c r="CJ6" s="1">
-        <v>5.085721638017886</v>
+        <v>6.5273824224214518</v>
       </c>
       <c r="CK6" s="1">
-        <v>6.0550147849501252</v>
-      </c>
-      <c r="CL6" s="1">
-        <v>6.8770735298167072</v>
-      </c>
-      <c r="CM6" s="1">
-        <v>7.9736630868682123</v>
-      </c>
-      <c r="CN6" s="1">
-        <v>8.5091935859377461</v>
-      </c>
-      <c r="CO6" s="1">
-        <v>7.8693392877096953</v>
-      </c>
-      <c r="CP6" s="1">
-        <v>6.5273824224214518</v>
+        <v>7.6058698707922634</v>
       </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2">
         <v>9.4398757653820713</v>
@@ -2696,11 +2591,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3626170798673742</v>
+        <v>7.5560131478547303</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3626170798673742</v>
+        <v>7.5560131478547303</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2712,42 +2607,27 @@
         <v>9.5146973188374702</v>
       </c>
       <c r="CG7" s="1">
-        <v>10.508365400476409</v>
+        <v>5.8281065197545683</v>
       </c>
       <c r="CH7" s="1">
-        <v>9.2131255648029455</v>
+        <v>7.8164448984773891</v>
       </c>
       <c r="CI7" s="1">
-        <v>7.4118289328797315</v>
+        <v>6.9667987848559561</v>
       </c>
       <c r="CJ7" s="1">
-        <v>6.1995403354425003</v>
+        <v>6.3626170798673742</v>
       </c>
       <c r="CK7" s="1">
-        <v>5.9556439858799726</v>
-      </c>
-      <c r="CL7" s="1">
-        <v>6.3560404930784555</v>
-      </c>
-      <c r="CM7" s="1">
-        <v>5.8281065197545683</v>
-      </c>
-      <c r="CN7" s="1">
-        <v>7.8164448984773891</v>
-      </c>
-      <c r="CO7" s="1">
-        <v>6.9667987848559561</v>
-      </c>
-      <c r="CP7" s="1">
-        <v>6.3626170798673742</v>
+        <v>7.5560131478547303</v>
       </c>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2">
         <v>11.828023010087275</v>
@@ -2982,11 +2862,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>6.2302818022951092</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>6.2302818022951092</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2998,37 +2878,22 @@
         <v>8.6477451095384463</v>
       </c>
       <c r="CG8" s="1">
-        <v>8.6477451095384463</v>
+        <v>0</v>
       </c>
       <c r="CH8" s="1">
-        <v>8.6477451095384463</v>
+        <v>0</v>
       </c>
       <c r="CI8" s="1">
-        <v>7.7689023041750893</v>
+        <v>0</v>
       </c>
       <c r="CJ8" s="1">
         <v>0</v>
       </c>
       <c r="CK8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO8" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP8" s="1">
-        <v>0</v>
+        <v>6.2302818022951092</v>
       </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3268,11 +3133,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.9552349995673524</v>
+        <v>7.6513746344324964</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.9552349995673524</v>
+        <v>7.6513746344324964</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3284,37 +3149,22 @@
         <v>9.3189498171769962</v>
       </c>
       <c r="CG9" s="1">
-        <v>9.6587287816936396</v>
+        <v>7.4203273211361607</v>
       </c>
       <c r="CH9" s="1">
-        <v>8.813784465112489</v>
+        <v>6.7996246164144107</v>
       </c>
       <c r="CI9" s="1">
-        <v>6.3752036495534714</v>
+        <v>7.0605404447186855</v>
       </c>
       <c r="CJ9" s="1">
-        <v>5.2086136085173402</v>
+        <v>8.9552349995673524</v>
       </c>
       <c r="CK9" s="1">
-        <v>4.9376131140857851</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>5.463719645797485</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>7.4203273211361607</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>6.7996246164144107</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>7.0605404447186855</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>8.9552349995673524</v>
+        <v>7.6513746344324964</v>
       </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3554,11 +3404,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.729297437759444</v>
+        <v>9.0436302152107402</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.729297437759444</v>
+        <v>9.0436302152107402</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3570,37 +3420,22 @@
         <v>4.4376056965310759</v>
       </c>
       <c r="CG10" s="1">
-        <v>3.8728842971732478</v>
+        <v>17.045007135976714</v>
       </c>
       <c r="CH10" s="1">
-        <v>3.3420105526665189</v>
+        <v>14.901707307121656</v>
       </c>
       <c r="CI10" s="1">
-        <v>8.7175212733279697</v>
+        <v>12.486550123753087</v>
       </c>
       <c r="CJ10" s="1">
-        <v>12.82072511631856</v>
+        <v>10.729297437759444</v>
       </c>
       <c r="CK10" s="1">
-        <v>16.445707798319088</v>
-      </c>
-      <c r="CL10" s="1">
-        <v>17.772727760275266</v>
-      </c>
-      <c r="CM10" s="1">
-        <v>17.045007135976714</v>
-      </c>
-      <c r="CN10" s="1">
-        <v>14.901707307121656</v>
-      </c>
-      <c r="CO10" s="1">
-        <v>12.486550123753087</v>
-      </c>
-      <c r="CP10" s="1">
-        <v>10.729297437759444</v>
+        <v>9.0436302152107402</v>
       </c>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3840,11 +3675,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.6093339900976211</v>
+        <v>8.1547042352418249</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.6093339900976211</v>
+        <v>8.1547042352418249</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3856,42 +3691,27 @@
         <v>0.53256600935462006</v>
       </c>
       <c r="CG11" s="1">
-        <v>3.156161120655943</v>
+        <v>9.1159769433714288</v>
       </c>
       <c r="CH11" s="1">
-        <v>5.5218347709050883</v>
+        <v>8.0197564110179638</v>
       </c>
       <c r="CI11" s="1">
-        <v>6.8722895180192314</v>
+        <v>7.1286032676410462</v>
       </c>
       <c r="CJ11" s="1">
-        <v>7.4757604770686132</v>
+        <v>6.6093339900976211</v>
       </c>
       <c r="CK11" s="1">
-        <v>8.0396707445872959</v>
-      </c>
-      <c r="CL11" s="1">
-        <v>9.5280916333972634</v>
-      </c>
-      <c r="CM11" s="1">
-        <v>9.1159769433714288</v>
-      </c>
-      <c r="CN11" s="1">
-        <v>8.0197564110179638</v>
-      </c>
-      <c r="CO11" s="1">
-        <v>7.1286032676410462</v>
-      </c>
-      <c r="CP11" s="1">
-        <v>6.6093339900976211</v>
+        <v>8.1547042352418249</v>
       </c>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -4126,11 +3946,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.504357031855415</v>
+        <v>10.863585605799814</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.504357031855415</v>
+        <v>10.863585605799814</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4142,42 +3962,27 @@
         <v>14.11258681578026</v>
       </c>
       <c r="CG12" s="1">
-        <v>13.456241942693559</v>
+        <v>15.485553978162034</v>
       </c>
       <c r="CH12" s="1">
-        <v>12.529154809458598</v>
+        <v>12.946338812456732</v>
       </c>
       <c r="CI12" s="1">
-        <v>10.598440240581542</v>
+        <v>12.227808641918193</v>
       </c>
       <c r="CJ12" s="1">
-        <v>11.965584732690733</v>
+        <v>11.504357031855415</v>
       </c>
       <c r="CK12" s="1">
-        <v>12.072133765285232</v>
-      </c>
-      <c r="CL12" s="1">
-        <v>13.882183596107454</v>
-      </c>
-      <c r="CM12" s="1">
-        <v>15.485553978162034</v>
-      </c>
-      <c r="CN12" s="1">
-        <v>12.946338812456732</v>
-      </c>
-      <c r="CO12" s="1">
-        <v>12.227808641918193</v>
-      </c>
-      <c r="CP12" s="1">
-        <v>11.504357031855415</v>
+        <v>10.863585605799814</v>
       </c>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2">
         <v>4.632702365952623</v>
@@ -4412,11 +4217,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>3.7190538952327583</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>3.7190538952327583</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4428,42 +4233,27 @@
         <v>2.3061734304100252</v>
       </c>
       <c r="CG13" s="1">
-        <v>1.7525390803943737</v>
+        <v>0</v>
       </c>
       <c r="CH13" s="1">
-        <v>0.9860418682175317</v>
+        <v>0</v>
       </c>
       <c r="CI13" s="1">
-        <v>0.52491621463652338</v>
+        <v>0</v>
       </c>
       <c r="CJ13" s="1">
         <v>0</v>
       </c>
       <c r="CK13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CL13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO13" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP13" s="1">
-        <v>0</v>
+        <v>3.7190538952327583</v>
       </c>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -4698,11 +4488,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>44.399509122518197</v>
+        <v>43.472292778212143</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>44.399509122518197</v>
+        <v>43.472292778212143</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4714,42 +4504,27 @@
         <v>43.826786251136497</v>
       </c>
       <c r="CG14" s="1">
-        <v>43.274218130082168</v>
+        <v>47.175949093667064</v>
       </c>
       <c r="CH14" s="1">
-        <v>42.320547261257438</v>
+        <v>45.433600870996599</v>
       </c>
       <c r="CI14" s="1">
-        <v>51.15410626449934</v>
+        <v>44.650810748545069</v>
       </c>
       <c r="CJ14" s="1">
-        <v>48.916269942172214</v>
+        <v>44.399509122518197</v>
       </c>
       <c r="CK14" s="1">
-        <v>47.942381785227276</v>
-      </c>
-      <c r="CL14" s="1">
-        <v>47.775264882556257</v>
-      </c>
-      <c r="CM14" s="1">
-        <v>47.175949093667064</v>
-      </c>
-      <c r="CN14" s="1">
-        <v>45.433600870996599</v>
-      </c>
-      <c r="CO14" s="1">
-        <v>44.650810748545069</v>
-      </c>
-      <c r="CP14" s="1">
-        <v>44.399509122518197</v>
+        <v>43.472292778212143</v>
       </c>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -4984,11 +4759,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.172460150894779</v>
+        <v>15.332768554275114</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.172460150894779</v>
+        <v>15.332768554275114</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -5000,42 +4775,27 @@
         <v>6.6542717890275496</v>
       </c>
       <c r="CG15" s="1">
-        <v>10.192396789047077</v>
+        <v>2.82068434210432</v>
       </c>
       <c r="CH15" s="1">
-        <v>8.894002293627068</v>
+        <v>16.911388755920086</v>
       </c>
       <c r="CI15" s="1">
-        <v>4.5500612098362145</v>
+        <v>16.390779966015895</v>
       </c>
       <c r="CJ15" s="1">
-        <v>4.2310265131564799</v>
+        <v>16.172460150894779</v>
       </c>
       <c r="CK15" s="1">
-        <v>3.9013361355079228</v>
-      </c>
-      <c r="CL15" s="1">
-        <v>3.0404779272033577</v>
-      </c>
-      <c r="CM15" s="1">
-        <v>2.82068434210432</v>
-      </c>
-      <c r="CN15" s="1">
-        <v>16.911388755920086</v>
-      </c>
-      <c r="CO15" s="1">
-        <v>16.390779966015895</v>
-      </c>
-      <c r="CP15" s="1">
-        <v>16.172460150894779</v>
+        <v>15.332768554275114</v>
       </c>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <v>5.2680642367083559</v>
@@ -5300,28 +5060,13 @@
       <c r="CK16" s="1">
         <v>0</v>
       </c>
-      <c r="CL16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CM16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CN16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CO16" s="1">
-        <v>0</v>
-      </c>
-      <c r="CP16" s="1">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -5572,42 +5317,27 @@
         <v>7.1876271447111131E-2</v>
       </c>
       <c r="CG17" s="1">
-        <v>0</v>
+        <v>1.7856035991001411</v>
       </c>
       <c r="CH17" s="1">
-        <v>0</v>
+        <v>0.62496000000192742</v>
       </c>
       <c r="CI17" s="1">
-        <v>10.304569300734874</v>
+        <v>0.62496000000192742</v>
       </c>
       <c r="CJ17" s="1">
-        <v>8.9280179955007064</v>
+        <v>0</v>
       </c>
       <c r="CK17" s="1">
-        <v>3.9680079980003136</v>
-      </c>
-      <c r="CL17" s="1">
-        <v>2.9760059985002347</v>
-      </c>
-      <c r="CM17" s="1">
-        <v>1.7856035991001411</v>
-      </c>
-      <c r="CN17" s="1">
-        <v>0.62496000000192742</v>
-      </c>
-      <c r="CO17" s="1">
-        <v>0.62496000000192742</v>
-      </c>
-      <c r="CP17" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -5842,11 +5572,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.6349419999999687</v>
+        <v>0.60709366666663667</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.6349419999999687</v>
+        <v>0.60709366666663667</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5858,34 +5588,19 @@
         <v>1.0375768621809889</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.12903874681946309</v>
+        <v>9.3892403924732761</v>
       </c>
       <c r="CH18" s="1">
-        <v>2.4464693019445143</v>
+        <v>3.1997734999998424</v>
       </c>
       <c r="CI18" s="1">
-        <v>18.938279506344095</v>
+        <v>1.08051533333328</v>
       </c>
       <c r="CJ18" s="1">
-        <v>15.422350855629702</v>
+        <v>0.6349419999999687</v>
       </c>
       <c r="CK18" s="1">
-        <v>13.050987549754897</v>
-      </c>
-      <c r="CL18" s="1">
-        <v>11.126730929235961</v>
-      </c>
-      <c r="CM18" s="1">
-        <v>9.3892403924732761</v>
-      </c>
-      <c r="CN18" s="1">
-        <v>3.1997734999998424</v>
-      </c>
-      <c r="CO18" s="1">
-        <v>1.08051533333328</v>
-      </c>
-      <c r="CP18" s="1">
-        <v>0.6349419999999687</v>
+        <v>0.60709366666663667</v>
       </c>
     </row>
   </sheetData>
@@ -5929,11 +5644,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>5.5581799387251509</v>
+        <v>6.7112417157120436</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5948,7 +5663,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>4.8888069949958188</v>
+        <v>4.3303096838874966</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5963,7 +5678,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>7.700471435593756</v>
+        <v>9.1055079493018116</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5978,7 +5693,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>4.3630321768791882</v>
+        <v>3.4601557467566444</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5989,11 +5704,11 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>6.5273824224214518</v>
+        <v>7.6058698707922634</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6004,11 +5719,11 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.3626170798673742</v>
+        <v>7.5560131478547303</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6019,11 +5734,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.2302818022951092</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6038,7 +5753,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>8.9552349995673524</v>
+        <v>7.6513746344324964</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6053,7 +5768,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>10.729297437759444</v>
+        <v>9.0436302152107402</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6068,7 +5783,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>6.6093339900976211</v>
+        <v>8.1547042352418249</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6076,14 +5791,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>11.504357031855415</v>
+        <v>10.863585605799814</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6094,11 +5809,11 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.7190538952327583</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6106,14 +5821,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>44.399509122518197</v>
+        <v>43.472292778212143</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6124,11 +5839,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>16.172460150894779</v>
+        <v>15.332768554275114</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6139,7 +5854,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
@@ -6154,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
@@ -6169,11 +5884,11 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>0.6349419999999687</v>
+        <v>0.60709366666663667</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6181,47 +5896,47 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>11.504357031855415</v>
+        <v>10.863585605799814</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>3.7190538952327583</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>6.2302818022951092</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1">
-        <v>6.5273824224214518</v>
+        <v>7.6058698707922634</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1">
-        <v>6.3626170798673742</v>
+        <v>7.5560131478547303</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -6232,7 +5947,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>7.700471435593756</v>
+        <v>9.1055079493018116</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6240,15 +5955,15 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>4.3630321768791882</v>
+        <v>3.4601557467566444</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="1">
-        <v>5.5581799387251509</v>
+        <v>6.7112417157120436</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,12 +5971,12 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>4.8888069949958188</v>
+        <v>4.3303096838874966</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -6269,18 +5984,18 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
-        <v>0.6349419999999687</v>
+        <v>0.60709366666663667</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>16.172460150894779</v>
+        <v>15.332768554275114</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6003,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>10.729297437759444</v>
+        <v>9.0436302152107402</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6011,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>6.6093339900976211</v>
+        <v>8.1547042352418249</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,15 +6019,15 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>8.9552349995673524</v>
+        <v>7.6513746344324964</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" s="1">
-        <v>44.399509122518197</v>
+        <v>43.472292778212143</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE456F38-05D1-428E-A0D2-1048E187C499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1434EE91-82C2-41BB-91B6-E4FAAE635D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
   <si>
     <t>Línea</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>16-nov</t>
+  </si>
+  <si>
+    <t>17-nov</t>
   </si>
 </sst>
 </file>
@@ -704,10 +707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CK18"/>
+  <dimension ref="A1:CL18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CK5" sqref="CK5"/>
+      <selection activeCell="CI11" sqref="CI11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,7 +730,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -995,8 +998,11 @@
       <c r="CK1" s="3" t="s">
         <v>111</v>
       </c>
+      <c r="CL1" s="3" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="2" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1236,11 +1242,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.7112417157120436</v>
+        <v>6.6413192052082621</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.7112417157120436</v>
+        <v>6.6413192052082621</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1266,8 +1272,11 @@
       <c r="CK2" s="1">
         <v>6.7112417157120436</v>
       </c>
+      <c r="CL2" s="1">
+        <v>6.6413192052082621</v>
+      </c>
     </row>
-    <row r="3" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1507,11 +1516,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.3303096838874966</v>
+        <v>2.3051702742804281</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.3303096838874966</v>
+        <v>2.3051702742804281</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1537,8 +1546,11 @@
       <c r="CK3" s="1">
         <v>4.3303096838874966</v>
       </c>
+      <c r="CL3" s="1">
+        <v>2.3051702742804281</v>
+      </c>
     </row>
-    <row r="4" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1778,11 +1790,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.1055079493018116</v>
+        <v>11.779434027715201</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.1055079493018116</v>
+        <v>11.779434027715201</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1808,8 +1820,11 @@
       <c r="CK4" s="1">
         <v>9.1055079493018116</v>
       </c>
+      <c r="CL4" s="1">
+        <v>11.779434027715201</v>
+      </c>
     </row>
-    <row r="5" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2049,11 +2064,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.4601557467566444</v>
+        <v>7.6092121741983911</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.4601557467566444</v>
+        <v>7.6092121741983911</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2079,8 +2094,11 @@
       <c r="CK5" s="1">
         <v>3.4601557467566444</v>
       </c>
+      <c r="CL5" s="1">
+        <v>7.6092121741983911</v>
+      </c>
     </row>
-    <row r="6" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2320,11 +2338,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6058698707922634</v>
+        <v>7.614555675745585</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6058698707922634</v>
+        <v>7.614555675745585</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2350,8 +2368,11 @@
       <c r="CK6" s="1">
         <v>7.6058698707922634</v>
       </c>
+      <c r="CL6" s="1">
+        <v>7.614555675745585</v>
+      </c>
     </row>
-    <row r="7" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2591,11 +2612,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.5560131478547303</v>
+        <v>6.5866282983148343</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.5560131478547303</v>
+        <v>6.5866282983148343</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2621,8 +2642,11 @@
       <c r="CK7" s="1">
         <v>7.5560131478547303</v>
       </c>
+      <c r="CL7" s="1">
+        <v>6.5866282983148343</v>
+      </c>
     </row>
-    <row r="8" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2862,11 +2886,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.2302818022951092</v>
+        <v>6.9944711270895175</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.2302818022951092</v>
+        <v>6.9944711270895175</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2892,8 +2916,11 @@
       <c r="CK8" s="1">
         <v>6.2302818022951092</v>
       </c>
+      <c r="CL8" s="1">
+        <v>6.9944711270895175</v>
+      </c>
     </row>
-    <row r="9" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3133,11 +3160,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6513746344324964</v>
+        <v>7.1079796862285534</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6513746344324964</v>
+        <v>7.1079796862285534</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3163,8 +3190,11 @@
       <c r="CK9" s="1">
         <v>7.6513746344324964</v>
       </c>
+      <c r="CL9" s="1">
+        <v>7.1079796862285534</v>
+      </c>
     </row>
-    <row r="10" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3404,11 +3434,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.0436302152107402</v>
+        <v>7.8880363053138529</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.0436302152107402</v>
+        <v>7.8880363053138529</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3434,8 +3464,11 @@
       <c r="CK10" s="1">
         <v>9.0436302152107402</v>
       </c>
+      <c r="CL10" s="1">
+        <v>7.8880363053138529</v>
+      </c>
     </row>
-    <row r="11" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3675,11 +3708,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.1547042352418249</v>
+        <v>10.606774608120533</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.1547042352418249</v>
+        <v>10.606774608120533</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3705,8 +3738,11 @@
       <c r="CK11" s="1">
         <v>8.1547042352418249</v>
       </c>
+      <c r="CL11" s="1">
+        <v>10.606774608120533</v>
+      </c>
     </row>
-    <row r="12" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3946,11 +3982,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.863585605799814</v>
+        <v>9.592869920641931</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.863585605799814</v>
+        <v>9.592869920641931</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -3976,8 +4012,11 @@
       <c r="CK12" s="1">
         <v>10.863585605799814</v>
       </c>
+      <c r="CL12" s="1">
+        <v>9.592869920641931</v>
+      </c>
     </row>
-    <row r="13" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4217,11 +4256,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7190538952327583</v>
+        <v>3.1188867291981048</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.7190538952327583</v>
+        <v>3.1188867291981048</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4247,8 +4286,11 @@
       <c r="CK13" s="1">
         <v>3.7190538952327583</v>
       </c>
+      <c r="CL13" s="1">
+        <v>3.1188867291981048</v>
+      </c>
     </row>
-    <row r="14" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4488,11 +4530,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.472292778212143</v>
+        <v>43.183440334503089</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.472292778212143</v>
+        <v>43.183440334503089</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4518,8 +4560,11 @@
       <c r="CK14" s="1">
         <v>43.472292778212143</v>
       </c>
+      <c r="CL14" s="1">
+        <v>43.183440334503089</v>
+      </c>
     </row>
-    <row r="15" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4759,11 +4804,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.332768554275114</v>
+        <v>13.821323680359713</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.332768554275114</v>
+        <v>13.821323680359713</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4789,8 +4834,11 @@
       <c r="CK15" s="1">
         <v>15.332768554275114</v>
       </c>
+      <c r="CL15" s="1">
+        <v>13.821323680359713</v>
+      </c>
     </row>
-    <row r="16" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5060,8 +5108,11 @@
       <c r="CK16" s="1">
         <v>0</v>
       </c>
+      <c r="CL16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5301,11 +5352,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>1.8135000000055927</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0</v>
+        <v>1.8135000000055927</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5331,8 +5382,11 @@
       <c r="CK17" s="1">
         <v>0</v>
       </c>
+      <c r="CL17" s="1">
+        <v>1.8135000000055927</v>
+      </c>
     </row>
-    <row r="18" spans="1:89" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5572,11 +5626,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.60709366666663667</v>
+        <v>1.5539369999999233</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.60709366666663667</v>
+        <v>1.5539369999999233</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5601,6 +5655,9 @@
       </c>
       <c r="CK18" s="1">
         <v>0.60709366666663667</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>1.5539369999999233</v>
       </c>
     </row>
   </sheetData>
@@ -5648,7 +5705,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.7112417157120436</v>
+        <v>6.6413192052082621</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5663,7 +5720,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>4.3303096838874966</v>
+        <v>2.3051702742804281</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5678,7 +5735,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>9.1055079493018116</v>
+        <v>11.779434027715201</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5693,7 +5750,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>3.4601557467566444</v>
+        <v>7.6092121741983911</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5708,7 +5765,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>7.6058698707922634</v>
+        <v>7.614555675745585</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5723,7 +5780,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>7.5560131478547303</v>
+        <v>6.5866282983148343</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5738,7 +5795,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>6.2302818022951092</v>
+        <v>6.9944711270895175</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5753,7 +5810,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.6513746344324964</v>
+        <v>7.1079796862285534</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5768,7 +5825,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>9.0436302152107402</v>
+        <v>7.8880363053138529</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5783,7 +5840,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>8.1547042352418249</v>
+        <v>10.606774608120533</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5798,7 +5855,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>10.863585605799814</v>
+        <v>9.592869920641931</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5813,7 +5870,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>3.7190538952327583</v>
+        <v>3.1188867291981048</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5828,7 +5885,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>43.472292778212143</v>
+        <v>43.183440334503089</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5843,7 +5900,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>15.332768554275114</v>
+        <v>13.821323680359713</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5873,7 +5930,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.8135000000055927</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5888,7 +5945,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>0.60709366666663667</v>
+        <v>1.5539369999999233</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5899,7 +5956,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>10.863585605799814</v>
+        <v>9.592869920641931</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5907,7 +5964,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="1">
-        <v>3.7190538952327583</v>
+        <v>3.1188867291981048</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5915,7 +5972,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="1">
-        <v>6.2302818022951092</v>
+        <v>6.9944711270895175</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5923,7 +5980,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="1">
-        <v>7.6058698707922634</v>
+        <v>7.614555675745585</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5931,7 +5988,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="1">
-        <v>7.5560131478547303</v>
+        <v>6.5866282983148343</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -5947,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>9.1055079493018116</v>
+        <v>11.779434027715201</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -5955,7 +6012,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>3.4601557467566444</v>
+        <v>7.6092121741983911</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -5963,7 +6020,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="1">
-        <v>6.7112417157120436</v>
+        <v>6.6413192052082621</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -5971,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>4.3303096838874966</v>
+        <v>2.3051702742804281</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -5979,7 +6036,7 @@
         <v>92</v>
       </c>
       <c r="B30" s="1">
-        <v>0</v>
+        <v>1.8135000000055927</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -5987,7 +6044,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="1">
-        <v>0.60709366666663667</v>
+        <v>1.5539369999999233</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -5995,7 +6052,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>15.332768554275114</v>
+        <v>13.821323680359713</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6003,7 +6060,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>9.0436302152107402</v>
+        <v>7.8880363053138529</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6011,7 +6068,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>8.1547042352418249</v>
+        <v>10.606774608120533</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6019,7 +6076,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.6513746344324964</v>
+        <v>7.1079796862285534</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6027,7 +6084,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="1">
-        <v>43.472292778212143</v>
+        <v>43.183440334503089</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1434EE91-82C2-41BB-91B6-E4FAAE635D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D26D7F-38F7-4CAA-B3C9-CEF469BBC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
   <si>
     <t>Línea</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>17-nov</t>
+  </si>
+  <si>
+    <t>21-nov</t>
   </si>
 </sst>
 </file>
@@ -707,10 +710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CL18"/>
+  <dimension ref="A1:CM18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CI11" sqref="CI11"/>
+      <selection activeCell="CM2" sqref="CM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,7 +733,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1001,8 +1004,11 @@
       <c r="CL1" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="CM1" s="3" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="2" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1242,11 +1248,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.6413192052082621</v>
+        <v>4.8564437573668622</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.6413192052082621</v>
+        <v>4.8564437573668622</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1275,8 +1281,11 @@
       <c r="CL2" s="1">
         <v>6.6413192052082621</v>
       </c>
+      <c r="CM2" s="1">
+        <v>4.8564437573668622</v>
+      </c>
     </row>
-    <row r="3" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1516,11 +1525,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3051702742804281</v>
+        <v>0.84188632979554467</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3051702742804281</v>
+        <v>0.84188632979554467</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1549,8 +1558,11 @@
       <c r="CL3" s="1">
         <v>2.3051702742804281</v>
       </c>
+      <c r="CM3" s="1">
+        <v>0.84188632979554467</v>
+      </c>
     </row>
-    <row r="4" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1790,11 +1802,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.779434027715201</v>
+        <v>13.093917029548642</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.779434027715201</v>
+        <v>13.093917029548642</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1823,8 +1835,11 @@
       <c r="CL4" s="1">
         <v>11.779434027715201</v>
       </c>
+      <c r="CM4" s="1">
+        <v>13.093917029548642</v>
+      </c>
     </row>
-    <row r="5" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2064,11 +2079,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6092121741983911</v>
+        <v>12.247737578050847</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6092121741983911</v>
+        <v>12.247737578050847</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2097,8 +2112,11 @@
       <c r="CL5" s="1">
         <v>7.6092121741983911</v>
       </c>
+      <c r="CM5" s="1">
+        <v>12.247737578050847</v>
+      </c>
     </row>
-    <row r="6" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2338,11 +2356,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.614555675745585</v>
+        <v>8.241300995293086</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.614555675745585</v>
+        <v>8.241300995293086</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2371,8 +2389,11 @@
       <c r="CL6" s="1">
         <v>7.614555675745585</v>
       </c>
+      <c r="CM6" s="1">
+        <v>8.241300995293086</v>
+      </c>
     </row>
-    <row r="7" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2612,11 +2633,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.5866282983148343</v>
+        <v>7.4503895899621275</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.5866282983148343</v>
+        <v>7.4503895899621275</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2645,8 +2666,11 @@
       <c r="CL7" s="1">
         <v>6.5866282983148343</v>
       </c>
+      <c r="CM7" s="1">
+        <v>7.4503895899621275</v>
+      </c>
     </row>
-    <row r="8" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2886,11 +2910,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9944711270895175</v>
+        <v>7.1933541229111588</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9944711270895175</v>
+        <v>7.1933541229111588</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2919,8 +2943,11 @@
       <c r="CL8" s="1">
         <v>6.9944711270895175</v>
       </c>
+      <c r="CM8" s="1">
+        <v>7.1933541229111588</v>
+      </c>
     </row>
-    <row r="9" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3160,11 +3187,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1079796862285534</v>
+        <v>5.7974960181187329</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1079796862285534</v>
+        <v>5.7974960181187329</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3193,8 +3220,11 @@
       <c r="CL9" s="1">
         <v>7.1079796862285534</v>
       </c>
+      <c r="CM9" s="1">
+        <v>5.7974960181187329</v>
+      </c>
     </row>
-    <row r="10" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3434,11 +3464,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8880363053138529</v>
+        <v>10.864299891629882</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8880363053138529</v>
+        <v>10.864299891629882</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3467,8 +3497,11 @@
       <c r="CL10" s="1">
         <v>7.8880363053138529</v>
       </c>
+      <c r="CM10" s="1">
+        <v>10.864299891629882</v>
+      </c>
     </row>
-    <row r="11" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3708,11 +3741,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.606774608120533</v>
+        <v>12.852497738105013</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.606774608120533</v>
+        <v>12.852497738105013</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3741,8 +3774,11 @@
       <c r="CL11" s="1">
         <v>10.606774608120533</v>
       </c>
+      <c r="CM11" s="1">
+        <v>12.852497738105013</v>
+      </c>
     </row>
-    <row r="12" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -3982,11 +4018,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.592869920641931</v>
+        <v>7.8124694268455457</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.592869920641931</v>
+        <v>7.8124694268455457</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4015,8 +4051,11 @@
       <c r="CL12" s="1">
         <v>9.592869920641931</v>
       </c>
+      <c r="CM12" s="1">
+        <v>7.8124694268455457</v>
+      </c>
     </row>
-    <row r="13" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4256,11 +4295,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.1188867291981048</v>
+        <v>1.0789137669908284</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.1188867291981048</v>
+        <v>1.0789137669908284</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4289,8 +4328,11 @@
       <c r="CL13" s="1">
         <v>3.1188867291981048</v>
       </c>
+      <c r="CM13" s="1">
+        <v>1.0789137669908284</v>
+      </c>
     </row>
-    <row r="14" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4530,11 +4572,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.183440334503089</v>
+        <v>34.878552096152589</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>43.183440334503089</v>
+        <v>34.878552096152589</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4563,8 +4605,11 @@
       <c r="CL14" s="1">
         <v>43.183440334503089</v>
       </c>
+      <c r="CM14" s="1">
+        <v>34.878552096152589</v>
+      </c>
     </row>
-    <row r="15" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4804,11 +4849,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.821323680359713</v>
+        <v>12.709138617224118</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.821323680359713</v>
+        <v>12.709138617224118</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4837,8 +4882,11 @@
       <c r="CL15" s="1">
         <v>13.821323680359713</v>
       </c>
+      <c r="CM15" s="1">
+        <v>12.709138617224118</v>
+      </c>
     </row>
-    <row r="16" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5111,8 +5159,11 @@
       <c r="CL16" s="1">
         <v>0</v>
       </c>
+      <c r="CM16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5352,11 +5403,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.8135000000055927</v>
+        <v>12.258000000037805</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.8135000000055927</v>
+        <v>12.258000000037805</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5385,8 +5436,11 @@
       <c r="CL17" s="1">
         <v>1.8135000000055927</v>
       </c>
+      <c r="CM17" s="1">
+        <v>12.258000000037805</v>
+      </c>
     </row>
-    <row r="18" spans="1:90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5626,11 +5680,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.5539369999999233</v>
+        <v>12.477850000103997</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.5539369999999233</v>
+        <v>12.477850000103997</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5658,6 +5712,9 @@
       </c>
       <c r="CL18" s="1">
         <v>1.5539369999999233</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>12.477850000103997</v>
       </c>
     </row>
   </sheetData>
@@ -5705,7 +5762,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.6413192052082621</v>
+        <v>4.8564437573668622</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5720,7 +5777,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>2.3051702742804281</v>
+        <v>0.84188632979554467</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5735,7 +5792,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>11.779434027715201</v>
+        <v>13.093917029548642</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5750,7 +5807,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>7.6092121741983911</v>
+        <v>12.247737578050847</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5765,7 +5822,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>7.614555675745585</v>
+        <v>8.241300995293086</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5780,7 +5837,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.5866282983148343</v>
+        <v>7.4503895899621275</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5795,7 +5852,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>6.9944711270895175</v>
+        <v>7.1933541229111588</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5810,7 +5867,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.1079796862285534</v>
+        <v>5.7974960181187329</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5825,7 +5882,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>7.8880363053138529</v>
+        <v>10.864299891629882</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5840,7 +5897,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>10.606774608120533</v>
+        <v>12.852497738105013</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5855,7 +5912,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>9.592869920641931</v>
+        <v>7.8124694268455457</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5870,7 +5927,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>3.1188867291981048</v>
+        <v>1.0789137669908284</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5885,7 +5942,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>43.183440334503089</v>
+        <v>34.878552096152589</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5900,7 +5957,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>13.821323680359713</v>
+        <v>12.709138617224118</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -5930,7 +5987,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>1.8135000000055927</v>
+        <v>12.258000000037805</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -5945,7 +6002,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>1.5539369999999233</v>
+        <v>12.477850000103997</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -5956,7 +6013,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>9.592869920641931</v>
+        <v>7.8124694268455457</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -5964,7 +6021,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="1">
-        <v>3.1188867291981048</v>
+        <v>1.0789137669908284</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -5972,7 +6029,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="1">
-        <v>6.9944711270895175</v>
+        <v>7.1933541229111588</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -5980,7 +6037,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="1">
-        <v>7.614555675745585</v>
+        <v>8.241300995293086</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -5988,7 +6045,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="1">
-        <v>6.5866282983148343</v>
+        <v>7.4503895899621275</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6004,7 +6061,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>11.779434027715201</v>
+        <v>13.093917029548642</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6012,7 +6069,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>7.6092121741983911</v>
+        <v>12.247737578050847</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6020,7 +6077,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="1">
-        <v>6.6413192052082621</v>
+        <v>4.8564437573668622</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6028,7 +6085,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>2.3051702742804281</v>
+        <v>0.84188632979554467</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6036,7 +6093,7 @@
         <v>92</v>
       </c>
       <c r="B30" s="1">
-        <v>1.8135000000055927</v>
+        <v>12.258000000037805</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6044,7 +6101,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="1">
-        <v>1.5539369999999233</v>
+        <v>12.477850000103997</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6052,7 +6109,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>13.821323680359713</v>
+        <v>12.709138617224118</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6060,7 +6117,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>7.8880363053138529</v>
+        <v>10.864299891629882</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6068,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>10.606774608120533</v>
+        <v>12.852497738105013</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6076,7 +6133,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.1079796862285534</v>
+        <v>5.7974960181187329</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6084,7 +6141,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="1">
-        <v>43.183440334503089</v>
+        <v>34.878552096152589</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D26D7F-38F7-4CAA-B3C9-CEF469BBC583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6C22D-9AC9-4FC8-8A0B-EB2635C9F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
   <si>
     <t>Línea</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>21-nov</t>
+  </si>
+  <si>
+    <t>22-nov</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CM18"/>
+  <dimension ref="A1:CN18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2"/>
+    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="CN4" sqref="CN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -733,7 +736,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:91" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1010,11 @@
       <c r="CM1" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="CN1" s="3" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="2" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1248,11 +1254,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8564437573668622</v>
+        <v>5.2875743553630024</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>4.8564437573668622</v>
+        <v>5.2875743553630024</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1284,8 +1290,11 @@
       <c r="CM2" s="1">
         <v>4.8564437573668622</v>
       </c>
+      <c r="CN2" s="1">
+        <v>5.2875743553630024</v>
+      </c>
     </row>
-    <row r="3" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1525,11 +1534,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.84188632979554467</v>
+        <v>0.27660253877070262</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.84188632979554467</v>
+        <v>0.27660253877070262</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1561,8 +1570,11 @@
       <c r="CM3" s="1">
         <v>0.84188632979554467</v>
       </c>
+      <c r="CN3" s="1">
+        <v>0.27660253877070262</v>
+      </c>
     </row>
-    <row r="4" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1802,11 +1814,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.093917029548642</v>
+        <v>14.566260958152959</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>13.093917029548642</v>
+        <v>14.566260958152959</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1838,8 +1850,11 @@
       <c r="CM4" s="1">
         <v>13.093917029548642</v>
       </c>
+      <c r="CN4" s="1">
+        <v>14.566260958152959</v>
+      </c>
     </row>
-    <row r="5" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2079,11 +2094,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.247737578050847</v>
+        <v>10.026785466472022</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.247737578050847</v>
+        <v>10.026785466472022</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2115,8 +2130,11 @@
       <c r="CM5" s="1">
         <v>12.247737578050847</v>
       </c>
+      <c r="CN5" s="1">
+        <v>10.026785466472022</v>
+      </c>
     </row>
-    <row r="6" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2356,11 +2374,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.241300995293086</v>
+        <v>8.942351403102295</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.241300995293086</v>
+        <v>8.942351403102295</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2392,8 +2410,11 @@
       <c r="CM6" s="1">
         <v>8.241300995293086</v>
       </c>
+      <c r="CN6" s="1">
+        <v>8.942351403102295</v>
+      </c>
     </row>
-    <row r="7" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2633,11 +2654,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4503895899621275</v>
+        <v>6.990309759752801</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.4503895899621275</v>
+        <v>6.990309759752801</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2669,8 +2690,11 @@
       <c r="CM7" s="1">
         <v>7.4503895899621275</v>
       </c>
+      <c r="CN7" s="1">
+        <v>6.990309759752801</v>
+      </c>
     </row>
-    <row r="8" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2910,11 +2934,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1933541229111588</v>
+        <v>7.6975611876011918</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1933541229111588</v>
+        <v>7.6975611876011918</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2946,8 +2970,11 @@
       <c r="CM8" s="1">
         <v>7.1933541229111588</v>
       </c>
+      <c r="CN8" s="1">
+        <v>7.6975611876011918</v>
+      </c>
     </row>
-    <row r="9" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3187,11 +3214,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.7974960181187329</v>
+        <v>7.1956910702905352</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.7974960181187329</v>
+        <v>7.1956910702905352</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3223,8 +3250,11 @@
       <c r="CM9" s="1">
         <v>5.7974960181187329</v>
       </c>
+      <c r="CN9" s="1">
+        <v>7.1956910702905352</v>
+      </c>
     </row>
-    <row r="10" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3464,11 +3494,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.864299891629882</v>
+        <v>10.458726400575104</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.864299891629882</v>
+        <v>10.458726400575104</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3500,8 +3530,11 @@
       <c r="CM10" s="1">
         <v>10.864299891629882</v>
       </c>
+      <c r="CN10" s="1">
+        <v>10.458726400575104</v>
+      </c>
     </row>
-    <row r="11" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3741,11 +3774,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.852497738105013</v>
+        <v>12.550918272060255</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.852497738105013</v>
+        <v>12.550918272060255</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3777,8 +3810,11 @@
       <c r="CM11" s="1">
         <v>12.852497738105013</v>
       </c>
+      <c r="CN11" s="1">
+        <v>12.550918272060255</v>
+      </c>
     </row>
-    <row r="12" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4018,11 +4054,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8124694268455457</v>
+        <v>7.3830031133737029</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.8124694268455457</v>
+        <v>7.3830031133737029</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4054,8 +4090,11 @@
       <c r="CM12" s="1">
         <v>7.8124694268455457</v>
       </c>
+      <c r="CN12" s="1">
+        <v>7.3830031133737029</v>
+      </c>
     </row>
-    <row r="13" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4295,11 +4334,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.0789137669908284</v>
+        <v>2.3321091203297164</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>1.0789137669908284</v>
+        <v>2.3321091203297164</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4331,8 +4370,11 @@
       <c r="CM13" s="1">
         <v>1.0789137669908284</v>
       </c>
+      <c r="CN13" s="1">
+        <v>2.3321091203297164</v>
+      </c>
     </row>
-    <row r="14" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4572,11 +4614,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>34.878552096152589</v>
+        <v>34.320681219573011</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>34.878552096152589</v>
+        <v>34.320681219573011</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4608,8 +4650,11 @@
       <c r="CM14" s="1">
         <v>34.878552096152589</v>
       </c>
+      <c r="CN14" s="1">
+        <v>34.320681219573011</v>
+      </c>
     </row>
-    <row r="15" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4849,11 +4894,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.709138617224118</v>
+        <v>12.042802705067867</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.709138617224118</v>
+        <v>12.042802705067867</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4885,8 +4930,11 @@
       <c r="CM15" s="1">
         <v>12.709138617224118</v>
       </c>
+      <c r="CN15" s="1">
+        <v>12.042802705067867</v>
+      </c>
     </row>
-    <row r="16" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5162,8 +5210,11 @@
       <c r="CM16" s="1">
         <v>0</v>
       </c>
+      <c r="CN16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5439,8 +5490,11 @@
       <c r="CM17" s="1">
         <v>12.258000000037805</v>
       </c>
+      <c r="CN17" s="1">
+        <v>12.258000000037805</v>
+      </c>
     </row>
-    <row r="18" spans="1:91" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5680,11 +5734,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.477850000103997</v>
+        <v>11.938850000099501</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.477850000103997</v>
+        <v>11.938850000099501</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5715,6 +5769,9 @@
       </c>
       <c r="CM18" s="1">
         <v>12.477850000103997</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>11.938850000099501</v>
       </c>
     </row>
   </sheetData>
@@ -5762,7 +5819,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>4.8564437573668622</v>
+        <v>5.2875743553630024</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5777,7 +5834,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>0.84188632979554467</v>
+        <v>0.27660253877070262</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5792,7 +5849,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>13.093917029548642</v>
+        <v>14.566260958152959</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5807,7 +5864,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>12.247737578050847</v>
+        <v>10.026785466472022</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5822,7 +5879,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>8.241300995293086</v>
+        <v>8.942351403102295</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5837,7 +5894,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>7.4503895899621275</v>
+        <v>6.990309759752801</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5852,7 +5909,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>7.1933541229111588</v>
+        <v>7.6975611876011918</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5867,7 +5924,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>5.7974960181187329</v>
+        <v>7.1956910702905352</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5882,7 +5939,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>10.864299891629882</v>
+        <v>10.458726400575104</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5897,7 +5954,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>12.852497738105013</v>
+        <v>12.550918272060255</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5912,7 +5969,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>7.8124694268455457</v>
+        <v>7.3830031133737029</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5927,7 +5984,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>1.0789137669908284</v>
+        <v>2.3321091203297164</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5942,7 +5999,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>34.878552096152589</v>
+        <v>34.320681219573011</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -5957,7 +6014,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>12.709138617224118</v>
+        <v>12.042802705067867</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6002,7 +6059,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>12.477850000103997</v>
+        <v>11.938850000099501</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6013,7 +6070,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>7.8124694268455457</v>
+        <v>7.3830031133737029</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6021,7 +6078,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0789137669908284</v>
+        <v>2.3321091203297164</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6029,7 +6086,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="1">
-        <v>7.1933541229111588</v>
+        <v>7.6975611876011918</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6037,7 +6094,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="1">
-        <v>8.241300995293086</v>
+        <v>8.942351403102295</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6045,7 +6102,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="1">
-        <v>7.4503895899621275</v>
+        <v>6.990309759752801</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6061,7 +6118,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>13.093917029548642</v>
+        <v>14.566260958152959</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6069,7 +6126,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>12.247737578050847</v>
+        <v>10.026785466472022</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6077,7 +6134,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="1">
-        <v>4.8564437573668622</v>
+        <v>5.2875743553630024</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6085,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.84188632979554467</v>
+        <v>0.27660253877070262</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6101,7 +6158,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="1">
-        <v>12.477850000103997</v>
+        <v>11.938850000099501</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6109,7 +6166,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>12.709138617224118</v>
+        <v>12.042802705067867</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6117,7 +6174,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>10.864299891629882</v>
+        <v>10.458726400575104</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6125,7 +6182,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>12.852497738105013</v>
+        <v>12.550918272060255</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6133,7 +6190,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>5.7974960181187329</v>
+        <v>7.1956910702905352</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6141,7 +6198,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="1">
-        <v>34.878552096152589</v>
+        <v>34.320681219573011</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E6C22D-9AC9-4FC8-8A0B-EB2635C9F571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C823D-3E57-4661-88FD-9F49560FB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
   <si>
     <t>Línea</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>22-nov</t>
+  </si>
+  <si>
+    <t>23-nov</t>
   </si>
 </sst>
 </file>
@@ -713,10 +716,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CN18"/>
+  <dimension ref="A1:CO18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="CN4" sqref="CN4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="CQ7" sqref="CQ7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,7 +739,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:92" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1013,8 +1016,11 @@
       <c r="CN1" s="3" t="s">
         <v>114</v>
       </c>
+      <c r="CO1" s="3" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="2" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1254,11 +1260,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2875743553630024</v>
+        <v>6.3568830725813941</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>5.2875743553630024</v>
+        <v>6.3568830725813941</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1293,8 +1299,11 @@
       <c r="CN2" s="1">
         <v>5.2875743553630024</v>
       </c>
+      <c r="CO2" s="1">
+        <v>6.3568830725813941</v>
+      </c>
     </row>
-    <row r="3" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1534,11 +1543,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.27660253877070262</v>
+        <v>0.30438357978260722</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.27660253877070262</v>
+        <v>0.30438357978260722</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1573,8 +1582,11 @@
       <c r="CN3" s="1">
         <v>0.27660253877070262</v>
       </c>
+      <c r="CO3" s="1">
+        <v>0.30438357978260722</v>
+      </c>
     </row>
-    <row r="4" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1814,11 +1826,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.566260958152959</v>
+        <v>15.641916725891482</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>14.566260958152959</v>
+        <v>15.641916725891482</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1853,8 +1865,11 @@
       <c r="CN4" s="1">
         <v>14.566260958152959</v>
       </c>
+      <c r="CO4" s="1">
+        <v>15.641916725891482</v>
+      </c>
     </row>
-    <row r="5" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2094,11 +2109,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.026785466472022</v>
+        <v>9.4634220040227603</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.026785466472022</v>
+        <v>9.4634220040227603</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2133,8 +2148,11 @@
       <c r="CN5" s="1">
         <v>10.026785466472022</v>
       </c>
+      <c r="CO5" s="1">
+        <v>9.4634220040227603</v>
+      </c>
     </row>
-    <row r="6" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2374,11 +2392,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.942351403102295</v>
+        <v>9.7470478670968514</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.942351403102295</v>
+        <v>9.7470478670968514</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2413,8 +2431,11 @@
       <c r="CN6" s="1">
         <v>8.942351403102295</v>
       </c>
+      <c r="CO6" s="1">
+        <v>9.7470478670968514</v>
+      </c>
     </row>
-    <row r="7" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2654,11 +2675,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.990309759752801</v>
+        <v>6.8906842034833167</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.990309759752801</v>
+        <v>6.8906842034833167</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2693,8 +2714,11 @@
       <c r="CN7" s="1">
         <v>6.990309759752801</v>
       </c>
+      <c r="CO7" s="1">
+        <v>6.8906842034833167</v>
+      </c>
     </row>
-    <row r="8" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -2934,11 +2958,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6975611876011918</v>
+        <v>7.1287121915406404</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.6975611876011918</v>
+        <v>7.1287121915406404</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -2973,8 +2997,11 @@
       <c r="CN8" s="1">
         <v>7.6975611876011918</v>
       </c>
+      <c r="CO8" s="1">
+        <v>7.1287121915406404</v>
+      </c>
     </row>
-    <row r="9" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3214,11 +3241,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1956910702905352</v>
+        <v>9.2372786663899991</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1956910702905352</v>
+        <v>9.2372786663899991</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3253,8 +3280,11 @@
       <c r="CN9" s="1">
         <v>7.1956910702905352</v>
       </c>
+      <c r="CO9" s="1">
+        <v>9.2372786663899991</v>
+      </c>
     </row>
-    <row r="10" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3494,11 +3524,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.458726400575104</v>
+        <v>8.7384188426844194</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.458726400575104</v>
+        <v>8.7384188426844194</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3533,8 +3563,11 @@
       <c r="CN10" s="1">
         <v>10.458726400575104</v>
       </c>
+      <c r="CO10" s="1">
+        <v>8.7384188426844194</v>
+      </c>
     </row>
-    <row r="11" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3774,11 +3807,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.550918272060255</v>
+        <v>10.919534699567107</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.550918272060255</v>
+        <v>10.919534699567107</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3813,8 +3846,11 @@
       <c r="CN11" s="1">
         <v>12.550918272060255</v>
       </c>
+      <c r="CO11" s="1">
+        <v>10.919534699567107</v>
+      </c>
     </row>
-    <row r="12" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -4054,11 +4090,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.3830031133737029</v>
+        <v>8.4232659615610537</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.3830031133737029</v>
+        <v>8.4232659615610537</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4093,8 +4129,11 @@
       <c r="CN12" s="1">
         <v>7.3830031133737029</v>
       </c>
+      <c r="CO12" s="1">
+        <v>8.4232659615610537</v>
+      </c>
     </row>
-    <row r="13" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4334,11 +4373,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3321091203297164</v>
+        <v>3.9927386838936654</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>2.3321091203297164</v>
+        <v>3.9927386838936654</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4373,8 +4412,11 @@
       <c r="CN13" s="1">
         <v>2.3321091203297164</v>
       </c>
+      <c r="CO13" s="1">
+        <v>3.9927386838936654</v>
+      </c>
     </row>
-    <row r="14" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -4614,11 +4656,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>34.320681219573011</v>
+        <v>37.719044642736968</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>34.320681219573011</v>
+        <v>37.719044642736968</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4653,8 +4695,11 @@
       <c r="CN14" s="1">
         <v>34.320681219573011</v>
       </c>
+      <c r="CO14" s="1">
+        <v>37.719044642736968</v>
+      </c>
     </row>
-    <row r="15" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4894,11 +4939,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.042802705067867</v>
+        <v>23.045471303355239</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.042802705067867</v>
+        <v>23.045471303355239</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4933,8 +4978,11 @@
       <c r="CN15" s="1">
         <v>12.042802705067867</v>
       </c>
+      <c r="CO15" s="1">
+        <v>23.045471303355239</v>
+      </c>
     </row>
-    <row r="16" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5213,8 +5261,11 @@
       <c r="CN16" s="1">
         <v>0</v>
       </c>
+      <c r="CO16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5454,11 +5505,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.258000000037805</v>
+        <v>10.773000000033225</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>12.258000000037805</v>
+        <v>10.773000000033225</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5493,8 +5544,11 @@
       <c r="CN17" s="1">
         <v>12.258000000037805</v>
       </c>
+      <c r="CO17" s="1">
+        <v>10.773000000033225</v>
+      </c>
     </row>
-    <row r="18" spans="1:92" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5734,11 +5788,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.938850000099501</v>
+        <v>9.9957550000833084</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.938850000099501</v>
+        <v>9.9957550000833084</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5772,6 +5826,9 @@
       </c>
       <c r="CN18" s="1">
         <v>11.938850000099501</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>9.9957550000833084</v>
       </c>
     </row>
   </sheetData>
@@ -5819,7 +5876,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>5.2875743553630024</v>
+        <v>6.3568830725813941</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5834,7 +5891,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>0.27660253877070262</v>
+        <v>0.30438357978260722</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5849,7 +5906,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>14.566260958152959</v>
+        <v>15.641916725891482</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5864,7 +5921,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>10.026785466472022</v>
+        <v>9.4634220040227603</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5879,7 +5936,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>8.942351403102295</v>
+        <v>9.7470478670968514</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5894,7 +5951,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.990309759752801</v>
+        <v>6.8906842034833167</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5909,7 +5966,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>7.6975611876011918</v>
+        <v>7.1287121915406404</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5924,7 +5981,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>7.1956910702905352</v>
+        <v>9.2372786663899991</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5939,7 +5996,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>10.458726400575104</v>
+        <v>8.7384188426844194</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -5954,7 +6011,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>12.550918272060255</v>
+        <v>10.919534699567107</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5969,7 +6026,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>7.3830031133737029</v>
+        <v>8.4232659615610537</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -5984,7 +6041,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>2.3321091203297164</v>
+        <v>3.9927386838936654</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -5999,7 +6056,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>34.320681219573011</v>
+        <v>37.719044642736968</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6014,7 +6071,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>12.042802705067867</v>
+        <v>23.045471303355239</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6044,7 +6101,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>12.258000000037805</v>
+        <v>10.773000000033225</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6059,7 +6116,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>11.938850000099501</v>
+        <v>9.9957550000833084</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6070,7 +6127,7 @@
         <v>90</v>
       </c>
       <c r="B20" s="1">
-        <v>7.3830031133737029</v>
+        <v>8.4232659615610537</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6078,7 +6135,7 @@
         <v>109</v>
       </c>
       <c r="B21" s="1">
-        <v>2.3321091203297164</v>
+        <v>3.9927386838936654</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6086,7 +6143,7 @@
         <v>110</v>
       </c>
       <c r="B22" s="1">
-        <v>7.6975611876011918</v>
+        <v>7.1287121915406404</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6094,7 +6151,7 @@
         <v>101</v>
       </c>
       <c r="B23" s="1">
-        <v>8.942351403102295</v>
+        <v>9.7470478670968514</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6102,7 +6159,7 @@
         <v>102</v>
       </c>
       <c r="B24" s="1">
-        <v>6.990309759752801</v>
+        <v>6.8906842034833167</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6118,7 +6175,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="1">
-        <v>14.566260958152959</v>
+        <v>15.641916725891482</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6126,7 +6183,7 @@
         <v>5</v>
       </c>
       <c r="B27" s="1">
-        <v>10.026785466472022</v>
+        <v>9.4634220040227603</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6134,7 +6191,7 @@
         <v>93</v>
       </c>
       <c r="B28" s="1">
-        <v>5.2875743553630024</v>
+        <v>6.3568830725813941</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6142,7 +6199,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.27660253877070262</v>
+        <v>0.30438357978260722</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6150,7 +6207,7 @@
         <v>92</v>
       </c>
       <c r="B30" s="1">
-        <v>12.258000000037805</v>
+        <v>10.773000000033225</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6158,7 +6215,7 @@
         <v>91</v>
       </c>
       <c r="B31" s="1">
-        <v>11.938850000099501</v>
+        <v>9.9957550000833084</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6166,7 +6223,7 @@
         <v>94</v>
       </c>
       <c r="B32" s="1">
-        <v>12.042802705067867</v>
+        <v>23.045471303355239</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6174,7 +6231,7 @@
         <v>9</v>
       </c>
       <c r="B33" s="1">
-        <v>10.458726400575104</v>
+        <v>8.7384188426844194</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6182,7 +6239,7 @@
         <v>11</v>
       </c>
       <c r="B34" s="1">
-        <v>12.550918272060255</v>
+        <v>10.919534699567107</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6190,7 +6247,7 @@
         <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>7.1956910702905352</v>
+        <v>9.2372786663899991</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6198,7 +6255,7 @@
         <v>95</v>
       </c>
       <c r="B36" s="1">
-        <v>34.320681219573011</v>
+        <v>37.719044642736968</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9C823D-3E57-4661-88FD-9F49560FB648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13772021-E0FF-4576-A8BA-736362C870E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
   <si>
     <t>Línea</t>
   </si>
@@ -46,9 +46,6 @@
     <t>PCFLEX</t>
   </si>
   <si>
-    <t>LAYS CLASICAS 94GRX25</t>
-  </si>
-  <si>
     <t>LAYS CLASICAS 145GRX18</t>
   </si>
   <si>
@@ -383,6 +380,12 @@
   </si>
   <si>
     <t>23-nov</t>
+  </si>
+  <si>
+    <t>LAYS CLASICAS 85GX25</t>
+  </si>
+  <si>
+    <t>24-nov</t>
   </si>
 </sst>
 </file>
@@ -716,10 +719,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CO18"/>
+  <dimension ref="A1:CP18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="CQ7" sqref="CQ7"/>
+      <selection activeCell="CP5" sqref="CP5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,7 +742,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -747,285 +750,288 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AB1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AD1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AE1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AF1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AG1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AH1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AI1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AK1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AM1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AN1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AO1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AP1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AR1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="3" t="s">
+      <c r="AS1" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AS1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AU1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="3" t="s">
+      <c r="AV1" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="3" t="s">
+      <c r="AW1" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="AW1" s="3" t="s">
+      <c r="AX1" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="AX1" s="3" t="s">
+      <c r="AY1" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="AY1" s="3" t="s">
+      <c r="AZ1" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="AZ1" s="3" t="s">
+      <c r="BA1" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="BA1" s="3" t="s">
+      <c r="BB1" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BC1" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BD1" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="BD1" s="3" t="s">
+      <c r="BE1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="BE1" s="3" t="s">
+      <c r="BF1" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="BF1" s="3" t="s">
+      <c r="BG1" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="BG1" s="3" t="s">
+      <c r="BH1" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="BH1" s="3" t="s">
+      <c r="BI1" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="BI1" s="3" t="s">
+      <c r="BJ1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BJ1" s="3" t="s">
+      <c r="BK1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="BK1" s="3" t="s">
+      <c r="BL1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="BL1" s="3" t="s">
+      <c r="BM1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="BM1" s="3" t="s">
+      <c r="BN1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="BN1" s="3" t="s">
+      <c r="BO1" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="BO1" s="3" t="s">
+      <c r="BP1" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="BP1" s="3" t="s">
+      <c r="BQ1" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="BQ1" s="3" t="s">
+      <c r="BR1" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="3" t="s">
+      <c r="BS1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="BS1" s="3" t="s">
+      <c r="BT1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="BT1" s="3" t="s">
+      <c r="BU1" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="BU1" s="3" t="s">
+      <c r="BV1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BV1" s="3" t="s">
+      <c r="BW1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="BW1" s="3" t="s">
+      <c r="BX1" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="BX1" s="3" t="s">
+      <c r="BY1" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="BY1" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="BZ1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="CA1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="CA1" s="3" t="s">
+      <c r="CB1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="CB1" s="3" t="s">
+      <c r="CC1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="CC1" s="3" t="s">
+      <c r="CD1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="CD1" s="3" t="s">
-        <v>100</v>
-      </c>
       <c r="CE1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="CF1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="CF1" s="3" t="s">
+      <c r="CG1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="CG1" s="3" t="s">
+      <c r="CH1" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="CH1" s="3" t="s">
+      <c r="CI1" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="CI1" s="3" t="s">
+      <c r="CJ1" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="CJ1" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="CK1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="CL1" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="CL1" s="3" t="s">
+      <c r="CM1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="CM1" s="3" t="s">
+      <c r="CN1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="CN1" s="3" t="s">
+      <c r="CO1" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="CO1" s="3" t="s">
-        <v>115</v>
+      <c r="CP1" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <v>4.3052239375143602</v>
@@ -1260,11 +1266,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3568830725813941</v>
+        <v>6.5757244399532953</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3568830725813941</v>
+        <v>6.5757244399532953</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1302,13 +1308,16 @@
       <c r="CO2" s="1">
         <v>6.3568830725813941</v>
       </c>
+      <c r="CP2" s="1">
+        <v>6.5757244399532953</v>
+      </c>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <v>11.354553947314896</v>
@@ -1543,11 +1552,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.30438357978260722</v>
+        <v>11.634528865541975</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>0.30438357978260722</v>
+        <v>11.634528865541975</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1585,13 +1594,16 @@
       <c r="CO3" s="1">
         <v>0.30438357978260722</v>
       </c>
+      <c r="CP3" s="1">
+        <v>11.634528865541975</v>
+      </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <v>7.3564769541436084</v>
@@ -1826,11 +1838,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.641916725891482</v>
+        <v>16.602094538445346</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>15.641916725891482</v>
+        <v>16.602094538445346</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1868,13 +1880,16 @@
       <c r="CO4" s="1">
         <v>15.641916725891482</v>
       </c>
+      <c r="CP4" s="1">
+        <v>16.602094538445346</v>
+      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>13.359761649315365</v>
@@ -2109,11 +2124,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.4634220040227603</v>
+        <v>6.3920077424003381</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.4634220040227603</v>
+        <v>6.3920077424003381</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2151,13 +2166,16 @@
       <c r="CO5" s="1">
         <v>9.4634220040227603</v>
       </c>
+      <c r="CP5" s="1">
+        <v>6.3920077424003381</v>
+      </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>6.385992170417321</v>
@@ -2392,11 +2410,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.7470478670968514</v>
+        <v>9.698103896120438</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.7470478670968514</v>
+        <v>9.698103896120438</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2434,13 +2452,16 @@
       <c r="CO6" s="1">
         <v>9.7470478670968514</v>
       </c>
+      <c r="CP6" s="1">
+        <v>9.698103896120438</v>
+      </c>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>9.4398757653820713</v>
@@ -2675,11 +2696,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8906842034833167</v>
+        <v>7.400326496359372</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.8906842034833167</v>
+        <v>7.400326496359372</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2717,13 +2738,16 @@
       <c r="CO7" s="1">
         <v>6.8906842034833167</v>
       </c>
+      <c r="CP7" s="1">
+        <v>7.400326496359372</v>
+      </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2">
         <v>11.828023010087275</v>
@@ -2958,11 +2982,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1287121915406404</v>
+        <v>8.4008654009124193</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.1287121915406404</v>
+        <v>8.4008654009124193</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -3000,13 +3024,16 @@
       <c r="CO8" s="1">
         <v>7.1287121915406404</v>
       </c>
+      <c r="CP8" s="1">
+        <v>8.4008654009124193</v>
+      </c>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="2">
         <v>7.0723401144585827</v>
@@ -3241,11 +3268,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.2372786663899991</v>
+        <v>10.164766619324679</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.2372786663899991</v>
+        <v>10.164766619324679</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3283,13 +3310,16 @@
       <c r="CO9" s="1">
         <v>9.2372786663899991</v>
       </c>
+      <c r="CP9" s="1">
+        <v>10.164766619324679</v>
+      </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <v>8.1540557089776353</v>
@@ -3524,11 +3554,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.7384188426844194</v>
+        <v>6.9167179120300375</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.7384188426844194</v>
+        <v>6.9167179120300375</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3566,13 +3596,16 @@
       <c r="CO10" s="1">
         <v>8.7384188426844194</v>
       </c>
+      <c r="CP10" s="1">
+        <v>6.9167179120300375</v>
+      </c>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="2">
         <v>9.7754291242708042</v>
@@ -3807,11 +3840,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.919534699567107</v>
+        <v>11.438301023874551</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.919534699567107</v>
+        <v>11.438301023874551</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3849,13 +3882,16 @@
       <c r="CO11" s="1">
         <v>10.919534699567107</v>
       </c>
+      <c r="CP11" s="1">
+        <v>11.438301023874551</v>
+      </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2">
         <v>0</v>
@@ -4090,11 +4126,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.4232659615610537</v>
+        <v>9.9712534292306678</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.4232659615610537</v>
+        <v>9.9712534292306678</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4132,13 +4168,16 @@
       <c r="CO12" s="1">
         <v>8.4232659615610537</v>
       </c>
+      <c r="CP12" s="1">
+        <v>9.9712534292306678</v>
+      </c>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2">
         <v>4.632702365952623</v>
@@ -4373,11 +4412,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9927386838936654</v>
+        <v>3.6639934842270918</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.9927386838936654</v>
+        <v>3.6639934842270918</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4415,13 +4454,16 @@
       <c r="CO13" s="1">
         <v>3.9927386838936654</v>
       </c>
+      <c r="CP13" s="1">
+        <v>3.6639934842270918</v>
+      </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
         <v>0</v>
@@ -4656,11 +4698,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>37.719044642736968</v>
+        <v>36.338314223202495</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>37.719044642736968</v>
+        <v>36.338314223202495</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4698,13 +4740,16 @@
       <c r="CO14" s="1">
         <v>37.719044642736968</v>
       </c>
+      <c r="CP14" s="1">
+        <v>36.338314223202495</v>
+      </c>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2">
         <v>0</v>
@@ -4939,11 +4984,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>23.045471303355239</v>
+        <v>22.297874914106764</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>23.045471303355239</v>
+        <v>22.297874914106764</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -4981,13 +5026,16 @@
       <c r="CO15" s="1">
         <v>23.045471303355239</v>
       </c>
+      <c r="CP15" s="1">
+        <v>22.297874914106764</v>
+      </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <v>5.2680642367083559</v>
@@ -5264,13 +5312,16 @@
       <c r="CO16" s="1">
         <v>0</v>
       </c>
+      <c r="CP16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2">
         <v>0</v>
@@ -5505,11 +5556,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.773000000033225</v>
+        <v>7.5600000000233161</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.773000000033225</v>
+        <v>7.5600000000233161</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5547,13 +5598,16 @@
       <c r="CO17" s="1">
         <v>10.773000000033225</v>
       </c>
+      <c r="CP17" s="1">
+        <v>7.5600000000233161</v>
+      </c>
     </row>
-    <row r="18" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2">
         <v>0</v>
@@ -5788,11 +5842,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.9957550000833084</v>
+        <v>8.2979050000691572</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.9957550000833084</v>
+        <v>8.2979050000691572</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5829,6 +5883,9 @@
       </c>
       <c r="CO18" s="1">
         <v>9.9957550000833084</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>8.2979050000691572</v>
       </c>
     </row>
   </sheetData>
@@ -5872,11 +5929,11 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.3568830725813941</v>
+        <v>6.5757244399532953</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5887,11 +5944,11 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>0.30438357978260722</v>
+        <v>11.634528865541975</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5902,11 +5959,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>15.641916725891482</v>
+        <v>16.602094538445346</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5917,11 +5974,11 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>9.4634220040227603</v>
+        <v>6.3920077424003381</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5929,14 +5986,14 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>9.7470478670968514</v>
+        <v>9.698103896120438</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5944,14 +6001,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>6.8906842034833167</v>
+        <v>7.400326496359372</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -5959,14 +6016,14 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>7.1287121915406404</v>
+        <v>8.4008654009124193</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -5974,14 +6031,14 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>9.2372786663899991</v>
+        <v>10.164766619324679</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -5989,14 +6046,14 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>8.7384188426844194</v>
+        <v>6.9167179120300375</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6004,14 +6061,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>10.919534699567107</v>
+        <v>11.438301023874551</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6019,14 +6076,14 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>8.4232659615610537</v>
+        <v>9.9712534292306678</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6034,14 +6091,14 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>3.9927386838936654</v>
+        <v>3.6639934842270918</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6049,14 +6106,14 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>37.719044642736968</v>
+        <v>36.338314223202495</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6067,11 +6124,11 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>23.045471303355239</v>
+        <v>22.297874914106764</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6082,7 +6139,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="0"/>
@@ -6097,11 +6154,11 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>10.773000000033225</v>
+        <v>7.5600000000233161</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6112,11 +6169,11 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>9.9957550000833084</v>
+        <v>8.2979050000691572</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6124,47 +6181,47 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B20" s="1">
-        <v>8.4232659615610537</v>
+        <v>9.9712534292306678</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1">
-        <v>3.9927386838936654</v>
+        <v>3.6639934842270918</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B22" s="1">
-        <v>7.1287121915406404</v>
+        <v>8.4008654009124193</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="1">
-        <v>9.7470478670968514</v>
+        <v>9.698103896120438</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1">
-        <v>6.8906842034833167</v>
+        <v>7.400326496359372</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -6172,90 +6229,90 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>15.641916725891482</v>
+        <v>16.602094538445346</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>9.4634220040227603</v>
+        <v>6.3920077424003381</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1">
-        <v>6.3568830725813941</v>
+        <v>6.5757244399532953</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>3</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1">
-        <v>0.30438357978260722</v>
+        <v>11.634528865541975</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1">
-        <v>10.773000000033225</v>
+        <v>7.5600000000233161</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B31" s="1">
-        <v>9.9957550000833084</v>
+        <v>8.2979050000691572</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B32" s="1">
-        <v>23.045471303355239</v>
+        <v>22.297874914106764</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>8.7384188426844194</v>
+        <v>6.9167179120300375</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="1">
-        <v>10.919534699567107</v>
+        <v>11.438301023874551</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>9.2372786663899991</v>
+        <v>10.164766619324679</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B36" s="1">
-        <v>37.719044642736968</v>
+        <v>36.338314223202495</v>
       </c>
     </row>
   </sheetData>

--- a/Dataframe ST.xlsx
+++ b/Dataframe ST.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\40251377\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13772021-E0FF-4576-A8BA-736362C870E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA62A901-2835-49F5-93EE-29C6EB94C1DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="118">
   <si>
     <t>Línea</t>
   </si>
@@ -386,6 +386,9 @@
   </si>
   <si>
     <t>24-nov</t>
+  </si>
+  <si>
+    <t>27-nov</t>
   </si>
 </sst>
 </file>
@@ -719,10 +722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:CP18"/>
+  <dimension ref="A1:CQ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="CP5" sqref="CP5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="CK29" sqref="CK29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,7 +745,7 @@
     <col min="81" max="84" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:94" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:95" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1025,8 +1028,11 @@
       <c r="CP1" s="3" t="s">
         <v>116</v>
       </c>
+      <c r="CQ1" s="3" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="2" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1266,11 +1272,11 @@
       </c>
       <c r="CB2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.5757244399532953</v>
+        <v>6.5045164785246206</v>
       </c>
       <c r="CC2" s="1">
         <f>VLOOKUP($B2,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.5757244399532953</v>
+        <v>6.5045164785246206</v>
       </c>
       <c r="CD2" s="1">
         <v>4.9276109148536538</v>
@@ -1311,8 +1317,11 @@
       <c r="CP2" s="1">
         <v>6.5757244399532953</v>
       </c>
+      <c r="CQ2" s="1">
+        <v>6.5045164785246206</v>
+      </c>
     </row>
-    <row r="3" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1552,11 +1561,11 @@
       </c>
       <c r="CB3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.634528865541975</v>
+        <v>6.0290405848472108</v>
       </c>
       <c r="CC3" s="1">
         <f>VLOOKUP($B3,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.634528865541975</v>
+        <v>6.0290405848472108</v>
       </c>
       <c r="CD3" s="1">
         <v>3.888431220736023</v>
@@ -1597,8 +1606,11 @@
       <c r="CP3" s="1">
         <v>11.634528865541975</v>
       </c>
+      <c r="CQ3" s="1">
+        <v>6.0290405848472108</v>
+      </c>
     </row>
-    <row r="4" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1838,11 +1850,11 @@
       </c>
       <c r="CB4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.602094538445346</v>
+        <v>15.857791621052723</v>
       </c>
       <c r="CC4" s="1">
         <f>VLOOKUP($B4,Sheet3!$B$1:$C$18,2,)</f>
-        <v>16.602094538445346</v>
+        <v>15.857791621052723</v>
       </c>
       <c r="CD4" s="1">
         <v>2.3961915521389523</v>
@@ -1883,8 +1895,11 @@
       <c r="CP4" s="1">
         <v>16.602094538445346</v>
       </c>
+      <c r="CQ4" s="1">
+        <v>15.857791621052723</v>
+      </c>
     </row>
-    <row r="5" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2124,11 +2139,11 @@
       </c>
       <c r="CB5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3920077424003381</v>
+        <v>2.4598760302145206</v>
       </c>
       <c r="CC5" s="1">
         <f>VLOOKUP($B5,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.3920077424003381</v>
+        <v>2.4598760302145206</v>
       </c>
       <c r="CD5" s="1">
         <v>8.2812015243249526</v>
@@ -2169,8 +2184,11 @@
       <c r="CP5" s="1">
         <v>6.3920077424003381</v>
       </c>
+      <c r="CQ5" s="1">
+        <v>2.4598760302145206</v>
+      </c>
     </row>
-    <row r="6" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2410,11 +2428,11 @@
       </c>
       <c r="CB6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.698103896120438</v>
+        <v>7.9244268301531733</v>
       </c>
       <c r="CC6" s="1">
         <f>VLOOKUP($B6,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.698103896120438</v>
+        <v>7.9244268301531733</v>
       </c>
       <c r="CD6" s="1">
         <v>0</v>
@@ -2455,8 +2473,11 @@
       <c r="CP6" s="1">
         <v>9.698103896120438</v>
       </c>
+      <c r="CQ6" s="1">
+        <v>7.9244268301531733</v>
+      </c>
     </row>
-    <row r="7" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -2696,11 +2717,11 @@
       </c>
       <c r="CB7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.400326496359372</v>
+        <v>9.0492200316057527</v>
       </c>
       <c r="CC7" s="1">
         <f>VLOOKUP($B7,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.400326496359372</v>
+        <v>9.0492200316057527</v>
       </c>
       <c r="CD7" s="1">
         <v>0</v>
@@ -2741,8 +2762,11 @@
       <c r="CP7" s="1">
         <v>7.400326496359372</v>
       </c>
+      <c r="CQ7" s="1">
+        <v>9.0492200316057527</v>
+      </c>
     </row>
-    <row r="8" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2982,11 +3006,11 @@
       </c>
       <c r="CB8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.4008654009124193</v>
+        <v>8.6412920283286159</v>
       </c>
       <c r="CC8" s="1">
         <f>VLOOKUP($B8,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.4008654009124193</v>
+        <v>8.6412920283286159</v>
       </c>
       <c r="CD8" s="1">
         <v>0</v>
@@ -3027,8 +3051,11 @@
       <c r="CP8" s="1">
         <v>8.4008654009124193</v>
       </c>
+      <c r="CQ8" s="1">
+        <v>8.6412920283286159</v>
+      </c>
     </row>
-    <row r="9" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3268,11 +3295,11 @@
       </c>
       <c r="CB9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.164766619324679</v>
+        <v>8.3579217224649298</v>
       </c>
       <c r="CC9" s="1">
         <f>VLOOKUP($B9,Sheet3!$B$1:$C$18,2,)</f>
-        <v>10.164766619324679</v>
+        <v>8.3579217224649298</v>
       </c>
       <c r="CD9" s="1">
         <v>8.6610022930455202</v>
@@ -3313,8 +3340,11 @@
       <c r="CP9" s="1">
         <v>10.164766619324679</v>
       </c>
+      <c r="CQ9" s="1">
+        <v>8.3579217224649298</v>
+      </c>
     </row>
-    <row r="10" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3554,11 +3584,11 @@
       </c>
       <c r="CB10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9167179120300375</v>
+        <v>3.8432090075392069</v>
       </c>
       <c r="CC10" s="1">
         <f>VLOOKUP($B10,Sheet3!$B$1:$C$18,2,)</f>
-        <v>6.9167179120300375</v>
+        <v>3.8432090075392069</v>
       </c>
       <c r="CD10" s="1">
         <v>6.2279493659965617</v>
@@ -3599,8 +3629,11 @@
       <c r="CP10" s="1">
         <v>6.9167179120300375</v>
       </c>
+      <c r="CQ10" s="1">
+        <v>3.8432090075392069</v>
+      </c>
     </row>
-    <row r="11" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3840,11 +3873,11 @@
       </c>
       <c r="CB11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.438301023874551</v>
+        <v>10.064784158902867</v>
       </c>
       <c r="CC11" s="1">
         <f>VLOOKUP($B11,Sheet3!$B$1:$C$18,2,)</f>
-        <v>11.438301023874551</v>
+        <v>10.064784158902867</v>
       </c>
       <c r="CD11" s="1">
         <v>2.2047859666365399</v>
@@ -3885,8 +3918,11 @@
       <c r="CP11" s="1">
         <v>11.438301023874551</v>
       </c>
+      <c r="CQ11" s="1">
+        <v>10.064784158902867</v>
+      </c>
     </row>
-    <row r="12" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -4126,11 +4162,11 @@
       </c>
       <c r="CB12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.9712534292306678</v>
+        <v>12.739989309477449</v>
       </c>
       <c r="CC12" s="1">
         <f>VLOOKUP($B12,Sheet3!$B$1:$C$18,2,)</f>
-        <v>9.9712534292306678</v>
+        <v>12.739989309477449</v>
       </c>
       <c r="CD12" s="1">
         <v>0</v>
@@ -4171,8 +4207,11 @@
       <c r="CP12" s="1">
         <v>9.9712534292306678</v>
       </c>
+      <c r="CQ12" s="1">
+        <v>12.739989309477449</v>
+      </c>
     </row>
-    <row r="13" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -4412,11 +4451,11 @@
       </c>
       <c r="CB13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.6639934842270918</v>
+        <v>3.1869787649075585</v>
       </c>
       <c r="CC13" s="1">
         <f>VLOOKUP($B13,Sheet3!$B$1:$C$18,2,)</f>
-        <v>3.6639934842270918</v>
+        <v>3.1869787649075585</v>
       </c>
       <c r="CD13" s="1">
         <v>0</v>
@@ -4457,8 +4496,11 @@
       <c r="CP13" s="1">
         <v>3.6639934842270918</v>
       </c>
+      <c r="CQ13" s="1">
+        <v>3.1869787649075585</v>
+      </c>
     </row>
-    <row r="14" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4698,11 +4740,11 @@
       </c>
       <c r="CB14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>36.338314223202495</v>
+        <v>59.091037666315096</v>
       </c>
       <c r="CC14" s="1">
         <f>VLOOKUP($B14,Sheet3!$B$1:$C$18,2,)</f>
-        <v>36.338314223202495</v>
+        <v>59.091037666315096</v>
       </c>
       <c r="CD14" s="1">
         <v>42.153156108638647</v>
@@ -4743,8 +4785,11 @@
       <c r="CP14" s="1">
         <v>36.338314223202495</v>
       </c>
+      <c r="CQ14" s="1">
+        <v>59.091037666315096</v>
+      </c>
     </row>
-    <row r="15" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -4984,11 +5029,11 @@
       </c>
       <c r="CB15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>22.297874914106764</v>
+        <v>19.219728041853248</v>
       </c>
       <c r="CC15" s="1">
         <f>VLOOKUP($B15,Sheet3!$B$1:$C$18,2,)</f>
-        <v>22.297874914106764</v>
+        <v>19.219728041853248</v>
       </c>
       <c r="CD15" s="1">
         <v>0</v>
@@ -5029,8 +5074,11 @@
       <c r="CP15" s="1">
         <v>22.297874914106764</v>
       </c>
+      <c r="CQ15" s="1">
+        <v>19.219728041853248</v>
+      </c>
     </row>
-    <row r="16" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5315,8 +5363,11 @@
       <c r="CP16" s="1">
         <v>0</v>
       </c>
+      <c r="CQ16" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5556,11 +5607,11 @@
       </c>
       <c r="CB17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.5600000000233161</v>
+        <v>3.3922800000104623</v>
       </c>
       <c r="CC17" s="1">
         <f>VLOOKUP($B17,Sheet3!$B$1:$C$18,2,)</f>
-        <v>7.5600000000233161</v>
+        <v>3.3922800000104623</v>
       </c>
       <c r="CD17" s="1">
         <v>0</v>
@@ -5601,8 +5652,11 @@
       <c r="CP17" s="1">
         <v>7.5600000000233161</v>
       </c>
+      <c r="CQ17" s="1">
+        <v>3.3922800000104623</v>
+      </c>
     </row>
-    <row r="18" spans="1:94" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:95" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -5842,11 +5896,11 @@
       </c>
       <c r="CB18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.2979050000691572</v>
+        <v>5.0789970000861651</v>
       </c>
       <c r="CC18" s="1">
         <f>VLOOKUP($B18,Sheet3!$B$1:$C$18,2,)</f>
-        <v>8.2979050000691572</v>
+        <v>5.0789970000861651</v>
       </c>
       <c r="CD18" s="1">
         <v>0</v>
@@ -5886,6 +5940,9 @@
       </c>
       <c r="CP18" s="1">
         <v>8.2979050000691572</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>5.0789970000861651</v>
       </c>
     </row>
   </sheetData>
@@ -5933,7 +5990,7 @@
       </c>
       <c r="C2" s="2">
         <f>IFERROR(VLOOKUP($B2,$A$20:$B$36,2,),0)</f>
-        <v>6.5757244399532953</v>
+        <v>6.5045164785246206</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -5948,7 +6005,7 @@
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C18" si="0">IFERROR(VLOOKUP($B3,$A$20:$B$36,2,),0)</f>
-        <v>11.634528865541975</v>
+        <v>6.0290405848472108</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -5963,7 +6020,7 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" si="0"/>
-        <v>16.602094538445346</v>
+        <v>15.857791621052723</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -5978,7 +6035,7 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" si="0"/>
-        <v>6.3920077424003381</v>
+        <v>2.4598760302145206</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5993,7 +6050,7 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" si="0"/>
-        <v>9.698103896120438</v>
+        <v>7.9244268301531733</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6008,7 +6065,7 @@
       </c>
       <c r="C7" s="2">
         <f t="shared" si="0"/>
-        <v>7.400326496359372</v>
+        <v>9.0492200316057527</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -6023,7 +6080,7 @@
       </c>
       <c r="C8" s="2">
         <f t="shared" si="0"/>
-        <v>8.4008654009124193</v>
+        <v>8.6412920283286159</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -6038,7 +6095,7 @@
       </c>
       <c r="C9" s="2">
         <f t="shared" si="0"/>
-        <v>10.164766619324679</v>
+        <v>8.3579217224649298</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -6053,7 +6110,7 @@
       </c>
       <c r="C10" s="2">
         <f t="shared" si="0"/>
-        <v>6.9167179120300375</v>
+        <v>3.8432090075392069</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -6068,7 +6125,7 @@
       </c>
       <c r="C11" s="2">
         <f t="shared" si="0"/>
-        <v>11.438301023874551</v>
+        <v>10.064784158902867</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -6083,7 +6140,7 @@
       </c>
       <c r="C12" s="2">
         <f t="shared" si="0"/>
-        <v>9.9712534292306678</v>
+        <v>12.739989309477449</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -6098,7 +6155,7 @@
       </c>
       <c r="C13" s="2">
         <f t="shared" si="0"/>
-        <v>3.6639934842270918</v>
+        <v>3.1869787649075585</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -6113,7 +6170,7 @@
       </c>
       <c r="C14" s="2">
         <f t="shared" si="0"/>
-        <v>36.338314223202495</v>
+        <v>59.091037666315096</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -6128,7 +6185,7 @@
       </c>
       <c r="C15" s="2">
         <f t="shared" si="0"/>
-        <v>22.297874914106764</v>
+        <v>19.219728041853248</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -6158,7 +6215,7 @@
       </c>
       <c r="C17" s="2">
         <f t="shared" si="0"/>
-        <v>7.5600000000233161</v>
+        <v>3.3922800000104623</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -6173,7 +6230,7 @@
       </c>
       <c r="C18" s="2">
         <f t="shared" si="0"/>
-        <v>8.2979050000691572</v>
+        <v>5.0789970000861651</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -6184,7 +6241,7 @@
         <v>89</v>
       </c>
       <c r="B20" s="1">
-        <v>9.9712534292306678</v>
+        <v>12.739989309477449</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -6192,7 +6249,7 @@
         <v>108</v>
       </c>
       <c r="B21" s="1">
-        <v>3.6639934842270918</v>
+        <v>3.1869787649075585</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -6200,7 +6257,7 @@
         <v>109</v>
       </c>
       <c r="B22" s="1">
-        <v>8.4008654009124193</v>
+        <v>8.6412920283286159</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -6208,7 +6265,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="1">
-        <v>9.698103896120438</v>
+        <v>7.9244268301531733</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -6216,7 +6273,7 @@
         <v>101</v>
       </c>
       <c r="B24" s="1">
-        <v>7.400326496359372</v>
+        <v>9.0492200316057527</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -6232,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>16.602094538445346</v>
+        <v>15.857791621052723</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -6240,7 +6297,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="1">
-        <v>6.3920077424003381</v>
+        <v>2.4598760302145206</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -6248,7 +6305,7 @@
         <v>92</v>
       </c>
       <c r="B28" s="1">
-        <v>6.5757244399532953</v>
+        <v>6.5045164785246206</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -6256,7 +6313,7 @@
         <v>115</v>
       </c>
       <c r="B29" s="1">
-        <v>11.634528865541975</v>
+        <v>6.0290405848472108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -6264,7 +6321,7 @@
         <v>91</v>
       </c>
       <c r="B30" s="1">
-        <v>7.5600000000233161</v>
+        <v>3.3922800000104623</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -6272,7 +6329,7 @@
         <v>90</v>
       </c>
       <c r="B31" s="1">
-        <v>8.2979050000691572</v>
+        <v>5.0789970000861651</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -6280,7 +6337,7 @@
         <v>93</v>
       </c>
       <c r="B32" s="1">
-        <v>22.297874914106764</v>
+        <v>19.219728041853248</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -6288,7 +6345,7 @@
         <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>6.9167179120300375</v>
+        <v>3.8432090075392069</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -6296,7 +6353,7 @@
         <v>10</v>
       </c>
       <c r="B34" s="1">
-        <v>11.438301023874551</v>
+        <v>10.064784158902867</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -6304,7 +6361,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="1">
-        <v>10.164766619324679</v>
+        <v>8.3579217224649298</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -6312,7 +6369,7 @@
         <v>94</v>
       </c>
       <c r="B36" s="1">
-        <v>36.338314223202495</v>
+        <v>59.091037666315096</v>
       </c>
     </row>
   </sheetData>
